--- a/GameModules/BIWANGYOULEYUAN/Localization_BIWANGYOULEYUAN.xlsx
+++ b/GameModules/BIWANGYOULEYUAN/Localization_BIWANGYOULEYUAN.xlsx
@@ -1280,7 +1280,7 @@
           <t>Português-Chirriro</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Русский</t>
         </is>
@@ -1322,7 +1322,7 @@
           <t>Far Hope Park</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ඞПарк Далекой Надежды</t>
         </is>
@@ -1371,7 +1371,7 @@
 That was until a crimson light emits from the amusement park on a dead July night.</t>
         </is>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>ඞОснованный в июле 1955 года, парк "Фар Хоуп" на протяжении более чем полувека был первым местом, где горожане могли весело провести выходные со своими семьями и соседями, а также где они хранили самые дорогие моменты и воспоминания о своем детстве.
 Так было до тех пор, пока глухой июльской ночью из парка развлечений не полился багровый свет.</t>
@@ -1414,7 +1414,7 @@
           <t>Dusk</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>ඞСумерки</t>
         </is>
@@ -1456,7 +1456,7 @@
           <t>Night</t>
         </is>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>ඞНочь</t>
         </is>
@@ -1498,7 +1498,7 @@
           <t>Day</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>ඞДень</t>
         </is>
@@ -1540,7 +1540,7 @@
           <t>Info</t>
         </is>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>ඞИнфо</t>
         </is>
@@ -1582,7 +1582,7 @@
           <t>Events</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>ඞСобытия</t>
         </is>
@@ -1624,7 +1624,7 @@
           <t>Brochure</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>ඞБрошюра</t>
         </is>
@@ -1666,7 +1666,7 @@
           <t>The tourist brochure in the ticket booth clearly marks the routes to various attractions in the park.</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>ඞВ туристической брошюре в билетной кассе четко указаны маршруты к различным достопримечательностям парка.</t>
         </is>
@@ -1708,7 +1708,7 @@
           <t>Treasure Hunt</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>ඞОхота за сокровищами</t>
         </is>
@@ -1750,7 +1750,7 @@
           <t>The announcement attached outside the gate of the park, which writes "Extract the sword from the stone, and become the real hero of our park!"</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>ඞОбъявление, прикрепленное у ворот парка, гласит: "Извлеки меч из камня и стань настоящим героем нашего парка!"</t>
         </is>
@@ -1792,7 +1792,7 @@
           <t>Lonely Clown</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>ඞОдинокий клоун</t>
         </is>
@@ -1834,7 +1834,7 @@
           <t>After learning the truth about Lady Stoneheart's death, Alex falls into madness, unable to accept reality. He frantically runs towards the square.</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>ඞУзнав правду о смерти леди Стоунхарт, Алекс впадает в безумие, неспособный принять реальность. Он отчаянно бежит в сторону площади.</t>
         </is>
@@ -1876,7 +1876,7 @@
           <t>Scary Executioner</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>ඞСтрашный палач</t>
         </is>
@@ -1918,7 +1918,7 @@
           <t>An executioner with an iron mask is dealing with a body. His large stature and bloodthirsty aura can be felt just by looking at his silhouette.</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>ඞПалач в железной маске расправляется с телом. Его высокий рост и ауру кровожадности можно почувствовать, просто взглянув на его силуэт.</t>
         </is>
@@ -1960,7 +1960,7 @@
           <t>Time Merchant</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>ඞТорговец временем</t>
         </is>
@@ -2002,7 +2002,7 @@
           <t>You encounter with a strange creature named O'Lucky in Cafeteria, who calls itself "Time Merchant". There seems to be many good things in its bag.</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>ඞВ кафетерии вы встречаетесь со странным существом по имени О'Лакки, которое называет себя "Торговцем временем". Кажется, в его сумке много полезных вещей.</t>
         </is>
@@ -2044,7 +2044,7 @@
           <t>Pervading Red Mist</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>ඞВсепроникающий Красный Туман</t>
         </is>
@@ -2086,7 +2086,7 @@
           <t>As dusk falls, red mist pervades the park. Amidst this mist, people here appear increasingly... agitated.</t>
         </is>
       </c>
-      <c r="H20" s="0" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>ඞС наступлением сумерек парк окутывает красный туман. Среди этого тумана здесь все чаще появляются люди... взбудораженный.</t>
         </is>
@@ -2128,7 +2128,7 @@
           <t>Lady Stoneheart's Interview</t>
         </is>
       </c>
-      <c r="H21" s="0" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>ඞИнтервью леди Стоунхарт</t>
         </is>
@@ -2170,7 +2170,7 @@
           <t>The cover photo was taken in the mansion. The interview mentioned rumors that threatened the park this year, and how Rosa led the team to turn the tide.</t>
         </is>
       </c>
-      <c r="H22" s="0" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>ඞФотография для обложки была сделана в особняке. В интервью упоминались слухи, которые угрожали парку в этом году, и то, как Роза возглавила команду, чтобы переломить ситуацию.</t>
         </is>
@@ -2212,7 +2212,7 @@
           <t>Lady Stoneheart's Death</t>
         </is>
       </c>
-      <c r="H23" s="0" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>ඞСмерть леди Стоунхарт</t>
         </is>
@@ -2254,7 +2254,7 @@
           <t>Rosa's body is found in the bedroom when you investigate the mansion. Her body has been carefully arranged, and there are traces of oil paint on the bed.</t>
         </is>
       </c>
-      <c r="H24" s="0" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>ඞТело Розы находят в спальне, когда вы осматриваете особняк. Ее тело было аккуратно разложено, а на кровати видны следы масляной краски.</t>
         </is>
@@ -2296,7 +2296,7 @@
           <t>Sword in Stone</t>
         </is>
       </c>
-      <c r="H25" s="0" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>ඞМеч в камне</t>
         </is>
@@ -2338,7 +2338,7 @@
           <t>This is a very realistic prop sword. Its shape bears a striking resemblance to the one depicted on the treasure map.</t>
         </is>
       </c>
-      <c r="H26" s="0" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>ඞЭто очень реалистичный бутафорский меч. Его форма поразительно напоминает ту, что изображена на карте сокровищ.</t>
         </is>
@@ -2380,7 +2380,7 @@
           <t>Glass Heart</t>
         </is>
       </c>
-      <c r="H27" s="0" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>ඞСтеклянное сердце</t>
         </is>
@@ -2422,7 +2422,7 @@
           <t>What falls from the body of the statue in Fun House is a heart-shaped piece of glass art.</t>
         </is>
       </c>
-      <c r="H28" s="0" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>ඞТо, что выпадает из тела статуи в "Веселом доме", представляет собой произведение искусства из стекла в форме сердца.</t>
         </is>
@@ -2464,7 +2464,7 @@
           <t>Girl's Request</t>
         </is>
       </c>
-      <c r="H29" s="0" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>ඞПросьба девушки</t>
         </is>
@@ -2506,7 +2506,7 @@
           <t>Gioia claims that she's confined in the hidden room by a man with a mask, and hopes that you could take her to the manor to search for her parents.</t>
         </is>
       </c>
-      <c r="H30" s="0" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>ඞДжойя утверждает, что ее запер в потайной комнате мужчина в маске, и надеется, что вы сможете отвезти ее в поместье на поиски родителей.</t>
         </is>
@@ -2548,7 +2548,7 @@
           <t>Enigmatic Girl</t>
         </is>
       </c>
-      <c r="H31" s="0" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>ඞЗагадочная девушка</t>
         </is>
@@ -2590,7 +2590,7 @@
           <t>Gioia disappears right in front of you, with only a blood-red pendant left.</t>
         </is>
       </c>
-      <c r="H32" s="0" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>ඞДжойя исчезает прямо у вас на глазах, и остается только кроваво-красный кулон.</t>
         </is>
@@ -2632,7 +2632,7 @@
           <t>SkyWheel On</t>
         </is>
       </c>
-      <c r="H33" s="0" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>ඞНебесное колесо Включено</t>
         </is>
@@ -2674,7 +2674,7 @@
           <t>SkyWheel Off</t>
         </is>
       </c>
-      <c r="H34" s="0" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>ඞНебесное колесо выключено</t>
         </is>
@@ -2716,7 +2716,7 @@
           <t>Unsafe Cabin</t>
         </is>
       </c>
-      <c r="H35" s="0" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>ඞНебезопасная каюта</t>
         </is>
@@ -2758,7 +2758,7 @@
           <t>There're signs of fighting inside some cabins. The cabin doors are wobbly. The connections between the cabins and the wheel are unstable.</t>
         </is>
       </c>
-      <c r="H36" s="0" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>ඞВ некоторых каютах есть следы борьбы. Двери кают шатаются. Соединения между каютами и штурвалом неустойчивы.</t>
         </is>
@@ -2800,7 +2800,7 @@
           <t>Path to Manor</t>
         </is>
       </c>
-      <c r="H37" s="0" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>ඞПуть к поместью</t>
         </is>
@@ -2842,7 +2842,7 @@
           <t>The path to the manor twists and turns like a maze. But luckily, the view from SkyWheel makes it easier to figure out how to get to there.</t>
         </is>
       </c>
-      <c r="H38" s="0" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>ඞТропинка к поместью петляет, как лабиринт. Но, к счастью, вид, открывающийся с высоты птичьего полета, облегчает понимание того, как туда добраться.</t>
         </is>
@@ -2884,7 +2884,7 @@
           <t>Executioner's Chase</t>
         </is>
       </c>
-      <c r="H39" s="0" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>ඞПогоня за палачом</t>
         </is>
@@ -2926,7 +2926,7 @@
           <t>You have been marked as prey by the Executioner! From this moment forth, as long as the Executioner lurks in the shadows of life, his sole objective is to relentlessly hunt you down.</t>
         </is>
       </c>
-      <c r="H40" s="0" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>ඞПалач отметил вас как жертву! С этого момента и впредь, пока Палач скрывается в тени жизни, его единственной целью является безжалостная охота на вас.</t>
         </is>
@@ -2968,7 +2968,7 @@
           <t>Mafia's Threat</t>
         </is>
       </c>
-      <c r="H41" s="0" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>ඞУгроза мафии</t>
         </is>
@@ -3010,7 +3010,7 @@
           <t>A threat letter is found in the trashcan, which asks Pasqualino to quit his job at the park and leave the town immediately or bear the consequence of "unimaginable retaliation." Enclosed are some photos of torturing tools.</t>
         </is>
       </c>
-      <c r="H42" s="0" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>ඞВ мусорном ведре найдено письмо с угрозой, в котором Паскуалино просят уволиться с работы в парке и немедленно покинуть город, иначе он подвергнется "невообразимому возмездию". Прилагается несколько фотографий орудий пыток.</t>
         </is>
@@ -3052,7 +3052,7 @@
           <t>Alessio's Grave</t>
         </is>
       </c>
-      <c r="H43" s="0" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>ඞМогила Алессио</t>
         </is>
@@ -3094,7 +3094,7 @@
           <t>There's a grave bears the name "Alessio" in the manor. In addition to the decaying skeleton, there's a notebook of architectural designs and a picture of a young man and woman snuggling by the lake.</t>
         </is>
       </c>
-      <c r="H44" s="0" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>ඞВ поместье есть могила с именем "Алессио". В дополнение к разлагающемуся скелету, здесь есть тетрадь с архитектурными проектами и фотография молодых мужчины и женщины, обнимающихся на берегу озера.</t>
         </is>
@@ -3136,7 +3136,7 @@
           <t>The Escaped Time Merchant</t>
         </is>
       </c>
-      <c r="H45" s="0" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>ඞСбежавший торговец временем</t>
         </is>
@@ -3178,7 +3178,7 @@
           <t>O'Lucky opens a portal and escapes quickly during the battle. It's uncertain if there will be another encounter.</t>
         </is>
       </c>
-      <c r="H46" s="0" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>ඞО'Лаки открывает портал и быстро убегает во время битвы. Неизвестно, будет ли еще одна встреча.</t>
         </is>
@@ -3220,7 +3220,7 @@
           <t>Mysterious Event</t>
         </is>
       </c>
-      <c r="H47" s="0" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>ඞТаинственное событие</t>
         </is>
@@ -3262,7 +3262,7 @@
           <t>After placing the glass heart in the hands of the statue, a notification indicates that the task is complete. Aside from a rudimentary electronic song, however, nothing else happens.</t>
         </is>
       </c>
-      <c r="H48" s="0" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>ඞПосле того, как стеклянное сердце будет передано в руки статуи, появится уведомление о том, что задание выполнено. Однако, кроме элементарной электронной песни, больше ничего не происходит.</t>
         </is>
@@ -3304,7 +3304,7 @@
           <t>Transfer Contract</t>
         </is>
       </c>
-      <c r="H49" s="0" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>ඞДоговор о передаче права собственности</t>
         </is>
@@ -3346,7 +3346,7 @@
           <t>The contract in the blood-soaked file folder found in the garden bushes states that Rosa voluntarily transferred the ownership of the park to the Vescontes.</t>
         </is>
       </c>
-      <c r="H50" s="0" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>ඞВ контракте в пропитанной кровью папке с документами, найденной в садовых кустах, говорится, что Роза добровольно передала право собственности на парк семье Весконтес.</t>
         </is>
@@ -3388,7 +3388,7 @@
           <t>The Leaving Time Merchant</t>
         </is>
       </c>
-      <c r="H51" s="0" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>ඞТорговец уходящим временем</t>
         </is>
@@ -3430,7 +3430,7 @@
           <t>The sight of O'Lucky fleeing in terror suggests that it won't be showing up again.</t>
         </is>
       </c>
-      <c r="H52" s="0" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>ඞВид убегающего в ужасе О'Лаки наводит на мысль, что он больше не появится.</t>
         </is>
@@ -3472,7 +3472,7 @@
           <t>Event Plan</t>
         </is>
       </c>
-      <c r="H53" s="0" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>ඞПлан мероприятий</t>
         </is>
@@ -3514,7 +3514,7 @@
           <t>According to Rosa's letter to Alex, the event should have something to do with the giant sword in the square, the statue in Fun House, and the statue in Cafeteria.</t>
         </is>
       </c>
-      <c r="H54" s="0" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>ඞСогласно письму Розы к Алексу, мероприятие должно быть как-то связано с гигантским мечом на площади, статуей в Доме развлечений и статуей в кафетерии.</t>
         </is>
@@ -3556,7 +3556,7 @@
           <t>Truth of Tragic</t>
         </is>
       </c>
-      <c r="H55" s="0" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>ඞИстина трагического</t>
         </is>
@@ -3598,7 +3598,7 @@
           <t>Cause of Disaster</t>
         </is>
       </c>
-      <c r="H56" s="0" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>ඞПричина катастрофы</t>
         </is>
@@ -3640,7 +3640,7 @@
           <t>Rosa was killed after being forced to sign the park transfer agreement by the Vesconte men. Pasqualino gained eerie powers from the red mist, killed the murderers, then became the executioner wandering in Fun House.</t>
         </is>
       </c>
-      <c r="H57" s="0" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>ඞРоза была убита после того, как люди Весконте заставили ее подписать соглашение о передаче парка. Паскуалино получил сверхъестественные способности от красного тумана, убил убийц, а затем стал палачом, бродящим по Дому развлечений.</t>
         </is>
@@ -3682,7 +3682,7 @@
           <t>Blood Moon Beneath the Lake</t>
         </is>
       </c>
-      <c r="H58" s="0" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>ඞКровавая луна под озером</t>
         </is>
@@ -3724,7 +3724,7 @@
           <t>A giant blood moon rises over the lake at night. Those infected by the red mist and the blood moon seem to be connected, as their destruction and killing seem to provide energy to the blood moon.</t>
         </is>
       </c>
-      <c r="H59" s="0" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>ඞНочью над озером восходит гигантская кровавая луна. Те, кто заражен красным туманом, и кровавая луна, похоже, связаны, поскольку их разрушение и убийства, похоже, обеспечивают кровавую луну энергией.</t>
         </is>
@@ -3766,7 +3766,7 @@
           <t>Fireworks</t>
         </is>
       </c>
-      <c r="H60" s="0" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>ඞФейерверк</t>
         </is>
@@ -3808,7 +3808,7 @@
           <t>Defeat Executioner</t>
         </is>
       </c>
-      <c r="H61" s="0" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>ඞПобедите палача</t>
         </is>
@@ -3850,7 +3850,7 @@
           <t>With one last, raspy breath, the executioner lets out a sigh. Then, the body vanishes into a cloud of mist.</t>
         </is>
       </c>
-      <c r="H62" s="0" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>ඞС последним хриплым вздохом палач испускает дух. Затем тело исчезает в облаке тумана.</t>
         </is>
@@ -3892,7 +3892,7 @@
           <t>The open square is now dense with red mist. Unknown dangers are hiding within it.</t>
         </is>
       </c>
-      <c r="H63" s="0" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>ඞОткрытая площадь теперь затянута красным туманом. В нем скрываются неизвестные опасности.</t>
         </is>
@@ -3934,7 +3934,7 @@
           <t>Square</t>
         </is>
       </c>
-      <c r="H64" s="0" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>ඞПлощадь</t>
         </is>
@@ -3976,7 +3976,7 @@
           <t>As you step into the square, your eyes are immediately drawn to the striking centerpiece - &lt;color=#FFD700&gt;a grand fountain&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H65" s="0" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>ඞКак только вы выходите на площадь, ваш взгляд сразу же притягивает впечатляющее центральное сооружение - &lt;color=#FFD700&gt; грандиозный фонтан&lt;/color&gt;.</t>
         </is>
@@ -4018,7 +4018,7 @@
           <t>Aside of it, you can spot a &lt;color=#FFD700&gt;giant sword&lt;/color&gt;, deeply embedded in a stone.</t>
         </is>
       </c>
-      <c r="H66" s="0" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>ඞКроме того, вы можете заметить &lt;color=#FFD700&gt; гигантский меч&lt;/color&gt;, глубоко вделанный в камень.</t>
         </is>
@@ -4060,7 +4060,7 @@
           <t>Several &lt;color=#FFD700&gt;tourists&lt;/color&gt; are seated on the bench nearby, seemingly taking a break.</t>
         </is>
       </c>
-      <c r="H67" s="0" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>ඞНесколько &lt;color=#FFD700&gt;туристов&lt;/color&gt; сидят неподалеку на скамейке, по-видимому, отдыхая.</t>
         </is>
@@ -4102,7 +4102,7 @@
           <t>Suddenly, a distant humming reaches your ears. A figure garbed in a clown costume shows up from the &lt;color=#FFD700&gt;main road&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H68" s="0" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>ඞВнезапно до ваших ушей доносится отдаленный гул. На главной дороге &lt;color=#FFD700&gt; появляется фигура в костюме клоуна.</t>
         </is>
@@ -4144,7 +4144,7 @@
           <t>From the fountain, a &lt;color=#DC143C&gt;dense red mist&lt;/color&gt; swirled and writhed, taking on life-like forms in its haunting dance.</t>
         </is>
       </c>
-      <c r="H69" s="0" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>ඞОт фонтана поднимался &lt;color=#DC143C&gt; густой красный туман&lt;/color&gt;, который клубился и извивался, принимая живые формы в своем завораживающем танце.</t>
         </is>
@@ -4186,7 +4186,7 @@
           <t>As you approach the bench, the stench of blood hits you first. You find those tourists have long since passed away. Their bodies are riddled with slash wounds, their flesh grotesquely torn, and blood is splattered all around. Upon closer inspection, you also notice that someone has drawn smiles on their faces using their own blood.</t>
         </is>
       </c>
-      <c r="H70" s="0" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь к скамейке, в первую очередь вас поражает запах крови. Вы обнаруживаете, что эти туристы уже давно умерли. Их тела испещрены резаными ранами, плоть гротескно разорвана, а кровь разбрызгана повсюду. При ближайшем рассмотрении вы также замечаете, что кто-то нарисовал улыбки на своих лицах собственной кровью.</t>
         </is>
@@ -4234,7 +4234,7 @@
 While inspecting the bodies, one of them suddenly slides off the bench, revealing a piece of newspaper hidden beneath. You manage to extricate it carefully from the body and begin to read. It appears to be an exclusive interview featuring the owner of the park - Lady Stoneheart.</t>
         </is>
       </c>
-      <c r="H71" s="0" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>ඞПодавляя нарастающее беспокойство, вы успокаиваете руки и приподнимаете им веки, чтобы оценить, как давно они мертвы. К вашему удивлению, их глазные яблоки стали совершенно красными.
 Осматривая тела, один из них внезапно соскальзывает со скамьи, открывая спрятанный под ней кусок газеты. Вам удается осторожно извлечь его из тела и начать читать. Судя по всему, это эксклюзивное интервью с владелицей парка - леди Стоунхарт.</t>
@@ -4277,7 +4277,7 @@
           <t>Newspaper</t>
         </is>
       </c>
-      <c r="H72" s="0" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>ඞГазета</t>
         </is>
@@ -4325,7 +4325,7 @@
 Following the wave of rumors that swept through it some time ago, Far Hope Park has successfully navigated its crisis and emerged with renewed vigor. Recently, the park owner, Madam Rosa, granted our reporter an exclusive interview.</t>
         </is>
       </c>
-      <c r="H73" s="0" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>ඞНазвание: После бури: мадам Роза восстанавливает справедливость в парке Фар Хоуп!
 После волны слухов, прокатившихся по парку некоторое время назад, парк Фар Хоуп успешно преодолел кризис и возродился с новой силой. Недавно владелица парка мадам Роза дала нашему корреспонденту эксклюзивное интервью.</t>
@@ -4368,7 +4368,7 @@
           <t>According to Madam Rosa, the park became the target of numerous rumors and slanderous accusations this year, following her refusal to sell the park's land to the Vesconte family. Spurned, the Vescontes allegedly retaliated by circulating rumors intended to disrupt the smooth operation of the park.</t>
         </is>
       </c>
-      <c r="H74" s="0" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>ඞПо словам мадам Розы, в этом году парк стал объектом многочисленных слухов и клеветнических обвинений после того, как она отказалась продать землю в парке семье Весконте. Отвергнутые, Весконте, как утверждается, приняли ответные меры, распространив слухи, направленные на нарушение нормальной работы парка.</t>
         </is>
@@ -4410,7 +4410,7 @@
           <t>While the rumors initially misled many town residents, leading to a high volume of complaints and reports that put the park in a precarious position, Madam Rosa and her team responded courageously. They actively collected evidence and engaged law enforcement while continuing park operations. Ultimately, their efforts paid off and they emerged victorious.</t>
         </is>
       </c>
-      <c r="H75" s="0" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>ඞХотя слухи изначально ввели в заблуждение многих жителей города, что привело к большому количеству жалоб и сообщений, которые поставили парк в опасное положение, мадам Роза и ее команда мужественно отреагировали. Они активно собирали доказательства и привлекали правоохранительные органы, продолжая работу парка. В конечном счете их усилия окупились, и они вышли победителями.</t>
         </is>
@@ -4452,7 +4452,7 @@
           <t>Madam Rosa affirmed that the park would persist in its commitment to providing a pleasant and safe experience for tourists, demonstrating her resilience and confidence as a leader.</t>
         </is>
       </c>
-      <c r="H76" s="0" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>ඞМадам Роза подтвердила, что парк будет продолжать выполнять свои обязательства по обеспечению приятных и безопасных впечатлений для туристов, продемонстрировав свою стойкость и уверенность в себе как лидер.</t>
         </is>
@@ -4494,7 +4494,7 @@
           <t>The interview was conducted at Madam Rosa's estate, and through our conversation, we gleaned deeper insights into this formidable manager and the true nature of the incident. As we conclude, we extend our best wishes for a rapid recovery to Madam Rosa and eagerly anticipate her continued stewardship towards a brighter future for the park.</t>
         </is>
       </c>
-      <c r="H77" s="0" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>ඞИнтервью проводилось в поместье мадам Розы, и благодаря нашей беседе мы получили более глубокое представление об этом выдающемся управляющем и истинной природе инцидента. В заключение мы выражаем наши наилучшие пожелания скорейшего выздоровления мадам Розе и с нетерпением ожидаем, что она продолжит руководить парком во имя его светлого будущего.</t>
         </is>
@@ -4536,7 +4536,7 @@
           <t>You manage to retrieve an axe from one of the deceased tourists.</t>
         </is>
       </c>
-      <c r="H78" s="0" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>ඞВам удается забрать топор у одного из погибших туристов.</t>
         </is>
@@ -4578,7 +4578,7 @@
           <t>Check Tourists</t>
         </is>
       </c>
-      <c r="H79" s="0" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>ඞПроверяйте туристов</t>
         </is>
@@ -4620,7 +4620,7 @@
           <t>At the bottom of the fountain, you spot a small key, several shiny stones, and a smattering of scattered blades.</t>
         </is>
       </c>
-      <c r="H80" s="0" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>ඞНа дне фонтана вы замечаете маленький ключик, несколько блестящих камешков и россыпь травинок.</t>
         </is>
@@ -4668,7 +4668,7 @@
 Upon inspecting the small key, you notice a "P" insignia on it.</t>
         </is>
       </c>
-      <c r="H81" s="0" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>ඞПосле нескольких попыток и нескольких промахов, связанных с падением в воду, вам, наконец, удается все достать.
 Осмотрев маленький ключ, вы замечаете на нем букву "Р".</t>
@@ -4711,7 +4711,7 @@
           <t>Check Fountain</t>
         </is>
       </c>
-      <c r="H82" s="0" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>ඞПроверьте фонтан</t>
         </is>
@@ -4759,7 +4759,7 @@
 After several attempts and a bit of time, you manage to extract it from the stone.</t>
         </is>
       </c>
-      <c r="H83" s="0" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>ඞВы подходите к камню справа. Гигантский меч, выглядящий как бутафория, вделанный в него, поразительно похож на тот, что изображен на карте сокровищ.
 После нескольких попыток и некоторого времени вам удается извлечь его из камня.</t>
@@ -4802,7 +4802,7 @@
           <t>Retrieve Sword</t>
         </is>
       </c>
-      <c r="H84" s="0" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>ඞДостать меч</t>
         </is>
@@ -4844,7 +4844,7 @@
           <t>As you approach the mist, a wave of grogginess washes over you, as though the crimson fog is infiltrating your senses. Your thoughts become muddled, and a sense of dizziness sets in.</t>
         </is>
       </c>
-      <c r="H85" s="0" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь к туману, вас охватывает волна дурноты, как будто багровый туман проникает в ваши чувства. Ваши мысли путаются, и возникает чувство головокружения.</t>
         </is>
@@ -4886,7 +4886,7 @@
           <t>Amid the mist-shrouded land, you spot a crimson flower. Despite being veiled by the mist its dazzling red hue stands out. You feel a cold shiver run down your spine.</t>
         </is>
       </c>
-      <c r="H86" s="0" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>ඞСреди окутанной туманом земли вы замечаете алый цветок. Несмотря на то, что он скрыт туманом, выделяется его ослепительный красный оттенок. Вы чувствуете, как по спине пробегает холодная дрожь.</t>
         </is>
@@ -4928,7 +4928,7 @@
           <t>You strive to stay composed and assess your condition. Thankfully, nothing out of the ordinary appears to be happening.</t>
         </is>
       </c>
-      <c r="H87" s="0" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>ඞВы стараетесь сохранять спокойствие и оценивать свое состояние. К счастью, кажется, что ничего необычного не происходит.</t>
         </is>
@@ -4970,7 +4970,7 @@
           <t>Yet, you detect a subtle moisture in your breath. You may have inhaled something.</t>
         </is>
       </c>
-      <c r="H88" s="0" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>ඞТем не менее, вы ощущаете едва уловимый запах изо рта. Возможно, вы что-то вдохнули.</t>
         </is>
@@ -5012,7 +5012,7 @@
           <t>Check Mist</t>
         </is>
       </c>
-      <c r="H89" s="0" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>ඞПроверьте туман</t>
         </is>
@@ -5054,7 +5054,7 @@
           <t>It's not too hard to find a usable vessel to collect water in a park.</t>
         </is>
       </c>
-      <c r="H90" s="0" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>ඞНайти пригодный сосуд для сбора воды в парке не так уж сложно.</t>
         </is>
@@ -5096,7 +5096,7 @@
           <t>You manage to find several bottles and fill them with water from the fountain.</t>
         </is>
       </c>
-      <c r="H91" s="0" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>ඞВам удается найти несколько бутылок и наполнить их водой из фонтана.</t>
         </is>
@@ -5138,7 +5138,7 @@
           <t>Collect Water</t>
         </is>
       </c>
-      <c r="H92" s="0" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>ඞСобирайте воду</t>
         </is>
@@ -5180,7 +5180,7 @@
           <t>Smile-painting Clown</t>
         </is>
       </c>
-      <c r="H93" s="0" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>ඞКлоун, рисующий улыбку</t>
         </is>
@@ -5222,7 +5222,7 @@
           <t>Man in Clown Costume</t>
         </is>
       </c>
-      <c r="H94" s="0" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>ඞМужчина в костюме клоуна</t>
         </is>
@@ -5276,7 +5276,7 @@
 Despite this ostensibly humorous guise, an eerie thrill crawls under your skin.</t>
         </is>
       </c>
-      <c r="H95" s="0" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>ඞКлоун, одетый в грязную одежду, щеголяет спутанными рыжими волосами.
 Его лицо размазано жуткой смесью призрачно-белого и кроваво-красного цветов &lt;color=#FFD700&gt;масляной краской&lt;/color&gt;.
@@ -5320,7 +5320,7 @@
           <t>You tell the clown that you crave something spine-chilling. With a roll of his eyes, he murmurs in unsettling contemplation.</t>
         </is>
       </c>
-      <c r="H96" s="0" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>ඞТы говоришь клоуну, что тебе хочется чего-нибудь такого, от чего у тебя мороз по коже. Закатив глаза, он бормочет в тревожном раздумье.</t>
         </is>
@@ -5362,7 +5362,7 @@
           <t>Spine-chilling... chilling...</t>
         </is>
       </c>
-      <c r="H97" s="0" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>ඞЛеденящий душу... охлаждение...</t>
         </is>
@@ -5404,7 +5404,7 @@
           <t>Ha, I see. So you want to be a part of that too!</t>
         </is>
       </c>
-      <c r="H98" s="0" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>ඞХа, понятно. Так ты тоже хочешь в этом поучаствовать!</t>
         </is>
@@ -5446,7 +5446,7 @@
           <t>The clown mutters under his breath for a moment before lunging towards you abruptly. His crimson-stained lips part, sending words into your ear.</t>
         </is>
       </c>
-      <c r="H99" s="0" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>ඞКлоун что-то бормочет себе под нос, прежде чем резко броситься к тебе. Его губы, покрытые алыми пятнами, приоткрываются, и он шепчет тебе что-то на ухо.</t>
         </is>
@@ -5488,7 +5488,7 @@
           <t>It... &lt;i&gt;will&lt;/i&gt;... be... chilling!</t>
         </is>
       </c>
-      <c r="H100" s="0" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>ඞЭто... &lt;я&gt; будет&lt;/я&gt;... захватывающе!</t>
         </is>
@@ -5530,7 +5530,7 @@
           <t>Then he retreats to his previous spot, embellishing the last corpse with a ghastly grin.</t>
         </is>
       </c>
-      <c r="H101" s="0" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>ඞЗатем он возвращается на свое прежнее место, украшая последний труп жуткой ухмылкой.</t>
         </is>
@@ -5572,7 +5572,7 @@
           <t>But you must bide your time. I'm still preparing the scene. Once complete, you may proceed in this direction.</t>
         </is>
       </c>
-      <c r="H102" s="0" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>ඞНо вы должны подождать. Я все еще готовлю сцену. Как только закончите, можете двигаться в этом направлении.</t>
         </is>
@@ -5614,7 +5614,7 @@
           <t>The clown points towards a nearby path with a grin on his face. Upon ensuring you've taken note, he begins to hum a melody as he saunters towards the square. You consult your map; the road leads directly to the dreaded Fun House.</t>
         </is>
       </c>
-      <c r="H103" s="0" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>ඞКлоун с ухмылкой на лице указывает на ближайшую дорожку. Убедившись, что вы обратили внимание, он начинает напевать какую-то мелодию и неторопливо направляется к площади. Вы сверяетесь с картой; дорога ведет прямо к ужасному Дому развлечений.</t>
         </is>
@@ -5656,7 +5656,7 @@
           <t>You tell the clown that you desire something relaxing. With a roll of his eyes, he murmurs in thought.</t>
         </is>
       </c>
-      <c r="H104" s="0" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>ඞТы говоришь клоуну, что хочешь чего-нибудь расслабляющего. Закатив глаза, он задумчиво бормочет.</t>
         </is>
@@ -5698,7 +5698,7 @@
           <t>Relaxing... relaxing... Oh, I have just the thing! Do you see that over there?</t>
         </is>
       </c>
-      <c r="H105" s="0" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>ඞРасслабляющий... расслабляющий... О, у меня есть как раз то, что нужно! Видишь это вон там?</t>
         </is>
@@ -5746,7 +5746,7 @@
 Looks like it is freshly constructed, indeed a spectacular monument in the park.</t>
         </is>
       </c>
-      <c r="H106" s="0" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>ඞВы удивляетесь внезапному энтузиазму клоуна. Он указывает на возвышающееся небесное колесо. Его величественный каркас возвышается почти на 100 метров в небо.
 Похоже, что его недавно построили, и это действительно впечатляющий памятник в парке.</t>
@@ -5789,7 +5789,7 @@
           <t>It is the park's crowning jewel! The SkyWheel of Far Hope! From its apex, you'll witness the most breathtaking view of the town! Not a soul could resist it!</t>
         </is>
       </c>
-      <c r="H107" s="0" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>ඞЭто главная жемчужина парка! Небесное колесо Далекой Надежды! С его вершины открывается самый захватывающий вид на город! Перед ним не устоит ни одна живая душа!</t>
         </is>
@@ -5831,7 +5831,7 @@
           <t>The clown points towards a nearby path. Upon ensuring you've taken note, he begins to hum a melody as he saunters towards the SkyWheel.</t>
         </is>
       </c>
-      <c r="H108" s="0" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>ඞКлоун указывает на ближайшую тропинку. Убедившись, что вы обратили внимание, он начинает напевать мелодию, направляясь к Небесному колесу.</t>
         </is>
@@ -5873,7 +5873,7 @@
           <t>The clown appears to be in high spirits. The moment he spots you, a warm smile spreads across his face, and his gaze meets yours with a sense of care.</t>
         </is>
       </c>
-      <c r="H109" s="0" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>ඞКлоун, кажется, в приподнятом настроении. В тот момент, когда он замечает вас, на его лице расплывается теплая улыбка, и он смотрит вам в глаза с чувством заботы.</t>
         </is>
@@ -5915,7 +5915,7 @@
           <t>Look who's here! Another spiritless tourist!</t>
         </is>
       </c>
-      <c r="H110" s="0" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>ඞСмотрите, кто здесь! Еще один бездушный турист!</t>
         </is>
@@ -5957,7 +5957,7 @@
           <t>Aw, what's troubling you? Come on, let's turn that frown upside down in the happiest place around!</t>
         </is>
       </c>
-      <c r="H111" s="0" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>ඞО, что тебя беспокоит? Ну же, давай изменим это хмурое выражение лица в самом счастливом месте на свете!</t>
         </is>
@@ -5999,7 +5999,7 @@
           <t>The clown seems to be pondering a solution.</t>
         </is>
       </c>
-      <c r="H112" s="0" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>ඞКлоун, похоже, обдумывает решение.</t>
         </is>
@@ -6047,7 +6047,7 @@
 Would you prefer something thrilling, or perhaps you're in the mood for something more relaxing?</t>
         </is>
       </c>
-      <c r="H113" s="0" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>ඞМожет быть, вам просто нужно немного повеселиться здесь? Позвольте мне провести вас!
 Вы предпочитаете что-нибудь захватывающее или, возможно, у вас есть настроение для более спокойного времяпрепровождения?</t>
@@ -6090,7 +6090,7 @@
           <t>The clown wonders what kind of attraction do you prefer...</t>
         </is>
       </c>
-      <c r="H114" s="0" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>ඞКлоун интересуется, какой аттракцион вы предпочитаете...</t>
         </is>
@@ -6132,7 +6132,7 @@
           <t>Something Chilling</t>
         </is>
       </c>
-      <c r="H115" s="0" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>ඞЧто-то леденящее душу</t>
         </is>
@@ -6174,7 +6174,7 @@
           <t>Something Relaxing</t>
         </is>
       </c>
-      <c r="H116" s="0" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>ඞЧто-нибудь расслабляющее</t>
         </is>
@@ -6216,7 +6216,7 @@
           <t>Conversar</t>
         </is>
       </c>
-      <c r="H117" s="0" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Поговорить</t>
         </is>
@@ -6264,7 +6264,7 @@
 His left arm is holding a tourist, while his right hand, wielding a brush soaked in blood, paints a chilling smile on the tourist's face.</t>
         </is>
       </c>
-      <c r="H118" s="0" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>ඞОриентируясь по звуку, вы замечаете клоуна неподалеку от площади. Вот откуда доносится жужжание.
 Левой рукой он держит туриста, а правой, с кисточкой, пропитанной кровью, рисует на лице туриста леденящую душу улыбку.</t>
@@ -6307,7 +6307,7 @@
           <t>Approach Clown</t>
         </is>
       </c>
-      <c r="H119" s="0" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>ඞПриблизьтесь к клоуну</t>
         </is>
@@ -6349,7 +6349,7 @@
           <t>Palhaço</t>
         </is>
       </c>
-      <c r="H120" s="0" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>ඞКлоун</t>
         </is>
@@ -6397,7 +6397,7 @@
 Yet, these manic guests show no signs of aggression towards him or resistance to his actions. They simply wait in line, their gazes fixed straight ahead. Their eyes are vacant, as if their spirits have long since departed.</t>
         </is>
       </c>
-      <c r="H121" s="0" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>ඞКлоун орудует кистью, пропитанной кровью, и рисует ею леденящие душу улыбки на лицах сумасшедших туристов.
 Однако эти безумные гости не проявляют никаких признаков агрессии по отношению к нему или сопротивления его действиям. Они просто стоят в очереди, устремив взгляд прямо перед собой. Их глаза пусты, как будто их души давно покинули нас.</t>
@@ -6440,7 +6440,7 @@
           <t>Just then, he notices your presence and flashes you an excited smile.</t>
         </is>
       </c>
-      <c r="H122" s="0" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>ඞИменно в этот момент он замечает ваше присутствие и радостно улыбается вам.</t>
         </is>
@@ -6482,7 +6482,7 @@
           <t>Aha! Are you here for my face painting as well? Please join the queue, these folks have been waiting quite a while.</t>
         </is>
       </c>
-      <c r="H123" s="0" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>ඞ- ага! Вы тоже пришли посмотреть, как я раскрашиваю лицо? Пожалуйста, встаньте в очередь, эти люди уже довольно долго ждут.</t>
         </is>
@@ -6524,7 +6524,7 @@
           <t>Oh, speaking of which, some of these folks nearly came to blows over me. What a guilty man I am!</t>
         </is>
       </c>
-      <c r="H124" s="0" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>ඞКстати, некоторые из этих людей чуть не подрались из-за меня. Какой же я виноватый человек!</t>
         </is>
@@ -6566,7 +6566,7 @@
           <t>While speaking, the clown suddenly narrows his eyes and studies you intensely, as though recognizing. His expression morphs into one of pride.</t>
         </is>
       </c>
-      <c r="H125" s="0" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>ඞВо время разговора клоун внезапно прищуривает глаза и пристально изучает вас, как будто узнает. На его лице появляется выражение гордости.</t>
         </is>
@@ -6608,7 +6608,7 @@
           <t>Ha! It's you! How'd it go? Should've come here earlier, right? But let me tell you, what you've seen so far is just the beginning! There's more remarkable stuff yet to come!</t>
         </is>
       </c>
-      <c r="H126" s="0" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>ඞХа! Это ты! Как все прошло? Надо было прийти сюда раньше, верно? Но позволь сказать, то, что ты увидел, - это только начало! Впереди еще много интересного!</t>
         </is>
@@ -6650,7 +6650,7 @@
           <t>The clown's smile widened, his excitement growing palpable as he began to speak at an even brisker pace.</t>
         </is>
       </c>
-      <c r="H127" s="0" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>ඞУлыбка клоуна стала шире, его возбуждение стало ощутимым, когда он начал говорить еще более оживленным темпом.</t>
         </is>
@@ -6692,7 +6692,7 @@
           <t>Oh wait, there's one more stop on this journey!</t>
         </is>
       </c>
-      <c r="H128" s="0" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>ඞО, подождите, в этом путешествии есть еще одна остановка!</t>
         </is>
@@ -6735,7 +6735,7 @@
           <t>The tourists' vacant eyes remain fixed on some distant point, seemingly detached from their immediate surroundings. The clown completes his last crimson painting with precision before wiping his hands in satisfaction.</t>
         </is>
       </c>
-      <c r="H129" s="0" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>ඞПустые глаза туристов по-прежнему устремлены в какую-то отдаленную точку, казалось бы, отделенную от их непосредственного окружения. Клоун аккуратно завершает свою последнюю малиновую картину, прежде чем удовлетворенно вытереть руки.</t>
         </is>
@@ -6777,7 +6777,7 @@
           <t>It's all done here! I'll prepare the scene for you. Once complete, you may proceed in this direction.</t>
         </is>
       </c>
-      <c r="H130" s="0" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>ඞЗдесь все готово! Я подготовлю для вас сцену. После завершения вы можете двигаться в этом направлении.</t>
         </is>
@@ -6819,7 +6819,7 @@
           <t>The clown points towards a nearby path before eagerly departing from the square.</t>
         </is>
       </c>
-      <c r="H131" s="0" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>ඞКлоун указывает на ближайшую тропинку, прежде чем поспешно удалиться с площади.</t>
         </is>
@@ -6861,7 +6861,7 @@
           <t>You spot the clown sitting beside the fountain. His face no longer holds the excitement it once did, instead displaying a sad, trance-like expression as he gazes at a stone brick at his feet.</t>
         </is>
       </c>
-      <c r="H132" s="0" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>ඞВы замечаете клоуна, сидящего у фонтана. На его лице больше нет того оживления, которое было раньше, вместо этого на нем появляется печальное выражение, похожее на транс, когда он смотрит на каменный кирпич у своих ног.</t>
         </is>
@@ -6909,7 +6909,7 @@
 Why isn't anyone interested in my performance anymore? They all loved it before!</t>
         </is>
       </c>
-      <c r="H133" s="0" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>ඞПочему?...
 Почему мое выступление больше никого не интересует? Раньше оно всем нравилось!</t>
@@ -6952,7 +6952,7 @@
           <t>The clown appears dejected as he stares at his feet, his shoulders slumping and his tone laced with distress.</t>
         </is>
       </c>
-      <c r="H134" s="0" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>ඞКлоун выглядит удрученным, он смотрит себе под ноги, его плечи поникли, а в голосе слышится страдание.</t>
         </is>
@@ -7000,7 +7000,7 @@
 I poured so much time into the scene, and they didn't even make it halfway through... All they wanted was to get out!</t>
         </is>
       </c>
-      <c r="H135" s="0" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>ඞЯ повел их в "Дом смеха", популярный "Дом развлечений"! Обычно приходится довольно долго стоять в очереди, чтобы попасть туда!
 Я потратил столько времени на съемку, а они не прошли и половины... Все, чего они хотели, - это выбраться отсюда!</t>
@@ -7049,7 +7049,7 @@
 But... but they didn't even want to ride it!</t>
         </is>
       </c>
-      <c r="H136" s="0" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>ඞИ Небесное колесо... Знаменитое небесное колесо Фар Хоуп! Главная достопримечательность во всем городе! Я думал, им понравится!
 Но... но они даже не захотели на нем кататься!</t>
@@ -7092,7 +7092,7 @@
           <t>The clown is getting even more upset. The once-beaming smile turns into an expression of sadness. His costume makes him looks even more decadent.</t>
         </is>
       </c>
-      <c r="H137" s="0" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>ඞКлоун расстраивается еще больше. Когда-то лучезарная улыбка превращается в выражение грусти. Из-за своего костюма он выглядит еще более декадентски.</t>
         </is>
@@ -7140,7 +7140,7 @@
 But no matter how much effort I put in, no one would laugh!</t>
         </is>
       </c>
-      <c r="H138" s="0" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>ඞЯ думал, что они просто слишком устали, поэтому выложился по полной!! Шутки, фокусы и даже акробатика!
 Но сколько бы я ни старался, никто не смеялся!</t>
@@ -7189,7 +7189,7 @@
 It was so different before...</t>
         </is>
       </c>
-      <c r="H139" s="0" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>ඞКак все могло так закончиться?..
 Раньше все было совсем по-другому...</t>
@@ -7232,7 +7232,7 @@
           <t>And it's been ages since Lady last spoke to me... Did I do something wrong?</t>
         </is>
       </c>
-      <c r="H140" s="0" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>ඞИ прошла целая вечность с тех пор, как леди в последний раз разговаривала со мной... Я сделал что-то не так?</t>
         </is>
@@ -7280,7 +7280,7 @@
 After you conclude and a long silence ensues, he turns his head and begins to laugh.</t>
         </is>
       </c>
-      <c r="H141" s="0" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>ඞВы сообщаете клоуну о кончине леди Стоунхарт. Он внимательно слушает, и его глаза кажутся пустыми, когда он наблюдает за вами. На протяжении всего вашего повествования он никак не реагирует на ваши слова, как будто вообще ничего не слышал.
 После того, как вы заканчиваете и наступает долгое молчание, он поворачивает голову и начинает смеяться.</t>
@@ -7323,7 +7323,7 @@
           <t>His gaze drifts off into the distant void and he nods towards the empty square. Soon after, an excited smile returns to his face. It almost seems... as if he's speaking to someone...?</t>
         </is>
       </c>
-      <c r="H142" s="0" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>ඞЕго взгляд устремляется куда-то вдаль, и он кивает в сторону пустой площади. Вскоре после этого на его лице появляется радостная улыбка. Это почти кажется... как будто он с кем-то разговаривает...?</t>
         </is>
@@ -7365,7 +7365,7 @@
           <t>Hahaha! You're absolutely right! The park has indeed been around for such a long time!</t>
         </is>
       </c>
-      <c r="H143" s="0" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>ඞХахаха! Вы абсолютно правы! Парк действительно существует уже очень давно!</t>
         </is>
@@ -7408,7 +7408,7 @@
           <t>The clown's enthusiastic smile persists, yet it is tinged with an odd mania. His eyes flicker with a myriad of emotions, finally settling on chaotic pain. Despite this, the smile on his face broadens.</t>
         </is>
       </c>
-      <c r="H144" s="0" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>ඞВосторженная улыбка клоуна сохраняется, но в ней чувствуется какая-то странная мания. В его глазах мелькают мириады эмоций, в конце концов останавливаясь на хаотичной боли. Несмотря на это, улыбка на его лице становится шире.</t>
         </is>
@@ -7450,7 +7450,7 @@
           <t>Yes, yes! I'm undoubtedly the most popular clown in the park! The children even come here specifically to see me!</t>
         </is>
       </c>
-      <c r="H145" s="0" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>ඞДа, да! Я, несомненно, самый популярный клоун в парке! Дети даже приходят сюда специально, чтобы посмотреть на меня!</t>
         </is>
@@ -7492,7 +7492,7 @@
           <t>The clown abruptly pushes you aside and strides away from the square, his pace quickening until it's almost a run. Soon, he stumbles on the steps leading out of the square. You watch as the clown picks himself up and dashes off into the park in a frenzy.</t>
         </is>
       </c>
-      <c r="H146" s="0" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>ඞКлоун резко отталкивает вас в сторону и устремляется прочь с площади, ускоряя шаг, пока не переходит почти на бег. Вскоре он спотыкается о ступеньки, ведущие с площади. Вы наблюдаете, как клоун поднимается на ноги и в бешенстве устремляется в парк.</t>
         </is>
@@ -7534,7 +7534,7 @@
           <t>Tell the Truth</t>
         </is>
       </c>
-      <c r="H147" s="0" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>ඞговорить правду</t>
         </is>
@@ -7576,7 +7576,7 @@
           <t>The red mist by the fountain undulates, and an eerie scene appears: several phantoms suddenly appear, unfolding a sequence of events as if projected from a film reel.</t>
         </is>
       </c>
-      <c r="H148" s="0" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>ඞКрасный туман у фонтана колышется, и возникает жуткая сцена: внезапно появляются несколько призраков, разворачивая последовательность событий, словно проецируемую на пленку.</t>
         </is>
@@ -7624,7 +7624,7 @@
 The trio's actions are marked by viciousness, suggesting a familiarity with violence. They show no mercy towards the tall man. Even though the tall man tries to defend himself, it turns out he is drastically outmatched. They seize him by the hair, repeatedly dunking his head in the water in a brutal spectacle of torment.</t>
         </is>
       </c>
-      <c r="H149" s="0" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>ඞВы становитесь свидетелем того, как высокий мужчина пытается противостоять трем другим, которые отвечают агрессивным отпором.
 Действия этой троицы отличаются жестокостью, что говорит о знакомстве с насилием. Они не проявляют милосердия к высокому мужчине. Несмотря на то, что высокий мужчина пытается защититься, оказывается, что у него значительное преимущество. Они хватают его за волосы и несколько раз окунают его голову в воду, демонстрируя жестокие мучения.</t>
@@ -7667,7 +7667,7 @@
           <t>After enduring persistent torment, the tall man is on the brink of death. The trio ruthlessly place a peculiar mask on his face and then proceed to pierce his collarbone with a hook attached to the end of a chain. Without regard for his anguished cries, they drag him in the direction of the manor.</t>
         </is>
       </c>
-      <c r="H150" s="0" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>ඞПосле продолжительных мучений высокий мужчина находится на грани смерти. Троица безжалостно надевает ему на лицо своеобразную маску, а затем протыкает ключицу крюком, прикрепленным к концу цепи. Не обращая внимания на его мучительные крики, они тащат его в направлении поместья.</t>
         </is>
@@ -7709,7 +7709,7 @@
           <t>Check Phantom</t>
         </is>
       </c>
-      <c r="H151" s="0" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>ඞПроверьте Фантом</t>
         </is>
@@ -7751,7 +7751,7 @@
           <t>You inch closer to the flower, its hue as red as blood, exuding an unnatural allure. You find yourself captivated by it, almost as if irresistibly drawn in.</t>
         </is>
       </c>
-      <c r="H152" s="0" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>ඞВы на дюйм приближаетесь к цветку, его красный, как кровь, оттенок излучает неестественное очарование. Вы оказываетесь очарованы им, вас словно непреодолимо тянет к нему.</t>
         </is>
@@ -7799,7 +7799,7 @@
 Glancing down, you find it growing from your chest, and you can almost feel its roots burrowing within.</t>
         </is>
       </c>
-      <c r="H153" s="0" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>ඞКогда вы снова сосредотачиваетесь, красного цветка уже не видно.
 Взглянув вниз, вы обнаруживаете, что он растет у вас на груди, и вы почти чувствуете, как его корни уходят внутрь.</t>
@@ -7842,7 +7842,7 @@
           <t>Check Red Flower</t>
         </is>
       </c>
-      <c r="H154" s="0" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>ඞКлетчатый Красный цветок</t>
         </is>
@@ -7894,7 +7894,7 @@
 Spotting you, he charges towards you, his laughter echoing manically in the eerie silence.</t>
         </is>
       </c>
-      <c r="H155" s="0" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>ඞВ красном тумане парк приобретает кошмарный оттенок. Появляется фигура - это клоун! Его глаза дьявольски алого цвета, мерцающие тревожной злобой.
 Заметив вас, он бросается к вам, его маниакальный смех эхом отдается в жуткой тишине.</t>
@@ -7937,7 +7937,7 @@
           <t>The malevolent aura seems to have evaporated from the clown. Now he lays in a pool of his own blood, struggling to flash you one last smile as life steadily slips away from him.</t>
         </is>
       </c>
-      <c r="H156" s="0" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>ඞЗлобная аура клоуна, кажется, испарилась. Теперь он лежит в луже собственной крови, изо всех сил пытаясь улыбнуться вам в последний раз, в то время как жизнь неуклонно покидает его.</t>
         </is>
@@ -7979,7 +7979,7 @@
           <t>I'm so sorry...</t>
         </is>
       </c>
-      <c r="H157" s="0" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>ඞМне так жаль...</t>
         </is>
@@ -8021,7 +8021,7 @@
           <t>I lost control over myself...</t>
         </is>
       </c>
-      <c r="H158" s="0" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>ඞЯ потерял контроль над собой...</t>
         </is>
@@ -8063,7 +8063,7 @@
           <t>Now, I just want you to know...</t>
         </is>
       </c>
-      <c r="H159" s="0" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>ඞА теперь я просто хочу, чтобы ты знал...</t>
         </is>
@@ -8105,7 +8105,7 @@
           <t>You crouch down to catch his final words. With his last ounce of strength, the clown lifts his bloodied hand and draws one final, shaky grin on your lips. His last breath escaping.</t>
         </is>
       </c>
-      <c r="H160" s="0" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>ඞТы приседаешь, чтобы расслышать его последние слова. Собрав последние силы, клоун поднимает окровавленную руку и рисует на твоих губах последнюю дрожащую улыбку. Он испускает последний вздох.</t>
         </is>
@@ -8153,7 +8153,7 @@
 You seem... too occupied to truly enjoy this place...</t>
         </is>
       </c>
-      <c r="H161" s="0" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>ඞЯ понял это с тех пор, как ты приехала...
 Ты кажешься... слишком занятой, чтобы по-настоящему насладиться этим местом...</t>
@@ -8196,7 +8196,7 @@
           <t>You try to check his injuries. But he's hurt so bad, there's no hope of recovery.</t>
         </is>
       </c>
-      <c r="H162" s="0" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>ඞВы пытаетесь осмотреть его раны. Но он так сильно ранен, что надежды на выздоровление нет.</t>
         </is>
@@ -8238,7 +8238,7 @@
           <t>Just... remember to smile...</t>
         </is>
       </c>
-      <c r="H163" s="0" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>ඞПросто... не забывай улыбаться...</t>
         </is>
@@ -8280,7 +8280,7 @@
           <t>Upon uttering his final sentence, his hand drops weakly to the ground. His eyes, once animated with exaggerated expressions, now lay open lifelessly, vacantly gazing up at the sky.</t>
         </is>
       </c>
-      <c r="H164" s="0" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>ඞКогда он произносит последнюю фразу, его рука безвольно опускается на землю. Его глаза, когда-то оживленные преувеличенным выражением, теперь безжизненно открыты и безучастно смотрят в небо.</t>
         </is>
@@ -8328,7 +8328,7 @@
 His body lies still, submerged in a pool of blood, the flicker of life extinguished forever. Left eternally in his grubby costume, you stare at his face, still smeared with clown makeup. It dawns on you that you've never beheld his true visage.</t>
         </is>
       </c>
-      <c r="H165" s="0" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>ඞКогда он произносит последнюю фразу, его рука безвольно опускается на землю. Его глаза, когда-то оживленные преувеличенным выражением, теперь безжизненно открыты и бессмысленно смотрят в небо.
 Его тело неподвижно лежит, погруженное в лужу крови, искра жизни погасла навсегда. Оставшись навсегда в его неряшливом костюме, вы смотрите на его лицо, все еще покрытое клоунским гримом. До вас доходит, что вы никогда не видели его настоящего облика.</t>
@@ -8371,7 +8371,7 @@
           <t>His body lies still, submerged in a pool of blood, the flicker of life extinguished forever. Left eternally in his grubby costume, you stare at his face, still smeared with clown makeup. It dawns on you that you've never beheld his true visage.</t>
         </is>
       </c>
-      <c r="H166" s="0" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>ඞЕго тело неподвижно лежит в луже крови, искра жизни угасла навсегда. Оставшись в своем неряшливом костюме, вы смотрите на его лицо, все еще покрытое клоунским гримом. До вас доходит, что вы никогда не видели его настоящего облика.</t>
         </is>
@@ -8419,7 +8419,7 @@
 In the place where he vanished lie quietly a blood-red shard.</t>
         </is>
       </c>
-      <c r="H167" s="0" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>ඞОт его безжизненного тела поднимается облако красного тумана, которое на мгновение повисает в воздухе, прежде чем рассеяться вместе с телом.
 На том месте, где он исчез, спокойно лежит кроваво-красный осколок.</t>
@@ -8462,7 +8462,7 @@
           <t>Manor</t>
         </is>
       </c>
-      <c r="H168" s="0" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>ඞПоместье</t>
         </is>
@@ -8508,7 +8508,7 @@
           <t>The main path leads to a meticulously kept &lt;color=#FFD700&gt;mansion&lt;/color&gt;. Neat and tidy are the only impression you get. But on the right, a set of shrubs are squashed like they've been crashed by an oppressive weight. There are also &lt;color=#DC143C&gt;blood&lt;/color&gt; splattering around.</t>
         </is>
       </c>
-      <c r="H169" s="0" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>ඞГлавная дорожка ведет к тщательно ухоженному особняку &lt;color=#FFD700&gt;. Единственное впечатление, которое вы получаете, - это опрятность. Но справа кусты примяты, как будто на них обрушился тяжелый груз. Вокруг также разбрызгана &lt;color=#DC143C&gt;кровь.</t>
         </is>
@@ -8550,7 +8550,7 @@
           <t>Just then, you hear a rhythm of &lt;color=#FFD700&gt;"knock, knock, knock"&lt;/color&gt; from the heart of the garden, as if someone is tapping on something.</t>
         </is>
       </c>
-      <c r="H170" s="0" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>ඞВ этот момент из глубины сада доносится ритмичное "тук, тук, тук", как будто кто-то по чему-то постукивает.</t>
         </is>
@@ -8592,7 +8592,7 @@
           <t>A narrow, secluded path, obscured by branches and shrubs, leads off to &lt;color=#FFD700&gt;the left side of the garden&lt;/color&gt;. That's an unusually tranquil option.</t>
         </is>
       </c>
-      <c r="H171" s="0" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>ඞУзкая уединенная тропинка, скрытая ветвями и кустарником, ведет в &lt;color=#FFD700&gt;левую часть сада&lt;/color&gt;. Это необычайно спокойный вариант.</t>
         </is>
@@ -8634,7 +8634,7 @@
           <t>Right in the center of the garden, a &lt;color=#DC143C&gt;thick red mist&lt;/color&gt;twists and writhes, as if something's itching to blend and break free.</t>
         </is>
       </c>
-      <c r="H172" s="0" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>ඞПрямо в центре сада &lt;color=#DC143C&gt;клубится густой красный туман&lt;/color&gt;, как будто что-то жаждет раствориться и вырваться на свободу.</t>
         </is>
@@ -8676,7 +8676,7 @@
           <t>As you approach the gate, you notice a nameplate: Rosalind. There's a sign of "Do Not Disturb" hanging below it.</t>
         </is>
       </c>
-      <c r="H173" s="0" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>ඞКогда вы подходите к воротам, вы замечаете табличку с именем: Розалинда. Под ней висит табличка "Не беспокоить".</t>
         </is>
@@ -8724,7 +8724,7 @@
 After a careful listen, you predict it's safe inside.</t>
         </is>
       </c>
-      <c r="H174" s="0" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>ඞДверь приоткрыта, и виден кусочек помещения, хотя внутри слишком темно, чтобы что-то разглядеть.
 Внимательно прислушавшись, вы решаете, что внутри безопасно.</t>
@@ -8767,7 +8767,7 @@
           <t>Check Mansion</t>
         </is>
       </c>
-      <c r="H175" s="0" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>ඞПроверьте особняк</t>
         </is>
@@ -8815,7 +8815,7 @@
 Among the mess, you find a small knife and a shotgun with no more shells. Further away in the grass, you find a trench coat.</t>
         </is>
       </c>
-      <c r="H176" s="0" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>ඞКусты здесь примяты и повреждены, а на деревьях поблизости есть отверстия от пуль.
 Среди беспорядка вы находите небольшой нож и дробовик, в котором больше нет патронов. Чуть дальше в траве вы находите плащ.</t>
@@ -8864,7 +8864,7 @@
 The file folder has bloodstains all over it. Inside, you find a contract. It stated that Rosalind willingly transferred ownership of Far Hope Park to the Vescontes.</t>
         </is>
       </c>
-      <c r="H177" s="0" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>ඞСпрятанную среди веток и прутьев, вы обнаруживаете папку с документами.
 Папка с документами вся в пятнах крови. Внутри вы находите контракт. В нем говорится, что Розалинда добровольно передала право собственности на парк Фар Хоуп семейству Весконт.</t>
@@ -8907,7 +8907,7 @@
           <t>Check Bloodstains</t>
         </is>
       </c>
-      <c r="H178" s="0" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>ඞПроверьте наличие пятен крови</t>
         </is>
@@ -8949,7 +8949,7 @@
           <t>You notice a grave. It's already dug up.</t>
         </is>
       </c>
-      <c r="H179" s="0" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>ඞВы замечаете могилу. Она уже разрыта.</t>
         </is>
@@ -8991,7 +8991,7 @@
           <t>Walking further into the garden, you come across a suspicious figure. They seem highly alert and, the moment they sense you, they quickly create a bubble and hop inside it. That figure just vanishes.</t>
         </is>
       </c>
-      <c r="H180" s="0" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>ඞПроходя дальше по саду, вы натыкаетесь на подозрительную фигуру. Они кажутся очень бдительными и, как только чувствуют вас, быстро создают пузырь и запрыгивают в него. Эта фигура просто исчезает.</t>
         </is>
@@ -9033,7 +9033,7 @@
           <t>You go to where the sound comes from and find a grave. The grave is already dug up. Beside it, there is a shimmering bubble.</t>
         </is>
       </c>
-      <c r="H181" s="0" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>ඞВы идете туда, откуда доносится звук, и находите могилу. Могила уже выкопана. Рядом с ней находится мерцающий пузырь.</t>
         </is>
@@ -9075,7 +9075,7 @@
           <t>Go Further</t>
         </is>
       </c>
-      <c r="H182" s="0" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>ඞИдите дальше</t>
         </is>
@@ -9117,7 +9117,7 @@
           <t>As you come closer to the red mist, your thoughts begin to slow, and your mind grows sluggish and heavy.</t>
         </is>
       </c>
-      <c r="H183" s="0" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь к красному туману, ваши мысли начинают замедляться, а разум становится вялым и тяжелым.</t>
         </is>
@@ -9159,7 +9159,7 @@
           <t>Before you, a crimson mirror appears. The square frame floats in mid-air with a deep-red void as its surface.</t>
         </is>
       </c>
-      <c r="H184" s="0" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>ඞПеред вами появится малиновое зеркало. Квадратная рамка парит в воздухе, а ее поверхность покрыта темно-красной пустотой.</t>
         </is>
@@ -9201,7 +9201,7 @@
           <t>Check Red Mist</t>
         </is>
       </c>
-      <c r="H185" s="0" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>ඞПроверьте Красный туман</t>
         </is>
@@ -9255,7 +9255,7 @@
 Nearby, there's an open chest with a notebook and an old photograph.</t>
         </is>
       </c>
-      <c r="H186" s="0" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>ඞНа надгробии выбито имя [Алессио], а эпитафия гласит: "Я не совсем перестал существовать".
 Гроб вскрыт, и оттуда доносится мрачный запах влажной земли. Внутри лежит разлагающийся скелет со следами кольца &lt;color=#FFD700&gt; на косточке одного пальца.
@@ -9299,7 +9299,7 @@
           <t>Old Photograph</t>
         </is>
       </c>
-      <c r="H187" s="0" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>ඞСтарая фотография</t>
         </is>
@@ -9347,7 +9347,7 @@
 You pick up the old photo of a young couple sitting and snuggling by the tranquil lake, their silhouettes illuminated by the gentle moonlight. Even through the confines of this captured moment, a powerful, unspoken love grabs your heart, a love so palpable that it transcends the boundaries of mere paper and ink.</t>
         </is>
       </c>
-      <c r="H188" s="0" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>ඞЭтот блокнот посвящен архитектурным проектам, содержит множество глубоких идей и проникновенных размышлений.
 Вы берете в руки старую фотографию молодой пары, которая сидит, обнявшись, на берегу спокойного озера, их силуэты освещены мягким лунным светом. Даже в этот запечатленный момент ваше сердце охватывает сильная, невысказанная любовь, настолько ощутимая, что она выходит за рамки простой бумаги и чернил.</t>
@@ -9396,7 +9396,7 @@
 You pass the photograph to Gioia. She looks at it with an even more perplexed expression.</t>
         </is>
       </c>
-      <c r="H189" s="0" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>ඞВы внимательно рассматриваете дату, выгравированную на гравюре: 1956 год. Фотография, выполненная в оттенках сепии, по-видимому, сделана полвека назад. Вы озадачены.
 Вы передаете фотографию Джойе. Она смотрит на нее с еще более озадаченным выражением лица.</t>
@@ -9451,7 +9451,7 @@
 Is this some kind of cruel prank? Seriously, it's way too much.</t>
         </is>
       </c>
-      <c r="H190" s="0" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>ඞЯ не помню, чтобы здесь была могила.
 А? Имя на надгробии такое же, как у моего отца...
@@ -9495,7 +9495,7 @@
           <t>But look at how worn out it is, it doesn't seem fake.</t>
         </is>
       </c>
-      <c r="H191" s="0" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>ඞНо посмотрите, насколько она изношена, она не кажется фальшивой.</t>
         </is>
@@ -9537,7 +9537,7 @@
           <t>My father never said anything about having siblings, and I've only been gone for a little while. How could there suddenly be a grave?</t>
         </is>
       </c>
-      <c r="H192" s="0" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>ඞМой отец никогда ничего не говорил о том, что у меня есть братья и сестры, а меня не было совсем недолго. Откуда вдруг взялась могила?</t>
         </is>
@@ -9582,7 +9582,7 @@
           <t>She turns to you for help, but you are just as baffled. After a quick pause, you decide to set aside these questions for now and keep on exploring.</t>
         </is>
       </c>
-      <c r="H193" s="0" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>ඞОна обращается к вам за помощью, но вы так же сбиты с толку. После короткой паузы вы решаете пока отложить эти вопросы и продолжить исследование.</t>
         </is>
@@ -9624,7 +9624,7 @@
           <t>Check the Grave</t>
         </is>
       </c>
-      <c r="H194" s="0" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>ඞПроверьте могилу</t>
         </is>
@@ -9666,7 +9666,7 @@
           <t>Gioia</t>
         </is>
       </c>
-      <c r="H195" s="0" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>ඞРадость</t>
         </is>
@@ -9709,7 +9709,7 @@
           <t>Upon arriving here, Gioia's condition appears to be &lt;color=#DC143C&gt;rather off&lt;/color&gt;. She seems quite uncomfortable. Her complexion has turned frighteningly pale, tiny beads of sweat form on her forehead, and her breathing has become noticeably rapid.</t>
         </is>
       </c>
-      <c r="H196" s="0" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t>ඞПо прибытии сюда состояние Джойи, по-видимому, было &lt;color=#DC143C&gt; довольно тяжелым&lt;/color&gt;. Она, кажется, чувствует себя довольно неуютно. Цвет ее лица стал пугающе бледным, на лбу выступили капельки пота, а дыхание стало заметно учащенным.</t>
         </is>
@@ -9751,7 +9751,7 @@
           <t>Trembling hands clutching her chest, she looks as if she's struggling. Even her steps become unsteady.</t>
         </is>
       </c>
-      <c r="H197" s="0" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>ඞДрожащими руками она прижимает себя к груди, выглядит так, будто борется с собой. Даже ее шаги становятся неуверенными.</t>
         </is>
@@ -9799,7 +9799,7 @@
 Can we take a short break? It won't take long.</t>
         </is>
       </c>
-      <c r="H198" s="0" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>ඞИзвините, я неважно себя чувствую.
 Мы можем сделать небольшой перерыв? Это не займет много времени.</t>
@@ -9842,7 +9842,7 @@
           <t>Seeing that Gioia's struggling even to walk, you decide to let her rest for a while.</t>
         </is>
       </c>
-      <c r="H199" s="0" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>ඞВидя, что Джойе трудно даже ходить, вы решаете дать ей немного отдохнуть.</t>
         </is>
@@ -9890,7 +9890,7 @@
 After a short breather, Gioia looks a bit better. Both of you are ready to move on.</t>
         </is>
       </c>
-      <c r="H200" s="0" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>ඞКогда вы оба отдыхаете, вы слышите слабый треск, но после тщательного осмотра поблизости вы не обнаруживаете никаких повреждений.
 После небольшой передышки Джойя выглядит немного лучше. Вы оба готовы двигаться дальше.</t>
@@ -9933,7 +9933,7 @@
           <t>Rest and Wait</t>
         </is>
       </c>
-      <c r="H201" s="0" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>ඞОтдыхай и жди</t>
         </is>
@@ -9975,7 +9975,7 @@
           <t>Just upon touching the bubble, your surroundings spin and distort in a dizzying whirl, followed by a blinding flash of white light. Suddenly, you find yourself in an entirely different place.</t>
         </is>
       </c>
-      <c r="H202" s="0" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>ඞКак только вы дотрагиваетесь до пузыря, все вокруг начинает вращаться и искажаться в головокружительном вихре, за которым следует ослепительная вспышка белого света. Внезапно вы оказываетесь в совершенно другом месте.</t>
         </is>
@@ -10017,7 +10017,7 @@
           <t>After the dizziness subsides, you find yourself in a new place: a restaurant.</t>
         </is>
       </c>
-      <c r="H203" s="0" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>ඞПосле того, как головокружение проходит, вы оказываетесь в новом месте: ресторане.</t>
         </is>
@@ -10059,7 +10059,7 @@
           <t>Touch the Bubble</t>
         </is>
       </c>
-      <c r="H204" s="0" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>ඞПрикоснись к пузырю</t>
         </is>
@@ -10101,7 +10101,7 @@
           <t>The transport bubble will send you to an unknown location.</t>
         </is>
       </c>
-      <c r="H205" s="0" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>ඞТранспортный пузырь отправит вас в неизвестное место.</t>
         </is>
@@ -10143,7 +10143,7 @@
           <t>You see a vision of Alessio in his final moments, his body extremely frail, as if he were made of a piece of paper.</t>
         </is>
       </c>
-      <c r="H206" s="0" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>ඞВы видите Алессио в его последние минуты, его тело чрезвычайно хрупкое, как будто он сделан из листа бумаги.</t>
         </is>
@@ -10185,7 +10185,7 @@
           <t>Then, the rolling red mist slows down, and the scene abruptly enters slow motion. You hear Alessio's plea:</t>
         </is>
       </c>
-      <c r="H207" s="0" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>ඞЗатем клубящийся красный туман замедляется, и сцена внезапно переходит в режим замедленной съемки. Вы слышите мольбу Алессио:</t>
         </is>
@@ -10233,7 +10233,7 @@
 Take everything I have, my very soul... Just let Rosa be happy...</t>
         </is>
       </c>
-      <c r="H208" s="0" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t>ඞЕсли действительно произойдет чудо... даже если это будет сделка с дьяволом...
 Возьми все, что у меня есть, даже мою душу... Просто позволь Розе быть счастливой...</t>
@@ -10276,7 +10276,7 @@
           <t>The red mist roils again, and the scene returns to normal. In the end, Alessio closes his eyes. His ring emits a red glimmer. That glimmer then transforms into a streak of light and slips into Rosa's ring.</t>
         </is>
       </c>
-      <c r="H209" s="0" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>ඞСнова клубится красный туман, и сцена возвращается в нормальное русло. В конце Алессио закрывает глаза. Его кольцо начинает мерцать красным. Затем это мерцание превращается в полосу света и переходит в кольцо Розы.</t>
         </is>
@@ -10318,7 +10318,7 @@
           <t>Rosa weeps in grief and sorrow. You see her tears fall, one drop after another, slowly and gradually to an ethereal bright white shimmer in the air. Instinctively, you reach out your hand. The radiant shimmer lands in your palm, transforming into a translucent white crystal.</t>
         </is>
       </c>
-      <c r="H210" s="0" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>ඞРоза плачет от горя и тоски. Вы видите, как ее слезы падают, капля за каплей, медленно и постепенно, превращаясь в неземное ярко-белое мерцание в воздухе. Вы инстинктивно протягиваете руку. Сияющее мерцание падает на вашу ладонь, превращаясь в полупрозрачный белый кристалл.</t>
         </is>
@@ -10360,7 +10360,7 @@
           <t>Touch the Mirror</t>
         </is>
       </c>
-      <c r="H211" s="0" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>ඞПрикоснись к зеркалу</t>
         </is>
@@ -10402,7 +10402,7 @@
           <t>Loch</t>
         </is>
       </c>
-      <c r="H212" s="0" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>ඞДыра</t>
         </is>
@@ -10444,7 +10444,7 @@
           <t>The girl lets out an agonized yet silent sigh. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls. Her hand immerses inside the cluster of bubbles in front before pulling out a charred card. The black smoke rising from its surface tells the girl how it has come to her.</t>
         </is>
       </c>
-      <c r="H213" s="0" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>ඞДевушка испускает мучительный, но тихий вздох. На ее слабо освещенных волосах сидит бейсболка, текстура которой переливается блеском кожи рептилий, возвращая отблеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство подобно вздымающимся стенам. Ее рука погружается в скопление пузырьков впереди, прежде чем вытащить обугленную карточку. Черный дым, поднимающийся от ее поверхности, говорит девушке о том, как она попала к ней.</t>
         </is>
@@ -10486,7 +10486,7 @@
           <t>"Tsk, another wasted. Good thing I backed up the data."</t>
         </is>
       </c>
-      <c r="H214" s="0" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>ඞ- Тсс, еще одна потеря. Хорошо, что я сделал резервную копию данных."</t>
         </is>
@@ -10528,7 +10528,7 @@
           <t>As if having received the command, the serpent entangling her other arm erects from its prone position. A beam of white light takes form inside its stretched mouth, then fires at the sizzling card.</t>
         </is>
       </c>
-      <c r="H215" s="0" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>ඞСловно получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа. Из ее растянутой пасти появляется луч белого света, который затем выстреливает в шипящую карту.</t>
         </is>
@@ -10570,7 +10570,7 @@
           <t>"Now that you've squandered what I gave you, I'll have to format you to prevent data conflict."</t>
         </is>
       </c>
-      <c r="H216" s="0" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>ඞ"Теперь, когда вы растратили то, что я вам дал, мне придется отформатировать вас, чтобы предотвратить конфликт данных".</t>
         </is>
@@ -10612,7 +10612,7 @@
           <t>The glow dissipates. The card regain its pristine cobalt blue color.</t>
         </is>
       </c>
-      <c r="H217" s="0" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>ඞСвечение рассеивается. Карточка приобретает свой первоначальный кобальтово-синий цвет.</t>
         </is>
@@ -10654,7 +10654,7 @@
           <t>"Make both ends meet next time and get your job done before the world explodes. I've invested more than enough on you."</t>
         </is>
       </c>
-      <c r="H218" s="0" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>ඞ"В следующий раз сведи концы с концами и сделай свою работу до того, как мир взорвется. Я вложил в тебя более чем достаточно".</t>
         </is>
@@ -10702,7 +10702,7 @@
 In a white flash, the girl has left the room, leaving only her idle voice echoing behind.</t>
         </is>
       </c>
-      <c r="H219" s="0" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>ඞКарточка в ее руке вскоре возвращается на свое место внутри плавучего пузыря, окруженного причудливым сиянием.
 В белой вспышке девушка покидает комнату, оставляя после себя только эхо своего праздного голоса.</t>
@@ -10745,7 +10745,7 @@
           <t>"You'd better make it worth the price, otherwise I'll have your vessel instead."</t>
         </is>
       </c>
-      <c r="H220" s="0" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>ඞ- Тебе лучше заплатить за это такую цену, иначе я заберу твой сосуд.</t>
         </is>
@@ -10787,7 +10787,7 @@
           <t>Futile Endeavor</t>
         </is>
       </c>
-      <c r="H221" s="0" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t>ඞТщетные попытки</t>
         </is>
@@ -10835,7 +10835,7 @@
 Though there are still some missing pieces to the puzzle, it seems you have yet to reach the end of the book.</t>
         </is>
       </c>
-      <c r="H222" s="0" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>ඞВы открываете глаза и видите все знакомое в том мире, который вы знаете. Вы потерпели неудачу.
 Хотя в головоломке все еще не хватает нескольких кусочков, кажется, что вы еще не дочитали книгу до конца.</t>
@@ -10884,7 +10884,7 @@
 The feeling of having your soul scorched by that incandescent glare while disintegrated, however, is something you don't want to experience for a second time.</t>
         </is>
       </c>
-      <c r="H223" s="0" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>ඞВаш единственный шанс вернуться в мир неразгаданных тайн - это выполнить ЕЕ задание.
 Однако, ощущение того, что ваша душа опалена этим раскаленным светом и при этом распадается на части, - это то, что вы не захотите испытать во второй раз.</t>
@@ -10930,7 +10930,7 @@
 They will offer you great assistance during your next attempt.</t>
         </is>
       </c>
-      <c r="H224" s="0" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>ඞК счастью, другие ваши опыты гораздо менее болезненны и более информативны.
 Они окажут вам большую помощь при следующей попытке.</t>
@@ -10973,7 +10973,7 @@
           <t>The girl's curious eyes capture something inside the floating bubbles. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls. Her hand immerses inside the cluster of bubbles in front before pulling out a reddened card.</t>
         </is>
       </c>
-      <c r="H225" s="0" t="inlineStr">
+      <c r="H225" t="inlineStr">
         <is>
           <t>ඞЛюбопытные глаза девушки улавливают что-то внутри плавающих пузырьков. На ее слабо освещенных волосах надета бейсболка, текстура которой придает блеск коже рептилий, возвращая блеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство, словно вздымающиеся стены. Ее рука погружается в скопление пузырьков впереди, прежде чем вытащить покрасневшую карточку.</t>
         </is>
@@ -11015,7 +11015,7 @@
           <t>"Ha, so it's still contagious after traversing to our dimension. Interesting."</t>
         </is>
       </c>
-      <c r="H226" s="0" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>ඞ- Ха, так это все еще заразно после перехода в наше измерение. Интересно.</t>
         </is>
@@ -11057,7 +11057,7 @@
           <t>As if having received the command, the serpent entangling her other arm erects from its prone position. A beam of white light takes form inside its stretched mouth, then fires at the card. She smiles as the red taint dances at the tip of her finger.</t>
         </is>
       </c>
-      <c r="H227" s="0" t="inlineStr">
+      <c r="H227" t="inlineStr">
         <is>
           <t>ඞКак будто получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа. Из ее растянутой пасти вырывается луч белого света, который затем выстреливает в карту. Она улыбается, когда на кончике ее пальца пляшет красное пятно.</t>
         </is>
@@ -11105,7 +11105,7 @@
 The hue fades out in the air, and the girl is amused.</t>
         </is>
       </c>
-      <c r="H228" s="0" t="inlineStr">
+      <c r="H228" t="inlineStr">
         <is>
           <t>ඞМалиновая аура пытается вырваться из-под контроля своей новой хозяйки, но, что неудивительно, терпит неудачу.
 Оттенок исчезает в воздухе, и девушка удивляется.</t>
@@ -11148,7 +11148,7 @@
           <t>"Parasitizing other lifeforms to sustain its real master. Very innovative."</t>
         </is>
       </c>
-      <c r="H229" s="0" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>ඞ"Паразитирует на других формах жизни, чтобы поддерживать своего настоящего хозяина. Очень инновационно".</t>
         </is>
@@ -11190,7 +11190,7 @@
           <t>"It even goes out its way to hide inside the folded space to evade other examining eyes..."</t>
         </is>
       </c>
-      <c r="H230" s="0" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t>ඞ"Он даже старается спрятаться в сложенном пространстве, чтобы избежать посторонних глаз..."</t>
         </is>
@@ -11232,7 +11232,7 @@
           <t>"Looks like you'd need the key to the space, if you really wish to solve the problem..."</t>
         </is>
       </c>
-      <c r="H231" s="0" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t>ඞ- Похоже, вам понадобится ключ от этого помещения, если вы действительно хотите решить проблему...</t>
         </is>
@@ -11274,7 +11274,7 @@
           <t>Specular Refelction</t>
         </is>
       </c>
-      <c r="H232" s="0" t="inlineStr">
+      <c r="H232" t="inlineStr">
         <is>
           <t>ඞЗеркальное отражение</t>
         </is>
@@ -11328,7 +11328,7 @@
 Perhaps there's more to this amusement park that withstood half a century's history...</t>
         </is>
       </c>
-      <c r="H233" s="0" t="inlineStr">
+      <c r="H233" t="inlineStr">
         <is>
           <t>ඞСтрах задохнуться внутри кровавого озера все еще преследует вас, когда вы приходите в себя в уединенном месте.
 Парк скрывает от вас больше секретов, чем кажется. Жуткий туман, обезумевшие зараженные, обиженные призраки... Вы все еще не можете найти невидимую нить, которая связывает их воедино.
@@ -11375,7 +11375,7 @@
           <t>You don't want your next attempt to end up in the lake again, and thus you decide to turn the stones that you've yet to examine this time. The painful experience should offer you great help in the next try.</t>
         </is>
       </c>
-      <c r="H234" s="0" t="inlineStr">
+      <c r="H234" t="inlineStr">
         <is>
           <t>ඞВы не хотите, чтобы ваша следующая попытка снова закончилась падением в озеро, и поэтому вы решаете перевернуть камни, которые вам еще предстоит изучить на этот раз. Болезненный опыт должен стать для вас отличным подспорьем при следующей попытке.</t>
         </is>
@@ -11423,7 +11423,7 @@
 The wheel of time freezes. The world is fraying.</t>
         </is>
       </c>
-      <c r="H235" s="0" t="inlineStr">
+      <c r="H235" t="inlineStr">
         <is>
           <t>ඞВнезапно вас ослепляет белая вспышка, и прежде чем вы успеваете это осознать, вы оказываетесь внутри плавучего пузыря, за его эфирной оболочкой.
 Колесо времени замирает. Мир рушится.</t>
@@ -11484,7 +11484,7 @@
 The hands, arms, torso, legs... They're merely returning to their true form: string after string of lifeless numbers and characters, breaking up like scattered jigsaw pieces.</t>
         </is>
       </c>
-      <c r="H236" s="0" t="inlineStr">
+      <c r="H236" t="inlineStr">
         <is>
           <t>ඞТвои беспомощные, полные ужаса глаза широко раскрываются.
 Материалы и сущности, из которых построен мир, теряют свое место в измерениях.
@@ -11535,7 +11535,7 @@
 The remnant of your vision sees you disintegrating with the rest of the world, giving way to lines and columns of programs before all cease to be on a black screen.</t>
         </is>
       </c>
-      <c r="H237" s="0" t="inlineStr">
+      <c r="H237" t="inlineStr">
         <is>
           <t>ඞСознание ускользает. Логика рушится, когда ход ваших мыслей распадается на отдельные сегменты. Ослепительная вспышка.
 Остатки вашего зрения видят, как вы распадаетесь на части вместе с остальным миром, уступая место строчкам и столбцам программ, прежде чем все это исчезнет на черном экране.</t>
@@ -11578,7 +11578,7 @@
           <t>The girl plays with the cobalt blue card in one of her hands with joy. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls.</t>
         </is>
       </c>
-      <c r="H238" s="0" t="inlineStr">
+      <c r="H238" t="inlineStr">
         <is>
           <t>ඞДевушка радостно поигрывает кобальтово-синей карточкой, которую держит в руке. На ее слабо освещенных волосах сидит бейсболка, текстура которой переливается блеском кожи рептилии, возвращая отблеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство подобно вздымающимся стенам.</t>
         </is>
@@ -11626,7 +11626,7 @@
 "Not half bad. I can see why Tawil has her eyes on you."</t>
         </is>
       </c>
-      <c r="H239" s="0" t="inlineStr">
+      <c r="H239" t="inlineStr">
         <is>
           <t>ඞ- Ха, я никогда не думал, что этот сосуд сработает.
 - Неплохо. Теперь я понимаю, почему Тавиль положила на тебя глаз.</t>
@@ -11669,7 +11669,7 @@
           <t>The girl's eyes then land on the floating cluster of bubbles. Their bizarre luminescence doesn't seem to daze her at all as she loses in thoughts.</t>
         </is>
       </c>
-      <c r="H240" s="0" t="inlineStr">
+      <c r="H240" t="inlineStr">
         <is>
           <t>ඞЗатем взгляд девушки останавливается на скоплении плавающих пузырьков. Их причудливое свечение, кажется, совсем не ошеломляет ее, поскольку она погружена в свои мысли.</t>
         </is>
@@ -11717,7 +11717,7 @@
 "That would be your problem, not mine."</t>
         </is>
       </c>
-      <c r="H241" s="0" t="inlineStr">
+      <c r="H241" t="inlineStr">
         <is>
           <t>ඞ"Очень жаль. Вы разгадали головоломку, но у вас нет того, что нужно, чтобы переписать историю. И все же..."
 "Это была бы ваша проблема, а не моя".</t>
@@ -11760,7 +11760,7 @@
           <t>As if having received the command, the serpent entangling her other arm erects from its prone position. Dark energies take form inside its open mouth before they drain away the blue glow from the surface of the card.</t>
         </is>
       </c>
-      <c r="H242" s="0" t="inlineStr">
+      <c r="H242" t="inlineStr">
         <is>
           <t>ඞКак будто получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа. Темные энергии формируются в ее открытой пасти, прежде чем погасить голубое свечение на поверхности карты.</t>
         </is>
@@ -11802,7 +11802,7 @@
           <t>"And now you've been repaid. The rest is in your hands."</t>
         </is>
       </c>
-      <c r="H243" s="0" t="inlineStr">
+      <c r="H243" t="inlineStr">
         <is>
           <t>ඞ- И теперь ты получил по заслугам. Остальное в твоих руках.</t>
         </is>
@@ -11844,7 +11844,7 @@
           <t>Maculated Perfection</t>
         </is>
       </c>
-      <c r="H244" s="0" t="inlineStr">
+      <c r="H244" t="inlineStr">
         <is>
           <t>ඞЖелтоватое совершенство</t>
         </is>
@@ -11898,7 +11898,7 @@
 Only time can heal the wounds.</t>
         </is>
       </c>
-      <c r="H245" s="0" t="inlineStr">
+      <c r="H245" t="inlineStr">
         <is>
           <t>ඞВы разрешили кризис, остановив распространение красного тумана.
 Но безумие тех, кто заражен этим безумием, невозможно остановить, поскольку они разрушают все на своих глазах с безымянным остервенением.
@@ -11948,7 +11948,7 @@
 They will only remember it as the source of a terrible story.</t>
         </is>
       </c>
-      <c r="H246" s="0" t="inlineStr">
+      <c r="H246" t="inlineStr">
         <is>
           <t>ඞИсчез парк развлечений, с которым у людей были связаны самые дорогие воспоминания.
 Люди будут вспоминать о нем только как об источнике ужасной истории.</t>
@@ -11997,7 +11997,7 @@
 One by one, you defeat the illusions inside the red mist.</t>
         </is>
       </c>
-      <c r="H247" s="0" t="inlineStr">
+      <c r="H247" t="inlineStr">
         <is>
           <t>ඞТы отказываешься позволить своему безумию взять верх над собой, когда кровавая луна пробуждает внутреннего зверя в твоем сознании.
 Одну за другой ты побеждаешь иллюзии, скрывающиеся в красном тумане.</t>
@@ -12052,7 +12052,7 @@
 In the sacred moonlight, people's delirium wanes and sanity once again restores onto their reclaimed minds.</t>
         </is>
       </c>
-      <c r="H248" s="0" t="inlineStr">
+      <c r="H248" t="inlineStr">
         <is>
           <t>ඞКровавую луну окутывает голубоватый свет, и ее багровое сияние отступает.
 Краснота отступает, сменяясь ночным покоем, который должен был быть здесь всегда.
@@ -12102,7 +12102,7 @@
 As your vision begins to wriggle and revolve, you find yourself flowing adrift inside the vortex of space and time.</t>
         </is>
       </c>
-      <c r="H249" s="0" t="inlineStr">
+      <c r="H249" t="inlineStr">
         <is>
           <t>ඞВ ослепительной белой вспышке гравитационные силы всенаправленных измерений разрывают вас на части.
 Когда ваше зрение начинает искажаться, вы обнаруживаете, что плывете по течению в вихре пространства и времени.</t>
@@ -12145,7 +12145,7 @@
           <t>The girl pulls a cobalt blue card from the cluster of babblers, fires of rage flaming in her eyes. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls.</t>
         </is>
       </c>
-      <c r="H250" s="0" t="inlineStr">
+      <c r="H250" t="inlineStr">
         <is>
           <t>ඞДевушка вытаскивает кобальтово-синюю карточку из группы болтунов, в ее глазах пылает ярость. На ее слабо освещенных волосах сидит бейсболка, текстура которой переливается блеском кожи рептилий, возвращая блеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство подобно вздымающимся стенам.</t>
         </is>
@@ -12187,7 +12187,7 @@
           <t>"Is this how you repay my generosity? By putting up a farce like that with the power I gave you?"</t>
         </is>
       </c>
-      <c r="H251" s="0" t="inlineStr">
+      <c r="H251" t="inlineStr">
         <is>
           <t>ඞ- Так вот как ты отплатил за мою щедрость? Устроив такой фарс, используя ту власть, которую я тебе дал?</t>
         </is>
@@ -12229,7 +12229,7 @@
           <t>A smile of mockery appears on her curled lips as she sees the blue crystal shards.</t>
         </is>
       </c>
-      <c r="H252" s="0" t="inlineStr">
+      <c r="H252" t="inlineStr">
         <is>
           <t>ඞНасмешливая улыбка появляется на ее скривленных губах, когда она видит осколки голубого хрусталя.</t>
         </is>
@@ -12271,7 +12271,7 @@
           <t>"Hmph. Maybe it's not as bad as I thought. As long as Tawil didn't get to have that..."</t>
         </is>
       </c>
-      <c r="H253" s="0" t="inlineStr">
+      <c r="H253" t="inlineStr">
         <is>
           <t>ඞ- Хм. Может, все не так плохо, как я думал. Если только Тавил не перенес этого...</t>
         </is>
@@ -12319,7 +12319,7 @@
 The girl still wears the smile as she takes her leave.</t>
         </is>
       </c>
-      <c r="H254" s="0" t="inlineStr">
+      <c r="H254" t="inlineStr">
         <is>
           <t>ඞСловно получив команду, змея, обвившая ее вторую руку, выпрямляется из положения лежа. Осколки голубого кристалла поднимаются со стола и оказываются в ее ужасной пасти, не причиняя вреда своему новому хозяину.
 Девушка все еще улыбается, когда уходит.</t>
@@ -12362,7 +12362,7 @@
           <t>"Looks who's falling behind now, Tawil."</t>
         </is>
       </c>
-      <c r="H255" s="0" t="inlineStr">
+      <c r="H255" t="inlineStr">
         <is>
           <t>ඞ- Посмотрим, кто теперь отстает, Тавил.</t>
         </is>
@@ -12404,7 +12404,7 @@
           <t>Frenzying Truth</t>
         </is>
       </c>
-      <c r="H256" s="0" t="inlineStr">
+      <c r="H256" t="inlineStr">
         <is>
           <t>ඞОшеломляющая правда</t>
         </is>
@@ -12455,7 +12455,7 @@
 The moon graces everything inside the park with its benevolence, and people's delirium wanes as sanity once again restores to their reclaimed minds.</t>
         </is>
       </c>
-      <c r="H257" s="0" t="inlineStr">
+      <c r="H257" t="inlineStr">
         <is>
           <t>ඞПо мере того, как красный туман рассеивается в воздухе, кризис подходит к концу.
 Луна освещает все в парке своей благосклонностью, и безумие людей ослабевает, а здравомыслие вновь возвращается в их восстановленные умы.</t>
@@ -12504,7 +12504,7 @@
 The park's fate is in the hands of the residents of this world once more.</t>
         </is>
       </c>
-      <c r="H258" s="0" t="inlineStr">
+      <c r="H258" t="inlineStr">
         <is>
           <t>ඞВремя поворачивает вспять, прежде чем снова остановиться на развилке. На этот раз вместо тропы, вымощенной трагедиями, оно ведет на нехоженую тропу.
 Судьба парка снова в руках жителей этого мира.</t>
@@ -12553,7 +12553,7 @@
 Nevertheless, the chapters of woe are now stories of the past, and stagnantion now gives way to the vibrant flow.</t>
         </is>
       </c>
-      <c r="H259" s="0" t="inlineStr">
+      <c r="H259" t="inlineStr">
         <is>
           <t>ඞТолько время может сказать, какие чудеса или испытания ждут их впереди.
 Тем не менее, главы "Горя" теперь остались в прошлом, и застой уступает место бурному течению.</t>
@@ -12602,7 +12602,7 @@
 People will embrace the unknown with new hopes and expectations.</t>
         </is>
       </c>
-      <c r="H260" s="0" t="inlineStr">
+      <c r="H260" t="inlineStr">
         <is>
           <t>ඞРека судьбы, некогда замерзшая, теперь размораживается, и открываются новые возможности.
 Люди будут принимать неизвестное с новыми надеждами и ожиданиями.</t>
@@ -12645,7 +12645,7 @@
           <t>A blinding white flash descends onto you as you are about to assimilate with the blood moon's wicked shade.</t>
         </is>
       </c>
-      <c r="H261" s="0" t="inlineStr">
+      <c r="H261" t="inlineStr">
         <is>
           <t>ඞОслепительная белая вспышка обрушивается на вас, когда вы вот-вот сольетесь со зловещей тенью кровавой луны.</t>
         </is>
@@ -12693,7 +12693,7 @@
 The wheel of time freezes. The world is fraying.</t>
         </is>
       </c>
-      <c r="H262" s="0" t="inlineStr">
+      <c r="H262" t="inlineStr">
         <is>
           <t>ඞПрежде чем вы осознаете это, вы оказываетесь внутри плавучего пузыря, за его эфирной оболочкой.
 Колесо времени останавливается. Мир разрушается.</t>
@@ -12736,7 +12736,7 @@
           <t>You see your body disintegrates like an unseen blade wades through it, sending thin layers of the flesh afloat inside the giant bubble.</t>
         </is>
       </c>
-      <c r="H263" s="0" t="inlineStr">
+      <c r="H263" t="inlineStr">
         <is>
           <t>ඞВы видите, как ваше тело распадается на части, словно невидимый клинок пронзает его насквозь, оставляя тонкие слои плоти на плаву внутри гигантского пузыря.</t>
         </is>
@@ -12778,7 +12778,7 @@
           <t>Clean cross sections expose to your naked eyes your pulsating veins and throbbing sinews.</t>
         </is>
       </c>
-      <c r="H264" s="0" t="inlineStr">
+      <c r="H264" t="inlineStr">
         <is>
           <t>ඞЧеткие поперечные разрезы открывают невооруженным глазом ваши пульсирующие вены и напрягающиеся сухожилия.</t>
         </is>
@@ -12820,7 +12820,7 @@
           <t>But you aren't feeling any pain during the gory vivisection. Blankness and haziness are what gushing into your mind as consciousness fade away.</t>
         </is>
       </c>
-      <c r="H265" s="0" t="inlineStr">
+      <c r="H265" t="inlineStr">
         <is>
           <t>ඞНо вы не чувствуете никакой боли во время кровавой вивисекции. Пустота и помутнение - вот что наполняет ваш разум, когда сознание угасает.</t>
         </is>
@@ -12868,7 +12868,7 @@
 The whole world seems to follow its steps as the white light bathes you again, filling your eyes with bright nothingness.</t>
         </is>
       </c>
-      <c r="H266" s="0" t="inlineStr">
+      <c r="H266" t="inlineStr">
         <is>
           <t>ඞКраем глаза вы видите, как тонкие слои отделяются друг от друга, образуя то, что невидимо вашим усталым глазам, и исчезает в пузыре.
 Кажется, что весь мир следует своим чередом, когда белый свет снова заливает вас, наполняя ваши глаза яркой пустотой.</t>
@@ -12911,7 +12911,7 @@
           <t>The girl examines the blue card in her hand with her violet eyes of curiosity. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls.</t>
         </is>
       </c>
-      <c r="H267" s="0" t="inlineStr">
+      <c r="H267" t="inlineStr">
         <is>
           <t>ඞДевушка с любопытством рассматривает синюю карточку в своей руке. На ее слабо освещенных волосах сидит бейсболка, текстура которой переливается, как кожа рептилии, возвращая блеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство, словно вздымающиеся стены.</t>
         </is>
@@ -12953,7 +12953,7 @@
           <t>"I didn't expect to get a peek of that one's power when I tosses the vessel into... whatever dimension that was."</t>
         </is>
       </c>
-      <c r="H268" s="0" t="inlineStr">
+      <c r="H268" t="inlineStr">
         <is>
           <t>ඞ- Я не ожидал, что смогу хоть мельком увидеть его силу, когда брошу сосуд... в какое бы измерение это ни было.</t>
         </is>
@@ -13001,7 +13001,7 @@
 A beam of white light takes form inside its stretched mouth, then fires at the card. It regains its pristine cobalt blue color as the light fades.</t>
         </is>
       </c>
-      <c r="H269" s="0" t="inlineStr">
+      <c r="H269" t="inlineStr">
         <is>
           <t>ඞКак будто получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа.
 Из ее растянутой пасти вырывается луч белого света, который затем выстреливает в карту. Когда свет гаснет, карта приобретает свой первозданный кобальтово-синий цвет.</t>
@@ -13044,7 +13044,7 @@
           <t>"Here's your due reward. Take it and be grateful now that I've fixed your tattered mind."</t>
         </is>
       </c>
-      <c r="H270" s="0" t="inlineStr">
+      <c r="H270" t="inlineStr">
         <is>
           <t>ඞ- Вот тебе причитающаяся награда. Возьми ее и будь благодарен, что я привел в порядок твой расшатанный разум.</t>
         </is>
@@ -13086,7 +13086,7 @@
           <t>The girl then leaves the room in a flash.</t>
         </is>
       </c>
-      <c r="H271" s="0" t="inlineStr">
+      <c r="H271" t="inlineStr">
         <is>
           <t>ඞЗатем девушка в мгновение ока покидает комнату.</t>
         </is>
@@ -13128,7 +13128,7 @@
           <t>Ridiculed End</t>
         </is>
       </c>
-      <c r="H272" s="0" t="inlineStr">
+      <c r="H272" t="inlineStr">
         <is>
           <t>ඞОсмеянный конец</t>
         </is>
@@ -13176,7 +13176,7 @@
 The rampant disaster comes to a halt while the problem remains unsolved.</t>
         </is>
       </c>
-      <c r="H273" s="0" t="inlineStr">
+      <c r="H273" t="inlineStr">
         <is>
           <t>ඞВаше расследование указало на виновника всепроникающего красного тумана, кровавую луну, но тем временем вы едва избежали его смертоносной ассимиляции.
 Надвигающаяся катастрофа прекращается, а проблема остается нерешенной.</t>
@@ -13219,7 +13219,7 @@
           <t>Only time can heal the wounds.</t>
         </is>
       </c>
-      <c r="H274" s="0" t="inlineStr">
+      <c r="H274" t="inlineStr">
         <is>
           <t>ඞТолько время может залечить раны.</t>
         </is>
@@ -13270,7 +13270,7 @@
 They will only remember it as the stage where a terrible story took place.</t>
         </is>
       </c>
-      <c r="H275" s="0" t="inlineStr">
+      <c r="H275" t="inlineStr">
         <is>
           <t>ඞИсчез парк развлечений, с которым у людей были связаны самые дорогие воспоминания.
 Они будут помнить его только как сцену, на которой произошла ужасная история.</t>
@@ -13313,7 +13313,7 @@
           <t>Shards of memory return to the girl like gemstones once lost, imbuing her with emotions strange and familiar. Something wells up from the bottom of her heart, the wonderful, the sorrowful, the lamentable...</t>
         </is>
       </c>
-      <c r="H276" s="0" t="inlineStr">
+      <c r="H276" t="inlineStr">
         <is>
           <t>ඞОсколки воспоминаний возвращаются к девушке, как когда-то потерянные драгоценные камни, наполняя ее эмоциями, странными и знакомыми. Что-то поднимается из глубины ее сердца, чудесное, печальное, вызывающее сожаление...</t>
         </is>
@@ -13361,7 +13361,7 @@
 Time to wake up from the dream. She sighs.</t>
         </is>
       </c>
-      <c r="H277" s="0" t="inlineStr">
+      <c r="H277" t="inlineStr">
         <is>
           <t>ඞДжойя в последний раз бросает печальный взгляд на все вокруг, такое отвратительно мрачное и в то же время такое утешительное.
 Пора очнуться ото сна. Она вздыхает.</t>
@@ -13404,7 +13404,7 @@
           <t>Gavity holds her no more as she lets go of her legs, allowing the imaginary wings to take her closer to the moon.</t>
         </is>
       </c>
-      <c r="H278" s="0" t="inlineStr">
+      <c r="H278" t="inlineStr">
         <is>
           <t>ඞГавити больше не удерживает ее, когда она отпускает ноги, позволяя воображаемым крыльям поднять ее ближе к Луне.</t>
         </is>
@@ -13446,7 +13446,7 @@
           <t>Its crimson light, no longer ominous, bathes the girl in its serene glow. Breezes flit across her dress as she takes the dark red stage of the night, whispering their prayers. Their mistress is departing.</t>
         </is>
       </c>
-      <c r="H279" s="0" t="inlineStr">
+      <c r="H279" t="inlineStr">
         <is>
           <t>ඞЕго багровый свет, уже не зловещий, окутывает девушку своим безмятежным сиянием. Легкий ветерок трепещет по ее платью, когда она выходит на темно-красную сцену ночи, шепча молитвы. Их госпожа уходит.</t>
         </is>
@@ -13488,7 +13488,7 @@
           <t>Her body acquiesces to the promised farewell and yields up its existence, letting the moonlight through her crystalline torso and limbs. A cold warmth flows inside her.</t>
         </is>
       </c>
-      <c r="H280" s="0" t="inlineStr">
+      <c r="H280" t="inlineStr">
         <is>
           <t>ඞЕе тело согласно с обещанным прощанием и прекращает свое существование, позволяя лунному свету проникать сквозь ее кристаллический торс и конечности. Внутри нее разливается холодное тепло.</t>
         </is>
@@ -13530,7 +13530,7 @@
           <t>She doesn't hear the tinkle or see the crevices climbing across her pellucid body as it crumbles. At least it doesn't hurt. Her tears meld into the vast red velvet with fraying fragments the wind peels from her.</t>
         </is>
       </c>
-      <c r="H281" s="0" t="inlineStr">
+      <c r="H281" t="inlineStr">
         <is>
           <t>ඞОна не слышит звона и не видит, как по ее прозрачному телу расползаются трещины. По крайней мере, это не причиняет боли. Ее слезы смешиваются с огромным красным бархатом и обрывками ткани, которые ветер срывает с нее.</t>
         </is>
@@ -13572,7 +13572,7 @@
           <t>Slivers of crystal remnant recaptured by gravity, raining. Phantasmal vapor ceases. The night ends.</t>
         </is>
       </c>
-      <c r="H282" s="0" t="inlineStr">
+      <c r="H282" t="inlineStr">
         <is>
           <t>ඞОсколки хрусталя, захваченные гравитацией, падают дождем. Призрачный пар рассеивается. Ночь заканчивается.</t>
         </is>
@@ -13626,7 +13626,7 @@
 The moon once again graces the world with its purity as the wheel of time reverses its rotation.</t>
         </is>
       </c>
-      <c r="H283" s="0" t="inlineStr">
+      <c r="H283" t="inlineStr">
         <is>
           <t>ඞКровавую луну окутывает голубоватый свет, и ее багровое сияние отступает.
 Краснота отступает, сменяясь ночным покоем, который должен был быть здесь всегда.
@@ -13670,7 +13670,7 @@
           <t>In the new world this timeline depicts to you, &lt;color=#fbd989&gt;Alex&lt;/color&gt; has become a different person.</t>
         </is>
       </c>
-      <c r="H284" s="0" t="inlineStr">
+      <c r="H284" t="inlineStr">
         <is>
           <t>ඞВ новом мире, который предстает перед вами на этой временной шкале, &lt;color=#fbd989&gt;Алекс&lt;/color&gt; стал другим человеком.</t>
         </is>
@@ -13718,7 +13718,7 @@
 However, it doesn't take long before he donates the property to the town and only offers his hand in its management.</t>
         </is>
       </c>
-      <c r="H285" s="0" t="inlineStr">
+      <c r="H285" t="inlineStr">
         <is>
           <t>ඞОн наследует парк от Розалинды и становится его владельцем.
 Однако вскоре он передает собственность в дар городу и просто предлагает свою помощь в управлении.</t>
@@ -13767,7 +13767,7 @@
 In addition, Alex also sets up a psychological counseling office inside the town at the help of the local community.</t>
         </is>
       </c>
-      <c r="H286" s="0" t="inlineStr">
+      <c r="H286" t="inlineStr">
         <is>
           <t>ඞПарк Фар-Хоуп вновь откроется в качестве полуобщественного парка для посетителей из ближнего и дальнего зарубежья.
 Кроме того, Алекс с помощью местного сообщества открывает в городе кабинет психологической консультации.</t>
@@ -13816,7 +13816,7 @@
 It's our hope that this may encourage you in dire hours.*&lt;/i&gt;&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H287" s="0" t="inlineStr">
+      <c r="H287" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#636363&gt;&lt;i&gt;*Хотя счастье жизненно важно, мы всегда должны учиться принимать грусть и уныние, поскольку именно они делают нашу жизнь цельной.
 Мы надеемся, что это подбодрит вас в трудную минуту.*&lt;/i&gt;&lt;/color&gt;</t>
@@ -13865,7 +13865,7 @@
 He can finally enjoy a life of his own.</t>
         </is>
       </c>
-      <c r="H288" s="0" t="inlineStr">
+      <c r="H288" t="inlineStr">
         <is>
           <t>ඞУвидев, что Алекс способен навести порядок собственными руками, Паскуалино покидает город, сняв с плеч тяжелую ношу.
 Наконец-то он может наслаждаться самостоятельной жизнью.</t>
@@ -13914,7 +13914,7 @@
 The least thing you want to do there would be ordering a pineapple pizza.</t>
         </is>
       </c>
-      <c r="H289" s="0" t="inlineStr">
+      <c r="H289" t="inlineStr">
         <is>
           <t>ඞЧерез два года после того, как он уехал из Фар-Хоуп-Тауна, в итальянском ресторане в соседнем городе появился мускулистый шеф.
 Меньше всего на свете вам хотелось бы заказать там пиццу с ананасами.</t>
@@ -13957,7 +13957,7 @@
           <t>In another dimension, a girl examines the red crystal with her violet eyes of curiosity. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls.</t>
         </is>
       </c>
-      <c r="H290" s="0" t="inlineStr">
+      <c r="H290" t="inlineStr">
         <is>
           <t>ඞВ другом измерении девушка с любопытством рассматривает красный кристалл своими фиолетовыми глазами. На ее слабо освещенных волосах сидит бейсболка, текстура которой переливается блеском кожи рептилий, возвращая блеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство подобно вздымающимся стенам.</t>
         </is>
@@ -14005,7 +14005,7 @@
 "A shame that you've squandered the most of it. Well, at least I get to to keep the key."</t>
         </is>
       </c>
-      <c r="H291" s="0" t="inlineStr">
+      <c r="H291" t="inlineStr">
         <is>
           <t>ඞ"Я думал, что это просто моя невнимательность, но, оказывается, твое самосознание сыграло свою роль. Интересно".
 "Жаль, что ты растратил большую часть денег. Что ж, по крайней мере, у меня есть возможность сохранить ключ".</t>
@@ -14048,7 +14048,7 @@
           <t>"Oh, I almost forgot it. Your reward. Here, take it and be grateful."</t>
         </is>
       </c>
-      <c r="H292" s="0" t="inlineStr">
+      <c r="H292" t="inlineStr">
         <is>
           <t>ඞ"О, я чуть не забыл об этом. Твоя награда. Вот, возьми ее и будь благодарен".</t>
         </is>
@@ -14090,7 +14090,7 @@
           <t>As if having received the command, the serpent entangling her other arm erects from its prone position. Lies inside its open mouth is a crimson ring.</t>
         </is>
       </c>
-      <c r="H293" s="0" t="inlineStr">
+      <c r="H293" t="inlineStr">
         <is>
           <t>ඞСловно получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа. В ее открытой пасти находится малиновое кольцо.</t>
         </is>
@@ -14132,7 +14132,7 @@
           <t>"You've proved yourself worthy of my trust. Now if you'd excuse me..."</t>
         </is>
       </c>
-      <c r="H294" s="0" t="inlineStr">
+      <c r="H294" t="inlineStr">
         <is>
           <t>ඞ- Вы доказали, что достойны моего доверия. А теперь, если позволите, я...</t>
         </is>
@@ -14174,7 +14174,7 @@
           <t>In a white flash, the girl has left the room, leaving only her idle voice echoing behind.</t>
         </is>
       </c>
-      <c r="H295" s="0" t="inlineStr">
+      <c r="H295" t="inlineStr">
         <is>
           <t>ඞВ белой вспышке девушка покидает комнату, оставляя после себя только эхо своего праздного голоса.</t>
         </is>
@@ -14216,7 +14216,7 @@
           <t>Past Restored</t>
         </is>
       </c>
-      <c r="H296" s="0" t="inlineStr">
+      <c r="H296" t="inlineStr">
         <is>
           <t>ඞПрошлое восстановлено</t>
         </is>
@@ -14264,7 +14264,7 @@
 The park's fate is in the hands of the residents of this world once more.</t>
         </is>
       </c>
-      <c r="H297" s="0" t="inlineStr">
+      <c r="H297" t="inlineStr">
         <is>
           <t>ඞВремя поворачивает вспять, прежде чем снова остановиться на развилке. На этот раз вместо тропы, вымощенной трагедиями, оно ведет на нехоженую тропу.
 Судьба парка снова в руках жителей этого мира.</t>
@@ -14313,7 +14313,7 @@
 Nevertheless, the chapters of woe are now stories of the past, and stagnation now gives way to the vibrant flow.</t>
         </is>
       </c>
-      <c r="H298" s="0" t="inlineStr">
+      <c r="H298" t="inlineStr">
         <is>
           <t>ඞТолько время может сказать, какие чудеса или испытания ждут их впереди.
 Тем не менее, печальные главы остались в прошлом, а застой уступил место бурному течению.</t>
@@ -14356,7 +14356,7 @@
           <t>Every other soul welcomes the happy ending at the cost of one soul's sacrifice.</t>
         </is>
       </c>
-      <c r="H299" s="0" t="inlineStr">
+      <c r="H299" t="inlineStr">
         <is>
           <t>ඞКаждая вторая душа приветствует счастливый конец ценой жертвы одной души.</t>
         </is>
@@ -14404,7 +14404,7 @@
 Through the ring, you see the park with its peace restored and the genuine smiles on its visitors' faces.</t>
         </is>
       </c>
-      <c r="H300" s="0" t="inlineStr">
+      <c r="H300" t="inlineStr">
         <is>
           <t>ඞЧто-то покалывает вас в кулаке. Когда вы раскрываете ладонь, на ней лежит малиновое кольцо, от которого все еще исходит знакомое тепло.
 Сквозь кольцо вы видите парк с восстановленным покоем и искренними улыбками на лицах посетителей.</t>
@@ -14447,7 +14447,7 @@
           <t>You put down the ring and examine its benevolent glow. Courage and determination fill your heart</t>
         </is>
       </c>
-      <c r="H301" s="0" t="inlineStr">
+      <c r="H301" t="inlineStr">
         <is>
           <t>ඞВы кладете кольцо и смотрите, как оно благожелательно сияет. Мужество и решимость наполняют ваше сердце</t>
         </is>
@@ -14495,7 +14495,7 @@
 Various buildings and facilities are veiled by the mist, making it increasingly difficult to see clearly.</t>
         </is>
       </c>
-      <c r="H302" s="0" t="inlineStr">
+      <c r="H302" t="inlineStr">
         <is>
           <t>ඞПока вы готовитесь к следующему шагу, местность постепенно окутывает красный туман.
 Различные здания и сооружения скрыты туманом, из-за чего становится все труднее их четко видеть.</t>
@@ -14538,7 +14538,7 @@
           <t>Black silhouettes are floating in the red mist, as if trapped in an eerie dream.</t>
         </is>
       </c>
-      <c r="H303" s="0" t="inlineStr">
+      <c r="H303" t="inlineStr">
         <is>
           <t>ඞЧерные силуэты плывут в красном тумане, словно попавшие в жуткий сон.</t>
         </is>
@@ -14586,7 +14586,7 @@
 You muster your strength, barely managing to maintain focus. Fortunately, you still retain control over your actions.</t>
         </is>
       </c>
-      <c r="H304" s="0" t="inlineStr">
+      <c r="H304" t="inlineStr">
         <is>
           <t>ඞУ вас начинает кружиться голова, как будто сознание покидает вас. Красный туман окутывает вас, словно желая завладеть вами. Однако пряность источает сладкий, но странный аромат.
 Вы собираете все свои силы, с трудом сохраняя сосредоточенность. К счастью, вы все еще сохраняете контроль над своими действиями.</t>
@@ -14635,7 +14635,7 @@
 You muster your strength, barely managing to maintain focus. Fortunately, you still retain control over your actions.</t>
         </is>
       </c>
-      <c r="H305" s="0" t="inlineStr">
+      <c r="H305" t="inlineStr">
         <is>
           <t>ඞУ тебя начинает кружиться голова, как будто сознание покидает тебя. Красный туман окутывает тебя, словно желая завладеть тобой. Однако кулон излучает слабое свечение.
 Ты собираешь все свои силы, с трудом сохраняя сосредоточенность. К счастью, вы все еще сохраняете контроль над своими действиями.</t>
@@ -14678,7 +14678,7 @@
           <t>As your mind grows groggy and your sanity blurs, you suddenly catch a whiff of blood. Only then do you manage to regain some semblance of consciousness.</t>
         </is>
       </c>
-      <c r="H306" s="0" t="inlineStr">
+      <c r="H306" t="inlineStr">
         <is>
           <t>ඞКогда ваш разум затуманивается, а здравомыслие затуманивается, вы внезапно ощущаете запах крови. Только тогда вам удается прийти в себя.</t>
         </is>
@@ -14720,7 +14720,7 @@
           <t>You muster your strength, barely managing to maintain focus. Fortunately, you still retain control over your actions.</t>
         </is>
       </c>
-      <c r="H307" s="0" t="inlineStr">
+      <c r="H307" t="inlineStr">
         <is>
           <t>ඞВы собираете все свои силы, с трудом сохраняя сосредоточенность. К счастью, вы все еще сохраняете контроль над своими действиями.</t>
         </is>
@@ -14768,7 +14768,7 @@
 You close your eyes in agony, feeling as though your brain may crack under the weight of this cacophony.</t>
         </is>
       </c>
-      <c r="H308" s="0" t="inlineStr">
+      <c r="H308" t="inlineStr">
         <is>
           <t>ඞЗапах сырости наполняет ваши ноздри, и ваши мысли начинают путаться. Вам кажется, что миллионы шепотов раздаются в ушах.
 Вы закрываете глаза в агонии, чувствуя, что ваш мозг может треснуть под тяжестью этой какофонии.</t>
@@ -14817,7 +14817,7 @@
 You sense everything around you becoming threatening, and feel an overwhelming urge to destroy them, to obliterate everything just to catch your breath.</t>
         </is>
       </c>
-      <c r="H309" s="0" t="inlineStr">
+      <c r="H309" t="inlineStr">
         <is>
           <t>ඞКогда вы снова открываете глаза, ваше зрение затуманено маниакальным кроваво-красным оттенком.
 Вы чувствуете, что все вокруг вас становится угрожающим, и испытываете непреодолимое желание разрушить это, стереть все с лица земли, просто чтобы перевести дух.</t>
@@ -14860,7 +14860,7 @@
           <t>You hear the metallic clash of chains, and you recognize that the terrifying figure is pursuing you.</t>
         </is>
       </c>
-      <c r="H310" s="0" t="inlineStr">
+      <c r="H310" t="inlineStr">
         <is>
           <t>ඞВы слышите металлический лязг цепей и понимаете, что ужасающая фигура преследует вас.</t>
         </is>
@@ -14902,7 +14902,7 @@
           <t>Escape from Executioner</t>
         </is>
       </c>
-      <c r="H311" s="0" t="inlineStr">
+      <c r="H311" t="inlineStr">
         <is>
           <t>ඞПобег от палача</t>
         </is>
@@ -14944,7 +14944,7 @@
           <t>You manage to find a hideout just in time. After remaining hidden for some time, the metallic sound fades away.</t>
         </is>
       </c>
-      <c r="H312" s="0" t="inlineStr">
+      <c r="H312" t="inlineStr">
         <is>
           <t>ඞВам удается найти укрытие как раз вовремя. После того, как вы некоторое время оставались в укрытии, металлический звук затихает вдали.</t>
         </is>
@@ -14986,7 +14986,7 @@
           <t>Executioner Appears</t>
         </is>
       </c>
-      <c r="H313" s="0" t="inlineStr">
+      <c r="H313" t="inlineStr">
         <is>
           <t>ඞПоявляется палач</t>
         </is>
@@ -15028,7 +15028,7 @@
           <t>A silent, tall figure emerges from the darkness and, without any hesitation, his chains lunge towards you.</t>
         </is>
       </c>
-      <c r="H314" s="0" t="inlineStr">
+      <c r="H314" t="inlineStr">
         <is>
           <t>ඞБезмолвная высокая фигура появляется из темноты и, не колеблясь, бросается на вас в цепях.</t>
         </is>
@@ -15082,7 +15082,7 @@
 Along with the fireworks igniting the air, cheerful music plays throughout the park. For a moment, the park seems to return to its once joyful and vibrant state.</t>
         </is>
       </c>
-      <c r="H315" s="0" t="inlineStr">
+      <c r="H315" t="inlineStr">
         <is>
           <t>ඞСначала вы слышите несколько "свистящих звуков", указывающих на то, что что-то стремительно поднимается в воздух, а затем раздается оглушительный "Хлоп!" от взрыва фейерверка.
 Вы смотрите вверх и видите, как небо пронизывают ослепительные языки пламени.
@@ -15132,7 +15132,7 @@
 At this point, should one observe from above, they would see the park's frantic tourists falling to the ground.</t>
         </is>
       </c>
-      <c r="H316" s="0" t="inlineStr">
+      <c r="H316" t="inlineStr">
         <is>
           <t>ඞВоздух наполняется запахом фейерверков и серы, который эффективно вытесняет запах крови.
 В этот момент, если бы кто-нибудь наблюдал за парком сверху, он увидел бы, как обезумевшие туристы падают на землю.</t>
@@ -15175,7 +15175,7 @@
           <t>You feel something fall onto your head and drop to the ground. Looking down, you spot a red crystal shard at your feet.</t>
         </is>
       </c>
-      <c r="H317" s="0" t="inlineStr">
+      <c r="H317" t="inlineStr">
         <is>
           <t>ඞВы чувствуете, как что-то падает вам на голову и падает на землю. Посмотрев вниз, вы замечаете у своих ног осколок красного кристалла.</t>
         </is>
@@ -15223,7 +15223,7 @@
 A sinister chill crawls onto your spine as unspeakable oppression grasps you in its tight grip, suffocating your breath and mind both like claustrophobia itself.</t>
         </is>
       </c>
-      <c r="H318" s="0" t="inlineStr">
+      <c r="H318" t="inlineStr">
         <is>
           <t>ඞВнезапно вы начинаете различать белый шум, бьющий в барабанную перепонку. Крошечные, сталкивающиеся снежинки попадают в поле вашего зрения, размывая все вокруг своими беспорядочными пятнами, лишенными существования. Все ваши слабые чувства задают вам вопрос: таков ли этот мир, каким вы его знаете?
 Зловещий холодок пробирается по вашему позвоночнику, когда невыразимое угнетение сжимает вас в своих крепких тисках, удушая ваше дыхание и разум, как сама клаустрофобия.</t>
@@ -15279,7 +15279,7 @@
 Painstakingly, you lower your numbed head. Every part of you is being decoded to what it has always been. Hands, arms, torso, legs... They're merely returning to their true form: string after string of lifeless numbers and characters, breaking up like scattered jigsaw pieces.</t>
         </is>
       </c>
-      <c r="H319" s="0" t="inlineStr">
+      <c r="H319" t="inlineStr">
         <is>
           <t>ඞТвои беспомощные, полные ужаса глаза широко раскрываются.
 Материалы и сущности, из которых построен мир, теряют свое место в измерениях.
@@ -15330,7 +15330,7 @@
 The remnant of your vision sees you disintegrating with the rest of the world, giving way to lines and columns of programs before all cease to be on a black screen.</t>
         </is>
       </c>
-      <c r="H320" s="0" t="inlineStr">
+      <c r="H320" t="inlineStr">
         <is>
           <t>ඞСознание ускользает. Логика рушится, когда ход ваших мыслей распадается на отдельные сегменты. Ослепительная вспышка.
 Остатки вашего зрения видят, как вы распадаетесь на части вместе с остальным миром, уступая место строчкам и столбцам программ, прежде чем все это исчезнет на черном экране.</t>
@@ -15379,7 +15379,7 @@
 Not far away, a group of crazy tourists stagger towards you.</t>
         </is>
       </c>
-      <c r="H321" s="0" t="inlineStr">
+      <c r="H321" t="inlineStr">
         <is>
           <t>ඞКак только вы собираетесь сделать следующий шаг, вы слышите звук металла, скребущего по земле.
 Неподалеку к вам, пошатываясь, направляется группа сумасшедших туристов.</t>
@@ -15422,7 +15422,7 @@
           <t>Sanguineous Loch</t>
         </is>
       </c>
-      <c r="H322" s="0" t="inlineStr">
+      <c r="H322" t="inlineStr">
         <is>
           <t>ඞКровавое озеро</t>
         </is>
@@ -15471,7 +15471,7 @@
 The&lt;color=#DC143C&gt;Blood Moon&lt;/color&gt; seems to be the fount of such madness as their malicious bodies carry the red mist with them.</t>
         </is>
       </c>
-      <c r="H323" s="0" t="inlineStr">
+      <c r="H323" t="inlineStr">
         <is>
           <t>ඞВашему ужасному взору предстают три отвратительных гуманоида. Не прикрытые никакой кожей, их &lt;color=#DC143C&gt;обнаженная плоть и обнаженные вены&lt;/color&gt; пульсируют при каждом их неверном шаге. Гигантская пустота, лишенная каких-либо эмоций, заменяет выражение лица каждого из них.
 Кровавая Луна кажется источником такого безумия, поскольку их злобные тела несут с собой красный туман.</t>
@@ -15526,7 +15526,7 @@
 Her lips move, but her &lt;color=#DC143C&gt;whispers&lt;/color&gt; to the moon are unheard.</t>
         </is>
       </c>
-      <c r="H324" s="0" t="inlineStr">
+      <c r="H324" t="inlineStr">
         <is>
           <t>ඞБездушная Джойя стоит у озера, в ее ввалившихся глазах отражается только печаль восходящей Кровавой Луны.
 Небесный шар молча смотрит на девушку, его зловещая энергия вливается в ее тело по невидимому каналу, прежде чем потоки того же тумана начинают подниматься и растекаться по ее коже вместе с потоками ее дыхания.
@@ -15582,7 +15582,7 @@
 Red ripples ruffle the water, revealing the unseen horror beneath as winds wail and whisper their curses at your ear.</t>
         </is>
       </c>
-      <c r="H325" s="0" t="inlineStr">
+      <c r="H325" t="inlineStr">
         <is>
           <t>ඞЗловещая дымка полностью скрыла парк от надвигающейся ночи своим зловещим присутствием.
 Вы направляетесь к берегу озера. Тревожные потоки крови стекают на мерцающую поверхность бездонного пруда. С колокольни колокольный звон возвещает о смерти дневного света. Наступила темнота.
@@ -15632,7 +15632,7 @@
 At their swelling source in the center of the lake, a glowing sphere emerges from beneath the water, cursing everything that bathes its rays of blood—</t>
         </is>
       </c>
-      <c r="H326" s="0" t="inlineStr">
+      <c r="H326" t="inlineStr">
         <is>
           <t>ඞАлое безумие превращает озеро в кровавую выгребную яму. Земля подчиняется его власти и дрожит от страха, а безумные волны разбиваются о берег.
 У их набухающего источника в центре озера из-под воды появляется светящаяся сфера, проклинающая все, что омывается ее кровавыми лучами—</t>
@@ -15684,7 +15684,7 @@
 The unfathomed eye inspects you through the red light, the only truth of eons.&lt;/color&gt;It lies there, out of the boundaries of all imagination, all calculation, and all perception.</t>
         </is>
       </c>
-      <c r="H327" s="0" t="inlineStr">
+      <c r="H327" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#DC143C&gt;В алой крови вы видите несчастные души, которые отпали от благодати и поддались своей алчности и желаниям.
 Бездонное око смотрит на вас сквозь красный свет, единственную истину за многие века.&lt;/color&gt; Это лежит там, за пределами любого воображения, любого расчета и любого восприятия.</t>
@@ -15727,7 +15727,7 @@
           <t>The moon hangs over the dreadful night, its scowl snares your soul.</t>
         </is>
       </c>
-      <c r="H328" s="0" t="inlineStr">
+      <c r="H328" t="inlineStr">
         <is>
           <t>ඞЛуна висит над ужасной ночью, ее хмурый взгляд заманивает в ловушку твою душу.</t>
         </is>
@@ -15775,7 +15775,7 @@
 Streams of red mist swirl above you, gathering, howling, and finally descending... on you.</t>
         </is>
       </c>
-      <c r="H329" s="0" t="inlineStr">
+      <c r="H329" t="inlineStr">
         <is>
           <t>ඞПламя сжигает этих монстров и превращает их тела в пепел, прежде чем развеять прах по ветру.
 Потоки красного тумана клубятся над вами, собираются, завывают и, наконец, опускаются... на вас.</t>
@@ -15818,7 +15818,7 @@
           <t>!!!</t>
         </is>
       </c>
-      <c r="H330" s="0" t="inlineStr">
+      <c r="H330" t="inlineStr">
         <is>
           <t>ඞ!!!</t>
         </is>
@@ -15860,7 +15860,7 @@
           <t>You let out a sigh of relief after you find it was the shattered mask that the mist clung onto.</t>
         </is>
       </c>
-      <c r="H331" s="0" t="inlineStr">
+      <c r="H331" t="inlineStr">
         <is>
           <t>ඞВы вздыхаете с облегчением, обнаружив, что туман прилип к разбитой маске.</t>
         </is>
@@ -15902,7 +15902,7 @@
           <t>A soulless Gioia stands by the lake, her hollowed eyes reflects only the sadness of the rising &lt;color=#DC143C&gt;Blood Moon&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H332" s="0" t="inlineStr">
+      <c r="H332" t="inlineStr">
         <is>
           <t>ඞБездушная Джойя стоит у озера, в ее ввалившихся глазах отражается только печаль восходящей &lt;color=#DC143C&gt;Кровавой Луны&lt;/color&gt;.</t>
         </is>
@@ -15944,7 +15944,7 @@
           <t>Defeat Incarnation</t>
         </is>
       </c>
-      <c r="H333" s="0" t="inlineStr">
+      <c r="H333" t="inlineStr">
         <is>
           <t>ඞПобедное воплощение</t>
         </is>
@@ -15986,7 +15986,7 @@
           <t>Gioia, whose mind is at the verge of collapse, starts to lose control over her body, her lips twitching as she sobs in a broken voice.</t>
         </is>
       </c>
-      <c r="H334" s="0" t="inlineStr">
+      <c r="H334" t="inlineStr">
         <is>
           <t>ඞДжойя, чей разум находится на грани срыва, начинает терять контроль над своим телом, ее губы дергаются, когда она всхлипывает прерывающимся голосом.</t>
         </is>
@@ -16034,7 +16034,7 @@
 Mon... Dad... were they just my dream...?</t>
         </is>
       </c>
-      <c r="H335" s="0" t="inlineStr">
+      <c r="H335" t="inlineStr">
         <is>
           <t>ඞЭтого не может быть...
 Понедельник... Папа... неужели это был всего лишь мой сон?..</t>
@@ -16083,7 +16083,7 @@
 She attempts and fails to deny herself the memories she's been cherishing for so long.</t>
         </is>
       </c>
-      <c r="H336" s="0" t="inlineStr">
+      <c r="H336" t="inlineStr">
         <is>
           <t>ඞДжойя пошатывается. Ее зрачки сужаются.
 Она безуспешно пытается избавиться от воспоминаний, которые так долго лелеяла.</t>
@@ -16132,7 +16132,7 @@
 There's no way they'd have left me like that. They had been with me all the time!</t>
         </is>
       </c>
-      <c r="H337" s="0" t="inlineStr">
+      <c r="H337" t="inlineStr">
         <is>
           <t>ඞЛожь, это ложь, все, что было в том особняке...
 Они бы ни за что не бросили меня вот так. Они были со мной все это время!</t>
@@ -16175,7 +16175,7 @@
           <t>Trails of tears run down her cheeks. Her reason has taken the plunge.</t>
         </is>
       </c>
-      <c r="H338" s="0" t="inlineStr">
+      <c r="H338" t="inlineStr">
         <is>
           <t>ඞПо ее щекам текут дорожки слез. Ее рассудок принял решительный оборот.</t>
         </is>
@@ -16217,7 +16217,7 @@
           <t>Liar! You lied to me! It's not real!</t>
         </is>
       </c>
-      <c r="H339" s="0" t="inlineStr">
+      <c r="H339" t="inlineStr">
         <is>
           <t>ඞЛжец! Ты солгал мне! Это неправда!</t>
         </is>
@@ -16259,7 +16259,7 @@
           <t>Time freezes at the fleeting moment. Like red flies to bile, patches of mist in your vision swarms at Gioia, surrounding and trapping her at the middle of a bloody vortex of air. You can hardly see anything aside the roaring cyclone until the gale starts to calm down. A mad maiden floating in the air at the eye of the scarlet storm.</t>
         </is>
       </c>
-      <c r="H340" s="0" t="inlineStr">
+      <c r="H340" t="inlineStr">
         <is>
           <t>ඞВремя замирает на мгновение. Словно красные мухи, слетевшиеся на желчь, клочья тумана в вашем поле зрения роятся над Джойей, окружая и удерживая ее в центре кровавого воздушного вихря. Вы почти ничего не видите, кроме ревущего циклона, пока буря не начинает стихать. Безумная девушка, парящая в воздухе в эпицентре алой бури.</t>
         </is>
@@ -16301,7 +16301,7 @@
           <t>Her attire bleeds the redness of blood, and her eyes are dyed by the restless agony and pain. Red shards of crystal hover behind her, their edges shining the glint of murder.</t>
         </is>
       </c>
-      <c r="H341" s="0" t="inlineStr">
+      <c r="H341" t="inlineStr">
         <is>
           <t>ඞЕе одежда окрашена в красный цвет крови, а глаза окрашены беспокойной агонией и болью. За ее спиной парят красные осколки хрусталя, их грани излучают жажду убийства.</t>
         </is>
@@ -16343,7 +16343,7 @@
           <t>Gioia the Lost</t>
         </is>
       </c>
-      <c r="H342" s="0" t="inlineStr">
+      <c r="H342" t="inlineStr">
         <is>
           <t>ඞДжойя потерянная</t>
         </is>
@@ -16391,7 +16391,7 @@
 Soothed by their gentle glow, you look into their light, their reflection upon the past.</t>
         </is>
       </c>
-      <c r="H343" s="0" t="inlineStr">
+      <c r="H343" t="inlineStr">
         <is>
           <t>ඞТы видишь, как из твоего кармана вылетает белый кристалл и разбивается на мелкие осколки, защищая Джойю от нападения.
 Успокоенный их мягким сиянием, ты смотришь в их свет, в их отражение прошлого.</t>
@@ -16434,7 +16434,7 @@
           <t>You see the illusion of a girl clapping her hands with joy on the ceremony of the park's completion.</t>
         </is>
       </c>
-      <c r="H344" s="0" t="inlineStr">
+      <c r="H344" t="inlineStr">
         <is>
           <t>ඞВы видите иллюзию девушки, радостно хлопающей в ладоши на церемонии завершения строительства парка.</t>
         </is>
@@ -16476,7 +16476,7 @@
           <t>You see her illusion and smiling eyes as she rests her head on the table, watching Alessio present Rosa with her birthday cake in the mansion.</t>
         </is>
       </c>
-      <c r="H345" s="0" t="inlineStr">
+      <c r="H345" t="inlineStr">
         <is>
           <t>ඞВы видите ее иллюзию и улыбающиеся глаза, когда она кладет голову на стол, наблюдая, как Алессио преподносит Розе праздничный торт в особняке.</t>
         </is>
@@ -16518,7 +16518,7 @@
           <t>You see her illusion and curious eyes as she stands next to Alessio, who burns the late night oil at his desk for the SkyWheel's blueprint.</t>
         </is>
       </c>
-      <c r="H346" s="0" t="inlineStr">
+      <c r="H346" t="inlineStr">
         <is>
           <t>ඞВы видите ее иллюзию и любопытные глаза, когда она стоит рядом с Алессио, который допоздна сжигает масло за своим столом для чертежа небесного колеса.</t>
         </is>
@@ -16566,7 +16566,7 @@
 Together we can find the answer you've been seeking!</t>
         </is>
       </c>
-      <c r="H347" s="0" t="inlineStr">
+      <c r="H347" t="inlineStr">
         <is>
           <t>ඞУспокойся, Джойя!
 Вместе мы сможем найти ответ, который ты так долго искала!</t>
@@ -16609,7 +16609,7 @@
           <t>Yet the girl refuses to wake from her dream.</t>
         </is>
       </c>
-      <c r="H348" s="0" t="inlineStr">
+      <c r="H348" t="inlineStr">
         <is>
           <t>ඞНо девушка отказывается пробуждаться от своего сна.</t>
         </is>
@@ -16663,7 +16663,7 @@
 I was born because of them...</t>
         </is>
       </c>
-      <c r="H349" s="0" t="inlineStr">
+      <c r="H349" t="inlineStr">
         <is>
           <t>ඞЯ никогда не искал ответа!
 Я их дети, их любовь...
@@ -16713,7 +16713,7 @@
 If not, what were those feelings inside me? Who am I?!</t>
         </is>
       </c>
-      <c r="H350" s="0" t="inlineStr">
+      <c r="H350" t="inlineStr">
         <is>
           <t>ඞМои воспоминания - вот ответ!
 Если нет, то что это были за чувства внутри меня? Кто я такой?!</t>
@@ -16756,7 +16756,7 @@
           <t>Light of malice takes form in her hands. You will have to defend yourself from her next attack before you can change her mind with your words.</t>
         </is>
       </c>
-      <c r="H351" s="0" t="inlineStr">
+      <c r="H351" t="inlineStr">
         <is>
           <t>ඞСвет злобы обретает форму в ее руках. Вам придется защищаться от ее следующей атаки, прежде чем вы сможете переубедить ее своими словами.</t>
         </is>
@@ -16798,7 +16798,7 @@
           <t>Consciousness is being peeled away from you as her attack continues. It's only thanks to the gentle warmth from the crystal you're holding that you can still maintain yourself.</t>
         </is>
       </c>
-      <c r="H352" s="0" t="inlineStr">
+      <c r="H352" t="inlineStr">
         <is>
           <t>ඞЕе атака продолжается, и сознание покидает тебя. Только благодаря нежному теплу кристалла, который ты держишь в руках, ты все еще можешь поддерживать себя в форме.</t>
         </is>
@@ -16846,7 +16846,7 @@
 You saw his grave yourself! Proof of decade's putrefaction!</t>
         </is>
       </c>
-      <c r="H353" s="0" t="inlineStr">
+      <c r="H353" t="inlineStr">
         <is>
           <t>ඞАлессио умер в далеком 1955 году, Джойя!
 Ты сама видела его могилу! Доказательство десятилетнего разложения!</t>
@@ -16895,7 +16895,7 @@
 You won't fool me.</t>
         </is>
       </c>
-      <c r="H354" s="0" t="inlineStr">
+      <c r="H354" t="inlineStr">
         <is>
           <t>ඞЛжец! Меня не было совсем недолго!
 Меня тебе не одурачить.</t>
@@ -16938,7 +16938,7 @@
           <t>Then tell me about your mother, Gioia! Tell me what Rosa looked like!</t>
         </is>
       </c>
-      <c r="H355" s="0" t="inlineStr">
+      <c r="H355" t="inlineStr">
         <is>
           <t>ඞТогда расскажи мне о своей матери, Джойя! Расскажи мне, как выглядела Роза!</t>
         </is>
@@ -16980,7 +16980,7 @@
           <t>The mist around her fades a little as Gioia become lost, pondering over your inquisition. For a moment, you hear only the vortex howling.</t>
         </is>
       </c>
-      <c r="H356" s="0" t="inlineStr">
+      <c r="H356" t="inlineStr">
         <is>
           <t>ඞТуман вокруг нее немного рассеивается, когда Джойя теряется, размышляя о вашем расследовании. На мгновение вы слышите только завывание вихря.</t>
         </is>
@@ -17028,7 +17028,7 @@
 Even so, she'd always prepare some tea for Dad every time he stayed up late...</t>
         </is>
       </c>
-      <c r="H357" s="0" t="inlineStr">
+      <c r="H357" t="inlineStr">
         <is>
           <t>ඞМама всегда добра ко всем, кто ее окружает... Она милая... но у нее всегда было много работы...
 Несмотря на это, она всегда готовила чай для папы, когда он засиживался допоздна...</t>
@@ -17071,7 +17071,7 @@
           <t>Madam Rosa was almost seventy when she passed away, but you know what she looked like. It was her whom you saw in the mansion!</t>
         </is>
       </c>
-      <c r="H358" s="0" t="inlineStr">
+      <c r="H358" t="inlineStr">
         <is>
           <t>ඞМадам Розе было почти семьдесят, когда она скончалась, но вы знаете, как она выглядела. Это ее вы видели в особняке!</t>
         </is>
@@ -17113,7 +17113,7 @@
           <t>Her pale face twitches as your words send her wavering. Cold truth and her distant hopes are tearing the girl apart.</t>
         </is>
       </c>
-      <c r="H359" s="0" t="inlineStr">
+      <c r="H359" t="inlineStr">
         <is>
           <t>ඞЕе бледное лицо подергивается, когда твои слова заставляют ее колебаться. Холодная правда и ее призрачные надежды разрывают девушку на части.</t>
         </is>
@@ -17161,7 +17161,7 @@
 Mom... How did you...</t>
         </is>
       </c>
-      <c r="H360" s="0" t="inlineStr">
+      <c r="H360" t="inlineStr">
         <is>
           <t>ඞ..
 Мама... Как ты...</t>
@@ -17219,7 +17219,7 @@
 They'll come back to me once I wake up from it. They will!</t>
         </is>
       </c>
-      <c r="H361" s="0" t="inlineStr">
+      <c r="H361" t="inlineStr">
         <is>
           <t>ඞЭто был настоящий сон!
 Да! Ночной кошмар!
@@ -17269,7 +17269,7 @@
 The storm resumes its mad howl as the vortex seems to engulf you.</t>
         </is>
       </c>
-      <c r="H362" s="0" t="inlineStr">
+      <c r="H362" t="inlineStr">
         <is>
           <t>ඞНо ее упрямство все равно приводит ее к ложному выводу.
 Буря возобновляет свой безумный вой, и кажется, что вихрь вот-вот поглотит вас.</t>
@@ -17330,7 +17330,7 @@
 The past and future converges on you through the nexus of time as those memories, whether yours or not, begin to flow into you.</t>
         </is>
       </c>
-      <c r="H363" s="0" t="inlineStr">
+      <c r="H363" t="inlineStr">
         <is>
           <t>ඞКровавая Луна испускает яростные лучи, и ты чувствуешь, как кровь закипает в твоих жилах, чтобы ответить на зов.
 Каждая клеточка твоего тела восстает против тебя в отчаянной попытке вырваться из этой клетки плоти.
@@ -17381,7 +17381,7 @@
 You struggles to get on your feet, realizing how Gioia is the last piece of puzzle to reverse the Blood Moon.</t>
         </is>
       </c>
-      <c r="H364" s="0" t="inlineStr">
+      <c r="H364" t="inlineStr">
         <is>
           <t>ඞСлабое свечение последнего осколка белого кристалла защищает твой пошатнувшийся рассудок от разрушения.
 Ты изо всех сил пытаешься встать на ноги, понимая, что Джойя - последний кусочек головоломки, который может обратить вспять Кровавую Луну.</t>
@@ -17454,7 +17454,7 @@
 Instead, we repel it with our light!</t>
         </is>
       </c>
-      <c r="H365" s="0" t="inlineStr">
+      <c r="H365" t="inlineStr">
         <is>
           <t>ඞДжойя...
 Иногда наши воспоминания могут быть обманчивы.
@@ -17501,7 +17501,7 @@
           <t>You summon all of your strength and toss the white crystal at Gioia.</t>
         </is>
       </c>
-      <c r="H366" s="0" t="inlineStr">
+      <c r="H366" t="inlineStr">
         <is>
           <t>ඞТы собираешь все свои силы и бросаешь белый кристалл в Джойю.</t>
         </is>
@@ -17549,7 +17549,7 @@
 And with that, her madness.</t>
         </is>
       </c>
-      <c r="H367" s="0" t="inlineStr">
+      <c r="H367" t="inlineStr">
         <is>
           <t>ඞВ тот момент, когда он касается тела Джойи, невидимая нить, связывающая ее с Кровавой Луной, ослабевает.
 А вместе с ней и ее безумие.</t>
@@ -17598,7 +17598,7 @@
 This Gioia... She is but my fantasy...</t>
         </is>
       </c>
-      <c r="H368" s="0" t="inlineStr">
+      <c r="H368" t="inlineStr">
         <is>
           <t>ඞ..
 Я знаю...
@@ -17660,7 +17660,7 @@
 I just want to... embrace them one more time...</t>
         </is>
       </c>
-      <c r="H369" s="0" t="inlineStr">
+      <c r="H369" t="inlineStr">
         <is>
           <t>ඞДолго я дремал на дне озера.
 До того дня, когда мое желание опалило каждую частичку меня.
@@ -17705,7 +17705,7 @@
           <t>Droplets trinkle down Gioia's cheeks.</t>
         </is>
       </c>
-      <c r="H370" s="0" t="inlineStr">
+      <c r="H370" t="inlineStr">
         <is>
           <t>ඞКапли стекают по щекам Джойи.</t>
         </is>
@@ -17753,7 +17753,7 @@
 But it's an eternity to them, an eternity that has divided them forever from theirs...</t>
         </is>
       </c>
-      <c r="H371" s="0" t="inlineStr">
+      <c r="H371" t="inlineStr">
         <is>
           <t>ඞПятьдесят лет... для меня это было всего лишь мгновение, слишком короткое, чтобы моя мечта могла осуществиться...
 Но для них это целая вечность, вечность, которая навсегда отделила их друг от друга...</t>
@@ -17802,7 +17802,7 @@
 She pauses—</t>
         </is>
       </c>
-      <c r="H372" s="0" t="inlineStr">
+      <c r="H372" t="inlineStr">
         <is>
           <t>ඞДжойя смотрит на белый кристалл у себя на ладони. Слабое свечение озаряет ее бледное лицо.
 Она замолкает—</t>
@@ -17845,7 +17845,7 @@
           <t>Thank you... for this warmth you've brought me...</t>
         </is>
       </c>
-      <c r="H373" s="0" t="inlineStr">
+      <c r="H373" t="inlineStr">
         <is>
           <t>ඞСпасибо тебе... за то тепло, которое ты мне даришь...</t>
         </is>
@@ -17892,7 +17892,7 @@
 She doesn't not speak, until she turns back to you with a smile on her face. She doesn't want to go, but the decision has been made. Her decision.</t>
         </is>
       </c>
-      <c r="H374" s="0" t="inlineStr">
+      <c r="H374" t="inlineStr">
         <is>
           <t>ඞОна поднимает голову. Красная луна молча ждет ее в темном небе.
 Она молчит, пока не поворачивается к тебе с улыбкой на лице. Она не хочет уходить, но решение принято. Это ее решение.</t>
@@ -17938,7 +17938,7 @@
 Goodbye.</t>
         </is>
       </c>
-      <c r="H375" s="0" t="inlineStr">
+      <c r="H375" t="inlineStr">
         <is>
           <t>ඞСпасибо тебе...
 До свидания.</t>
@@ -17981,7 +17981,7 @@
           <t>Fun House</t>
         </is>
       </c>
-      <c r="H376" s="0" t="inlineStr">
+      <c r="H376" t="inlineStr">
         <is>
           <t>ඞВеселый дом</t>
         </is>
@@ -18035,7 +18035,7 @@
           <t>The surroundings are shrouded in darkness. Spooky music reverberates in the air. Opening the gate unveils a &lt;color=#FFD700&gt;narrow, elongated passage&lt;/color&gt; from which &lt;color=#FFD700&gt;metallic knocking sounds&lt;/color&gt; emanate from a side path. You proceed just a few steps further and spot an &lt;color=#FFD700&gt;eerie statue&lt;/color&gt; by the sideway. There are several rooms scattered about, each as dark and haunting as a prison cell.</t>
         </is>
       </c>
-      <c r="H377" s="0" t="inlineStr">
+      <c r="H377" t="inlineStr">
         <is>
           <t>ඞВсе вокруг погружено в темноту. В воздухе звучит жутковатая музыка. Открыв ворота, вы попадаете в узкий вытянутый проход, из которого с боковой дорожки доносятся звуки металлического стука. Вы проходите еще несколько шагов и замечаете &lt;color=#FFD700&gt; жуткую статую&lt;/color&gt; у боковой стены. Здесь разбросано несколько комнат, каждая из которых темная и наводящая на размышления, как тюремная камера.</t>
         </is>
@@ -18083,7 +18083,7 @@
 You try to open its door, only to discover it's locked. Thanks to the dim lighting, you're able to discern a keyhole on it.</t>
         </is>
       </c>
-      <c r="H378" s="0" t="inlineStr">
+      <c r="H378" t="inlineStr">
         <is>
           <t>ඞБлиже к концу коридора вы обнаруживаете потайную комнату.
 Вы пытаетесь открыть ее дверь, но обнаруживаете, что она заперта. Благодаря тусклому освещению вы можете разглядеть на ней замочную скважину.</t>
@@ -18126,7 +18126,7 @@
           <t>You press your ear to the door and hear some form of noise. But you can't tell what it is. After a moment, a cracking sound puts you on edge.</t>
         </is>
       </c>
-      <c r="H379" s="0" t="inlineStr">
+      <c r="H379" t="inlineStr">
         <is>
           <t>ඞВы прижимаетесь ухом к двери и слышите какой-то шум. Но вы не можете понять, что это такое. Через мгновение раздается треск, который заставляет вас насторожиться.</t>
         </is>
@@ -18168,7 +18168,7 @@
           <t>Venture Forth</t>
         </is>
       </c>
-      <c r="H380" s="0" t="inlineStr">
+      <c r="H380" t="inlineStr">
         <is>
           <t>ඞДерзайте идти вперед</t>
         </is>
@@ -18216,7 +18216,7 @@
 Upon closer inspection, you realize these books are cheap purchases from a flea market, used merely for decoration.</t>
         </is>
       </c>
-      <c r="H381" s="0" t="inlineStr">
+      <c r="H381" t="inlineStr">
         <is>
           <t>ඞКомнаты здесь устроены как тюремные камеры. На полу разбросаны старые книги.
 При ближайшем рассмотрении становится понятно, что эти книги - дешевые покупки на блошином рынке, используемые просто для украшения.</t>
@@ -18259,7 +18259,7 @@
           <t>Among the clutter, you discover several peculiar scrolls.</t>
         </is>
       </c>
-      <c r="H382" s="0" t="inlineStr">
+      <c r="H382" t="inlineStr">
         <is>
           <t>ඞСреди этого хлама вы обнаруживаете несколько необычных свитков.</t>
         </is>
@@ -18301,7 +18301,7 @@
           <t>Search Rooms</t>
         </is>
       </c>
-      <c r="H383" s="0" t="inlineStr">
+      <c r="H383" t="inlineStr">
         <is>
           <t>ඞОбыскать комнаты</t>
         </is>
@@ -18349,7 +18349,7 @@
 A formidable figure is standing there before you, back turned. Chains, cold and cruel, are coiled around his massive form. With a brutal efficiency, he hoists several lifeless bodies to the room's beam. Each motion he makes orchestrates a symphony of terror as the iron chains crisscross and collide.</t>
         </is>
       </c>
-      <c r="H384" s="0" t="inlineStr">
+      <c r="H384" t="inlineStr">
         <is>
           <t>ඞОриентируясь на звуки, вы подходите к полуоткрытой двери и осторожно заглядываете в нее.
 Перед вами, повернувшись спиной, стоит грозная фигура. Цепи, холодные и жестокие, обвивают его массивную фигуру. С жестокой эффективностью он подвешивает несколько безжизненных тел к потолочной балке. Каждое его движение вызывает симфонию ужаса, когда железные цепи перекрещиваются и сталкиваются.</t>
@@ -18392,7 +18392,7 @@
           <t>Check the Sound</t>
         </is>
       </c>
-      <c r="H385" s="0" t="inlineStr">
+      <c r="H385" t="inlineStr">
         <is>
           <t>ඞПроверьте звук</t>
         </is>
@@ -18434,7 +18434,7 @@
           <t>Using your map, you arrive at the Fun House. The entrance door is adorned with a mock gargoyle head. Despite the door being firmly shut, strange melodies leak out, filling the air with an uneasy tension. Just as you summon the nerve to push open the door, it unexpectedly swings open from the inside.</t>
         </is>
       </c>
-      <c r="H386" s="0" t="inlineStr">
+      <c r="H386" t="inlineStr">
         <is>
           <t>ඞИспользуя свою карту, вы попадаете в "Дом веселья". Входная дверь украшена имитацией головы горгульи. Несмотря на то, что дверь плотно закрыта, оттуда доносятся странные мелодии, наполняя воздух тревожным напряжением. Как только вы набираетесь смелости, чтобы толкнуть дверь, она неожиданно распахивается изнутри.</t>
         </is>
@@ -18476,7 +18476,7 @@
           <t>A horde of tourists bursts out from the inside. Their eyes emit an unsettling crimson glow, and their clothes are marred with blood stains. The menacing weapons clutched in their hands suggest this is far from a welcoming party for you.</t>
         </is>
       </c>
-      <c r="H387" s="0" t="inlineStr">
+      <c r="H387" t="inlineStr">
         <is>
           <t>ඞИзнутри врывается толпа туристов. Их глаза излучают тревожный багровый свет, а одежда испачкана пятнами крови. Судя по угрожающему оружию, которое они сжимают в руках, это далеко не самая приятная вечеринка для вас.</t>
         </is>
@@ -18524,7 +18524,7 @@
 Just then, the clown pushes his way out of the crowd, raising his voice to address them.</t>
         </is>
       </c>
-      <c r="H388" s="0" t="inlineStr">
+      <c r="H388" t="inlineStr">
         <is>
           <t>ඞЗаметив вас, они бросаются вперед, не сводя с вас налитых кровью глаз. Их визжащее оружие скользит по земле, вы морщите лоб, когда этот звук поражает ваши чувства.
 В этот момент клоун проталкивается сквозь толпу и, повысив голос, обращается к ним.</t>
@@ -18567,7 +18567,7 @@
           <t>Hey folks! Our trip at the Fun House is coming to an end! Time to move on to our next destination!</t>
         </is>
       </c>
-      <c r="H389" s="0" t="inlineStr">
+      <c r="H389" t="inlineStr">
         <is>
           <t>ඞПривет, ребята! Наша поездка в "Веселый дом" подходит к концу! Пора отправляться в наш следующий пункт назначения!</t>
         </is>
@@ -18609,7 +18609,7 @@
           <t>His action seizes everyone's attention. He ushers the group away and says:</t>
         </is>
       </c>
-      <c r="H390" s="0" t="inlineStr">
+      <c r="H390" t="inlineStr">
         <is>
           <t>ඞЕго действия привлекают всеобщее внимание. Он уводит группу и говорит:</t>
         </is>
@@ -18651,7 +18651,7 @@
           <t>Oh, I'm done with the scene. Now I need to lead these people to another attraction! Enjoy your stay here!</t>
         </is>
       </c>
-      <c r="H391" s="0" t="inlineStr">
+      <c r="H391" t="inlineStr">
         <is>
           <t>ඞО, я закончил с этой сценой. Теперь мне нужно отвести этих людей к другой достопримечательности! Приятного вам пребывания здесь!</t>
         </is>
@@ -18694,7 +18694,7 @@
           <t>The crowd appears to disregard your presence entirely, their focus riveted on the clown. He seems to revel in their 'enthusiasm', deftly guiding them in a different direction with his flamboyant gestures and commanding words.</t>
         </is>
       </c>
-      <c r="H392" s="0" t="inlineStr">
+      <c r="H392" t="inlineStr">
         <is>
           <t>ඞТолпа, кажется, полностью игнорирует ваше присутствие, все ее внимание приковано к клоуну. Он, кажется, наслаждается их "энтузиазмом", ловко направляя их в другое русло своими яркими жестами и повелительными словами.</t>
         </is>
@@ -18736,7 +18736,7 @@
           <t>Yes! Yes! Oh is that so? I didn't anticipate such popularity in this place!</t>
         </is>
       </c>
-      <c r="H393" s="0" t="inlineStr">
+      <c r="H393" t="inlineStr">
         <is>
           <t>ඞДа! Да! О, неужели это так? Я не ожидал такой популярности в этом месте!</t>
         </is>
@@ -18778,7 +18778,7 @@
           <t>The clown talks to the tourists with passion and leads them away.</t>
         </is>
       </c>
-      <c r="H394" s="0" t="inlineStr">
+      <c r="H394" t="inlineStr">
         <is>
           <t>ඞКлоун увлеченно беседует с туристами и уводит их прочь.</t>
         </is>
@@ -18820,7 +18820,7 @@
           <t>Thank you! Thank you all!</t>
         </is>
       </c>
-      <c r="H395" s="0" t="inlineStr">
+      <c r="H395" t="inlineStr">
         <is>
           <t>ඞСпасибо! Спасибо вам всем!</t>
         </is>
@@ -18862,7 +18862,7 @@
           <t>...Really? You come all the way only to see my show?</t>
         </is>
       </c>
-      <c r="H396" s="0" t="inlineStr">
+      <c r="H396" t="inlineStr">
         <is>
           <t>ඞ..Правда? Вы проделали весь этот путь только для того, чтобы посмотреть мое шоу?</t>
         </is>
@@ -18904,7 +18904,7 @@
           <t>My goodness! Haha!</t>
         </is>
       </c>
-      <c r="H397" s="0" t="inlineStr">
+      <c r="H397" t="inlineStr">
         <is>
           <t>ඞБоже мой! Хаха!</t>
         </is>
@@ -18946,7 +18946,7 @@
           <t>The clown herds them away, seemingly leads them to the square. His words gradually become indistinct as they fade into the distance.</t>
         </is>
       </c>
-      <c r="H398" s="0" t="inlineStr">
+      <c r="H398" t="inlineStr">
         <is>
           <t>ඞКлоун уводит их прочь, по-видимому, ведет на площадь. Его слова постепенно становятся неразборчивыми, по мере того как они удаляются.</t>
         </is>
@@ -18988,7 +18988,7 @@
           <t>Check Statue</t>
         </is>
       </c>
-      <c r="H399" s="0" t="inlineStr">
+      <c r="H399" t="inlineStr">
         <is>
           <t>ඞПроверьте статую</t>
         </is>
@@ -19030,7 +19030,7 @@
           <t>Eerie Statue</t>
         </is>
       </c>
-      <c r="H400" s="0" t="inlineStr">
+      <c r="H400" t="inlineStr">
         <is>
           <t>ඞЖуткая статуя</t>
         </is>
@@ -19072,7 +19072,7 @@
           <t>This statue is essentially a full-body rendition of the gargoyle head adorning the entrance gate. It features crimson eyes and a grotesque expression, sharp fangs that glint silver like those of a vampire, and a &lt;color=#FFD700&gt;deep hole&lt;/color&gt; in its chest.</t>
         </is>
       </c>
-      <c r="H401" s="0" t="inlineStr">
+      <c r="H401" t="inlineStr">
         <is>
           <t>ඞЭта статуя, по сути, представляет собой полное изображение головы горгульи, украшающей входные ворота. У него малиновые глаза и гротескное выражение лица, острые клыки, отливающие серебром, как у вампира, и глубокая дыра в груди.</t>
         </is>
@@ -19114,7 +19114,7 @@
           <t>You draw closer to the statue. It emits a dreadful roar, which you can tell is coming from a built-in recording. On its chest, you can see a deep hole. Maybe you can stab something in?</t>
         </is>
       </c>
-      <c r="H402" s="0" t="inlineStr">
+      <c r="H402" t="inlineStr">
         <is>
           <t>ඞВы подходите ближе к статуе. Она издает ужасный рев, который, как вы можете догадаться, исходит из встроенной записи. На ее груди вы видите глубокую дыру. Может быть, вы сможете что-нибудь проткнуть?</t>
         </is>
@@ -19156,7 +19156,7 @@
           <t>Get Closer</t>
         </is>
       </c>
-      <c r="H403" s="0" t="inlineStr">
+      <c r="H403" t="inlineStr">
         <is>
           <t>ඞПодойди ближе</t>
         </is>
@@ -19198,7 +19198,7 @@
           <t>You plunge the great sword into the statue's chest. A sound effect, resembling a dying gasp, emanates from within it. As the recording plays, a glass heart falls from the statue's body, accompanied by several shiny stones.</t>
         </is>
       </c>
-      <c r="H404" s="0" t="inlineStr">
+      <c r="H404" t="inlineStr">
         <is>
           <t>ඞВы вонзаете огромный меч в грудь статуи. Изнутри статуи раздается звуковой эффект, напоминающий предсмертный вздох. Во время воспроизведения записи из тела статуи выпадает стеклянное сердце, сопровождаемое несколькими блестящими камнями.</t>
         </is>
@@ -19240,7 +19240,7 @@
           <t>Stab Sword</t>
         </is>
       </c>
-      <c r="H405" s="0" t="inlineStr">
+      <c r="H405" t="inlineStr">
         <is>
           <t>ඞКолющий меч</t>
         </is>
@@ -19282,7 +19282,7 @@
           <t>Three bodies are left hanging from the beam. Upon closer inspection, you find these bodies are actually pieced together from different parts. As they were not carefully assembled, broken bones pierce through the flesh and protrude from the bodies, resembling monstrous thorns sprouting out.</t>
         </is>
       </c>
-      <c r="H406" s="0" t="inlineStr">
+      <c r="H406" t="inlineStr">
         <is>
           <t>ඞНа балке остаются висеть три тела. При ближайшем рассмотрении оказывается, что эти тела на самом деле составлены из разных частей. Поскольку они были собраны неаккуратно, сломанные кости протыкают плоть и торчат из тел, напоминая чудовищные шипы.</t>
         </is>
@@ -19324,7 +19324,7 @@
           <t>There are three pieces of cloth scattered around the table. As you inspect them, you find a note in one of the pockets. This note is illustrated with instructions and tips on how to use various instruments of torture.</t>
         </is>
       </c>
-      <c r="H407" s="0" t="inlineStr">
+      <c r="H407" t="inlineStr">
         <is>
           <t>ඞНа столе разбросаны три куска ткани. Осматривая их, вы обнаруживаете в одном из карманов записку. Эта записка иллюстрирована инструкциями и советами по использованию различных орудий пыток.</t>
         </is>
@@ -19366,7 +19366,7 @@
           <t>As you pick up the note, a damp and sweet scent reaches your nostrils.</t>
         </is>
       </c>
-      <c r="H408" s="0" t="inlineStr">
+      <c r="H408" t="inlineStr">
         <is>
           <t>ඞКогда вы берете в руки эту ноту, ваших ноздрей достигает влажный и сладкий аромат.</t>
         </is>
@@ -19408,7 +19408,7 @@
           <t>Put Down Bodies</t>
         </is>
       </c>
-      <c r="H409" s="0" t="inlineStr">
+      <c r="H409" t="inlineStr">
         <is>
           <t>ඞОпускайте тела</t>
         </is>
@@ -19450,7 +19450,7 @@
           <t>Body-hanging Executioner</t>
         </is>
       </c>
-      <c r="H410" s="0" t="inlineStr">
+      <c r="H410" t="inlineStr">
         <is>
           <t>ඞПалач, вешающий тела</t>
         </is>
@@ -19492,7 +19492,7 @@
           <t>Carrasco</t>
         </is>
       </c>
-      <c r="H411" s="0" t="inlineStr">
+      <c r="H411" t="inlineStr">
         <is>
           <t>ඞПалач</t>
         </is>
@@ -19540,7 +19540,7 @@
 He is tall; the skillful yet coarse movements of his hands as they handle the bodies reveal his perilous nature.</t>
         </is>
       </c>
-      <c r="H412" s="0" t="inlineStr">
+      <c r="H412" t="inlineStr">
         <is>
           <t>ඞПросто взглянув на его спину, вы можете почувствовать &lt;color=#DC143C&gt; жажду крови, исходящую от этого человека.
 Он высок; умелые, но грубые движения его рук, когда они обращаются с телами, выдают его опасную натуру.</t>
@@ -19583,7 +19583,7 @@
           <t>You approach him, attempting to initiate a conversation. Seemingly alerted by your footsteps, the man violently tosses the body he's handling aside. The loud thud of the body hitting the counter echoes through the room. Without any hesitation or missteps, he swiftly swings his chain toward you.</t>
         </is>
       </c>
-      <c r="H413" s="0" t="inlineStr">
+      <c r="H413" t="inlineStr">
         <is>
           <t>ඞВы подходите к нему, пытаясь завязать разговор. По-видимому, встревоженный вашими шагами, мужчина резко отбрасывает тело, которое держал в руках, в сторону. Громкий стук тела о стойку эхом разносится по комнате. Без каких-либо колебаний или оплошностей он быстро замахивается цепью в вашу сторону.</t>
         </is>
@@ -19625,7 +19625,7 @@
           <t>Talk to Him</t>
         </is>
       </c>
-      <c r="H414" s="0" t="inlineStr">
+      <c r="H414" t="inlineStr">
         <is>
           <t>ඞПоговори с Ним</t>
         </is>
@@ -19673,7 +19673,7 @@
 Finally, with a satisfying click, the door is opened.</t>
         </is>
       </c>
-      <c r="H415" s="0" t="inlineStr">
+      <c r="H415" t="inlineStr">
         <is>
           <t>ඞВы несколько раз возитесь с ключом, пытаясь вставить его в замочную скважину в обволакивающей темноте.
 Наконец, дверь открывается с удовлетворительным щелчком.</t>
@@ -19716,7 +19716,7 @@
           <t>You find a hidden room.</t>
         </is>
       </c>
-      <c r="H416" s="0" t="inlineStr">
+      <c r="H416" t="inlineStr">
         <is>
           <t>ඞВы находите потайную комнату.</t>
         </is>
@@ -19758,7 +19758,7 @@
           <t>Enter Room</t>
         </is>
       </c>
-      <c r="H417" s="0" t="inlineStr">
+      <c r="H417" t="inlineStr">
         <is>
           <t>ඞВойдите в комнату</t>
         </is>
@@ -19800,7 +19800,7 @@
           <t>Just as you are ready to open the door, an unnerving sound grates through the silence - the ghastly clatter of chains scraping against the cold, hard floor.</t>
         </is>
       </c>
-      <c r="H418" s="0" t="inlineStr">
+      <c r="H418" t="inlineStr">
         <is>
           <t>ඞКак только вы готовы открыть дверь, тишину прорезает тревожный звук - жуткий лязг цепей, скребущих по холодному, твердому полу.</t>
         </is>
@@ -19848,7 +19848,7 @@
 Someone is approaching, its intentions seemingly ominous. A chill runs down your spine as you acknowledge the encroaching peril...</t>
         </is>
       </c>
-      <c r="H419" s="0" t="inlineStr">
+      <c r="H419" t="inlineStr">
         <is>
           <t>ඞАтмосфера вокруг вас сгущается от ощутимого страха. Ритмичный стук тяжелых шагов и резкий скрежет металла по полу становятся громче, постепенно приближаясь. Со всех сторон вас охватывает непреодолимое чувство дурного предчувствия.
 Кто-то приближается, и его намерения кажутся зловещими. Холодок пробегает у вас по спине, когда вы осознаете надвигающуюся опасность...</t>
@@ -19891,7 +19891,7 @@
           <t>You sense something dangerous. You decide to...</t>
         </is>
       </c>
-      <c r="H420" s="0" t="inlineStr">
+      <c r="H420" t="inlineStr">
         <is>
           <t>ඞТы чувствуешь что-то опасное. Ты решаешь...</t>
         </is>
@@ -19933,7 +19933,7 @@
           <t>Hide in the Room</t>
         </is>
       </c>
-      <c r="H421" s="0" t="inlineStr">
+      <c r="H421" t="inlineStr">
         <is>
           <t>ඞСпрячься в комнате</t>
         </is>
@@ -19975,7 +19975,7 @@
           <t>Wait in Place</t>
         </is>
       </c>
-      <c r="H422" s="0" t="inlineStr">
+      <c r="H422" t="inlineStr">
         <is>
           <t>ඞЖдите на месте</t>
         </is>
@@ -20017,7 +20017,7 @@
           <t>You decide to stay rooted in your spot and see what would happen.</t>
         </is>
       </c>
-      <c r="H423" s="0" t="inlineStr">
+      <c r="H423" t="inlineStr">
         <is>
           <t>ඞВы решаете остаться на своем месте и посмотреть, что произойдет.</t>
         </is>
@@ -20059,7 +20059,7 @@
           <t>As the ominous presence draws nearer, a chilling realization freezes you to your core - there's no escape.</t>
         </is>
       </c>
-      <c r="H424" s="0" t="inlineStr">
+      <c r="H424" t="inlineStr">
         <is>
           <t>ඞПо мере приближения зловещего присутствия леденящее душу осознание пробирает вас до глубины души - спасения нет.</t>
         </is>
@@ -20107,7 +20107,7 @@
 Underneath the mask, his expression remains a haunting mystery. Yet you can almost feel the intensity of the piercing gaze emanating from the mask. Without warning, he lashes out, sending the chains flying menacingly towards you.</t>
         </is>
       </c>
-      <c r="H425" s="0" t="inlineStr">
+      <c r="H425" t="inlineStr">
         <is>
           <t>ඞИз темноты появляется молчаливая высокая фигура. Когда он выходит на слабый свет, вы различаете железную маску, скрывающую его лицо. Вокруг его тела обвиваются несколько длинных цепей, заканчивающихся острым железным крюком, пронзающим ключицу.
 Выражение его лица под маской остается загадкой. И все же вы почти ощущаете силу пронзительного взгляда, исходящего из-под маски. Без предупреждения он набрасывается на вас, и цепи угрожающе летят в вашу сторону.</t>
@@ -20151,7 +20151,7 @@
           <t>In a frantic rush, you shove the door open, desperately seeking a refuge. But upon crossing the threshold, it's as if the ground beneath you dissolves into thin air. Your surroundings spin and distort in a dizzying whirl, followed by a blinding flash of white light. Suddenly, you find yourself in an entirely different place.</t>
         </is>
       </c>
-      <c r="H426" s="0" t="inlineStr">
+      <c r="H426" t="inlineStr">
         <is>
           <t>ඞВ безумной спешке вы распахиваете дверь, отчаянно ища убежища. Но, переступив порог, вы чувствуете, что земля под вами словно растворяется в воздухе. Все вокруг кружится и искажается в головокружительном вихре, за которым следует ослепительная вспышка белого света. Внезапно вы оказываетесь в совершенно другом месте.</t>
         </is>
@@ -20193,7 +20193,7 @@
           <t>Regaining your footing, you notice a bubble-like portal shimmering into nonexistence. Undoubtedly, that was your unanticipated gateway into this unfamiliar place. Shaking off the lingering vertigo, you steel yourself and begin to survey the strange surroundings. Seems you are in a garden.</t>
         </is>
       </c>
-      <c r="H427" s="0" t="inlineStr">
+      <c r="H427" t="inlineStr">
         <is>
           <t>ඞПоднявшись на ноги, вы замечаете похожий на пузырь портал, мерцающий в небытие. Несомненно, это и были ваши неожиданные врата в это незнакомое место. Избавившись от затяжного головокружения, вы берете себя в руки и начинаете осматривать странное окружение. Кажется, что ты находишься в саду.</t>
         </is>
@@ -20235,7 +20235,7 @@
           <t>The Executioner crumbles to the ground. He reaches out his hand, clawing at some invisible presence. With one last, raspy breath, he lets out a sigh.</t>
         </is>
       </c>
-      <c r="H428" s="0" t="inlineStr">
+      <c r="H428" t="inlineStr">
         <is>
           <t>ඞПалач оседает на землю. Он протягивает руку, цепляясь за что-то невидимое. С последним хриплым вздохом он выдыхает.</t>
         </is>
@@ -20277,7 +20277,7 @@
           <t>... Lady...</t>
         </is>
       </c>
-      <c r="H429" s="0" t="inlineStr">
+      <c r="H429" t="inlineStr">
         <is>
           <t>ඞ.. Леди...</t>
         </is>
@@ -20319,7 +20319,7 @@
           <t>His voice, heard for the first and tragically final time, reverberates in the air. Then, the body vanishes into a cloud of mist.</t>
         </is>
       </c>
-      <c r="H430" s="0" t="inlineStr">
+      <c r="H430" t="inlineStr">
         <is>
           <t>ඞЕго голос, услышанный в первый и, к сожалению, в последний раз, эхом разносится в воздухе. Затем тело исчезает в облаке тумана.</t>
         </is>
@@ -20367,7 +20367,7 @@
 There, a cloud of red mist billows out, swirling and churning in mid-air. After a while, as if it lost its host, the red mist dissipates into nothingness.</t>
         </is>
       </c>
-      <c r="H431" s="0" t="inlineStr">
+      <c r="H431" t="inlineStr">
         <is>
           <t>ඞОн исчезает... Что-то падает на землю в том месте, где он исчез, издавая хрустящий звук.
 Оттуда поднимается облако красного тумана, клубясь в воздухе. Через некоторое время, словно потеряв своего хозяина, красный туман рассеивается в никуда.</t>
@@ -20416,7 +20416,7 @@
 And his seems to have changed a lot... I wonder what made him act this way...</t>
         </is>
       </c>
-      <c r="H432" s="0" t="inlineStr">
+      <c r="H432" t="inlineStr">
         <is>
           <t>ඞЯ не знаю почему... но у меня такое чувство, что я уже встречала этого человека раньше.
 И он, кажется, сильно изменился... Интересно, что заставило его так себя вести...</t>
@@ -20465,7 +20465,7 @@
 After several moments, she decides to put these questions aside and concentrate on exploring with you.</t>
         </is>
       </c>
-      <c r="H433" s="0" t="inlineStr">
+      <c r="H433" t="inlineStr">
         <is>
           <t>ඞДжойя морщит лоб. Кажется, она глубоко погружена в размышления о сложившейся ситуации.
 Через несколько мгновений она решает отложить эти вопросы в сторону и сосредоточиться на исследовании вместе с вами.</t>
@@ -20508,7 +20508,7 @@
           <t>Your exceptional agility enables you to escape from the monstrous figure.</t>
         </is>
       </c>
-      <c r="H434" s="0" t="inlineStr">
+      <c r="H434" t="inlineStr">
         <is>
           <t>ඞВаша исключительная ловкость позволяет вам убежать от чудовищной фигуры.</t>
         </is>
@@ -20556,7 +20556,7 @@
 From this moment forth, as long as the Executioner lurks in the shadows of life, his sole objective is to relentlessly hunt you down.</t>
         </is>
       </c>
-      <c r="H435" s="0" t="inlineStr">
+      <c r="H435" t="inlineStr">
         <is>
           <t>ඞПалач отметил вас как жертву!
 С этого момента и впредь, пока Палач скрывается в тени жизни, его единственной целью является безжалостная охота на вас.</t>
@@ -20599,7 +20599,7 @@
           <t>Somehow, the Executioner doesn't pursue you further.</t>
         </is>
       </c>
-      <c r="H436" s="0" t="inlineStr">
+      <c r="H436" t="inlineStr">
         <is>
           <t>ඞКаким-то образом Палач не преследует вас дальше.</t>
         </is>
@@ -20641,7 +20641,7 @@
           <t>Upon spotting you, they lurch forward, their bloodshot eyes locked onto you. Their shrieking weaponry skims the ground, Your brow furrows as the sound grates your senses.</t>
         </is>
       </c>
-      <c r="H437" s="0" t="inlineStr">
+      <c r="H437" t="inlineStr">
         <is>
           <t>ඞЗаметив вас, они бросаются вперед, не сводя с вас налитых кровью глаз. Их визжащее оружие скользит по земле, и вы морщите лоб, когда этот звук раздражает ваши чувства.</t>
         </is>
@@ -20683,7 +20683,7 @@
           <t>SkyWheel</t>
         </is>
       </c>
-      <c r="H438" s="0" t="inlineStr">
+      <c r="H438" t="inlineStr">
         <is>
           <t>ඞНебесное колесо</t>
         </is>
@@ -20733,7 +20733,7 @@
           <t>The SkyWheel soars at least one hundred meters high, as if it could &lt;color=#FFD700&gt;touch the sky&lt;/color&gt;. You can smell something peculiarly exotic from the &lt;color=#FFD700&gt;souvenir stall&lt;/color&gt; beneath it. To your left, you see a &lt;color=#FFD700&gt;control room&lt;/color&gt;. It appears this is where SkyWheel can be operated.</t>
         </is>
       </c>
-      <c r="H439" s="0" t="inlineStr">
+      <c r="H439" t="inlineStr">
         <is>
           <t>ඞНебесное колесо взлетает по меньшей мере на сто метров в высоту, как будто оно может &lt;color=#FFD700&gt;коснуться неба&lt;/color&gt;. Из сувенирного киоска &lt;color=#FFD700&gt;, расположенного под ним, доносится какой-то особенно экзотический запах. Слева от вас находится &lt;color=#FFD700&gt;диспетчерская&lt;/color&gt;. Похоже, именно здесь можно управлять небесным колесом.</t>
         </is>
@@ -20775,7 +20775,7 @@
           <t>Below SkyWheel, a &lt;color=#DC143C&gt;thick red mist&lt;/color&gt; twists and writhes, as if something's itching to break free.</t>
         </is>
       </c>
-      <c r="H440" s="0" t="inlineStr">
+      <c r="H440" t="inlineStr">
         <is>
           <t>ඞПод небесным колесом &lt;color=#DC143C&gt; клубится густой красный туман&lt;/color&gt;, как будто что-то жаждет вырваться на свободу.</t>
         </is>
@@ -20823,7 +20823,7 @@
 The cabin doors are wobbly, and the connections between the cabins and the wheel don't look secure.</t>
         </is>
       </c>
-      <c r="H441" s="0" t="inlineStr">
+      <c r="H441" t="inlineStr">
         <is>
           <t>ඞПриближаясь к входу в SkyWheel, вы заметили следы драки в некоторых каютах.
 Двери кают шатаются, а соединения между каютами и колесом выглядят ненадежными.</t>
@@ -20866,7 +20866,7 @@
           <t>Check SkyWheel</t>
         </is>
       </c>
-      <c r="H442" s="0" t="inlineStr">
+      <c r="H442" t="inlineStr">
         <is>
           <t>ඞПроверьте небесное колесо</t>
         </is>
@@ -20914,7 +20914,7 @@
 One exquisite jar catches your attention. It gives off an exotic fragrance that invigorates your senses.</t>
         </is>
       </c>
-      <c r="H443" s="0" t="inlineStr">
+      <c r="H443" t="inlineStr">
         <is>
           <t>ඞВ сувенирном киоске представлено множество товаров – разноцветные воздушные шары, игрушки, всевозможные флаконы и баночки.
 Внимание привлекает одна изысканная баночка. От нее исходит экзотический аромат, который будоражит ваши чувства.</t>
@@ -20957,7 +20957,7 @@
           <t>Check Stall</t>
         </is>
       </c>
-      <c r="H444" s="0" t="inlineStr">
+      <c r="H444" t="inlineStr">
         <is>
           <t>ඞПроверьте стойло</t>
         </is>
@@ -21005,7 +21005,7 @@
 You carefully search around and find some cables and spare parts.</t>
         </is>
       </c>
-      <c r="H445" s="0" t="inlineStr">
+      <c r="H445" t="inlineStr">
         <is>
           <t>ඞЗдесь больше всего выделяется консоль с разноцветными кнопками и рычажками.
 Вы внимательно осматриваетесь и находите какие-то кабели и запасные части.</t>
@@ -21048,7 +21048,7 @@
           <t>Enter Control Room</t>
         </is>
       </c>
-      <c r="H446" s="0" t="inlineStr">
+      <c r="H446" t="inlineStr">
         <is>
           <t>ඞВойдите в диспетчерскую</t>
         </is>
@@ -21096,7 +21096,7 @@
 The mist before you churns and roils and turns into a crimson stone monument.</t>
         </is>
       </c>
-      <c r="H447" s="0" t="inlineStr">
+      <c r="H447" t="inlineStr">
         <is>
           <t>ඞПо мере того, как вы приближаетесь к красному туману, ваши мысли становятся вялыми и путаными, как будто из вас вытягивают саму суть. Вы как в тумане.
 Туман перед вами клубится и превращается в монумент из багрового камня.</t>
@@ -21139,7 +21139,7 @@
           <t>Check Red Mist</t>
         </is>
       </c>
-      <c r="H448" s="0" t="inlineStr">
+      <c r="H448" t="inlineStr">
         <is>
           <t>ඞПроверьте Красный туман</t>
         </is>
@@ -21181,7 +21181,7 @@
           <t>To Control Room</t>
         </is>
       </c>
-      <c r="H449" s="0" t="inlineStr">
+      <c r="H449" t="inlineStr">
         <is>
           <t>ඞВ диспетчерскую</t>
         </is>
@@ -21223,7 +21223,7 @@
           <t>Control Room</t>
         </is>
       </c>
-      <c r="H450" s="0" t="inlineStr">
+      <c r="H450" t="inlineStr">
         <is>
           <t>ඞДиспетчерская</t>
         </is>
@@ -21265,7 +21265,7 @@
           <t>You stand before the control panel, the heart of the console. Buttons, switches, levers, and other control devices galore, all ready for &lt;color=#FFD700&gt;start, stop&lt;/color&gt;, and speed and direction control.</t>
         </is>
       </c>
-      <c r="H451" s="0" t="inlineStr">
+      <c r="H451" t="inlineStr">
         <is>
           <t>ඞВы стоите перед панелью управления, сердцем консоли. Кнопки, переключатели, рычаги и другие управляющие устройства в изобилии, все готово для запуска, остановки, а также управления скоростью и направлением движения.</t>
         </is>
@@ -21307,7 +21307,7 @@
           <t>With an ominous creak, the cabins begin to shake together. The colossal wheel slowly lurches into motion. SkyWheel is now waking up.</t>
         </is>
       </c>
-      <c r="H452" s="0" t="inlineStr">
+      <c r="H452" t="inlineStr">
         <is>
           <t>ඞСо зловещим скрипом кабины начинают раскачиваться. Колоссальное колесо медленно приходит в движение. Скайвил просыпается.</t>
         </is>
@@ -21349,7 +21349,7 @@
           <t>Start SkyWheel</t>
         </is>
       </c>
-      <c r="H453" s="0" t="inlineStr">
+      <c r="H453" t="inlineStr">
         <is>
           <t>ඞЗапустите небесное колесо</t>
         </is>
@@ -21391,7 +21391,7 @@
           <t>SkyWheel gradually slows down, finally coming to a creaky stop. The winch ceases its whirring, leaving only the cabins in the air swaying ever so slightly.</t>
         </is>
       </c>
-      <c r="H454" s="0" t="inlineStr">
+      <c r="H454" t="inlineStr">
         <is>
           <t>ඞНебесное колесо постепенно замедляет ход и, наконец, со скрипом останавливается. Лебедка перестает жужжать, и только кабины в воздухе слегка покачиваются.</t>
         </is>
@@ -21433,7 +21433,7 @@
           <t>Stop SkyWheel</t>
         </is>
       </c>
-      <c r="H455" s="0" t="inlineStr">
+      <c r="H455" t="inlineStr">
         <is>
           <t>ඞОстановите небесное колесо</t>
         </is>
@@ -21475,7 +21475,7 @@
           <t>You seize the moment to slip into one of the cabins at the entrance. As SkyWheel slowly starts turning, the cabin begins to rise, and your vision climbs higher.</t>
         </is>
       </c>
-      <c r="H456" s="0" t="inlineStr">
+      <c r="H456" t="inlineStr">
         <is>
           <t>ඞВы пользуетесь моментом, чтобы проскользнуть в одну из кабинок у входа. Когда небесное колесо начинает медленно вращаться, кабина начинает подниматься, и вы видите все выше.</t>
         </is>
@@ -21522,7 +21522,7 @@
 This rattles your nerves as the entire cabin starts to shake with SkyWheel's ascent.</t>
         </is>
       </c>
-      <c r="H457" s="0" t="inlineStr">
+      <c r="H457" t="inlineStr">
         <is>
           <t>ඞВнезапно сверху раздается "динь-динь-треск". Кажется, что с крыши кабины упало несколько осколков и покатилось прочь.
 Это действует вам на нервы, поскольку вся кабина начинает трястись при подъеме SkyWheel.</t>
@@ -21565,7 +21565,7 @@
           <t>The cabin sways back and forth. You keep a wary eye on the outside. Fortunately, despite the shuddering, there was no actual accident.</t>
         </is>
       </c>
-      <c r="H458" s="0" t="inlineStr">
+      <c r="H458" t="inlineStr">
         <is>
           <t>ඞКабина раскачивается взад-вперед. Вы внимательно следите за тем, что происходит снаружи. К счастью, несмотря на тряску, аварии на самом деле не произошло.</t>
         </is>
@@ -21607,7 +21607,7 @@
           <t>The cabin sways back and forth. Suddenly, with another "creak," the cabin abruptly tilts to the left. Before you could regain your balance, the whole cabin drops straight down.</t>
         </is>
       </c>
-      <c r="H459" s="0" t="inlineStr">
+      <c r="H459" t="inlineStr">
         <is>
           <t>ඞКабина раскачивается взад-вперед. Внезапно, с очередным "скрипом", кабина резко наклоняется влево. Прежде чем вы успеваете восстановить равновесие, вся кабина резко падает вниз.</t>
         </is>
@@ -21649,7 +21649,7 @@
           <t>Thankfully, it isn't a life-threatening fall, but you do suffer a broken bone.</t>
         </is>
       </c>
-      <c r="H460" s="0" t="inlineStr">
+      <c r="H460" t="inlineStr">
         <is>
           <t>ඞК счастью, это падение не опасно для жизни, но вы все равно получаете перелом кости.</t>
         </is>
@@ -21691,7 +21691,7 @@
           <t>You hobble over to the deformed cabin door and push it open. As you are about to exit, several shiny stones scattered beneath the seats come to your sight.</t>
         </is>
       </c>
-      <c r="H461" s="0" t="inlineStr">
+      <c r="H461" t="inlineStr">
         <is>
           <t>ඞВы ковыляете к деформированной двери салона и открываете ее. Когда вы собираетесь выходить, в поле вашего зрения попадают несколько блестящих камней, разбросанных под сиденьями.</t>
         </is>
@@ -21733,7 +21733,7 @@
           <t>You inspect a few cabins before finally choosing one that seems the most stable.</t>
         </is>
       </c>
-      <c r="H462" s="0" t="inlineStr">
+      <c r="H462" t="inlineStr">
         <is>
           <t>ඞВы осматриваете несколько домиков, прежде чем, наконец, выбираете тот, который кажется вам наиболее устойчивым.</t>
         </is>
@@ -21775,7 +21775,7 @@
           <t>Take a Ride</t>
         </is>
       </c>
-      <c r="H463" s="0" t="inlineStr">
+      <c r="H463" t="inlineStr">
         <is>
           <t>ඞПрокатиться</t>
         </is>
@@ -21823,7 +21823,7 @@
 You spot the distant manor wrapped in a weird red mist, its tendrils snaking and creeping toward the park, almost like it is alive.</t>
         </is>
       </c>
-      <c r="H464" s="0" t="inlineStr">
+      <c r="H464" t="inlineStr">
         <is>
           <t>ඞНебесное колесо медленно поднимается вверх. Когда вы выглядываете из окна кабины, внизу открывается вид на весь парк развлечений.
 Вы видите отдаленное поместье, окутанное странным красным туманом, его завитки извиваются и ползут к парку, как будто он живой.</t>
@@ -21866,7 +21866,7 @@
           <t>The journey from SkyWheel to the manor is quite a distance. There is no direct route, while the only path twists and turns like a maze. But luckily, the view from above makes it easier to figure out how to get to the there.</t>
         </is>
       </c>
-      <c r="H465" s="0" t="inlineStr">
+      <c r="H465" t="inlineStr">
         <is>
           <t>ඞПуть от СкаЙвила до поместья довольно длинный. Прямого маршрута нет, а единственная тропинка петляет, как в лабиринте. Но, к счастью, вид сверху облегчает понимание того, как туда добраться.</t>
         </is>
@@ -21908,7 +21908,7 @@
           <t>Gioia leans gently against SkyWheel's window, gazing down at the ever-shrinking amusement park, until it shrank into a patchwork of tiny rectangles.</t>
         </is>
       </c>
-      <c r="H466" s="0" t="inlineStr">
+      <c r="H466" t="inlineStr">
         <is>
           <t>ඞДжойя осторожно прислоняется к окну Скайвила, глядя вниз на постоянно уменьшающийся парк развлечений, пока он не превратился в лоскутное одеяло из крошечных прямоугольников.</t>
         </is>
@@ -21956,7 +21956,7 @@
 My father's plans for this Ferris wheel had been collecting dust forever. I thought they'd never finish it.</t>
         </is>
       </c>
-      <c r="H467" s="0" t="inlineStr">
+      <c r="H467" t="inlineStr">
         <is>
           <t>ඞРаньше на этом месте был просто пустырь, понимаете? Никто и не думал, что здесь когда-нибудь построят парк.
 Планы моего отца по строительству колеса обозрения вечно пылились. Я думал, они никогда его не достроят.</t>
@@ -21999,7 +21999,7 @@
           <t>But then, in just a few days, they managed to put it up. Pretty impressive, huh?</t>
         </is>
       </c>
-      <c r="H468" s="0" t="inlineStr">
+      <c r="H468" t="inlineStr">
         <is>
           <t>ඞНо затем, всего за несколько дней, им удалось его установить. Впечатляет, правда?</t>
         </is>
@@ -22041,7 +22041,7 @@
           <t>Gioia is captivated by the park below, her fingers unconsciously tracing patterns on the window. A warm and nostalgic smile graces her face, a smile that hints at fond memories.</t>
         </is>
       </c>
-      <c r="H469" s="0" t="inlineStr">
+      <c r="H469" t="inlineStr">
         <is>
           <t>ඞДжойя очарована парком, раскинувшимся внизу, ее пальцы бессознательно обводят узоры на окне. Теплая ностальгическая улыбка украшает ее лицо, улыбка, которая напоминает о приятных воспоминаниях.</t>
         </is>
@@ -22083,7 +22083,7 @@
           <t>So, you've always lived in Far Hope Town?</t>
         </is>
       </c>
-      <c r="H470" s="0" t="inlineStr">
+      <c r="H470" t="inlineStr">
         <is>
           <t>ඞЗначит, вы всегда жили в Фар-Хоуп-Тауне?</t>
         </is>
@@ -22125,7 +22125,7 @@
           <t>Of course! I've been here my whole life..</t>
         </is>
       </c>
-      <c r="H471" s="0" t="inlineStr">
+      <c r="H471" t="inlineStr">
         <is>
           <t>ඞКонечно! Я прожил здесь всю свою жизнь..</t>
         </is>
@@ -22167,7 +22167,7 @@
           <t>It's just... I...</t>
         </is>
       </c>
-      <c r="H472" s="0" t="inlineStr">
+      <c r="H472" t="inlineStr">
         <is>
           <t>ඞЭто просто... Я...</t>
         </is>
@@ -22209,7 +22209,7 @@
           <t>I...</t>
         </is>
       </c>
-      <c r="H473" s="0" t="inlineStr">
+      <c r="H473" t="inlineStr">
         <is>
           <t>ඞЯ...</t>
         </is>
@@ -22251,7 +22251,7 @@
           <t>...</t>
         </is>
       </c>
-      <c r="H474" s="0" t="inlineStr">
+      <c r="H474" t="inlineStr">
         <is>
           <t>ඞ...</t>
         </is>
@@ -22293,7 +22293,7 @@
           <t>Gioia suddenly trails off, her face turning into one of deep contemplation. As SkyWheel slowly descends, Gioia's conflicted look turns into one of anxiety. You quickly change the topic and lead Gioia off holding her hand.</t>
         </is>
       </c>
-      <c r="H475" s="0" t="inlineStr">
+      <c r="H475" t="inlineStr">
         <is>
           <t>ඞДжойя внезапно замолкает, на ее лице появляется выражение глубокой задумчивости. По мере того, как Скайвил медленно опускается, противоречивое выражение на лице Джойи сменяется беспокойством. Ты быстро меняешь тему и уводишь Джойю, держа ее за руку.</t>
         </is>
@@ -22335,7 +22335,7 @@
           <t>Make a Trap</t>
         </is>
       </c>
-      <c r="H476" s="0" t="inlineStr">
+      <c r="H476" t="inlineStr">
         <is>
           <t>ඞУстроить ловушку</t>
         </is>
@@ -22377,7 +22377,7 @@
           <t>You tinker with the cabin for a while, creating a makeshift trap successfully.</t>
         </is>
       </c>
-      <c r="H477" s="0" t="inlineStr">
+      <c r="H477" t="inlineStr">
         <is>
           <t>ඞВы некоторое время возитесь с хижиной, успешно создавая импровизированную ловушку.</t>
         </is>
@@ -22419,7 +22419,7 @@
           <t>You tinker with the cabin for a while, but its structure is far more complex than you expect. After some struggle, you finally rig it with a trap, though not without bearing some bruise and scars.</t>
         </is>
       </c>
-      <c r="H478" s="0" t="inlineStr">
+      <c r="H478" t="inlineStr">
         <is>
           <t>ඞВы некоторое время возитесь с домиком, но его конструкция оказывается гораздо сложнее, чем вы ожидали. После некоторых усилий вы, наконец, устанавливаете в нем ловушку, хотя и не без синяков и шрамов.</t>
         </is>
@@ -22461,7 +22461,7 @@
           <t>Tinker with Cabin</t>
         </is>
       </c>
-      <c r="H479" s="0" t="inlineStr">
+      <c r="H479" t="inlineStr">
         <is>
           <t>ඞПовозиться с кабиной</t>
         </is>
@@ -22509,7 +22509,7 @@
 Just then, you hear a metallic clank. The executioner spots you and is dragging his heavy iron chains your way.</t>
         </is>
       </c>
-      <c r="H480" s="0" t="inlineStr">
+      <c r="H480" t="inlineStr">
         <is>
           <t>ඞВы становитесь под SkyWheel. Ваша цель - опасная кабина у входа. Вы активируете блокировку безопасности из диспетчерской, убедившись, что дверь кабины невозможно открыть изнутри.
 В этот момент вы слышите металлический лязг. Палач замечает вас и тащит свои тяжелые железные цепи в вашу сторону.</t>
@@ -22553,7 +22553,7 @@
           <t>But you have planned for this. You lure the executioner into the cabin. Taking advantage of his height in the confined space, you make your escape just in time, slamming the door shut. Pasqualino attempts to follow, but only manages to grab the door frame. The safety mode kicks in. The cabin door is locked instantly.</t>
         </is>
       </c>
-      <c r="H481" s="0" t="inlineStr">
+      <c r="H481" t="inlineStr">
         <is>
           <t>ඞНо вы все предусмотрели заранее. Вы заманиваете палача в хижину. Воспользовавшись его высоким ростом в ограниченном пространстве, вы успеваете сбежать как раз вовремя, захлопнув дверь. Паскуалино пытается последовать за ним, но успевает лишь ухватиться за дверной косяк. Включается режим безопасности. Дверь кабины мгновенно запирается.</t>
         </is>
@@ -22595,7 +22595,7 @@
           <t>You rush to the control room and get SkyWheel going. Inside the cabin, the executioner struggles furiously and violently. It shakes each time he rams and bangs against the door. You dare not move your eyes away from the cabin as SkyWheel slowly ascends. If he broke free now, all your efforts would go down the drain.</t>
         </is>
       </c>
-      <c r="H482" s="0" t="inlineStr">
+      <c r="H482" t="inlineStr">
         <is>
           <t>ඞВы мчитесь в рубку управления и запускаете Скайвил. Внутри кабины палач отчаянно сопротивляется. Она сотрясается при каждом ударе в дверь. Вы не осмеливаетесь отвести взгляд от кабины, пока Скайвил медленно поднимается. Если он сейчас вырвется на свободу, все ваши усилия пойдут насмарку.</t>
         </is>
@@ -22637,7 +22637,7 @@
           <t>You keep your eyes glued to the cabin as it climbs higher and higher. It feels like an eternity has passed. Then, with a violent struggle and shaking, that cabin plummeted to the ground with a deafening crash.</t>
         </is>
       </c>
-      <c r="H483" s="0" t="inlineStr">
+      <c r="H483" t="inlineStr">
         <is>
           <t>ඞВы не сводите глаз с кабины, которая поднимается все выше и выше. Кажется, что прошла вечность. Затем, после яростной борьбы и тряски, кабина с оглушительным грохотом рухнула на землю.</t>
         </is>
@@ -22679,7 +22679,7 @@
           <t>You wait for a moment, then approach the fallen cabin. It has broken into pieces. A mass of broken glass shards scatter all around. The executioner has been thrown out of the cabin, his bones piercing through his flesh. He lies there, twisted in a pool of blood.</t>
         </is>
       </c>
-      <c r="H484" s="0" t="inlineStr">
+      <c r="H484" t="inlineStr">
         <is>
           <t>ඞВы ждете немного, затем подходите к упавшей хижине. Она разбита на куски. Повсюду разбросаны осколки разбитого стекла. Палача выбросило из хижины, его кости пронзили плоть. Он лежит, скрючившись, в луже крови.</t>
         </is>
@@ -22727,7 +22727,7 @@
 With one last, raspy breath, he lets out a sigh.</t>
         </is>
       </c>
-      <c r="H485" s="0" t="inlineStr">
+      <c r="H485" t="inlineStr">
         <is>
           <t>ඞСквозь щели в его разбитой маске вы видите, как его безжизненные глаза безучастно смотрят вперед, словно устремленные на кого-то невидимого.
 С последним хриплым вздохом он выдыхает.</t>
@@ -22779,7 +22779,7 @@
 There, a cloud of red mist billows out, swirling and churning in mid-air. After a while, as if it lost its host, the red mist dissipates into nothingness.</t>
         </is>
       </c>
-      <c r="H486" s="0" t="inlineStr">
+      <c r="H486" t="inlineStr">
         <is>
           <t>ඞОн исчезает...
 Что-то падает на землю в том месте, где он исчез, издавая хрустящий звук.
@@ -22823,7 +22823,7 @@
           <t>Ambush Executioner</t>
         </is>
       </c>
-      <c r="H487" s="0" t="inlineStr">
+      <c r="H487" t="inlineStr">
         <is>
           <t>ඞПалач из засады</t>
         </is>
@@ -22877,7 +22877,7 @@
 But just as you are transfixed by SkyWheel, a strange, eerie howl pierces your ears.</t>
         </is>
       </c>
-      <c r="H488" s="0" t="inlineStr">
+      <c r="H488" t="inlineStr">
         <is>
           <t>ඞВы добираетесь до Скайвила, и, честно говоря, вам даже не нужна карта. Он слишком велик, чтобы его не заметить.
 Когда смотришь снизу вверх, это колоссальное сооружение кажется невероятным, как будто оттуда можно протянуть руку и дотронуться до звезд.
@@ -22927,7 +22927,7 @@
 You take a couple of steps back in a panic, and find yourself face to face with a visitor who seems oddly out of place. Behind him, there is a large group of equally weird-looking people. Their clothes are soaked in blood, and their weapons in hand, some real and some not.</t>
         </is>
       </c>
-      <c r="H489" s="0" t="inlineStr">
+      <c r="H489" t="inlineStr">
         <is>
           <t>ඞВы резко оборачиваетесь и видите, как гротескное лицо внезапно оказывается слишком близко, его налитые кровью глаза пристально смотрят на вас.
 Вы в панике делаете пару шагов назад и оказываетесь лицом к лицу с посетителем, который кажется странно неуместным. Позади него стоит большая группа людей столь же странного вида. Их одежда пропитана кровью, а в руках оружие, как настоящее, так и нет.</t>
@@ -22970,7 +22970,7 @@
           <t>Just as you are about to react, the clown hastily pushes his way out of the crowd. Disheveled yet hospitable, he waves at the crowd.</t>
         </is>
       </c>
-      <c r="H490" s="0" t="inlineStr">
+      <c r="H490" t="inlineStr">
         <is>
           <t>ඞКак только вы начинаете реагировать, клоун поспешно проталкивается сквозь толпу. Растрепанный, но гостеприимный, он машет толпе.</t>
         </is>
@@ -23012,7 +23012,7 @@
           <t>Hey! Wrong way, wrong way, folks! Over here! Over here!</t>
         </is>
       </c>
-      <c r="H491" s="0" t="inlineStr">
+      <c r="H491" t="inlineStr">
         <is>
           <t>ඞЭй!” Не туда, не туда, ребята! Сюда! Сюда!</t>
         </is>
@@ -23054,7 +23054,7 @@
           <t>The bunch of weirdos stagger towards the clown. Their bloodshot eyes lock onto him. Their screeching weapons scrape the ground. The clown leads them toward the square, yelling back to you.</t>
         </is>
       </c>
-      <c r="H492" s="0" t="inlineStr">
+      <c r="H492" t="inlineStr">
         <is>
           <t>ඞКучка чудаков, пошатываясь, направляется к клоуну. Их налитые кровью глаза устремлены на него. Их оружие со скрежетом скребет по земле. Клоун ведет их к площади, что-то крича вам в ответ.</t>
         </is>
@@ -23096,7 +23096,7 @@
           <t>Hey! SkyWheel is already running! Hop on by yourself! I'm taking these super eager tourists to the next attraction!</t>
         </is>
       </c>
-      <c r="H493" s="0" t="inlineStr">
+      <c r="H493" t="inlineStr">
         <is>
           <t>ඞЭй!” Скайвел уже запущен! Запрыгивайте сами! Я поведу этих нетерпеливых туристов к следующему аттракциону!</t>
         </is>
@@ -23138,7 +23138,7 @@
           <t>The frenzied tourists lunge at the clown. A hatchet is swung wide and thrown his way, but it misses the target by a hair's breadth and slams into the earth nearby. The clown leads them on an ever-further chase, while engaging in a rather bizarre conversation.</t>
         </is>
       </c>
-      <c r="H494" s="0" t="inlineStr">
+      <c r="H494" t="inlineStr">
         <is>
           <t>ඞОбезумевшие туристы бросаются на клоуна. Он широко размахивается и бросает в него топор, но тот пролетает на волосок от цели и вонзается в землю неподалеку. Клоун увлекает их за собой в погоню, одновременно вступая в довольно странный разговор.</t>
         </is>
@@ -23180,7 +23180,7 @@
           <t>Oh wow! You guys are way too enthusiastic! But just so you know, our company has a no-gifts-from tourists policy.</t>
         </is>
       </c>
-      <c r="H495" s="0" t="inlineStr">
+      <c r="H495" t="inlineStr">
         <is>
           <t>ඞУх ты! Вы, ребята, полны энтузиазма! Но, к вашему сведению, в нашей компании действует правило "без подарков от туристов".</t>
         </is>
@@ -23222,7 +23222,7 @@
           <t>Is that so? Hahaha...</t>
         </is>
       </c>
-      <c r="H496" s="0" t="inlineStr">
+      <c r="H496" t="inlineStr">
         <is>
           <t>ඞЭто так? Хахаха...</t>
         </is>
@@ -23270,7 +23270,7 @@
 A balloon drifting alone outside the topmost cabin. As the wind gently caresses SkyWheel, this cabin has a slight, distinct sway. You know the clown is inside.</t>
         </is>
       </c>
-      <c r="H497" s="0" t="inlineStr">
+      <c r="H497" t="inlineStr">
         <is>
           <t>ඞСкайуолл стоит там в тишине. Сколько бы раз вы его ни видели, его невероятное величие никогда не перестанет поражать вас.
 Воздушный шар, одиноко парящий возле самой верхней кабины. Когда ветер нежно ласкает Скайуолл, эта кабина слегка покачивается. Ты знаешь, что клоун внутри.</t>
@@ -23313,7 +23313,7 @@
           <t>...How did he get up there?</t>
         </is>
       </c>
-      <c r="H498" s="0" t="inlineStr">
+      <c r="H498" t="inlineStr">
         <is>
           <t>ඞ..Как он туда забрался?</t>
         </is>
@@ -23355,7 +23355,7 @@
           <t>Next to you, the door to the control room creaks open.</t>
         </is>
       </c>
-      <c r="H499" s="0" t="inlineStr">
+      <c r="H499" t="inlineStr">
         <is>
           <t>ඞРядом с вами со скрипом открывается дверь в диспетчерскую.</t>
         </is>
@@ -23397,7 +23397,7 @@
           <t>Alex spots you and smiles. He still has his quirky clown makeup on, but now he looks more like an ordinary person dressed as a clown, and his voice mellows.</t>
         </is>
       </c>
-      <c r="H500" s="0" t="inlineStr">
+      <c r="H500" t="inlineStr">
         <is>
           <t>ඞАлекс замечает вас и улыбается. На нем все еще необычный клоунский грим, но теперь он больше похож на обычного человека, одетого как клоун, и его голос смягчается.</t>
         </is>
@@ -23445,7 +23445,7 @@
 When I saw Madam's... you know, body in the study, I just couldn't accept the reality. Maybe there's something wrong with my...</t>
         </is>
       </c>
-      <c r="H501" s="0" t="inlineStr">
+      <c r="H501" t="inlineStr">
         <is>
           <t>ඞЭй, извини за то, что было раньше, должно быть, это выглядело мило... нелепый.
 Когда я увидел тело мадам... знаете, тело в кабинете, я просто не мог смириться с реальностью. Может быть, что-то не так с моим...</t>
@@ -23488,7 +23488,7 @@
           <t>Alex</t>
         </is>
       </c>
-      <c r="H502" s="0" t="inlineStr">
+      <c r="H502" t="inlineStr">
         <is>
           <t>ඞАлекс</t>
         </is>
@@ -23530,7 +23530,7 @@
           <t>Alex points to his head with a wry grin. It's clear he's trying to explain his earlier actions.</t>
         </is>
       </c>
-      <c r="H503" s="0" t="inlineStr">
+      <c r="H503" t="inlineStr">
         <is>
           <t>ඞАлекс с кривой усмешкой указывает на свою голову. Ясно, что он пытается объяснить свои предыдущие действия.</t>
         </is>
@@ -23578,7 +23578,7 @@
 Throwing a few extra coins, their leftover food my way, didn't bother 'em none.</t>
         </is>
       </c>
-      <c r="H504" s="0" t="inlineStr">
+      <c r="H504" t="inlineStr">
         <is>
           <t>ඞВпервые я забрел сюда просто перекусить. Люди... они всегда становятся намного добрее, когда веселятся.
 Я бросил им несколько лишних монет и остатки еды, но это их нисколько не обеспокоило.</t>
@@ -23627,7 +23627,7 @@
 Even when she caught me, all interested in the performers and sneaking peeks, mimicking them when no one's looking, she asked me... she actually asked me if I wanted a job here.</t>
         </is>
       </c>
-      <c r="H505" s="0" t="inlineStr">
+      <c r="H505" t="inlineStr">
         <is>
           <t>ඞЛеди Стоунхарт, она заметила меня с самого начала, но никогда никого не отправляла меня выгонять.
 Даже когда она поймала меня, заинтересованную в выступлениях и подглядывающую украдкой, подражающую им, когда никто не видит, она спросила меня... на самом деле она спросила меня, хочу ли я здесь работать.</t>
@@ -23670,7 +23670,7 @@
           <t>Alex's voice chokes up, his eyes brimming over with unshed tears. His red-rimmed eyes, set against his white-painted face, looks absurd yet heartbreaking.</t>
         </is>
       </c>
-      <c r="H506" s="0" t="inlineStr">
+      <c r="H506" t="inlineStr">
         <is>
           <t>ඞГолос Алекса прерывается, его глаза наполняются непролитыми слезами. Его покрасневшие глаза на фоне размалеванного лица выглядят нелепо, но в то же время душераздирающе.</t>
         </is>
@@ -23736,7 +23736,7 @@
 I thought everything would just get better and better...</t>
         </is>
       </c>
-      <c r="H507" s="0" t="inlineStr">
+      <c r="H507" t="inlineStr">
         <is>
           <t>ඞЯ усердно трудился, по-настоящему усердно. Я трудился от всего сердца не только для того, чтобы отблагодарить леди Стоунхарт, но и потому, что я действительно любил это место.
 Каждый день посетители приходят и уходят, дети смеются и бегают вокруг... Я был их гидом, показывая им каждый уголок этого парка.
@@ -23782,7 +23782,7 @@
           <t>A tear escapes his eye, rolling down his cheek. Soon, more follow, splashing and splattering onto the floor.</t>
         </is>
       </c>
-      <c r="H508" s="0" t="inlineStr">
+      <c r="H508" t="inlineStr">
         <is>
           <t>ඞСлеза скатывается по его щеке. Вскоре за ней следуют другие, разбрызгиваясь по полу.</t>
         </is>
@@ -23824,7 +23824,7 @@
           <t>But then, Lady Stoneheart... she... she's gone...</t>
         </is>
       </c>
-      <c r="H509" s="0" t="inlineStr">
+      <c r="H509" t="inlineStr">
         <is>
           <t>ඞНо потом леди Стоунхарт... она... она ушла...</t>
         </is>
@@ -23866,7 +23866,7 @@
           <t>You're so focused on the clown's story, not noticing the dense red mist creeping closer. You feel woozy, your chest tight, your head heavy and swim.</t>
         </is>
       </c>
-      <c r="H510" s="0" t="inlineStr">
+      <c r="H510" t="inlineStr">
         <is>
           <t>ඞТы так сосредоточен на рассказе клоуна, что не замечаешь, как густой красный туман подбирается все ближе. Ты чувствуешь головокружение, стеснение в груди, тяжесть в голове и все плывет перед глазами.</t>
         </is>
@@ -23908,7 +23908,7 @@
           <t>The clown is still talking, but his voice gets softer and softer, fading away to a whisper. Eventually, you can't hear him any more. All you see are his lips moving, opening and closing.</t>
         </is>
       </c>
-      <c r="H511" s="0" t="inlineStr">
+      <c r="H511" t="inlineStr">
         <is>
           <t>ඞКлоун все еще говорит, но его голос становится все тише и тише, постепенно переходя на шепот. В конце концов, вы его больше не слышите. Все, что вы видите, - это как шевелятся его губы, открывая и закрывая рот.</t>
         </is>
@@ -23950,7 +23950,7 @@
           <t>Under the shroud of the red mist, the clown starts to look grotesquely sinister. His face contorts and twists into something malevolent that makes your skin crawl. A sudden thought pops in your mind—</t>
         </is>
       </c>
-      <c r="H512" s="0" t="inlineStr">
+      <c r="H512" t="inlineStr">
         <is>
           <t>ඞПод покровом красного тумана клоун начинает выглядеть гротескно и зловеще. Его лицо искажается и становится таким злобным, что у вас мурашки бегут по коже. Внезапно вам в голову приходит мысль—</t>
         </is>
@@ -23992,7 +23992,7 @@
           <t>&lt;color=#DC143C&gt;He must be killed!&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H513" s="0" t="inlineStr">
+      <c r="H513" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#DC143C&gt;Он должен быть убит!&lt;/color&gt;</t>
         </is>
@@ -24034,7 +24034,7 @@
           <t>You could sense that something must be off. You shake your head, trying to get rid of this abrupt intrusive thought. But you just can't focus. Your thoughts are all jumbled up, and a stronger impulse surges from deep within, screaming wildly in your brain.</t>
         </is>
       </c>
-      <c r="H514" s="0" t="inlineStr">
+      <c r="H514" t="inlineStr">
         <is>
           <t>ඞВы чувствуете, что что-то не так. Вы трясете головой, пытаясь избавиться от этой внезапной навязчивой мысли. Но вы просто не можете сосредоточиться. Все ваши мысли путаются, и более сильный импульс поднимается из глубины, дико крича в вашем мозгу.</t>
         </is>
@@ -24088,7 +24088,7 @@
 &lt;color=#DC143C&gt;&lt;size=7&gt;Kill him before he kills you and kill him before he gets to you■■Kill him and crack open his skull■Cut open his belly and kill him kill him&lt;/size&gt;&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H515" s="0" t="inlineStr">
+      <c r="H515" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#DC143C&gt;Убей его, убей его, убей его, убей его, убей его, убей его, убей его, убей его!&lt;/color&gt;
 &lt;color=#DC143C&gt;&lt;размер=12&gt;&lt;размер=16&gt; Убей его! Убей &lt;размер=16&gt; его&lt;/размер&gt;! &lt;размер=16&gt; УБЕЙ&lt;/размер&gt; ЕГО! УБЕЙ &lt;размер=16&gt;ЕГО&lt;/размер&gt;! &lt;размер=16&gt;УБЕЙ ЕГО!&lt;/размер&gt;&lt;/size&gt;&lt;/color&gt;
@@ -24132,7 +24132,7 @@
           <t>When you finally come to your senses...</t>
         </is>
       </c>
-      <c r="H516" s="0" t="inlineStr">
+      <c r="H516" t="inlineStr">
         <is>
           <t>ඞКогда ты наконец придешь в себя...</t>
         </is>
@@ -24174,7 +24174,7 @@
           <t>The clown has already been lying in a pool of blood, and you are straddling on top of him, hands tightly gripping his throat.</t>
         </is>
       </c>
-      <c r="H517" s="0" t="inlineStr">
+      <c r="H517" t="inlineStr">
         <is>
           <t>ඞКлоун уже лежит в луже крови, а ты сидишь на нем верхом, крепко сжимая руками его горло.</t>
         </is>
@@ -24216,7 +24216,7 @@
           <t>You hastily get up and release your grip. Alex is all battered in blood from the injuries you inflected on him. He has that same goofy yet normal face, but he's barely hanging on. Seeing how frantic and panicked you are, he somehow manages a weak smile.</t>
         </is>
       </c>
-      <c r="H518" s="0" t="inlineStr">
+      <c r="H518" t="inlineStr">
         <is>
           <t>ඞТы поспешно встаешь и ослабляешь хватку. Алекс весь в крови от ран, которые ты ему нанес. У него все то же глупое, но нормальное лицо, но он едва держится на ногах. Видя, как ты обезумел и запаниковал, он каким-то образом умудряется слабо улыбнуться.</t>
         </is>
@@ -24258,7 +24258,7 @@
           <t>I know... I know, it's not your fault...</t>
         </is>
       </c>
-      <c r="H519" s="0" t="inlineStr">
+      <c r="H519" t="inlineStr">
         <is>
           <t>ඞЯ знаю... Я знаю, это не твоя вина...</t>
         </is>
@@ -24300,7 +24300,7 @@
           <t>With his last ounce of strength, the clown lifts his bloodied hand and draws one final, shaky grin on your trembling lips. He smiles at you, his last breath escaping.</t>
         </is>
       </c>
-      <c r="H520" s="0" t="inlineStr">
+      <c r="H520" t="inlineStr">
         <is>
           <t>ඞИз последних сил клоун поднимает окровавленную руку и рисует на твоих дрожащих губах последнюю дрожащую улыбку. Он улыбается тебе, испуская последний вздох.</t>
         </is>
@@ -24342,7 +24342,7 @@
           <t>In your panic, you try to check his injuries. But he's hurt so bad, there's no hope of recovery.</t>
         </is>
       </c>
-      <c r="H521" s="0" t="inlineStr">
+      <c r="H521" t="inlineStr">
         <is>
           <t>ඞВ панике ты пытаешься осмотреть его раны. Но он так сильно ранен, что надежды на выздоровление нет.</t>
         </is>
@@ -24390,7 +24390,7 @@
 In the place where he vanished lie quietly a blood-red shard and a crystalline white object.</t>
         </is>
       </c>
-      <c r="H522" s="0" t="inlineStr">
+      <c r="H522" t="inlineStr">
         <is>
           <t>ඞОт его безжизненного тела поднимается облако красного тумана, которое на мгновение повисает в воздухе, прежде чем рассеяться вместе с телом.
 На том месте, где он исчез, спокойно лежат кроваво-красный осколок и кристаллический белый предмет.</t>
@@ -24433,7 +24433,7 @@
           <t>Talk to Alex</t>
         </is>
       </c>
-      <c r="H523" s="0" t="inlineStr">
+      <c r="H523" t="inlineStr">
         <is>
           <t>ඞПоговори с Алексом</t>
         </is>
@@ -24475,7 +24475,7 @@
           <t>Check Monument</t>
         </is>
       </c>
-      <c r="H524" s="0" t="inlineStr">
+      <c r="H524" t="inlineStr">
         <is>
           <t>ඞПроверьте памятник</t>
         </is>
@@ -24517,7 +24517,7 @@
           <t>Red Stone Monument</t>
         </is>
       </c>
-      <c r="H525" s="0" t="inlineStr">
+      <c r="H525" t="inlineStr">
         <is>
           <t>ඞПамятник из красного камня</t>
         </is>
@@ -24559,7 +24559,7 @@
           <t>Numerous grooves emerge one after another on the dark-red stone monument, from which fresh crimson liquid oozes. That's when you notice that the entire monument is inscribed with &lt;color=#DC143C&gt;people's names&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H526" s="0" t="inlineStr">
+      <c r="H526" t="inlineStr">
         <is>
           <t>ඞНа темно-красном каменном памятнике одна за другой появляются многочисленные бороздки, из которых сочится свежая малиновая жидкость. И тут вы замечаете, что весь монумент исписан именами людей &lt;color=#DC143C&gt;.</t>
         </is>
@@ -24601,7 +24601,7 @@
           <t>At the very top are two names, Alessio and Rosalind, leading the list of all the other names.</t>
         </is>
       </c>
-      <c r="H527" s="0" t="inlineStr">
+      <c r="H527" t="inlineStr">
         <is>
           <t>ඞВ самом верху находятся два имени, Алессио и Розалинда, которые возглавляют список всех остальных имен.</t>
         </is>
@@ -24643,7 +24643,7 @@
           <t>Read the Text</t>
         </is>
       </c>
-      <c r="H528" s="0" t="inlineStr">
+      <c r="H528" t="inlineStr">
         <is>
           <t>ඞпрочитай текст</t>
         </is>
@@ -24685,7 +24685,7 @@
           <t>Gioia stares at the monument and, with a nostalgic tone, she tells you that those are her parents' names. She then gazes up at the huge SkyWheel, lost in thought.</t>
         </is>
       </c>
-      <c r="H529" s="0" t="inlineStr">
+      <c r="H529" t="inlineStr">
         <is>
           <t>ඞДжойя смотрит на монумент и с ностальгией в голосе рассказывает вам, что это имена ее родителей. Затем она поднимает взгляд к огромному небесному колесу, погруженная в свои мысли.</t>
         </is>
@@ -24739,7 +24739,7 @@
 Everyone thought he's just being super romantic, showing his love in a big way.</t>
         </is>
       </c>
-      <c r="H530" s="0" t="inlineStr">
+      <c r="H530" t="inlineStr">
         <is>
           <t>ඞМой отец был неравнодушен к звездам. Однажды он дал обещание моей матери.
 Он хотел построить что-нибудь, что могло бы дотянуться до звезд, чтобы подарить ей собственное звездное небо.
@@ -24789,7 +24789,7 @@
 It wasn't until my mother's birthday, when all of his preparations were done, that we finally found out about his plan. He wanted to build the highest Ferris wheel in the park, high enough that when she sat inside, it'd be like she could reach out and touch the stars.</t>
         </is>
       </c>
-      <c r="H531" s="0" t="inlineStr">
+      <c r="H531" t="inlineStr">
         <is>
           <t>ඞНо мой отец... он был не просто разговорчивым человеком. Он тайно подготовил все: чертежи, планы строительства, расстановку персонала, всевозможные вещи.
 Только на день рождения моей матери, когда все приготовления были закончены, мы, наконец, узнали о его плане. Он хотел построить самое высокое колесо обозрения в парке, достаточно высокое, чтобы, когда она сидела внутри, ей казалось, что она может протянуть руку и дотронуться до звезд.</t>
@@ -24832,7 +24832,7 @@
           <t>You could picture Alessio working tirelessly for months, carefully keeping it all a secret to surprise Rosalind on her birthday.</t>
         </is>
       </c>
-      <c r="H532" s="0" t="inlineStr">
+      <c r="H532" t="inlineStr">
         <is>
           <t>ඞМожно представить, как Алессио месяцами неустанно трудился, тщательно сохраняя все в секрете, чтобы удивить Розалинду в день ее рождения.</t>
         </is>
@@ -24880,7 +24880,7 @@
 But his health... well, it never really got better. So, the project kept on getting delayed.</t>
         </is>
       </c>
-      <c r="H533" s="0" t="inlineStr">
+      <c r="H533" t="inlineStr">
         <is>
           <t>ඞКолесо обозрения... это сложная штука. Мой отец вложил в это все свои знания и умения... он вложил в это всю свою душу архитектора. Он должен был быть там, чтобы убедиться, что все идет хорошо.
 Но его здоровье... ну, на самом деле, оно так и не улучшилось. Таким образом, реализация проекта продолжала откладываться.</t>
@@ -24929,7 +24929,7 @@
 Now his dream is finally realized. I'm so happy for him...</t>
         </is>
       </c>
-      <c r="H534" s="0" t="inlineStr">
+      <c r="H534" t="inlineStr">
         <is>
           <t>ඞНо теперь...
 Теперь его мечта наконец осуществилась. Я так рада за него...</t>
@@ -24972,7 +24972,7 @@
           <t>Gioia smiles wistfully, her hand gently caressing the monument as if it were something fragile. Under her touch, the monument gradually melts away, eventually crystallizing into a white, crystal-like shard.</t>
         </is>
       </c>
-      <c r="H535" s="0" t="inlineStr">
+      <c r="H535" t="inlineStr">
         <is>
           <t>ඞДжойя задумчиво улыбается, ее рука нежно гладит памятник, как будто это что-то хрупкое. Под ее прикосновениями памятник постепенно тает, превращаясь в белый, похожий на кристалл осколок.</t>
         </is>
@@ -25020,7 +25020,7 @@
 But just as you are transfixed by the topmost cabin of SkyWheel, a strange, eerie howl pierces your ears.</t>
         </is>
       </c>
-      <c r="H536" s="0" t="inlineStr">
+      <c r="H536" t="inlineStr">
         <is>
           <t>ඞСледуя карте, вы доберетесь до Небесного колеса. Если смотреть снизу вверх, это колоссальное сооружение кажется невероятным, как будто оттуда можно протянуть руку и дотронуться до звезд.
 Но как только вы завороженно смотрите на самую верхнюю кабину SkyWheel, странный, жуткий вой пронзает ваши уши.</t>
@@ -25063,7 +25063,7 @@
           <t>You whip around to see a grotesque face suddenly getting way too close, its bloodshot eyes staring you down. You take a couple of steps back in a panic, and find yourself face to face with a visitor who seems oddly out of place. Behind him, there is a large group of equally weird-looking people. Their eyes are all blood-red, their clothes soaked in blood, and their weapons in hand, some real and some not.</t>
         </is>
       </c>
-      <c r="H537" s="0" t="inlineStr">
+      <c r="H537" t="inlineStr">
         <is>
           <t>ඞВы резко оборачиваетесь и видите, как гротескное лицо внезапно оказывается слишком близко, его налитые кровью глаза пристально смотрят на вас. Вы в панике делаете пару шагов назад и оказываетесь лицом к лицу с посетителем, который кажется странно неуместным. Позади него стоит большая группа людей столь же странного вида. У всех у них кроваво-красные глаза, одежда пропитана кровью, а в руках оружие, как настоящее, так и нет.</t>
         </is>
@@ -25105,7 +25105,7 @@
           <t>The bunch of weirdos stagger towards you. Their screeching weapons scrape the ground. Their bloodshot eyes lock onto you.</t>
         </is>
       </c>
-      <c r="H538" s="0" t="inlineStr">
+      <c r="H538" t="inlineStr">
         <is>
           <t>ඞКучка чудаков, пошатываясь, направляется к тебе. Их оружие со скрежетом скребет по земле. Их налитые кровью глаза устремлены на тебя.</t>
         </is>
@@ -25147,7 +25147,7 @@
           <t>The only and perfect shelter for every soul that seeks a quick respite.</t>
         </is>
       </c>
-      <c r="H539" s="0" t="inlineStr">
+      <c r="H539" t="inlineStr">
         <is>
           <t>ඞЕдинственное и совершенное убежище для каждой души, которая ищет быстрой передышки.</t>
         </is>
@@ -25189,7 +25189,7 @@
           <t>Cafeteria</t>
         </is>
       </c>
-      <c r="H540" s="0" t="inlineStr">
+      <c r="H540" t="inlineStr">
         <is>
           <t>ඞКафетерий</t>
         </is>
@@ -25243,7 +25243,7 @@
 An oversized &lt;color=#FFD700&gt;trashcan&lt;/color&gt; stands by the counter.</t>
         </is>
       </c>
-      <c r="H541" s="0" t="inlineStr">
+      <c r="H541" t="inlineStr">
         <is>
           <t>ඞСтатуя мальчика-ангела &lt;color=#FFD700&gt;, стоящая напротив, невинно улыбается вам, его белые гипсовые крылья озаряют ваше сердце лучиком надежды.
 Вы осторожно заглядываете внутрь из дверного проема и обнаруживаете разбитую витрину &lt;color=#FFD700&gt; рядом с когтерезными машинами у стены.
@@ -25287,7 +25287,7 @@
           <t>A thick blanket of red mist churns at the heart of the dining area, blocking your vision.</t>
         </is>
       </c>
-      <c r="H542" s="0" t="inlineStr">
+      <c r="H542" t="inlineStr">
         <is>
           <t>ඞГустая пелена красного тумана клубится в центре обеденной зоны, закрывая вам обзор.</t>
         </is>
@@ -25329,7 +25329,7 @@
           <t>The angelic boy looks like to be cupping something in his hands. Whatever it is, it's not there right now.</t>
         </is>
       </c>
-      <c r="H543" s="0" t="inlineStr">
+      <c r="H543" t="inlineStr">
         <is>
           <t>ඞАнгельский мальчик, похоже, сжимает что-то в ладонях. Что бы это ни было, сейчас его там нет.</t>
         </is>
@@ -25371,7 +25371,7 @@
           <t>Check Statue</t>
         </is>
       </c>
-      <c r="H544" s="0" t="inlineStr">
+      <c r="H544" t="inlineStr">
         <is>
           <t>ඞПроверьте статую</t>
         </is>
@@ -25416,7 +25416,7 @@
           <t>Some run-of-the-mill dolls stuff the claw machines. The wrecked showcase next to them, however, piques your interest as you find an ornamental strip behind the shattered glass windows.</t>
         </is>
       </c>
-      <c r="H545" s="0" t="inlineStr">
+      <c r="H545" t="inlineStr">
         <is>
           <t>ඞМашинки для стрижки когтей сделаны из каких-то заурядных кукол. Однако разбитая витрина рядом с ними вызывает у вас интерес, поскольку за разбитыми витринными стеклами вы обнаруживаете декоративную полоску.</t>
         </is>
@@ -25458,7 +25458,7 @@
           <t>Check Showcase</t>
         </is>
       </c>
-      <c r="H546" s="0" t="inlineStr">
+      <c r="H546" t="inlineStr">
         <is>
           <t>ඞПроверьте витрину</t>
         </is>
@@ -25500,7 +25500,7 @@
           <t>Unsurprisingly, it's O'Lucky who has burrowed half of his body inside the drawer under the counter, leaving only his other clumsy half visibly jerking.</t>
         </is>
       </c>
-      <c r="H547" s="0" t="inlineStr">
+      <c r="H547" t="inlineStr">
         <is>
           <t>ඞНеудивительно, что именно О'Лаки зарылся половиной своего тела в ящик под прилавком, оставив заметно дергаться только свою вторую неуклюжую половину.</t>
         </is>
@@ -25542,7 +25542,7 @@
           <t>Aware of the sounds of approaching footsteps, he painstakingly pulls himself out from the container. His face sees a drastic shift as he figures out the patron.</t>
         </is>
       </c>
-      <c r="H548" s="0" t="inlineStr">
+      <c r="H548" t="inlineStr">
         <is>
           <t>ඞУслышав приближающиеся шаги, он с трудом выбирается из контейнера. Его лицо резко меняется, когда он узнает покупателя.</t>
         </is>
@@ -25584,7 +25584,7 @@
           <t>Save it, mate. No need of your fancy words. You know where the boxes are, do ya?</t>
         </is>
       </c>
-      <c r="H549" s="0" t="inlineStr">
+      <c r="H549" t="inlineStr">
         <is>
           <t>ඞОставь это, приятель. Не нужно твоих модных выражений. Ты ведь знаешь, где коробки, не так ли?</t>
         </is>
@@ -25626,7 +25626,7 @@
           <t>Some items scatter around the drawer O'Lucky just "delved in." They soon end up in your bag.</t>
         </is>
       </c>
-      <c r="H550" s="0" t="inlineStr">
+      <c r="H550" t="inlineStr">
         <is>
           <t>ඞНекоторые предметы разбросаны по ящику, в котором О'Лаки только что "копался". Вскоре они оказываются в вашей сумке.</t>
         </is>
@@ -25668,7 +25668,7 @@
           <t>Investigate the counter</t>
         </is>
       </c>
-      <c r="H551" s="0" t="inlineStr">
+      <c r="H551" t="inlineStr">
         <is>
           <t>ඞИсследуйте прилавок</t>
         </is>
@@ -25716,7 +25716,7 @@
 Among the smelly kitchen garbage, you find a shredded letter and photo, which take you some effort to restore piece by piece.</t>
         </is>
       </c>
-      <c r="H552" s="0" t="inlineStr">
+      <c r="H552" t="inlineStr">
         <is>
           <t>ඞВы радуетесь, что рядом нет свидетелей, когда открываете очередную мусорную корзину, чтобы просмотреть ее содержимое. Как бы вы иначе объяснили им, что это не ваша прихоть?
 Среди вонючего кухонного мусора вы находите разорванное в клочья письмо и фотографию, которые вам приходится восстанавливать по кусочкам.</t>
@@ -25765,7 +25765,7 @@
 On the photo are some torturing tools whose horrific designs give you nightmares. Among them, the look of a metal mask sends a shiver down your spine.</t>
         </is>
       </c>
-      <c r="H553" s="0" t="inlineStr">
+      <c r="H553" t="inlineStr">
         <is>
           <t>ඞВ письме Паскуалино содержалась угроза, в которой анонимный отправитель просил мужчину уволиться с работы в парке и немедленно покинуть город, иначе он подвергнется "невообразимому возмездию".
 На фото представлены орудия пыток, ужасающий дизайн которых вызывает у вас ночные кошмары. Среди них при виде металлической маски по спине пробегают мурашки.</t>
@@ -25808,7 +25808,7 @@
           <t>You also find inside the trashcan something useful... maybe.</t>
         </is>
       </c>
-      <c r="H554" s="0" t="inlineStr">
+      <c r="H554" t="inlineStr">
         <is>
           <t>ඞВы также найдете в мусорном ведре что-нибудь полезное... может быть.</t>
         </is>
@@ -25850,7 +25850,7 @@
           <t>Check Trashcan</t>
         </is>
       </c>
-      <c r="H555" s="0" t="inlineStr">
+      <c r="H555" t="inlineStr">
         <is>
           <t>ඞПроверьте мусорное ведро</t>
         </is>
@@ -25892,7 +25892,7 @@
           <t>As you come closer to the red mist, your thoughts begin to slow, and your mind grows sluggish and heavy.</t>
         </is>
       </c>
-      <c r="H556" s="0" t="inlineStr">
+      <c r="H556" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь к красному туману, ваши мысли начинают замедляться, а разум становится вялым и тяжелым.</t>
         </is>
@@ -25934,7 +25934,7 @@
           <t>A red sprout emerges from the floor. In a blink of eye, its tender shoots enlarge and extend into disproportional branches and boughs, with ripen fruits hanging at its twigs, ready to be picked. The sanguineous luster makes you wonder in fear what has nourished the plant.</t>
         </is>
       </c>
-      <c r="H557" s="0" t="inlineStr">
+      <c r="H557" t="inlineStr">
         <is>
           <t>ඞИз земли появляется красный росток. В мгновение ока его нежные побеги увеличиваются в размерах и превращаются в непропорциональные ветви, с которых свисают созревшие плоды, готовые к сбору. Кровавый блеск заставляет вас в страхе задаться вопросом, что же питало это растение.</t>
         </is>
@@ -25982,7 +25982,7 @@
 Flickering streams of light travel through the veins on the plaster angel's arms before converging at the glass vessel in his palms. The heart's incandescence flashes, then turns stable as the current noise ceases.</t>
         </is>
       </c>
-      <c r="H558" s="0" t="inlineStr">
+      <c r="H558" t="inlineStr">
         <is>
           <t>ඞВы помещаете стеклянное сердце в сложенные чашечкой ладони статуи, и с четким щелчком устройство активируется.
 Мерцающие потоки света пробегают по венам на руках гипсового ангела, прежде чем собраться в стеклянном сосуде в его ладонях. Пульсация сердца мигает, затем становится стабильной, когда текущий шум прекращается.</t>
@@ -26031,7 +26031,7 @@
 A crude, synthesized song with a delightful tune comes from the invisible player on the statue. The current noise punctuating it reminds you of the shabby electronic candles you saw at other birthday parties.</t>
         </is>
       </c>
-      <c r="H559" s="0" t="inlineStr">
+      <c r="H559" t="inlineStr">
         <is>
           <t>ඞСвет, исходящий от стеклянного сердца, наполняет вас радостью.
 Из невидимого проигрывателя на статуе звучит грубая синтезированная песня с восхитительной мелодией. Сопровождающий ее шум напоминает вам о потрепанных электронных свечах, которые вы видели на других вечеринках по случаю дня рождения.</t>
@@ -26074,7 +26074,7 @@
           <t>Buzz—♫Da~da-la-da-la-♫Da-da~The hero has returned with a heart of hope, now wait for the magic to happen as foretold~♫da-da-la-la~Da-da~♫Da-da~</t>
         </is>
       </c>
-      <c r="H560" s="0" t="inlineStr">
+      <c r="H560" t="inlineStr">
         <is>
           <t>ඞBuzz—♫Da~da-la-da-la-♫Da-da~The hero has returned with a heart of hope, now wait for the magic to happen as foretold~♫da-da-la-la~Da-da~♫Da-da~</t>
         </is>
@@ -26116,7 +26116,7 @@
           <t>♫Da-la-la-la~♫La-la-da-da-da~</t>
         </is>
       </c>
-      <c r="H561" s="0" t="inlineStr">
+      <c r="H561" t="inlineStr">
         <is>
           <t>ඞ♫Да-ла-ла-ла~♫ла-ла-да-да-да~</t>
         </is>
@@ -26158,7 +26158,7 @@
           <t>♫Da-la-la-la~♫La-la-da...da... Buzz... Buzz—</t>
         </is>
       </c>
-      <c r="H562" s="0" t="inlineStr">
+      <c r="H562" t="inlineStr">
         <is>
           <t>ඞ♫Да-ла-ла-ла~♫ла-ла-да...в... Базз... Buzz—</t>
         </is>
@@ -26206,7 +26206,7 @@
 It take a while before you realize you have been cheated.</t>
         </is>
       </c>
-      <c r="H563" s="0" t="inlineStr">
+      <c r="H563" t="inlineStr">
         <is>
           <t>ඞУжасная песня внезапно обрывается, когда огонек стеклянного сердечка мигает и гаснет. Похоже, в устройстве разрядился аккумулятор.
 Проходит некоторое время, прежде чем вы понимаете, что вас обманули.</t>
@@ -26249,7 +26249,7 @@
           <t>Just when you're about to set off, a few shimmering stones at the statue's feet catch your attention.</t>
         </is>
       </c>
-      <c r="H564" s="0" t="inlineStr">
+      <c r="H564" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вы собираетесь отправиться в путь, ваше внимание привлекают несколько мерцающих камней у ног статуи.</t>
         </is>
@@ -26291,7 +26291,7 @@
           <t>Solve Puzzle</t>
         </is>
       </c>
-      <c r="H565" s="0" t="inlineStr">
+      <c r="H565" t="inlineStr">
         <is>
           <t>ඞРешите головоломку</t>
         </is>
@@ -26333,7 +26333,7 @@
           <t>O'Lucky</t>
         </is>
       </c>
-      <c r="H566" s="0" t="inlineStr">
+      <c r="H566" t="inlineStr">
         <is>
           <t>ඞО'Лаки</t>
         </is>
@@ -26381,7 +26381,7 @@
 He's now eagerly waiting for his first customer here to make some decisions.</t>
         </is>
       </c>
-      <c r="H567" s="0" t="inlineStr">
+      <c r="H567" t="inlineStr">
         <is>
           <t>ඞВы не успеваете оглянуться, как О'Лаки торжественно устанавливает в центре прилавка вывеску All-Trading.
 Теперь он с нетерпением ждет своего первого покупателя, чтобы принять какое-то решение.</t>
@@ -26424,7 +26424,7 @@
           <t>In stead of having those shining stones rot inside your pocket, perhaps you can try your luck here. After all, you have no real use of them.</t>
         </is>
       </c>
-      <c r="H568" s="0" t="inlineStr">
+      <c r="H568" t="inlineStr">
         <is>
           <t>ඞВместо того, чтобы прятать эти сверкающие камни в кармане, возможно, вы сможете попытать счастья здесь. В конце концов, они вам по-настоящему не пригодятся.</t>
         </is>
@@ -26466,7 +26466,7 @@
           <t>Can I choose "ten-roll" rather than open them one by one.</t>
         </is>
       </c>
-      <c r="H569" s="0" t="inlineStr">
+      <c r="H569" t="inlineStr">
         <is>
           <t>ඞМогу ли я выбрать "десять рулонов" вместо того, чтобы открывать их один за другим?</t>
         </is>
@@ -26508,7 +26508,7 @@
           <t>There ain't no pity here so I don't see why you'd fancy a tell-roll.</t>
         </is>
       </c>
-      <c r="H570" s="0" t="inlineStr">
+      <c r="H570" t="inlineStr">
         <is>
           <t>ඞЗдесь нет никакой жалости, так что я не понимаю, зачем тебе это нужно.</t>
         </is>
@@ -26550,7 +26550,7 @@
           <t>Look who's ere! Too bad I ain't got no treats for ya today.</t>
         </is>
       </c>
-      <c r="H571" s="0" t="inlineStr">
+      <c r="H571" t="inlineStr">
         <is>
           <t>ඞСмотрите, кто здесь! Жаль, что у меня сегодня нет для вас угощений.</t>
         </is>
@@ -26598,7 +26598,7 @@
 That was me last one. No more boxes before I restock.</t>
         </is>
       </c>
-      <c r="H572" s="0" t="inlineStr">
+      <c r="H572" t="inlineStr">
         <is>
           <t>ඞЧтоб мне провалиться...
 Это был мой последний заказ. Больше никаких коробок, пока я не пополню запасы.</t>
@@ -26641,7 +26641,7 @@
           <t>Ever heard of All-VIP? Just a few s'ones and you'll be me most respec'ed patron!</t>
         </is>
       </c>
-      <c r="H573" s="0" t="inlineStr">
+      <c r="H573" t="inlineStr">
         <is>
           <t>ඞКогда-нибудь слышали о All-VIP? Всего несколько человек, и вы станете моим самым уважаемым клиентом!</t>
         </is>
@@ -26683,7 +26683,7 @@
           <t>The corner of O'Lucky's beak twitches as he realizes you don't have enough Starstones with you.</t>
         </is>
       </c>
-      <c r="H574" s="0" t="inlineStr">
+      <c r="H574" t="inlineStr">
         <is>
           <t>ඞУголок клюва О'Лакки подергивается, когда он понимает, что у тебя с собой недостаточно Звездных камней.</t>
         </is>
@@ -26725,7 +26725,7 @@
           <t>If you plan to buy anythin' 'ere on credit, you better give it a 'ard second though'.</t>
         </is>
       </c>
-      <c r="H575" s="0" t="inlineStr">
+      <c r="H575" t="inlineStr">
         <is>
           <t>ඞЕсли вы планируете купить что-либо в кредит, вам лучше хорошенько подумать.</t>
         </is>
@@ -26767,7 +26767,7 @@
           <t>Trade with O'Lucky</t>
         </is>
       </c>
-      <c r="H576" s="0" t="inlineStr">
+      <c r="H576" t="inlineStr">
         <is>
           <t>ඞТоргуй с О'Лаки</t>
         </is>
@@ -26809,7 +26809,7 @@
           <t>O'Lucky picks one from the boxes with exact same looks, gives its side a knock with his feathered fingers, and raises it to his ear.</t>
         </is>
       </c>
-      <c r="H577" s="0" t="inlineStr">
+      <c r="H577" t="inlineStr">
         <is>
           <t>ඞО'Лаки выбирает из коробок точно такую же, постучал по ее боку пальцами с перьями и поднес к уху.</t>
         </is>
@@ -26851,7 +26851,7 @@
           <t>This is it! O'Lucky never lies!</t>
         </is>
       </c>
-      <c r="H578" s="0" t="inlineStr">
+      <c r="H578" t="inlineStr">
         <is>
           <t>ඞВот и все! О'Лаки никогда не лжет!</t>
         </is>
@@ -26893,7 +26893,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a branch, or something like that.</t>
         </is>
       </c>
-      <c r="H579" s="0" t="inlineStr">
+      <c r="H579" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри нее вы обнаруживаете... отделение или что-то в этом роде.</t>
         </is>
@@ -26941,7 +26941,7 @@
 Too bad he go' 'ooked by the stocks and lost all 'is dough. Go' kicked out by his Tanuki landlord.</t>
         </is>
       </c>
-      <c r="H580" s="0" t="inlineStr">
+      <c r="H580" t="inlineStr">
         <is>
           <t>ඞЗацени это! Это гифка от одного из моих приятелей, который держит фруктовую лавку на острове.
 Жаль, что он прогорел из-за акций и потерял все деньги. Его выгнал хозяин Тануки.</t>
@@ -26984,7 +26984,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a sparkling orb.</t>
         </is>
       </c>
-      <c r="H581" s="0" t="inlineStr">
+      <c r="H581" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри нее вы обнаруживаете... сверкающий шар.</t>
         </is>
@@ -27032,7 +27032,7 @@
 Jus' give it a nice throw when you see those geezers... Gonna catch'em all! Hey, coun' me out!</t>
         </is>
       </c>
-      <c r="H582" s="0" t="inlineStr">
+      <c r="H582" t="inlineStr">
         <is>
           <t>ඞТы веселый песик!
 Просто сделай хороший бросок, когда увидишь этих чудаков... Я собираюсь поймать их всех! Эй, поддержи меня!</t>
@@ -27075,7 +27075,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a fry pan.</t>
         </is>
       </c>
-      <c r="H583" s="0" t="inlineStr">
+      <c r="H583" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... сковороду для жарки.</t>
         </is>
@@ -27123,7 +27123,7 @@
 Try carrin' it on my back, they told me, but what do ya need a pan for in a gun fight? Stopping the bullets?</t>
         </is>
       </c>
-      <c r="H584" s="0" t="inlineStr">
+      <c r="H584" t="inlineStr">
         <is>
           <t>ඞВыгодная сделка, не так ли? Я подобрал его, когда сбрасывал с самолета на поле боя.
 Попробуй носить его на спине, сказали мне, но зачем тебе сковородка в перестрелке? Она останавливает пули?</t>
@@ -27166,7 +27166,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a cookie in strange shape.</t>
         </is>
       </c>
-      <c r="H585" s="0" t="inlineStr">
+      <c r="H585" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... печенье странной формы.</t>
         </is>
@@ -27214,7 +27214,7 @@
 Anyway, it looks like goat fodder so do me a favor and try it ou' for me.</t>
         </is>
       </c>
-      <c r="H586" s="0" t="inlineStr">
+      <c r="H586" t="inlineStr">
         <is>
           <t>ඞНашел его на мосту... Название - Плачущая бездна или что-то в этом роде...
 В любом случае, это похоже на корм для коз, так что сделай одолжение, попробуй сам.</t>
@@ -27257,7 +27257,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a bottle of liquid whose pleasing luster greets your eyes with charm.</t>
         </is>
       </c>
-      <c r="H587" s="0" t="inlineStr">
+      <c r="H587" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... флакон с жидкостью, приятный блеск которой очаровывает ваш взгляд.</t>
         </is>
@@ -27305,7 +27305,7 @@
 Does it work, you say? Ya bet!</t>
         </is>
       </c>
-      <c r="H588" s="0" t="inlineStr">
+      <c r="H588" t="inlineStr">
         <is>
           <t>ඞодин из моих приятелей купил его в переулке, ну, знаешь, такой, что нужно пару раз постучать по кирпичу, прежде чем войти.
 Ты говоришь, он работает? Держу пари!</t>
@@ -27348,7 +27348,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a well-ornamented horn.</t>
         </is>
       </c>
-      <c r="H589" s="0" t="inlineStr">
+      <c r="H589" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри нее вы обнаруживаете... хорошо украшенный рог.</t>
         </is>
@@ -27396,7 +27396,7 @@
 Said he ain't stomach the sound so he let me have it!</t>
         </is>
       </c>
-      <c r="H590" s="0" t="inlineStr">
+      <c r="H590" t="inlineStr">
         <is>
           <t>ඞПодарок от моего приятеля-кочевника.
 Сказал, что ему не нравится этот звук, и отдал его мне!</t>
@@ -27439,7 +27439,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a box of fries.</t>
         </is>
       </c>
-      <c r="H591" s="0" t="inlineStr">
+      <c r="H591" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... упаковку картофеля фри.</t>
         </is>
@@ -27487,7 +27487,7 @@
 Jus' look at the texture!</t>
         </is>
       </c>
-      <c r="H592" s="0" t="inlineStr">
+      <c r="H592" t="inlineStr">
         <is>
           <t>ඞПодарок от моих товарищей по работе в порту.
 Только посмотрите на текстуру!</t>
@@ -27530,7 +27530,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a glowing ring.</t>
         </is>
       </c>
-      <c r="H593" s="0" t="inlineStr">
+      <c r="H593" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри нее вы обнаруживаете... светящееся кольцо.</t>
         </is>
@@ -27578,7 +27578,7 @@
 ￼Keep it safe from other investigators, if ya know what I'm talking about.</t>
         </is>
       </c>
-      <c r="H594" s="0" t="inlineStr">
+      <c r="H594" t="inlineStr">
         <is>
           <t>ඞОсобая награда для нашего друга!
 ￼Храните это в тайне от других исследователей, если вы понимаете, о чем я говорю.</t>
@@ -27621,7 +27621,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a bag of milk powder with an intoxicating aroma.</t>
         </is>
       </c>
-      <c r="H595" s="0" t="inlineStr">
+      <c r="H595" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... пакетик сухого молока с опьяняющим ароматом.</t>
         </is>
@@ -27669,7 +27669,7 @@
 'ope it can 'elp ya!</t>
         </is>
       </c>
-      <c r="H596" s="0" t="inlineStr">
+      <c r="H596" t="inlineStr">
         <is>
           <t>ඞКуда бы ты ни пошел!
 надеюсь, это тебе поможет!</t>
@@ -27712,7 +27712,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a hood in the shape of banana.</t>
         </is>
       </c>
-      <c r="H597" s="0" t="inlineStr">
+      <c r="H597" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... колпачок в форме банана.</t>
         </is>
@@ -27760,7 +27760,7 @@
 All I can tell ya is 'twas some weepy kitten's costume.</t>
         </is>
       </c>
-      <c r="H598" s="0" t="inlineStr">
+      <c r="H598" t="inlineStr">
         <is>
           <t>ඞНе могу сказать, что у меня есть какая-то необычная история с этим фильмом...￼
 Все, что я могу тебе сказать, это то, что это был костюм какого-то плаксивого котенка.</t>
@@ -27803,7 +27803,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a bottle of golden wine.</t>
         </is>
       </c>
-      <c r="H599" s="0" t="inlineStr">
+      <c r="H599" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... бутылку золотистого вина.</t>
         </is>
@@ -27851,7 +27851,7 @@
 The Golden Mead in ya hand's something else I tell ya!</t>
         </is>
       </c>
-      <c r="H600" s="0" t="inlineStr">
+      <c r="H600" t="inlineStr">
         <is>
           <t>ඞВ яблочко!
 Золотистый мед в твоих руках - это еще кое-что, вот что я тебе скажу!</t>
@@ -27894,7 +27894,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a vial of scarlet draught.</t>
         </is>
       </c>
-      <c r="H601" s="0" t="inlineStr">
+      <c r="H601" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... пузырек с алым напитком.</t>
         </is>
@@ -27942,7 +27942,7 @@
 It was a gif' from one of my pious mates at the church. A well-liked flavor.</t>
         </is>
       </c>
-      <c r="H602" s="0" t="inlineStr">
+      <c r="H602" t="inlineStr">
         <is>
           <t>ඞРад, что ты сделал правильный выбор, приятель!
 Это был подарок от одного из моих набожных приятелей по церкви. Очень любимый аромат.</t>
@@ -27991,7 +27991,7 @@
 Look, I've been an 'onest businessman, ain't I? So 'ow about becoming my VIP at the low cos' of a few extra stones? Wha' you say?</t>
         </is>
       </c>
-      <c r="H603" s="0" t="inlineStr">
+      <c r="H603" t="inlineStr">
         <is>
           <t>ඞО, и это небольшой бонус для тебя. Соленое утиное яйцо от одного из моих трехмерных приятелей.
 Слушай, я был первоклассным бизнесменом, не так ли? Так как насчет того, чтобы стать моей VIP-персоной по низкой цене из-за нескольких лишних камней? Что скажешь?</t>
@@ -28040,7 +28040,7 @@
 He takes one, then gives you a half of it.</t>
         </is>
       </c>
-      <c r="H604" s="0" t="inlineStr">
+      <c r="H604" t="inlineStr">
         <is>
           <t>ඞКогда О'Лаки открывает сумку, вы видите, что в ней аккуратно сложено больше дюжины соленых утиных яиц.
 Он берет одно и отдает половину тебе.</t>
@@ -28083,7 +28083,7 @@
           <t>You've been a real nice patron. Take this electronic swatter!</t>
         </is>
       </c>
-      <c r="H605" s="0" t="inlineStr">
+      <c r="H605" t="inlineStr">
         <is>
           <t>ඞВы были очень любезным покупателем. Возьмите эту электронную мухобойку!</t>
         </is>
@@ -28125,7 +28125,7 @@
           <t>O'Lucky murmurs as he searches in his bag with his back against you. "Bloody 'ell, what good the shites when I ain't sellin' them? Might as well send 'em off!"</t>
         </is>
       </c>
-      <c r="H606" s="0" t="inlineStr">
+      <c r="H606" t="inlineStr">
         <is>
           <t>ඞО'Лаки что-то бормочет, роясь в своей сумке, прислонившись к тебе спиной. "Черт возьми, что толку в этом дерьме, если я его не продаю? С таким же успехом можно было бы послать его подальше!"</t>
         </is>
@@ -28167,7 +28167,7 @@
           <t>By the way, didn't you find a ring in the garden?</t>
         </is>
       </c>
-      <c r="H607" s="0" t="inlineStr">
+      <c r="H607" t="inlineStr">
         <is>
           <t>ඞКстати, разве ты не нашел кольцо в саду?</t>
         </is>
@@ -28209,7 +28209,7 @@
           <t>The garden, you say? Now tha' you mention it... But you know wha' they say, finders keepers...</t>
         </is>
       </c>
-      <c r="H608" s="0" t="inlineStr">
+      <c r="H608" t="inlineStr">
         <is>
           <t>ඞВы говорите, сад? Раз уж вы упомянули об этом... Но вы же знаете, как говорится, кто нашел, тот и хранит...</t>
         </is>
@@ -28251,7 +28251,7 @@
           <t>You give O'Lucky an evil grin. Your knuckles lets out menacing cracks as you tight your fists and give them a squeeze.</t>
         </is>
       </c>
-      <c r="H609" s="0" t="inlineStr">
+      <c r="H609" t="inlineStr">
         <is>
           <t>ඞТы одариваешь О'Лаки злобной ухмылкой. Костяшки твоих пальцев угрожающе хрустят, когда ты сжимаешь кулаки.</t>
         </is>
@@ -28293,7 +28293,7 @@
           <t>...Bu' I say to 'ell with the rules. 'ere, take it, and nice doin' business with ya!</t>
         </is>
       </c>
-      <c r="H610" s="0" t="inlineStr">
+      <c r="H610" t="inlineStr">
         <is>
           <t>ඞ..Но я советую соблюдать правила. Вот, возьми это, и мне было приятно иметь с тобой дело!</t>
         </is>
@@ -28335,7 +28335,7 @@
           <t>Three stones and it's yourn. Wha' you say?</t>
         </is>
       </c>
-      <c r="H611" s="0" t="inlineStr">
+      <c r="H611" t="inlineStr">
         <is>
           <t>ඞТри камня - и он твой. Что скажешь?</t>
         </is>
@@ -28377,7 +28377,7 @@
           <t>Ask about Ring</t>
         </is>
       </c>
-      <c r="H612" s="0" t="inlineStr">
+      <c r="H612" t="inlineStr">
         <is>
           <t>ඞСпросите о кольце</t>
         </is>
@@ -28419,7 +28419,7 @@
           <t>'ere you go! Jus' look at this beauty, a real bargain you've struck, innit?</t>
         </is>
       </c>
-      <c r="H613" s="0" t="inlineStr">
+      <c r="H613" t="inlineStr">
         <is>
           <t>ඞ- пока вы не ушли! Только посмотрите на эту красоту, вы заключили настоящую сделку, не так ли?</t>
         </is>
@@ -28461,7 +28461,7 @@
           <t>Trade Ring</t>
         </is>
       </c>
-      <c r="H614" s="0" t="inlineStr">
+      <c r="H614" t="inlineStr">
         <is>
           <t>ඞТорговое кольцо</t>
         </is>
@@ -28503,7 +28503,7 @@
           <t>Consume 3 Starstones to proceed</t>
         </is>
       </c>
-      <c r="H615" s="0" t="inlineStr">
+      <c r="H615" t="inlineStr">
         <is>
           <t>ඞИспользуйте 3 звездных камня, чтобы продолжить</t>
         </is>
@@ -28551,7 +28551,7 @@
 As you loll on the chair, hand on your satisfied belly, you feel not only your stamina has been restored, but that dread on your mind gone, if only for the moment.</t>
         </is>
       </c>
-      <c r="H616" s="0" t="inlineStr">
+      <c r="H616" t="inlineStr">
         <is>
           <t>ඞВы уничтожаете все деликатесы на обеденном столе. На вкус они свежие, как будто их только что достали из духовки.
 Откинувшись на спинку стула и положив руку на свой сытый живот, вы чувствуете, что не только ваша выносливость восстановилась, но и страх, терзавший вас, исчез, хотя бы на мгновение.</t>
@@ -28594,7 +28594,7 @@
           <t>Feast yourself</t>
         </is>
       </c>
-      <c r="H617" s="0" t="inlineStr">
+      <c r="H617" t="inlineStr">
         <is>
           <t>ඞПорадуйте себя</t>
         </is>
@@ -28636,7 +28636,7 @@
           <t>The delicacies inside this Cafeteria are whetting your appetite...</t>
         </is>
       </c>
-      <c r="H618" s="0" t="inlineStr">
+      <c r="H618" t="inlineStr">
         <is>
           <t>ඞДеликатесы, предлагаемые в этом кафе, разожгут ваш аппетит...</t>
         </is>
@@ -28678,7 +28678,7 @@
           <t>A duck-ish stuffed doll leans against the wall lifelessly next to the machine. Someone probably forgot to take their hard-earn souvenir with them.</t>
         </is>
       </c>
-      <c r="H619" s="0" t="inlineStr">
+      <c r="H619" t="inlineStr">
         <is>
           <t>ඞРядом с машиной, прислонившись к стене, безжизненно стоит мягкая кукла, похожая на утку. Вероятно, кто-то забыл взять с собой сувенир, заработанный тяжелым трудом.</t>
         </is>
@@ -28720,7 +28720,7 @@
           <t>After a quick scan of the rest of your surroundings, however, you notice that something's off with the doll. Strangely, its previous standing posture has been changed into a fleeing one, like it's ready to set off in the next second.</t>
         </is>
       </c>
-      <c r="H620" s="0" t="inlineStr">
+      <c r="H620" t="inlineStr">
         <is>
           <t>ඞОднако, быстро осмотревшись, вы замечаете, что с куклой что-то не так. Как ни странно, ее прежняя поза, в которой она стояла, сменилась на бегущую, как будто она готова пуститься в путь в следующую секунду.</t>
         </is>
@@ -28762,7 +28762,7 @@
           <t>Time slips away noiselessly as the creature stays paralyzed by your deadly gaze. You somehow sense a tint of artificialness in its calm facade.</t>
         </is>
       </c>
-      <c r="H621" s="0" t="inlineStr">
+      <c r="H621" t="inlineStr">
         <is>
           <t>ඞВремя бесшумно ускользает, а существо остается парализованным вашим смертоносным взглядом. Вы каким-то образом ощущаете оттенок искусственности в его спокойном фасаде.</t>
         </is>
@@ -28804,7 +28804,7 @@
           <t>You close the gap and pinch the creature by its short neck without any warning. In a desperate struggle, its webbed feet kick in the air.</t>
         </is>
       </c>
-      <c r="H622" s="0" t="inlineStr">
+      <c r="H622" t="inlineStr">
         <is>
           <t>ඞВы приближаетесь к существу и без всякого предупреждения хватаете его за короткую шею. В отчаянной борьбе оно молотит перепончатыми лапами по воздуху.</t>
         </is>
@@ -28846,7 +28846,7 @@
           <t>Oi! Ge' ya stinky hand o' me!</t>
         </is>
       </c>
-      <c r="H623" s="0" t="inlineStr">
+      <c r="H623" t="inlineStr">
         <is>
           <t>ඞЭй! Подай мне свою вонючую руку!</t>
         </is>
@@ -28888,7 +28888,7 @@
           <t>Duck(?)</t>
         </is>
       </c>
-      <c r="H624" s="0" t="inlineStr">
+      <c r="H624" t="inlineStr">
         <is>
           <t>ඞУтка(?)</t>
         </is>
@@ -28930,7 +28930,7 @@
           <t>Holy Moly! The duck's talking!</t>
         </is>
       </c>
-      <c r="H625" s="0" t="inlineStr">
+      <c r="H625" t="inlineStr">
         <is>
           <t>ඞБоже мой! Утка заговорила!</t>
         </is>
@@ -28972,7 +28972,7 @@
           <t>I ain't no duck, I tell ya!</t>
         </is>
       </c>
-      <c r="H626" s="0" t="inlineStr">
+      <c r="H626" t="inlineStr">
         <is>
           <t>ඞГоворю вам, я не утка!</t>
         </is>
@@ -29014,7 +29014,7 @@
           <t>The duck(?) boldly rebukes your words, but soon softens its tone as it understands who's got the upper hand in the fight.</t>
         </is>
       </c>
-      <c r="H627" s="0" t="inlineStr">
+      <c r="H627" t="inlineStr">
         <is>
           <t>ඞУтка (?) смело осуждает ваши слова, но вскоре смягчает свой тон, поскольку понимает, кто одержал верх в этой борьбе.</t>
         </is>
@@ -29056,7 +29056,7 @@
           <t>Care to pu' me down first, mate? Then we can 'ave a nice li'le talk.</t>
         </is>
       </c>
-      <c r="H628" s="0" t="inlineStr">
+      <c r="H628" t="inlineStr">
         <is>
           <t>ඞНе хочешь сначала меня трахнуть, приятель? А потом мы сможем немного мило поболтать.</t>
         </is>
@@ -29098,7 +29098,7 @@
           <t>You hesitate to let go of this suspicious ball of feathers. Its appearance might be a disguise.</t>
         </is>
       </c>
-      <c r="H629" s="0" t="inlineStr">
+      <c r="H629" t="inlineStr">
         <is>
           <t>ඞВы не решаетесь отпустить этот подозрительный комок перьев. Его внешний вид может быть маскировкой.</t>
         </is>
@@ -29140,7 +29140,7 @@
           <t>Call me O'lucky. Though' this place could use some trades, so I'm 'ere!</t>
         </is>
       </c>
-      <c r="H630" s="0" t="inlineStr">
+      <c r="H630" t="inlineStr">
         <is>
           <t>ඞЗовите меня О'Лакки. Хотя этому заведению не помешало бы кое-что поменять, так что я здесь!</t>
         </is>
@@ -29182,7 +29182,7 @@
           <t>You don't reply. Silence is the best weapon.</t>
         </is>
       </c>
-      <c r="H631" s="0" t="inlineStr">
+      <c r="H631" t="inlineStr">
         <is>
           <t>ඞТы не отвечаешь. Молчание - лучшее оружие.</t>
         </is>
@@ -29230,7 +29230,7 @@
 Ouch! You're gettin' my feathers!</t>
         </is>
       </c>
-      <c r="H632" s="0" t="inlineStr">
+      <c r="H632" t="inlineStr">
         <is>
           <t>ඞЯ говорю тебе чертову правду! А теперь верни меня на землю, чтобы я мог показать тебе!
 Ой! Из-за тебя у меня перья полезут!</t>
@@ -29273,7 +29273,7 @@
           <t>Your imagination fails to link the way this creature flutters its chubby wings with the culprit behind all these disasters. Having landed back on solid ground, it soothes the back of its neglectable neck with its feathers and grumbles.</t>
         </is>
       </c>
-      <c r="H633" s="0" t="inlineStr">
+      <c r="H633" t="inlineStr">
         <is>
           <t>ඞВаше воображение не в состоянии связать то, как это существо машет своими пухлыми крылышками, с виновником всех этих бедствий. Приземлившись на твердую землю, оно расправляет перья на своей неухоженной шее и ворчит.</t>
         </is>
@@ -29315,7 +29315,7 @@
           <t>Bloody hell! Look wha' you've done to my beautiful down!</t>
         </is>
       </c>
-      <c r="H634" s="0" t="inlineStr">
+      <c r="H634" t="inlineStr">
         <is>
           <t>ඞЧерт возьми! Посмотри, что ты сделал с моим прекрасным пухом!</t>
         </is>
@@ -29357,7 +29357,7 @@
           <t>He eyes you with grievance. As if stimulated by the smell of something on you, the doll suddenly closes the gap and takes some deep sniffs around you. In the next second, you see the doll enlarges itself into half the size of a human.</t>
         </is>
       </c>
-      <c r="H635" s="0" t="inlineStr">
+      <c r="H635" t="inlineStr">
         <is>
           <t>ඞОн смотрит на вас с недовольством. Как будто почувствовав исходящий от вас запах, кукла внезапно сокращает расстояние и делает несколько глубоких вдохов вокруг вас. В следующую секунду вы видите, как кукла увеличивается в размерах вдвое по сравнению с человеком.</t>
         </is>
@@ -29399,7 +29399,7 @@
           <t>Still refusing to let your guard down, you take a step back and examine this strange creature from a distance. It tights its displaced panama hat and bowknot before clearing its throat with a few coughs, completely ignoring your cold eyes.</t>
         </is>
       </c>
-      <c r="H636" s="0" t="inlineStr">
+      <c r="H636" t="inlineStr">
         <is>
           <t>ඞВсе еще отказываясь терять бдительность, ты делаешь шаг назад и рассматриваешь это странное существо издалека. Оно поправляет свою съехавшую панаму и повязывает бант, прежде чем несколько раз кашлянуть, полностью игнорируя твой холодный взгляд.</t>
         </is>
@@ -29441,7 +29441,7 @@
           <t>You be'er be counting' your lucky stars now, mate, 'cause standin' in front o' you is none o'er than the boss o' O-Trading 'isself.</t>
         </is>
       </c>
-      <c r="H637" s="0" t="inlineStr">
+      <c r="H637" t="inlineStr">
         <is>
           <t>ඞТеперь ты можешь считать свои счастливые звезды, приятель, потому что перед тобой стоит не кто иной, как сам главный трейдер.</t>
         </is>
@@ -29483,7 +29483,7 @@
           <t>I pick my patrons, and I'm feelin' generous today!</t>
         </is>
       </c>
-      <c r="H638" s="0" t="inlineStr">
+      <c r="H638" t="inlineStr">
         <is>
           <t>ඞЯ сам выбираю себе клиентов, и сегодня я чувствую себя щедрым!</t>
         </is>
@@ -29525,7 +29525,7 @@
           <t>He speaks not even a word of complaint now, but only cliches you expect from a salesman.</t>
         </is>
       </c>
-      <c r="H639" s="0" t="inlineStr">
+      <c r="H639" t="inlineStr">
         <is>
           <t>ඞСейчас он не произносит ни слова жалобы, а только штампы, которых можно ожидать от продавца.</t>
         </is>
@@ -29567,7 +29567,7 @@
           <t>What are you selling?</t>
         </is>
       </c>
-      <c r="H640" s="0" t="inlineStr">
+      <c r="H640" t="inlineStr">
         <is>
           <t>ඞЧто вы продаете?</t>
         </is>
@@ -29615,7 +29615,7 @@
 After some rummages inside his bag, O'Lucky whips out a ragged blanket and spreads it before him. You then see he lay out all his trinkets in front of you.</t>
         </is>
       </c>
-      <c r="H641" s="0" t="inlineStr">
+      <c r="H641" t="inlineStr">
         <is>
           <t>ඞЕго глаза сверкают, когда вы проявляете интерес к его товарам.
 Порывшись в своей сумке, О'Лаки достает рваное одеяло и расстилает его перед собой. Затем вы видите, что он раскладывает перед вами все свои безделушки.</t>
@@ -29658,7 +29658,7 @@
           <t>...?</t>
         </is>
       </c>
-      <c r="H642" s="0" t="inlineStr">
+      <c r="H642" t="inlineStr">
         <is>
           <t>ඞ...?</t>
         </is>
@@ -29700,7 +29700,7 @@
           <t>He completes it with a tarnished wooden board at front, the scribble on it barely intelligible: All-Trading. Judging from the duck footprint duck next to the writing, this whole doodle might be the logo of his company.</t>
         </is>
       </c>
-      <c r="H643" s="0" t="inlineStr">
+      <c r="H643" t="inlineStr">
         <is>
           <t>ඞОн украшает его спереди потускневшей деревянной доской, на которой едва различимо написано: "Все для торговли". Судя по отпечатку ноги утки рядом с надписью, все эти каракули могут быть логотипом его компании.</t>
         </is>
@@ -29742,7 +29742,7 @@
           <t>All-Trading? More like Stall-Trading.</t>
         </is>
       </c>
-      <c r="H644" s="0" t="inlineStr">
+      <c r="H644" t="inlineStr">
         <is>
           <t>ඞВсеобщая торговля? Больше похоже на торговлю в киосках.</t>
         </is>
@@ -29784,7 +29784,7 @@
           <t>The yellow bowknot of his sticks out as his chest swells with pride.</t>
         </is>
       </c>
-      <c r="H645" s="0" t="inlineStr">
+      <c r="H645" t="inlineStr">
         <is>
           <t>ඞЕго желтый бант торчит вперед, а грудь раздувается от гордости.</t>
         </is>
@@ -29826,7 +29826,7 @@
           <t>I don't think any trade company would have only one kind of product available on their list.</t>
         </is>
       </c>
-      <c r="H646" s="0" t="inlineStr">
+      <c r="H646" t="inlineStr">
         <is>
           <t>ඞЯ не думаю, что какая-либо торговая компания будет иметь в своем списке только один вид продукции.</t>
         </is>
@@ -29868,7 +29868,7 @@
           <t>If I'm being 'onest with ya, mate, I go too many trinkets with me that I can hardly tell which one's which.</t>
         </is>
       </c>
-      <c r="H647" s="0" t="inlineStr">
+      <c r="H647" t="inlineStr">
         <is>
           <t>ඞЕсли быть откровенным с тобой, приятель, то у меня с собой слишком много безделушек, и я с трудом могу отличить одну от другой.</t>
         </is>
@@ -29910,7 +29910,7 @@
           <t>So?</t>
         </is>
       </c>
-      <c r="H648" s="0" t="inlineStr">
+      <c r="H648" t="inlineStr">
         <is>
           <t>ඞТак?</t>
         </is>
@@ -29952,7 +29952,7 @@
           <t>That's where I came up with the brigh' idea! Why give the name tags a 'oot when you can sell whatever they're?</t>
         </is>
       </c>
-      <c r="H649" s="0" t="inlineStr">
+      <c r="H649" t="inlineStr">
         <is>
           <t>ඞВот тут-то мне и пришла в голову блестящая идея! Зачем делать ярлыки с названиями, если можно продать все, что на них написано?</t>
         </is>
@@ -29994,7 +29994,7 @@
           <t>Nothin' bu' goodies, mind ya! You always ge' more than you pay for!</t>
         </is>
       </c>
-      <c r="H650" s="0" t="inlineStr">
+      <c r="H650" t="inlineStr">
         <is>
           <t>ඞНичего, кроме вкусностей, заметьте! Вы всегда получаете больше, чем платите!</t>
         </is>
@@ -30036,7 +30036,7 @@
           <t>His wicked eyes blink at you, sending a message that it'll be a loss of your own should you let the opportunity slip away.</t>
         </is>
       </c>
-      <c r="H651" s="0" t="inlineStr">
+      <c r="H651" t="inlineStr">
         <is>
           <t>ඞЕго лукавые глаза подмигивают вам, давая понять, что вы сами потеряете себя, если упустите такую возможность.</t>
         </is>
@@ -30078,7 +30078,7 @@
           <t>What's the price?</t>
         </is>
       </c>
-      <c r="H652" s="0" t="inlineStr">
+      <c r="H652" t="inlineStr">
         <is>
           <t>ඞКакова цена?</t>
         </is>
@@ -30120,7 +30120,7 @@
           <t>Jus' three Starstones and the box is yourn. You can find these fi' stones everywhere in the park!</t>
         </is>
       </c>
-      <c r="H653" s="0" t="inlineStr">
+      <c r="H653" t="inlineStr">
         <is>
           <t>ඞВсего три звездных камня, и шкатулка ваша. Вы можете найти эти камни повсюду в парке!</t>
         </is>
@@ -30162,7 +30162,7 @@
           <t>In a sleight of hand, he whips out a sparkling stone into his hand, then returns it to his bag before you can take a closer look at it.</t>
         </is>
       </c>
-      <c r="H654" s="0" t="inlineStr">
+      <c r="H654" t="inlineStr">
         <is>
           <t>ඞЛовким движением рук он выхватывает сверкающий камень и кладет его обратно в сумку, прежде чем вы успеваете рассмотреть его поближе.</t>
         </is>
@@ -30204,7 +30204,7 @@
           <t>You take a brief glance at the array of goods on the blanket. All crudely identical yet somehow shrouded in an aura of mystery. O'Lucky stands aside with his hands folded behind him.</t>
         </is>
       </c>
-      <c r="H655" s="0" t="inlineStr">
+      <c r="H655" t="inlineStr">
         <is>
           <t>ඞВы бросаете беглый взгляд на разложенные на одеяле товары. Все они практически идентичны, но каким-то образом окутаны ореолом таинственности. О'Лаки стоит в стороне, сложив руки за спиной.</t>
         </is>
@@ -30252,7 +30252,7 @@
 Seems he would like to exchange the Starstones you have with his trinkets.</t>
         </is>
       </c>
-      <c r="H656" s="0" t="inlineStr">
+      <c r="H656" t="inlineStr">
         <is>
           <t>ඞЭта утка (?) по имени О'Лаки оказывается таинственным торговцем, который может путешествовать между мирами.
 Кажется, он хотел бы обменять Звездные камни, которые у вас есть, на свои безделушки.</t>
@@ -30295,7 +30295,7 @@
           <t>Check Orchard</t>
         </is>
       </c>
-      <c r="H657" s="0" t="inlineStr">
+      <c r="H657" t="inlineStr">
         <is>
           <t>ඞПроверьте фруктовый сад</t>
         </is>
@@ -30337,7 +30337,7 @@
           <t>Red Orchard</t>
         </is>
       </c>
-      <c r="H658" s="0" t="inlineStr">
+      <c r="H658" t="inlineStr">
         <is>
           <t>ඞКрасный сад</t>
         </is>
@@ -30379,7 +30379,7 @@
           <t>Both the mysterious aroma and luster are &lt;color=#DC143C&gt;tempting&lt;/color&gt; to you.</t>
         </is>
       </c>
-      <c r="H659" s="0" t="inlineStr">
+      <c r="H659" t="inlineStr">
         <is>
           <t>ඞИ таинственный аромат, и блеск &lt;color=#DC143C&gt; соблазняют вас&lt;/color&gt;.</t>
         </is>
@@ -30421,7 +30421,7 @@
           <t>The disgusted fruit nourishes you, and an unfamiliar wells up from your mind.</t>
         </is>
       </c>
-      <c r="H660" s="0" t="inlineStr">
+      <c r="H660" t="inlineStr">
         <is>
           <t>ඞОтвратительный плод питает вас, и в вашем сознании рождается что-то незнакомое.</t>
         </is>
@@ -30463,7 +30463,7 @@
           <t>You hear the wail of an abandoned infant on a bench at the entrance of the Cafeteria on Easter day. You see Rosa who adopted the child and later gave him his name, Pasqualino, a gift from Easter.</t>
         </is>
       </c>
-      <c r="H661" s="0" t="inlineStr">
+      <c r="H661" t="inlineStr">
         <is>
           <t>ඞВы слышите плач брошенного младенца на скамейке у входа в кафетерий в день Пасхи. Вы видите Розу, которая усыновила ребенка и позже дала ему имя Паскуалино, подарок на Пасху.</t>
         </is>
@@ -30505,7 +30505,7 @@
           <t>Pasqualino spent his childhood at the town under Rosa's care. He knew everything about his own story but decided not to pay it too much mind. After graduation, Pasqualino volunteered to work for the park, for this place was his paradise.</t>
         </is>
       </c>
-      <c r="H662" s="0" t="inlineStr">
+      <c r="H662" t="inlineStr">
         <is>
           <t>ඞДетство Паскуалино прошло в этом городке под присмотром Розы. Он знал все о своей собственной истории, но решил не придавать этому особого значения. После окончания школы Паскуалино добровольно пошел работать в парк, потому что это место было для него раем.</t>
         </is>
@@ -30547,7 +30547,7 @@
           <t>You finish savoring the memory and spit out the fruit seed into your palm. A white crystal shard.</t>
         </is>
       </c>
-      <c r="H663" s="0" t="inlineStr">
+      <c r="H663" t="inlineStr">
         <is>
           <t>ඞТы заканчиваешь смаковать воспоминание и выплевываешь косточку на ладонь. Осколок белого хрусталя.</t>
         </is>
@@ -30589,7 +30589,7 @@
           <t>Eat Fruit</t>
         </is>
       </c>
-      <c r="H664" s="0" t="inlineStr">
+      <c r="H664" t="inlineStr">
         <is>
           <t>ඞСьесть фрукт</t>
         </is>
@@ -30631,7 +30631,7 @@
           <t>Shrouded by the red mist, the once warm and sweet Cafeteria is as grim and dark as the rest of this place. The crimson haze outlines an obscure silhouette.</t>
         </is>
       </c>
-      <c r="H665" s="0" t="inlineStr">
+      <c r="H665" t="inlineStr">
         <is>
           <t>ඞОкутанный красным туманом, некогда теплый и уютный кафетерий стал таким же мрачным, как и все остальное в этом месте. В багровой дымке вырисовывается неясный силуэт.</t>
         </is>
@@ -30673,7 +30673,7 @@
           <t>The crooked silhouette shambling at your direction. Though the hazy mist obscured your vision, you still manage to recognize the figure as it approaches.</t>
         </is>
       </c>
-      <c r="H666" s="0" t="inlineStr">
+      <c r="H666" t="inlineStr">
         <is>
           <t>ඞСкрюченный силуэт, ковыляющий в вашем направлении. Хотя туман застилал вам глаза, вы все равно умудряетесь разглядеть приближающуюся фигуру.</t>
         </is>
@@ -30715,7 +30715,7 @@
           <t>...O'Lucky?</t>
         </is>
       </c>
-      <c r="H667" s="0" t="inlineStr">
+      <c r="H667" t="inlineStr">
         <is>
           <t>ඞ..- О'Лаки?</t>
         </is>
@@ -30757,7 +30757,7 @@
           <t>The crimson mist parts to reveal O'Lucky's chunky figure. Swollen red wines run across the surface of his cunning eyes deprived of liveness.</t>
         </is>
       </c>
-      <c r="H668" s="0" t="inlineStr">
+      <c r="H668" t="inlineStr">
         <is>
           <t>ඞБагровый туман расступается, и становится видна коренастая фигура О'Лаки. В его хитрых глазах, лишенных живости, проступают красные пятна.</t>
         </is>
@@ -30799,7 +30799,7 @@
           <t>...</t>
         </is>
       </c>
-      <c r="H669" s="0" t="inlineStr">
+      <c r="H669" t="inlineStr">
         <is>
           <t>ඞ...</t>
         </is>
@@ -30841,7 +30841,7 @@
           <t>...</t>
         </is>
       </c>
-      <c r="H670" s="0" t="inlineStr">
+      <c r="H670" t="inlineStr">
         <is>
           <t>...</t>
         </is>
@@ -30883,7 +30883,7 @@
           <t>You now see clearly O'Lucky's malevolent eyes fixated on you. The turned merchant is coming! For you!</t>
         </is>
       </c>
-      <c r="H671" s="0" t="inlineStr">
+      <c r="H671" t="inlineStr">
         <is>
           <t>ඞТеперь ты ясно видишь, как злобный взгляд О'Лаки устремлен на тебя. Перевербованный торговец приближается! За тобой!</t>
         </is>
@@ -30925,7 +30925,7 @@
           <t>Oi! Leave it out! It's me, O'lucky! Stop it I say!</t>
         </is>
       </c>
-      <c r="H672" s="0" t="inlineStr">
+      <c r="H672" t="inlineStr">
         <is>
           <t>ඞЭй! Оставь это в покое! Это я, О'Лаки! Прекрати, я говорю!</t>
         </is>
@@ -30967,7 +30967,7 @@
           <t>You stop your attack and see O'Lucky's hostile eyes regain their color, with an extra tint of silliness in it. You wonder if you should've pulled your punches.</t>
         </is>
       </c>
-      <c r="H673" s="0" t="inlineStr">
+      <c r="H673" t="inlineStr">
         <is>
           <t>ඞВы прекращаете атаку и видите, как враждебные глаза О'Лаки вновь обретают свой прежний цвет, а в них появляется дополнительный оттенок глупости. Вы задаетесь вопросом, стоило ли вам сдерживать свои удары.</t>
         </is>
@@ -31009,7 +31009,7 @@
           <t>Seems the red mist can infect otherworldly creatures...</t>
         </is>
       </c>
-      <c r="H674" s="0" t="inlineStr">
+      <c r="H674" t="inlineStr">
         <is>
           <t>ඞПохоже, красный туман может заразить потусторонних существ...</t>
         </is>
@@ -31051,7 +31051,7 @@
           <t>Do keep yourself from the red mist. It corrupts your mind.</t>
         </is>
       </c>
-      <c r="H675" s="0" t="inlineStr">
+      <c r="H675" t="inlineStr">
         <is>
           <t>ඞБерегись красного тумана. Он развращает твой разум.</t>
         </is>
@@ -31093,7 +31093,7 @@
           <t>I was sayin'! There was that red mist then I felt sick. Did't ge' to figure ou' the rest.</t>
         </is>
       </c>
-      <c r="H676" s="0" t="inlineStr">
+      <c r="H676" t="inlineStr">
         <is>
           <t>ඞЯ говорил! Был тот красный туман, а потом меня затошнило. До остального я не успел додуматься.</t>
         </is>
@@ -31135,7 +31135,7 @@
           <t>Yeah. You should definitely be leaving here. This place isn't safe any more.</t>
         </is>
       </c>
-      <c r="H677" s="0" t="inlineStr">
+      <c r="H677" t="inlineStr">
         <is>
           <t>ඞДа. Тебе определенно следует уехать отсюда. Это место больше не безопасно.</t>
         </is>
@@ -31177,7 +31177,7 @@
           <t>I ain't call it a qui', not until I 'ave my fi' Starstones. Do need to be a li'le careful now, I see.</t>
         </is>
       </c>
-      <c r="H678" s="0" t="inlineStr">
+      <c r="H678" t="inlineStr">
         <is>
           <t>ඞЯ не успокоюсь, пока не получу свои Звездные камни. Теперь, я вижу, нужно быть немного осторожным.</t>
         </is>
@@ -31219,7 +31219,7 @@
           <t>That hi' was bru'al, bu' at the end of the day, it was you who saved me. Come back again and I'll charge ya one Starstone a box. How's that?</t>
         </is>
       </c>
-      <c r="H679" s="0" t="inlineStr">
+      <c r="H679" t="inlineStr">
         <is>
           <t>ඞЭто было жестоко, но, в конце концов, именно ты спас меня. Приходи снова, и я буду брать с тебя по одному Звездному камню за коробку. Как тебе это?</t>
         </is>
@@ -31261,7 +31261,7 @@
           <t>O'Lucky seems to remember something, then begins a frantic search inside his bag. Having making sure everything's still there, he lets out a sigh of relief, before passing you a ring he found inside.</t>
         </is>
       </c>
-      <c r="H680" s="0" t="inlineStr">
+      <c r="H680" t="inlineStr">
         <is>
           <t>ඞО'Лаки, кажется, что-то вспоминает, затем начинает лихорадочно рыться в своей сумке. Убедившись, что все на месте, он вздыхает с облегчением, прежде чем передать вам кольцо, которое нашел внутри.</t>
         </is>
@@ -31303,7 +31303,7 @@
           <t>You can 'ave it, my thanks.</t>
         </is>
       </c>
-      <c r="H681" s="0" t="inlineStr">
+      <c r="H681" t="inlineStr">
         <is>
           <t>ඞТы можешь получить это, моя благодарность.</t>
         </is>
@@ -31345,7 +31345,7 @@
           <t>You've never seen such a generous O'Lucky as he pushes the ring into your hand. He mumbles as he walks away with the handbag.</t>
         </is>
       </c>
-      <c r="H682" s="0" t="inlineStr">
+      <c r="H682" t="inlineStr">
         <is>
           <t>ඞВы никогда не видели такого щедрого О'Лакки, который вкладывает кольцо вам в руку. Бормочет он, уходя с сумочкой.</t>
         </is>
@@ -31387,7 +31387,7 @@
           <t>That bloody rin'! Though' it was a treasure or something, and gone mad the moment I picked it up. Bloody shite!</t>
         </is>
       </c>
-      <c r="H683" s="0" t="inlineStr">
+      <c r="H683" t="inlineStr">
         <is>
           <t>ඞЭто чертово кольцо! Хотя это было сокровище или что-то в этом роде, и я сошел с ума, как только взял его в руки. Черт возьми!</t>
         </is>
@@ -31429,7 +31429,7 @@
           <t>You turn your eyes only to meet O'Lucky's. Your intention's clear as both visions clash.</t>
         </is>
       </c>
-      <c r="H684" s="0" t="inlineStr">
+      <c r="H684" t="inlineStr">
         <is>
           <t>ඞТы поднимаешь глаза только для того, чтобы встретиться взглядом с О'Лаки. Твои намерения ясны, когда оба видения сталкиваются.</t>
         </is>
@@ -31471,7 +31471,7 @@
           <t>Leav it ou' I warn ya! I ain't not... Oi! Ooooi!</t>
         </is>
       </c>
-      <c r="H685" s="0" t="inlineStr">
+      <c r="H685" t="inlineStr">
         <is>
           <t>ඞОставь это, я тебя предупреждаю! Я не собираюсь... Эй! Оооой!</t>
         </is>
@@ -31513,7 +31513,7 @@
           <t>Though he claims to be an otherworldly merchant, your instinct of an investigator wants to find out if he really has what it takes.</t>
         </is>
       </c>
-      <c r="H686" s="0" t="inlineStr">
+      <c r="H686" t="inlineStr">
         <is>
           <t>ඞХотя он утверждает, что он торговец из другого мира, ваш инстинкт исследователя требует выяснить, действительно ли у него есть то, что нужно.</t>
         </is>
@@ -31555,7 +31555,7 @@
           <t>What's the game? Slin' ya hoo'... Oi!</t>
         </is>
       </c>
-      <c r="H687" s="0" t="inlineStr">
+      <c r="H687" t="inlineStr">
         <is>
           <t>ඞЧто за игра? Я тебя подкараулю... Эй!</t>
         </is>
@@ -31597,7 +31597,7 @@
           <t>Nobody knows where this door leads to, but at the same time nobody can refuse the invitation from a glowing door. NOBODY.</t>
         </is>
       </c>
-      <c r="H688" s="0" t="inlineStr">
+      <c r="H688" t="inlineStr">
         <is>
           <t>ඞНикто не знает, куда ведет эта дверь, но в то же время никто не может отказаться от приглашения, исходящего от светящейся двери. никто.</t>
         </is>
@@ -31639,7 +31639,7 @@
           <t>You stride into the portal without giving it a second thought. After a blinding flash, you feel yourself being pulled into another space.</t>
         </is>
       </c>
-      <c r="H689" s="0" t="inlineStr">
+      <c r="H689" t="inlineStr">
         <is>
           <t>ඞВы входите в портал, не задумываясь ни на секунду. После ослепительной вспышки вы чувствуете, что вас затягивает в другое пространство.</t>
         </is>
@@ -31681,7 +31681,7 @@
           <t>What is this place?</t>
         </is>
       </c>
-      <c r="H690" s="0" t="inlineStr">
+      <c r="H690" t="inlineStr">
         <is>
           <t>ඞЧто это за место?</t>
         </is>
@@ -31723,7 +31723,7 @@
           <t>You take a quick scan everything around you and find in disappointment that you're still inside the park.</t>
         </is>
       </c>
-      <c r="H691" s="0" t="inlineStr">
+      <c r="H691" t="inlineStr">
         <is>
           <t>ඞВы быстро осматриваете все вокруг и с разочарованием обнаруживаете, что все еще находитесь в парке.</t>
         </is>
@@ -31765,7 +31765,7 @@
           <t>Even a portal can't carry you outside the park, it seems.</t>
         </is>
       </c>
-      <c r="H692" s="0" t="inlineStr">
+      <c r="H692" t="inlineStr">
         <is>
           <t>ඞПохоже, даже портал не может вынести вас за пределы парка.</t>
         </is>
@@ -31807,7 +31807,7 @@
           <t>Though a little depressed, the fact that the red mist has dissipated still lights up your heart a little.</t>
         </is>
       </c>
-      <c r="H693" s="0" t="inlineStr">
+      <c r="H693" t="inlineStr">
         <is>
           <t>ඞНесмотря на то, что ты немного подавлен, тот факт, что красный туман рассеялся, все еще немного согревает твое сердце.</t>
         </is>
@@ -31849,7 +31849,7 @@
           <t>During the combat, O'Lucky opens a portal before packing up everything he has and throwing himself with them into the rift. He's gone before you know it.</t>
         </is>
       </c>
-      <c r="H694" s="0" t="inlineStr">
+      <c r="H694" t="inlineStr">
         <is>
           <t>ඞВо время боя О'Лаки открывает портал, а затем собирает все, что у него есть, и бросается вместе с ними в разлом. Он исчезает прежде, чем вы успеваете это осознать.</t>
         </is>
@@ -31891,7 +31891,7 @@
           <t>So that duck's gone now...?</t>
         </is>
       </c>
-      <c r="H695" s="0" t="inlineStr">
+      <c r="H695" t="inlineStr">
         <is>
           <t>ඞЗначит, эта утка теперь улетела...?</t>
         </is>
@@ -31933,7 +31933,7 @@
           <t>The duck(?) runs away in a blink of eye without leaving a single item behind. Clearly it wasn't his first failed attempt in expanding customer market. You aren't very sure if you'll meet it again.</t>
         </is>
       </c>
-      <c r="H696" s="0" t="inlineStr">
+      <c r="H696" t="inlineStr">
         <is>
           <t>ඞУтка (?) убегает в мгновение ока, не оставляя после себя ни единого предмета. Очевидно, это была не первая неудачная попытка расширить рынок сбыта. Вы не уверены, встретите ли ее снова.</t>
         </is>
@@ -31975,7 +31975,7 @@
           <t>Whi'e flag! I give up!</t>
         </is>
       </c>
-      <c r="H697" s="0" t="inlineStr">
+      <c r="H697" t="inlineStr">
         <is>
           <t>ඞКакой флаг! Я сдаюсь!</t>
         </is>
@@ -32023,7 +32023,7 @@
 The poor merchant is now huddling on the ground with his feathered hands pressing against his hat, trembling.</t>
         </is>
       </c>
-      <c r="H698" s="0" t="inlineStr">
+      <c r="H698" t="inlineStr">
         <is>
           <t>ඞОбмен ударами доказал вам, что О'Лаки не создан для сражений.
 Бедный торговец теперь скорчился на земле, прижимая к шляпе покрытые перьями руки и дрожа.</t>
@@ -32066,7 +32066,7 @@
           <t>You plan to...</t>
         </is>
       </c>
-      <c r="H699" s="0" t="inlineStr">
+      <c r="H699" t="inlineStr">
         <is>
           <t>ඞТы планируешь это сделать...</t>
         </is>
@@ -32108,7 +32108,7 @@
           <t>Show No Mercy</t>
         </is>
       </c>
-      <c r="H700" s="0" t="inlineStr">
+      <c r="H700" t="inlineStr">
         <is>
           <t>ඞНе проявляй милосердия</t>
         </is>
@@ -32151,7 +32151,7 @@
           <t>Terrorized by that murderous look in your eyes, O'Lucky opens a portal before packing everything he has and throwing himself with them into the rift. He's gone before you know it.</t>
         </is>
       </c>
-      <c r="H701" s="0" t="inlineStr">
+      <c r="H701" t="inlineStr">
         <is>
           <t>ඞНапуганный твоим убийственным взглядом, О'Лаки открывает портал, прежде чем собрать все, что у него есть, и броситься с ними в разлом. Он исчез прежде, чем ты успел это осознать.</t>
         </is>
@@ -32193,7 +32193,7 @@
           <t>Hope he won't need a pair of new pants after this...</t>
         </is>
       </c>
-      <c r="H702" s="0" t="inlineStr">
+      <c r="H702" t="inlineStr">
         <is>
           <t>ඞНадеюсь, после этого ему не понадобятся новые штаны...</t>
         </is>
@@ -32235,7 +32235,7 @@
           <t>Spare him</t>
         </is>
       </c>
-      <c r="H703" s="0" t="inlineStr">
+      <c r="H703" t="inlineStr">
         <is>
           <t>ඞПощади его</t>
         </is>
@@ -32277,7 +32277,7 @@
           <t>It seems this duck named O'Lucky is just an average merchant who runs a stand, not some evil mastermind. How disappointing.</t>
         </is>
       </c>
-      <c r="H704" s="0" t="inlineStr">
+      <c r="H704" t="inlineStr">
         <is>
           <t>ඞПохоже, что эта утка по имени О'Лакки - обычный торговец, управляющий киоском, а не какой-то злой умысел. Какое разочарование.</t>
         </is>
@@ -32319,7 +32319,7 @@
           <t>As you ponder over this duck's identity, he drags himself closer with that expression of his showing reluctance.</t>
         </is>
       </c>
-      <c r="H705" s="0" t="inlineStr">
+      <c r="H705" t="inlineStr">
         <is>
           <t>ඞПока вы размышляете над тем, кто такая эта утка, она придвигается ближе с таким выражением явного нежелания.</t>
         </is>
@@ -32361,7 +32361,7 @@
           <t>Wha', bothered by the price? Why didn't tell me on that? I ain't see no reason to force your hand.</t>
         </is>
       </c>
-      <c r="H706" s="0" t="inlineStr">
+      <c r="H706" t="inlineStr">
         <is>
           <t>ඞЧто, тебя беспокоит цена? Почему ты мне об этом не сказал? Я не вижу причин принуждать тебя.</t>
         </is>
@@ -32403,7 +32403,7 @@
           <t>One Starstone for a box, how's that? I can go broke easy with that price.</t>
         </is>
       </c>
-      <c r="H707" s="0" t="inlineStr">
+      <c r="H707" t="inlineStr">
         <is>
           <t>ඞОдин Звездный камень за коробку, как вам такое? С такой ценой я легко разорюсь.</t>
         </is>
@@ -32445,7 +32445,7 @@
           <t>Right, one more thing before you go.</t>
         </is>
       </c>
-      <c r="H708" s="0" t="inlineStr">
+      <c r="H708" t="inlineStr">
         <is>
           <t>ඞЛадно, еще кое-что, прежде чем ты уйдешь.</t>
         </is>
@@ -32487,7 +32487,7 @@
           <t>Get ou' o' it, mate! Do me a favor!</t>
         </is>
       </c>
-      <c r="H709" s="0" t="inlineStr">
+      <c r="H709" t="inlineStr">
         <is>
           <t>ඞПрекрати, приятель! Сделай мне одолжение!</t>
         </is>
@@ -32529,7 +32529,7 @@
           <t>Didn't you find a ring in the garden?</t>
         </is>
       </c>
-      <c r="H710" s="0" t="inlineStr">
+      <c r="H710" t="inlineStr">
         <is>
           <t>ඞРазве ты не нашел кольцо в саду?</t>
         </is>
@@ -32571,7 +32571,7 @@
           <t>The garden, you say? Now tha' you mention it... But you know wha' they say, finders keepers...</t>
         </is>
       </c>
-      <c r="H711" s="0" t="inlineStr">
+      <c r="H711" t="inlineStr">
         <is>
           <t>ඞВы говорите, сад? Раз уж вы упомянули об этом... Но вы же знаете, как говорится, кто нашел, тот и хранит...</t>
         </is>
@@ -32613,7 +32613,7 @@
           <t>Attack</t>
         </is>
       </c>
-      <c r="H712" s="0" t="inlineStr">
+      <c r="H712" t="inlineStr">
         <is>
           <t>ඞАтака</t>
         </is>
@@ -32655,7 +32655,7 @@
           <t>Hidden Room</t>
         </is>
       </c>
-      <c r="H713" s="0" t="inlineStr">
+      <c r="H713" t="inlineStr">
         <is>
           <t>ඞСкрытая комната</t>
         </is>
@@ -32697,7 +32697,7 @@
           <t>The cramped room is cluttered with a hodgepodge of miscellaneous items. It seems to serve as a storage area for the staff.</t>
         </is>
       </c>
-      <c r="H714" s="0" t="inlineStr">
+      <c r="H714" t="inlineStr">
         <is>
           <t>ඞТесная комната заставлена множеством разных предметов. По-видимому, она служит местом хранения для персонала.</t>
         </is>
@@ -32739,7 +32739,7 @@
           <t>You find a &lt;color=#FFD700&gt;girl&lt;/color&gt; lying on the cold floor, apparently unconscious.</t>
         </is>
       </c>
-      <c r="H715" s="0" t="inlineStr">
+      <c r="H715" t="inlineStr">
         <is>
           <t>ඞВы находите &lt;color=#FFD700&gt;девушку&lt;/color&gt;, лежащую на холодном полу, по-видимому, без сознания.</t>
         </is>
@@ -32781,7 +32781,7 @@
           <t>Several &lt;color=#FFD700&gt;chests&lt;/color&gt; are scattered around her.</t>
         </is>
       </c>
-      <c r="H716" s="0" t="inlineStr">
+      <c r="H716" t="inlineStr">
         <is>
           <t>ඞВокруг нее разбросано несколько сундуков &lt;color=#FFD700&gt;.</t>
         </is>
@@ -32829,7 +32829,7 @@
 Next to one chest, a shattered &lt;color=#FFD700&gt;mask&lt;/color&gt; captures your attention. Strange thing is, the broken part of the mask is akin to... a duck's footprint...?</t>
         </is>
       </c>
-      <c r="H717" s="0" t="inlineStr">
+      <c r="H717" t="inlineStr">
         <is>
           <t>ඞОсмотрев сундуки, вы обнаружите реквизит, который обычно используется для украшения Дома развлечений.
 Рядом с одним из сундуков ваше внимание привлекает разбитая маска &lt;color=#FFD700&gt;. Странно то, что сломанная часть маски похожа на... утиный след...?</t>
@@ -32872,7 +32872,7 @@
           <t>Check Chest</t>
         </is>
       </c>
-      <c r="H718" s="0" t="inlineStr">
+      <c r="H718" t="inlineStr">
         <is>
           <t>ඞПроверьте сундук</t>
         </is>
@@ -32926,7 +32926,7 @@
 It takes considerable effort and time before you successfully awaken the girl.</t>
         </is>
       </c>
-      <c r="H719" s="0" t="inlineStr">
+      <c r="H719" t="inlineStr">
         <is>
           <t>ඞВы подходите к девушке и быстро осматриваете ее. Вы не находите никаких признаков физической травмы; похоже, она просто потеряла сознание.
 После нескольких легких толчков она остается без сознания. Но вы замечаете, что от ее тела исходит легкий красный туман, который рассеивается в окружающем воздухе.
@@ -32970,7 +32970,7 @@
           <t>Examine the Girl</t>
         </is>
       </c>
-      <c r="H720" s="0" t="inlineStr">
+      <c r="H720" t="inlineStr">
         <is>
           <t>ඞОсмотрите девушку</t>
         </is>
@@ -33012,7 +33012,7 @@
           <t>Confused Girl</t>
         </is>
       </c>
-      <c r="H721" s="0" t="inlineStr">
+      <c r="H721" t="inlineStr">
         <is>
           <t>ඞСмущенная девушка</t>
         </is>
@@ -33066,7 +33066,7 @@
 She casts a disoriented glance in your direction, apparently still ensnared by the languor from which she just emerged.</t>
         </is>
       </c>
-      <c r="H722" s="0" t="inlineStr">
+      <c r="H722" t="inlineStr">
         <is>
           <t>ඞНаряд молодой девушки украшен некоторыми винтажными аксессуарами, намекающими на моду, которая берет свое начало в прошлом веке.
 Только что проснувшаяся и явно измученная, она пытается сесть прямо, ее тело выдает глубокую &lt;color=#FFD700&gt;слабость&lt;/color&gt;.
@@ -33110,7 +33110,7 @@
           <t>...!</t>
         </is>
       </c>
-      <c r="H723" s="0" t="inlineStr">
+      <c r="H723" t="inlineStr">
         <is>
           <t>ඞ...!</t>
         </is>
@@ -33152,7 +33152,7 @@
           <t>Girl</t>
         </is>
       </c>
-      <c r="H724" s="0" t="inlineStr">
+      <c r="H724" t="inlineStr">
         <is>
           <t>ඞДевочка</t>
         </is>
@@ -33194,7 +33194,7 @@
           <t>How... how did you get here?</t>
         </is>
       </c>
-      <c r="H725" s="0" t="inlineStr">
+      <c r="H725" t="inlineStr">
         <is>
           <t>ඞКак... как ты сюда попал?</t>
         </is>
@@ -33236,7 +33236,7 @@
           <t>Bypassing her query, you inquire about her reasons for being in this eerie place and if she has any recollection of what happened before.</t>
         </is>
       </c>
-      <c r="H726" s="0" t="inlineStr">
+      <c r="H726" t="inlineStr">
         <is>
           <t>ඞОбходя ее вопрос стороной, вы спрашиваете о причинах ее пребывания в этом жутком месте и помнит ли она что-нибудь о том, что происходило раньше.</t>
         </is>
@@ -33278,7 +33278,7 @@
           <t>I... I don't quite remember.</t>
         </is>
       </c>
-      <c r="H727" s="0" t="inlineStr">
+      <c r="H727" t="inlineStr">
         <is>
           <t>ඞЯ... я не совсем помню.</t>
         </is>
@@ -33320,7 +33320,7 @@
           <t>A mask of struggle and confusion settles on the girl's face. After an agonizingly long pause, she finally begins to speak in a hesitant whisper.</t>
         </is>
       </c>
-      <c r="H728" s="0" t="inlineStr">
+      <c r="H728" t="inlineStr">
         <is>
           <t>ඞНа лице девушки застывает выражение борьбы и замешательства. После мучительно долгой паузы она, наконец, начинает говорить неуверенным шепотом.</t>
         </is>
@@ -33368,7 +33368,7 @@
 I'm here to look for my parents...</t>
         </is>
       </c>
-      <c r="H729" s="0" t="inlineStr">
+      <c r="H729" t="inlineStr">
         <is>
           <t>ඞМеня зовут Джойя.
 Я здесь, чтобы найти своих родителей...</t>
@@ -33411,7 +33411,7 @@
           <t>You parents are in the park too?</t>
         </is>
       </c>
-      <c r="H730" s="0" t="inlineStr">
+      <c r="H730" t="inlineStr">
         <is>
           <t>ඞВаши родители тоже в парке?</t>
         </is>
@@ -33453,7 +33453,7 @@
           <t>Yes, we reside in the manor on the park's back hill. I...</t>
         </is>
       </c>
-      <c r="H731" s="0" t="inlineStr">
+      <c r="H731" t="inlineStr">
         <is>
           <t>ඞДа, мы живем в поместье на заднем холме парка...</t>
         </is>
@@ -33495,7 +33495,7 @@
           <t>Suddenly, a flash of realization sparks in Gioia's eyes. She bolts upright, her gaze darting past you and scanning the surroundings anxiously. Only after confirming that they're in a relatively safe environment does she allow herself to relax slightly.</t>
         </is>
       </c>
-      <c r="H732" s="0" t="inlineStr">
+      <c r="H732" t="inlineStr">
         <is>
           <t>ඞВнезапно в глазах Джойи вспыхивает озарение. Она резко выпрямляется, ее взгляд скользит мимо вас и с тревогой осматривает окрестности. Только убедившись, что они находятся в относительно безопасной обстановке, она позволяет себе немного расслабиться.</t>
         </is>
@@ -33537,7 +33537,7 @@
           <t>I remember now! There was a man with a scary mask. He's been pursuing me and confined me here!</t>
         </is>
       </c>
-      <c r="H733" s="0" t="inlineStr">
+      <c r="H733" t="inlineStr">
         <is>
           <t>ඞТеперь я вспомнил! Там был человек в страшной маске. Он преследовал меня и запер здесь!</t>
         </is>
@@ -33579,7 +33579,7 @@
           <t>Gioia lowers her gaze, visibly petrified at the prospect of the menacing man lurking outside. She wrings her clothes in anxiety, before finally gathering enough courage to meet your eyes</t>
         </is>
       </c>
-      <c r="H734" s="0" t="inlineStr">
+      <c r="H734" t="inlineStr">
         <is>
           <t>ඞДжойя опускает взгляд, явно ошеломленная перспективой появления угрожающего мужчины, притаившегося снаружи. Она в тревоге выжимает одежду, прежде чем, наконец, набирается смелости встретиться с тобой взглядом</t>
         </is>
@@ -33621,7 +33621,7 @@
           <t>I know this is a sudden request... But... If it's possible, could you please escort me back to the manor?</t>
         </is>
       </c>
-      <c r="H735" s="0" t="inlineStr">
+      <c r="H735" t="inlineStr">
         <is>
           <t>ඞЯ понимаю, что это неожиданная просьба... Но... Если это возможно, не могли бы вы, пожалуйста, проводить меня обратно в поместье?</t>
         </is>
@@ -33663,7 +33663,7 @@
           <t>Gioia want you to escort her back to the manor. You will...</t>
         </is>
       </c>
-      <c r="H736" s="0" t="inlineStr">
+      <c r="H736" t="inlineStr">
         <is>
           <t>ඞДжойя хочет, чтобы ты проводил ее обратно в поместье. Вы будете...</t>
         </is>
@@ -33705,7 +33705,7 @@
           <t>Accept Her Request</t>
         </is>
       </c>
-      <c r="H737" s="0" t="inlineStr">
+      <c r="H737" t="inlineStr">
         <is>
           <t>ඞПримите Ее просьбу</t>
         </is>
@@ -33747,7 +33747,7 @@
           <t>You choose to extend your assistance. Gioia provides you with detailed directions to the manor.</t>
         </is>
       </c>
-      <c r="H738" s="0" t="inlineStr">
+      <c r="H738" t="inlineStr">
         <is>
           <t>ඞВы сами решаете, как оказать свою помощь. Джойя предоставит вам подробную информацию о том, как добраться до поместья.</t>
         </is>
@@ -33789,7 +33789,7 @@
           <t>Just as you're about to depart, a metallic pounding echoes from beyond the door. It dawns on you that to escape this unnerving place, you must first confront and vanquish the Executioner who lurks outside.</t>
         </is>
       </c>
-      <c r="H739" s="0" t="inlineStr">
+      <c r="H739" t="inlineStr">
         <is>
           <t>ඞКак только вы собираетесь уходить, из-за двери раздается металлический стук. До вас доходит, что для того, чтобы сбежать из этого пугающего места, вы должны сначала встретиться лицом к лицу с Палачом, который скрывается снаружи, и победить его.</t>
         </is>
@@ -33831,7 +33831,7 @@
           <t>Decline Her Request</t>
         </is>
       </c>
-      <c r="H740" s="0" t="inlineStr">
+      <c r="H740" t="inlineStr">
         <is>
           <t>ඞОтклонить Ее Просьбу</t>
         </is>
@@ -33873,7 +33873,7 @@
           <t>You inform Gioia of the imminent danger lurking outside, suggesting it would be safer for her to remain in this location while you venture out. Only then would she be secure enough to commence her search for her parents.</t>
         </is>
       </c>
-      <c r="H741" s="0" t="inlineStr">
+      <c r="H741" t="inlineStr">
         <is>
           <t>ඞВы сообщаете Джойе о неминуемой опасности, подстерегающей снаружи, предполагая, что для нее будет безопаснее оставаться в этом месте, пока вы будете выходить. Только тогда она будет в достаточной безопасности, чтобы начать поиски своих родителей.</t>
         </is>
@@ -33915,7 +33915,7 @@
           <t>Gioia nods in agreement, though her apprehension at the prospect of being left alone is evident. However, she doesn't wish to impede you in any way. From her pocket, she hands you a ruby pendant.</t>
         </is>
       </c>
-      <c r="H742" s="0" t="inlineStr">
+      <c r="H742" t="inlineStr">
         <is>
           <t>ඞДжойя кивает в знак согласия, хотя ее опасения по поводу того, что ее оставят в покое, очевидны. Однако она не хочет никоим образом препятствовать вам. Она достает из кармана рубиновый кулон.</t>
         </is>
@@ -33957,7 +33957,7 @@
           <t>Thank you... If possible, could you please deliver this pendant to my mother? I want her to know I'm safe. This will assuredly provide her some solace.</t>
         </is>
       </c>
-      <c r="H743" s="0" t="inlineStr">
+      <c r="H743" t="inlineStr">
         <is>
           <t>ඞСпасибо тебе... Если возможно, не могли бы вы, пожалуйста, передать этот кулон моей маме? Я хочу, чтобы она знала, что я в безопасности. Это, несомненно, немного утешит ее.</t>
         </is>
@@ -33999,7 +33999,7 @@
           <t>You accept the pendant, tucking it safely into your backpack. When your gaze returns to where Gioia was a moment ago, you find her mysteriously vanished.</t>
         </is>
       </c>
-      <c r="H744" s="0" t="inlineStr">
+      <c r="H744" t="inlineStr">
         <is>
           <t>ඞТы принимаешь кулон и надежно прячешь его в свой рюкзак. Когда твой взгляд возвращается туда, где мгновение назад была Джойя, ты обнаруживаешь, что она таинственным образом исчезла.</t>
         </is>
@@ -34041,7 +34041,7 @@
           <t>Ask about Her Past</t>
         </is>
       </c>
-      <c r="H745" s="0" t="inlineStr">
+      <c r="H745" t="inlineStr">
         <is>
           <t>ඞРасспросите о Ее прошлом</t>
         </is>
@@ -34083,7 +34083,7 @@
           <t>Gate</t>
         </is>
       </c>
-      <c r="H746" s="0" t="inlineStr">
+      <c r="H746" t="inlineStr">
         <is>
           <t>ඞВорота</t>
         </is>
@@ -34125,7 +34125,7 @@
           <t>Gate of the Park</t>
         </is>
       </c>
-      <c r="H747" s="0" t="inlineStr">
+      <c r="H747" t="inlineStr">
         <is>
           <t>ඞВорота парка</t>
         </is>
@@ -34179,7 +34179,7 @@
 Adjacent to this poster, a &lt;color=#FFD700&gt;ticket booth&lt;/color&gt; stands alone. Its door is open, yet it remains unoccupied.</t>
         </is>
       </c>
-      <c r="H748" s="0" t="inlineStr">
+      <c r="H748" t="inlineStr">
         <is>
           <t>ඞБесшумные ворота стоят у входа в устрашающе пустой парк. Это место совсем не похоже на то, что обычно можно ожидать от парка развлечений.
 Слева от ворот на стене висит гигантский плакат &lt;color=#FFD700&gt;, который, по-видимому, посвящен годовщине парка.
@@ -34223,7 +34223,7 @@
           <t>The gate is shrouded in the &lt;color=#DC143C&gt;red mist&lt;/color&gt;. Nearby, you discover the remains of a &lt;color=#FFD700&gt;disintegrated van&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H749" s="0" t="inlineStr">
+      <c r="H749" t="inlineStr">
         <is>
           <t>ඞВорота окутаны &lt;color=#DC143C&gt;красным туманом&lt;/color&gt;. Неподалеку вы обнаруживаете останки &lt;color=#FFD700&gt; разрушенного фургона&lt;/color&gt;.</t>
         </is>
@@ -34271,7 +34271,7 @@
 As you peruse through the feedback, you're somewhat taken aback to find that most of the comments have been positive over the years. However, more recently, the complaints seem to be on the rise.</t>
         </is>
       </c>
-      <c r="H750" s="0" t="inlineStr">
+      <c r="H750" t="inlineStr">
         <is>
           <t>ඞВ углу тихо стоит старая коробка с документами. Внутри нее находятся тщательно рассортированные бланки отзывов и благодарственные письма от жителей города.
 Просматривая отзывы, вы с удивлением обнаруживаете, что большинство из них были положительными на протяжении многих лет. Однако в последнее время число жалоб, по-видимому, растет.</t>
@@ -34314,7 +34314,7 @@
           <t>Feedback Form</t>
         </is>
       </c>
-      <c r="H751" s="0" t="inlineStr">
+      <c r="H751" t="inlineStr">
         <is>
           <t>ඞФорма обратной связи</t>
         </is>
@@ -34374,7 +34374,7 @@
 Feb 25: My kid straight up face-planted on this messed-up road... Do something about this place's safety!</t>
         </is>
       </c>
-      <c r="H752" s="0" t="inlineStr">
+      <c r="H752" t="inlineStr">
         <is>
           <t>ඞ7 января: Жратва здесь, серьезно, не на высоте. Я имею в виду, еда просто ужасная.
 9 января: Чувак, заведение разваливается. Наведи порядок!
@@ -34431,7 +34431,7 @@
 Apr 28: Can someone check if those fire extinguishers even work? Safety first, right?</t>
         </is>
       </c>
-      <c r="H753" s="0" t="inlineStr">
+      <c r="H753" t="inlineStr">
         <is>
           <t>ඞ6 марта: Здешние удобства вызывают у меня беспокойство.
 15 марта: Лифты здесь? Не круто, совсем не круто. Все чертовски схематично!Они нуждаются в серьезном обновлении, например, в срочном порядке.
@@ -34491,7 +34491,7 @@
 May 30: Seriously, could you please... get off your butts and do some maintenance around here?</t>
         </is>
       </c>
-      <c r="H754" s="0" t="inlineStr">
+      <c r="H754" t="inlineStr">
         <is>
           <t>ඞ9 мая: Здешний персонал совершенно не умеет себя вести!!
 15 мая: Покупка билетов на концерты превратилась в сущую пытку. Пожалуйста, разберитесь с этой неразберихой с продавцами билетов.
@@ -34535,7 +34535,7 @@
           <t>You also discover a clover in the box, seemingly tucked in alongside some positive notes. To your surprise, its leaves are as green as if freshly picked - you start to wonder just when it arrived here.</t>
         </is>
       </c>
-      <c r="H755" s="0" t="inlineStr">
+      <c r="H755" t="inlineStr">
         <is>
           <t>ඞВ коробке вы также обнаруживаете клевер, который, по-видимому, спрятан рядом с какими-то позитивными нотами. К вашему удивлению, его листья такие зеленые, как будто их только что сорвали - вы начинаете удивляться, когда он появился здесь.</t>
         </is>
@@ -34577,7 +34577,7 @@
           <t>Additionally, there are some tools present. With luck, they may prove useful at some point.</t>
         </is>
       </c>
-      <c r="H756" s="0" t="inlineStr">
+      <c r="H756" t="inlineStr">
         <is>
           <t>ඞКроме того, здесь представлены некоторые инструменты. Если повезет, они могут оказаться полезными в какой-то момент.</t>
         </is>
@@ -34619,7 +34619,7 @@
           <t>Check Booth Cabinet</t>
         </is>
       </c>
-      <c r="H757" s="0" t="inlineStr">
+      <c r="H757" t="inlineStr">
         <is>
           <t>ඞШкаф контрольной будки</t>
         </is>
@@ -34667,7 +34667,7 @@
 Amidst this clutter, you manage to discover several &lt;color=#FFD700&gt;shiny stones&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H758" s="0" t="inlineStr">
+      <c r="H758" t="inlineStr">
         <is>
           <t>ඞВойдя в кабинку, вы быстро осматриваетесь, но внутри никого нет. На столе стоит функциональный компьютер &lt;color=#FFD700&gt;, окруженный стопками билетов и бланков.
 Среди этого беспорядка вам удается обнаружить несколько &lt;color=#FFD700&gt; блестящих камней&lt;/color&gt;.</t>
@@ -34710,7 +34710,7 @@
           <t>You pick up a &lt;color=#FFD700&gt;brochure&lt;/color&gt; from the top of a pile.</t>
         </is>
       </c>
-      <c r="H759" s="0" t="inlineStr">
+      <c r="H759" t="inlineStr">
         <is>
           <t>ඞВы берете &lt;color=#FFD700&gt;брошюру&lt;/color&gt; с самого верха стопки.</t>
         </is>
@@ -34752,7 +34752,7 @@
           <t>From the computer screen, you see the ticketing system displayed. After a few clicks attempting to understand the operations carried out by the staff, you stumble upon a forum page saved in the bookmarks.</t>
         </is>
       </c>
-      <c r="H760" s="0" t="inlineStr">
+      <c r="H760" t="inlineStr">
         <is>
           <t>ඞНа экране компьютера вы видите систему продажи билетов. После нескольких щелчков мышью, пытаясь разобраться в действиях персонала, вы натыкаетесь на страницу форума, сохраненную в закладках.</t>
         </is>
@@ -34794,7 +34794,7 @@
           <t>Forum</t>
         </is>
       </c>
-      <c r="H761" s="0" t="inlineStr">
+      <c r="H761" t="inlineStr">
         <is>
           <t>ඞФорум</t>
         </is>
@@ -34854,7 +34854,7 @@
 &lt;color=#ebb36b&gt;#2&lt;/color&gt;No kidding? Can you spill more about that? I've got plans to swing by next month...</t>
         </is>
       </c>
-      <c r="H762" s="0" t="inlineStr">
+      <c r="H762" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#da3e01&gt;[ГОРЯЧО]Кое-что о парке Фар Хоуп!&lt;/color&gt;
 &lt;color=#ebb36b&gt;#1&lt;/color&gt;Эй, фанатики Скайвела! Вы в курсе? Сразу за парком скрывается жуткое кладбище. Жутковато, да?
@@ -34911,7 +34911,7 @@
 &lt;color=#ebb36b&gt;&gt;&gt;#2&lt;/color&gt;One thing that's been burned into my memory? The name on that grave - 'Alessio.' Kinda sends shivers down your spine, doesn't it?</t>
         </is>
       </c>
-      <c r="H763" s="0" t="inlineStr">
+      <c r="H763" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#ebb36b&gt;&gt;&gt;#2&lt;/color&gt;Вот это реальный разговор. В детстве я заблудился в парке и каким-то образом наткнулся на кладбище - мне показалось, что я попал в какой-то странный лабиринт. Это не то, что можно назвать веселым времяпрепровождением, и, поймите, на улицах ходят слухи, что жуткое место все еще процветает спустя столько лет (если верить слухам).
 -----------------------
@@ -34979,7 +34979,7 @@
 &lt;color=#ebb36b&gt;#34&lt;/color&gt;Actually, get this - a buddy's pal told me it wasn't suicide at all. Dude was chucked into the lake! She swears she saw it with her very own peepers!</t>
         </is>
       </c>
-      <c r="H764" s="0" t="inlineStr">
+      <c r="H764" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#ebb36b&gt;#12&lt;/color&gt;Ходят слухи, что этот чувак прыгнул в озеро, покончив с собой... О, я слышал несколько жутких историй о красных глазах, светящихся из его глубин...
 -----------------------
@@ -35049,7 +35049,7 @@
 &lt;color=#ebb36b&gt;#78 [You]&lt;/color&gt;What??? Alessio?</t>
         </is>
       </c>
-      <c r="H765" s="0" t="inlineStr">
+      <c r="H765" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#ebb36b&gt;#47&lt;/color&gt; Ого, серьезно? Но зачем кому-то это понадобилось?
 -----------------------
@@ -35095,7 +35095,7 @@
           <t>Additionally, there are some tools present. With luck, they may prove useful at some point.</t>
         </is>
       </c>
-      <c r="H766" s="0" t="inlineStr">
+      <c r="H766" t="inlineStr">
         <is>
           <t>ඞКроме того, здесь представлены некоторые инструменты. Если повезет, они могут оказаться полезными в какой-то момент.</t>
         </is>
@@ -35137,7 +35137,7 @@
           <t>Check Booth Table</t>
         </is>
       </c>
-      <c r="H767" s="0" t="inlineStr">
+      <c r="H767" t="inlineStr">
         <is>
           <t>ඞСтол в контрольно-пропускном пункте</t>
         </is>
@@ -35185,7 +35185,7 @@
 &lt;color=#f0ddab&gt;'The Miracle of Far Hope Park is about to celebrate its 50th anniversary!'&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H768" s="0" t="inlineStr">
+      <c r="H768" t="inlineStr">
         <is>
           <t>ඞНа заднем плане изображено колесо обозрения в парке, а жирный текст гласит::
 &lt;color=#f0ddab&gt;"Чудо парка Фар Хоуп вот-вот отпразднует свое 50-летие!"&lt;/color&gt;</t>
@@ -35228,7 +35228,7 @@
           <t>&lt;color=#f0ddab&gt;Since our establishment in 1955, Far Hope Park has been dedicated to crafting a beautiful and magical space for all. We extend our deepest gratitude to every visitor for their support and affection over the years. It's been our privilege to be part of countless wonderful moments alongside you all.&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H769" s="0" t="inlineStr">
+      <c r="H769" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;С момента своего основания в 1955 году парк Фар Хоуп был посвящен созданию красивого и волшебного пространства для всех. Мы выражаем нашу глубочайшую благодарность каждому посетителю за их поддержку и привязанность на протяжении многих лет. Для нас было честью быть частью бесчисленных замечательных моментов вместе со всеми вами.&lt;/color&gt;</t>
         </is>
@@ -35276,7 +35276,7 @@
 We cordially invite all our visitors to join us in celebrating this milestone! Expect a host of surprise performances and engaging activities. We eagerly anticipate sharing these special moments with you!&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H770" s="0" t="inlineStr">
+      <c r="H770" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;15 июля мы отпразднуем наше 50-летие появлением совершенно нового аттракциона: Небесного колеса Далекой Надежды! Он поднимается на высоту 100 метров и обещает непревзойденный вид!
 Мы сердечно приглашаем всех наших посетителей присоединиться к празднованию этого знаменательного события! Вас ожидает множество сюрпризов и увлекательных мероприятий. Мы с нетерпением ждем возможности разделить с вами эти особенные моменты!&lt;/color&gt;</t>
@@ -35331,7 +35331,7 @@
 After some searching, you eventually spot the third arrow on a bench next to the can.</t>
         </is>
       </c>
-      <c r="H771" s="0" t="inlineStr">
+      <c r="H771" t="inlineStr">
         <is>
           <t>ඞНа стене рядом с плакатом вы замечаете едва различимую стрелку, на которую, казалось бы, не обращали особого внимания.
 Вы следуете за стрелкой и находите еще одну, указывающую на мусорный бак.
@@ -35381,7 +35381,7 @@
 Tracing the path of the last arrow, you arrive at a window and crouch down. To your surprise, you discover an announcement attached there, which intriguingly resembles a treasure map.</t>
         </is>
       </c>
-      <c r="H772" s="0" t="inlineStr">
+      <c r="H772" t="inlineStr">
         <is>
           <t>ඞВы следуете за стрелками и исследуете окрестности. В конце концов, вы снова оказываетесь у ворот парка.
 Следуя по последней стрелке, вы подходите к окну и приседаете на корточки. К своему удивлению, вы обнаруживаете прикрепленное к нему объявление, которое интригующе напоминает карту сокровищ.</t>
@@ -35436,7 +35436,7 @@
 Congratulations, you've uncovered the first step of our treasure hunt! This officially marks you as a bona fide treasure hunter!&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H773" s="0" t="inlineStr">
+      <c r="H773" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;*Анонс*
 Пришло время стать настоящим героем!
@@ -35492,7 +35492,7 @@
 A new adventure is on the horizon. May joy and kindness accompany you on your journey!&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H774" s="0" t="inlineStr">
+      <c r="H774" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt; Вас ждет увлекательная охота за сокровищами!
 Извлеките меч из камня и станьте настоящим героем нашего парка!
@@ -35536,7 +35536,7 @@
           <t>Check Poster</t>
         </is>
       </c>
-      <c r="H775" s="0" t="inlineStr">
+      <c r="H775" t="inlineStr">
         <is>
           <t>ඞПроверьте плакат</t>
         </is>
@@ -35584,7 +35584,7 @@
 Upon investigating the wreckage, you find several cans of gasoline, assorted food items, and alcohol.</t>
         </is>
       </c>
-      <c r="H776" s="0" t="inlineStr">
+      <c r="H776" t="inlineStr">
         <is>
           <t>ඞГрузовик, похоже, с огромной силой врезался в стену, и красный туман, похоже, пропитал все вокруг.
 Осмотрев обломки, вы обнаружите несколько канистр с бензином, различные продукты питания и алкоголь.</t>
@@ -35627,7 +35627,7 @@
           <t>Check Truck</t>
         </is>
       </c>
-      <c r="H777" s="0" t="inlineStr">
+      <c r="H777" t="inlineStr">
         <is>
           <t>ඞПроверочный грузовик</t>
         </is>
@@ -35670,7 +35670,7 @@
           <t>In this realm teeming with life, yet shrouded in uniform tedium, the rhythm of your existence has fallen into a weary pattern. A yearning for transformation whispers from the labyrinth of your soul, but remains shackled by the monotonous chains of reality.</t>
         </is>
       </c>
-      <c r="H778" s="0" t="inlineStr">
+      <c r="H778" t="inlineStr">
         <is>
           <t>ඞВ этом царстве, изобилующем жизнью, но окутанном однообразной скукой, ритм вашего существования стал однообразным. Стремление к преображению звучит шепотом из лабиринта вашей души, но остается скованным монотонными цепями реальности.</t>
         </is>
@@ -35718,7 +35718,7 @@
 &lt;color=#84adfe&gt;"Why endure the shackles of tedium? Commit thy signature and step into a novel dimension."&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H779" s="0" t="inlineStr">
+      <c r="H779" t="inlineStr">
         <is>
           <t>ඞВ этот самый момент приходит неожиданный сюрприз: таинственная открытка темно-синего цвета, слова на которой мерцают загадочным полярным сиянием.
 &lt;color=#84adfe&gt; "Зачем терпеть оковы скуки? Поставь свою подпись и шагни в новое измерение".&lt;/color&gt;</t>
@@ -35767,7 +35767,7 @@
 In the instant your pen lifts, time freezes. The world in front of you shatters into luminescent fragments. Your perception warps, the world becomes a bizarre kaleidoscope.</t>
         </is>
       </c>
-      <c r="H780" s="0" t="inlineStr">
+      <c r="H780" t="inlineStr">
         <is>
           <t>ඞДвижимый ненасытным любопытством, вы ставите свою подпись на мистической открытке.
 В тот момент, когда вы поднимаете ручку, время замирает. Мир перед вами разлетается на светящиеся осколки. Ваше восприятие искажается, мир превращается в причудливый калейдоскоп.</t>
@@ -35816,7 +35816,7 @@
 It's as profound as the ocean deep, yet also as infinite as the cosmic void...</t>
         </is>
       </c>
-      <c r="H781" s="0" t="inlineStr">
+      <c r="H781" t="inlineStr">
         <is>
           <t>ඞВнезапно вы чувствуете, что погружаетесь, неудержимо падаете в бездну. 
 Она глубока, как океанская пучина, и в то же время бесконечна, как космическая пустота...</t>
@@ -35859,7 +35859,7 @@
           <t>When you regain your senses, you find yourself seated in an immaculate white space. The surroundings manifest as billowing walls cladded in white ophidian scales.</t>
         </is>
       </c>
-      <c r="H782" s="0" t="inlineStr">
+      <c r="H782" t="inlineStr">
         <is>
           <t>ඞКогда вы придете в себя, то обнаружите, что находитесь в безукоризненно белом помещении. Окружающее пространство проявляется в виде вздымающихся стен, покрытых белой змеиной чешуей.</t>
         </is>
@@ -35901,7 +35901,7 @@
           <t>Before you, a young girl in avant-garde raiment gazes down at you.</t>
         </is>
       </c>
-      <c r="H783" s="0" t="inlineStr">
+      <c r="H783" t="inlineStr">
         <is>
           <t>ඞПеред вами молодая девушка в авангардном наряде, которая смотрит на вас сверху вниз.</t>
         </is>
@@ -35943,7 +35943,7 @@
           <t>"Interesting. This vessel managed to traverse our dimension. But whether it's useful remains to be seen."</t>
         </is>
       </c>
-      <c r="H784" s="0" t="inlineStr">
+      <c r="H784" t="inlineStr">
         <is>
           <t>ඞ- Интересно. Этому кораблю удалось пересечь наше измерение. Но пригодится ли оно, еще предстоит выяснить.</t>
         </is>
@@ -35985,7 +35985,7 @@
           <t>You hear her speaking, but fail to comprehend the events unfolding. As you muster a response, an unnerving movement catches your eye. What appeared to be mere decorative ribbons on her attire slither independently. Only then do you realize they are serpents – massive white pythons coiling around her arms.</t>
         </is>
       </c>
-      <c r="H785" s="0" t="inlineStr">
+      <c r="H785" t="inlineStr">
         <is>
           <t>ඞВы слышите, как она говорит, но не в состоянии понять, что происходит. Пока вы подбираете слова для ответа, ваше внимание привлекает тревожное движение. То, что казалось простыми декоративными лентами на ее наряде, скользит само по себе. Только тогда вы понимаете, что это змеи – огромные белые питоны, обвивающиеся вокруг ее рук.</t>
         </is>
@@ -36027,7 +36027,7 @@
           <t>One of the serpents opens its vast maw, amassing a petrifying surge of black energy. The surrounding luminous motes are magnetically drawn towards this dark vortex, followed by a terrifying bolt of white lightning striking down from above. Darkness consumes your vision. A fierce wave of vertigo engulfs you...</t>
         </is>
       </c>
-      <c r="H786" s="0" t="inlineStr">
+      <c r="H786" t="inlineStr">
         <is>
           <t>ඞОдна из змей раскрывает свою огромную пасть, собирая ошеломляющий поток черной энергии. Окружающие ее светящиеся пылинки как магнитом притягиваются к этому темному вихрю, а затем сверху ударяет ужасающая вспышка белой молнии. Темнота поглощает ваше зрение. Вас захлестывает яростная волна головокружения...</t>
         </is>
@@ -36069,7 +36069,7 @@
           <t>When the dizziness finally subsides, an alien piece of information, with no regard for your innate resistance, insinuates itself into the very core of your cerebrum:</t>
         </is>
       </c>
-      <c r="H787" s="0" t="inlineStr">
+      <c r="H787" t="inlineStr">
         <is>
           <t>ඞКогда головокружение наконец проходит, чужеродная информация, не обращая внимания на ваше врожденное сопротивление, проникает в самую сердцевину вашего мозга:</t>
         </is>
@@ -36129,7 +36129,7 @@
 As a reincarnator, your mission is to investigate the park, uncover the causes of the catastrophe, and prevent further disaster before nightfall.&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H788" s="0" t="inlineStr">
+      <c r="H788" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;Основанный в июле 1955 года, парк Фар Хоуп всегда был главным местом развлечений горожан.
 Согласно имеющимся данным, на протяжении более чем полувека парк функционировал без каких-либо серьезных инцидентов.
@@ -36180,7 +36180,7 @@
 You find yourself standing at the entrance of an amusement park.</t>
         </is>
       </c>
-      <c r="H789" s="0" t="inlineStr">
+      <c r="H789" t="inlineStr">
         <is>
           <t>ඞПосле вынужденного принятия этой загадочной информации к вам возвращается зрение, а вместе с ним и давно отсутствовавшее ощущение земного притяжения.
 Вы обнаруживаете, что стоите у входа в парк развлечений.</t>
@@ -36229,7 +36229,7 @@
 Find key clues quickly to avoid environmental deterioration or exceeding mission time.</t>
         </is>
       </c>
-      <c r="H790" s="0" t="inlineStr">
+      <c r="H790" t="inlineStr">
         <is>
           <t>ඞВо время вашего расследования на большинство действий будут потрачены &lt;color=#FFD700&gt;очки действия&lt;/color&gt;, которые указывают на неумолимый бег времени.
 Быстро находите ключевые подсказки, чтобы избежать ухудшения состояния окружающей среды или превышения времени выполнения задания.</t>
@@ -36272,7 +36272,7 @@
           <t>Everything in front of you appears frozen. Then, with a familiar routine. the world shatters into luminescent fragments. They break down further into countless particles that start to whirl around you. With a surge of vertigo, yet another piece of familiar text worms its way into your cranium.</t>
         </is>
       </c>
-      <c r="H791" s="0" t="inlineStr">
+      <c r="H791" t="inlineStr">
         <is>
           <t>ඞВсе, что находится перед вами, кажется застывшим. Затем, по знакомой рутине. мир разлетается на светящиеся осколки. Они распадаются на бесчисленные частицы, которые начинают кружиться вокруг вас. Вместе с приступом головокружения в ваш череп проникает еще один фрагмент знакомого текста.</t>
         </is>
@@ -36332,7 +36332,7 @@
 As a reincarnator, your mission is to investigate the park, uncover the causes of the catastrophe, and prevent further disaster before nightfall.&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H792" s="0" t="inlineStr">
+      <c r="H792" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;Основанный в июле 1955 года, парк Фар Хоуп всегда был главным местом развлечений горожан.
 Согласно имеющимся данным, на протяжении более чем полувека парк функционировал без каких-либо серьезных инцидентов.
@@ -36377,7 +36377,7 @@
           <t>As you regain your vision, there you stand once again before the entrance of this park.</t>
         </is>
       </c>
-      <c r="H793" s="0" t="inlineStr">
+      <c r="H793" t="inlineStr">
         <is>
           <t>ඞКогда к вам возвращается зрение, вы снова стоите перед входом в этот парк.</t>
         </is>
@@ -36419,7 +36419,7 @@
           <t>In the rule module, &lt;color=#FFD700&gt;a character can repeatedly enter the module&lt;/color&gt; until they achieve one of the "Perfect Endings". Certain clues from previous entries will be &lt;color=#FFD700&gt;"inherited"&lt;/color&gt;, affecting the course of certain events.</t>
         </is>
       </c>
-      <c r="H794" s="0" t="inlineStr">
+      <c r="H794" t="inlineStr">
         <is>
           <t>ඞВ модуле правил &lt;color=#FFD700&gt; персонаж может многократно входить в модуль&lt;/color&gt;, пока не достигнет одной из "идеальных концовок". Некоторые подсказки из предыдущих записей будут &lt;color=#FFD700&gt;"унаследованы"&lt;/color&gt; и повлияют на ход определенных событий.</t>
         </is>
@@ -36461,7 +36461,7 @@
           <t>Mansion</t>
         </is>
       </c>
-      <c r="H795" s="0" t="inlineStr">
+      <c r="H795" t="inlineStr">
         <is>
           <t>ඞОсобняк</t>
         </is>
@@ -36515,7 +36515,7 @@
 And, according to how this kind of building is usually laid out, the owner's &lt;color=#FFD700&gt;bedroom&lt;/color&gt; should be on the third floor.</t>
         </is>
       </c>
-      <c r="H796" s="0" t="inlineStr">
+      <c r="H796" t="inlineStr">
         <is>
           <t>ඞВы стоите в вестибюле на втором этаже, осматривая окрестности. Слева от вас открытая дверь, ведущая в комнату с несколькими книжными полками. Похоже, это может быть кабинет владельца &lt;color=#FFD700&gt;&lt;/color&gt;.
 Взглянув вверх с лестничной площадки, вы увидите &lt;color=#FFD700&gt;коридор&lt;/color&gt; на втором этаже с окнами, из которых открывается вид на улицу.
@@ -36577,7 +36577,7 @@
 In the corridor, a &lt;color=#DC143C&gt;portrait&lt;/color&gt; oozes vivid red liquid.</t>
         </is>
       </c>
-      <c r="H797" s="0" t="inlineStr">
+      <c r="H797" t="inlineStr">
         <is>
           <t>ඞОсобняк окутан красным туманом, и стало намного холоднее, что-то вроде &lt;color=#DC143C&gt; жутковато&lt;/color&gt;.
 Вы перепробовали все двери в доме, но ни одна из них не открывается.
@@ -36628,7 +36628,7 @@
 On the desk, you discover a "letter".</t>
         </is>
       </c>
-      <c r="H798" s="0" t="inlineStr">
+      <c r="H798" t="inlineStr">
         <is>
           <t>ඞПол в кабинете завален предметами, похожими на пыточные, плюс повсюду брызги крови. На стенах следы огнестрельного оружия.
 На письменном столе вы обнаруживаете "письмо".</t>
@@ -36671,7 +36671,7 @@
           <t>Letter</t>
         </is>
       </c>
-      <c r="H799" s="0" t="inlineStr">
+      <c r="H799" t="inlineStr">
         <is>
           <t>ඞПисьмо</t>
         </is>
@@ -36719,7 +36719,7 @@
 First of all, I'd like to express my gratitude to you. Since you joined the park, your talent and skills have brought us countless wonderful memories. Thanks to your hard work, the park has also received numerous positive feedback and praises.</t>
         </is>
       </c>
-      <c r="H800" s="0" t="inlineStr">
+      <c r="H800" t="inlineStr">
         <is>
           <t>ඞдорогой алекс,
 Прежде всего, я хотел бы выразить вам свою благодарность. С тех пор как вы присоединились к работе в парке, ваш талант и мастерство подарили нам множество прекрасных воспоминаний. Благодаря вашему упорному труду парк также получил множество положительных отзывов и похвал.</t>
@@ -36762,7 +36762,7 @@
           <t>Regarding the treasure hunt event you proposed, I've consulted with the vendors, and they assure me that all the props will be completed and installed before the celebration. I have emphasized that safety is the top priority, especially for the Great Sword in the square. Please do not forget to double confirm whether the statue in Fun House has the right-sized hole in its chest for the Great Sword.</t>
         </is>
       </c>
-      <c r="H801" s="0" t="inlineStr">
+      <c r="H801" t="inlineStr">
         <is>
           <t>ඞЧто касается мероприятия по поиску сокровищ, которое вы предложили, я проконсультировался с продавцами, и они заверили меня, что весь реквизит будет готов и установлен до начала празднования. Я подчеркнул, что безопасность является главным приоритетом, особенно для Большого меча на площади. Пожалуйста, не забудьте еще раз подтвердить, есть ли в груди статуи в "Доме веселья" отверстие подходящего размера для Большого меча.</t>
         </is>
@@ -36810,7 +36810,7 @@
 We can discuss more details later. I'm pretty sure this event will attract more visitors.</t>
         </is>
       </c>
-      <c r="H802" s="0" t="inlineStr">
+      <c r="H802" t="inlineStr">
         <is>
           <t>ඞКроме того, вы можете попросить рабочих соорудить над статуей в кафетерии небольшой навес, чтобы дождь не влиял на электрические цепи.
 Более подробную информацию мы обсудим позже. Я уверен, что это мероприятие привлечет больше посетителей.</t>
@@ -36868,7 +36868,7 @@
 Rosalind</t>
         </is>
       </c>
-      <c r="H803" s="0" t="inlineStr">
+      <c r="H803" t="inlineStr">
         <is>
           <t>ඞНаконец, я хочу сообщить вам о важном решении. Все эти годы я всегда доверял вашим способностям, поэтому решил передать управление парком вам. Я надеюсь, что вы и дальше будете радовать всех своим энтузиазмом.
 Если у вас возникнут какие-либо вопросы или вам потребуется дальнейшее обсуждение, пожалуйста, не стесняйтесь обращаться ко мне.
@@ -36913,7 +36913,7 @@
           <t>Check Study</t>
         </is>
       </c>
-      <c r="H804" s="0" t="inlineStr">
+      <c r="H804" t="inlineStr">
         <is>
           <t>ඞПроверьте учебу</t>
         </is>
@@ -36961,7 +36961,7 @@
 Through the window on the other side, you see a breathtaking view of a beautiful lake outside the manor. The lake glints, sparkling with glimmers of light. As you gaze at it for a while, dizziness overwhelms you, and you instinctively grab onto the wall to steady yourself.</t>
         </is>
       </c>
-      <c r="H805" s="0" t="inlineStr">
+      <c r="H805" t="inlineStr">
         <is>
           <t>ඞВы выходите в коридор и замечаете портрет, висящий на одной стороне стены.
 Через окно с другой стороны открывается захватывающий вид на красивое озеро за пределами поместья. Озеро сверкает, переливаясь отблесками света. Когда вы некоторое время смотрите на это, вас охватывает головокружение, и вы инстинктивно хватаетесь за стену, чтобы не упасть.</t>
@@ -37004,7 +37004,7 @@
           <t>Check Corridor</t>
         </is>
       </c>
-      <c r="H806" s="0" t="inlineStr">
+      <c r="H806" t="inlineStr">
         <is>
           <t>ඞПроверьте коридор</t>
         </is>
@@ -37058,7 +37058,7 @@
 Clearly, the body has been carefully arranged. She looks serene. And there are traces of oil paint on the bed.</t>
         </is>
       </c>
-      <c r="H807" s="0" t="inlineStr">
+      <c r="H807" t="inlineStr">
         <is>
           <t>ඞВы открываете дверь спальни и обнаруживаете "труп", лежащий на кровати. Быстрый осмотр показывает, что она убита выстрелом в грудь.
 На пальце у нее кольцо &lt;color=#DC143C&gt;, но драгоценный камень на нем разбит.
@@ -37102,7 +37102,7 @@
           <t>Check Bedroom</t>
         </is>
       </c>
-      <c r="H808" s="0" t="inlineStr">
+      <c r="H808" t="inlineStr">
         <is>
           <t>ඞПроверьте спальню</t>
         </is>
@@ -37144,7 +37144,7 @@
           <t>You notice that the lady in the portrait bears a striking resemblance to Gioia. Just as you're about to ask Gioia about it, you realize she has mysteriously disappeared.</t>
         </is>
       </c>
-      <c r="H809" s="0" t="inlineStr">
+      <c r="H809" t="inlineStr">
         <is>
           <t>ඞВы замечаете, что дама на портрете поразительно похожа на Джойю. Как раз в тот момент, когда вы собираетесь спросить Джойю об этом, вы понимаете, что она таинственным образом исчезла.</t>
         </is>
@@ -37198,7 +37198,7 @@
 As the light from outside the window refracts onto the portrait, however, the once serene image begins to ripple, and the soft smiling face begins to distort.</t>
         </is>
       </c>
-      <c r="H810" s="0" t="inlineStr">
+      <c r="H810" t="inlineStr">
         <is>
           <t>ඞНа портрете изображена прекрасная дама с небольшой надписью в правом нижнем углу, которая гласит: "Моей дорогой Розе".
 Она необыкновенно красива, она сидит с элегантными и грациозными манерами, на ее губах играет нежная улыбка.
@@ -37242,7 +37242,7 @@
           <t>Just as you're about to take a closer look at the portrait, a chilling, rensentful voice whispers in your ear.</t>
         </is>
       </c>
-      <c r="H811" s="0" t="inlineStr">
+      <c r="H811" t="inlineStr">
         <is>
           <t>ඞКак только вы собираетесь рассмотреть портрет поближе, леденящий душу, пронзительный голос шепчет вам на ухо.</t>
         </is>
@@ -37284,7 +37284,7 @@
           <t>Weird Portrait</t>
         </is>
       </c>
-      <c r="H812" s="0" t="inlineStr">
+      <c r="H812" t="inlineStr">
         <is>
           <t>ඞСтранный портрет</t>
         </is>
@@ -37326,7 +37326,7 @@
           <t>You see a withered, bony hand emerging from the portrait, her nails tightly gripping the frame. Then, half of a contorted face appears, with dark, hollow eye filled with resentment and anguish. It's Rosa! She stares at you with intense hatred and bitterness, her semi-transparent figure eerily crawling out of the portrait.</t>
         </is>
       </c>
-      <c r="H813" s="0" t="inlineStr">
+      <c r="H813" t="inlineStr">
         <is>
           <t>ඞВы видите, как из-под портрета появляется иссохшая, костлявая рука, ее ногти крепко вцепились в раму. Затем появляется половина искаженного лица с темными, ввалившимися глазами, полными обиды и страдания. Это Роза! Она смотрит на вас с лютой ненавистью и горечью, ее полупрозрачная фигура устрашающе выползает из портрета.</t>
         </is>
@@ -37368,7 +37368,7 @@
           <t>Check Portrait</t>
         </is>
       </c>
-      <c r="H814" s="0" t="inlineStr">
+      <c r="H814" t="inlineStr">
         <is>
           <t>ඞПроверьте портрет</t>
         </is>
@@ -37410,7 +37410,7 @@
           <t>You're about to make major discoveries</t>
         </is>
       </c>
-      <c r="H815" s="0" t="inlineStr">
+      <c r="H815" t="inlineStr">
         <is>
           <t>ඞВы на пороге важных открытий</t>
         </is>
@@ -37452,7 +37452,7 @@
           <t>Streams of sanguineous vapor bleed from every nook and cranny of the room, encircling you inside their cage.</t>
         </is>
       </c>
-      <c r="H816" s="0" t="inlineStr">
+      <c r="H816" t="inlineStr">
         <is>
           <t>ඞПотоки кровавого пара вырываются из каждого уголка комнаты, окружая вас внутри своей клетки.</t>
         </is>
@@ -37500,7 +37500,7 @@
 You desperately drag yourself to the doorway, but something holds fast to your ankle as you lose your balance. Spectral limbs formed by the mist lock you down, screaming their venomous malice and agony. You fight helplessly as the abominations pull you toward the bottomless hell.</t>
         </is>
       </c>
-      <c r="H817" s="0" t="inlineStr">
+      <c r="H817" t="inlineStr">
         <is>
           <t>ඞТрещины поднимаются по потолку, когда их рассеченные внутренности разрывают стены. Затем раздается оглушительный грохот, за которым следует проваливающийся пол, который затягивает вас под себя.
 Вы отчаянно тащитесь к дверному проему, но что-то крепко держит вас за лодыжку, и вы теряете равновесие. Призрачные конечности, сформированные туманом, сковывают вас, издавая вопли своей ядовитой злобы и агонии. Вы беспомощно сражаетесь, пока мерзости тянут вас в бездонный ад.</t>
@@ -37543,7 +37543,7 @@
           <t>Despair engulfs you as you descend into the depths of unknown terror. The fingers that are scorching your skin, the grasp that is dragging you by your hair... Your cries are left unheard as madness brands your soul.</t>
         </is>
       </c>
-      <c r="H818" s="0" t="inlineStr">
+      <c r="H818" t="inlineStr">
         <is>
           <t>ඞОтчаяние охватывает тебя, когда ты погружаешься в глубины неизведанного ужаса. Пальцы, обжигающие твою кожу, хватка, которая тянет тебя за волосы... Твои крики остаются неуслышанными, когда безумие овладевает твоей душой.</t>
         </is>
@@ -37588,7 +37588,7 @@
 Everything fades out in the next second.</t>
         </is>
       </c>
-      <c r="H819" s="0" t="inlineStr">
+      <c r="H819" t="inlineStr">
         <is>
           <t>ඞКрасный свет наполняет ваше зрение своим жутким цветом на дне бездны. Огромная кровавая луна.
 В следующую секунду все исчезает.</t>
@@ -37631,7 +37631,7 @@
           <t>Gioia also sees the body in the bedroom. She lets out a shocked cry, taking a few steps back and hiding behind you.</t>
         </is>
       </c>
-      <c r="H820" s="0" t="inlineStr">
+      <c r="H820" t="inlineStr">
         <is>
           <t>ඞДжойя тоже видит тело в спальне. Она потрясенно вскрикивает, отступает на несколько шагов и прячется за твоей спиной.</t>
         </is>
@@ -37673,7 +37673,7 @@
           <t>What...?! A dead body! Who's this?!</t>
         </is>
       </c>
-      <c r="H821" s="0" t="inlineStr">
+      <c r="H821" t="inlineStr">
         <is>
           <t>ඞЧто?! Мертвое тело! Кто это?!</t>
         </is>
@@ -37715,7 +37715,7 @@
           <t>Shortly after, Gioia knits her brows in a baffled frown, as if she's looking at something inexplicable.</t>
         </is>
       </c>
-      <c r="H822" s="0" t="inlineStr">
+      <c r="H822" t="inlineStr">
         <is>
           <t>ඞВскоре после этого Джойя озадаченно хмурит брови, как будто смотрит на что-то необъяснимое.</t>
         </is>
@@ -37757,7 +37757,7 @@
           <t>This is... mother's... clothes... And it's mother's ring...</t>
         </is>
       </c>
-      <c r="H823" s="0" t="inlineStr">
+      <c r="H823" t="inlineStr">
         <is>
           <t>ඞЭто... мамино... одежда... И это мамино кольцо...</t>
         </is>
@@ -37799,7 +37799,7 @@
           <t>A possibility suddenly pops into Gioia's head. She stares at the bed, muttering to herself in a daze.</t>
         </is>
       </c>
-      <c r="H824" s="0" t="inlineStr">
+      <c r="H824" t="inlineStr">
         <is>
           <t>ඞВнезапно Джойе в голову приходит одна мысль. Она ошеломленно смотрит на кровать, бормоча что-то себе под нос.</t>
         </is>
@@ -37847,7 +37847,7 @@
 No, it can't be! How could my mother have aged so much all of sudden!</t>
         </is>
       </c>
-      <c r="H825" s="0" t="inlineStr">
+      <c r="H825" t="inlineStr">
         <is>
           <t>ඞЭто мама?..
 Нет, этого не может быть! Как могла моя мама так внезапно постареть!</t>
@@ -37890,7 +37890,7 @@
           <t>Her face blanches. You hear that strange, faint cracking sound again.</t>
         </is>
       </c>
-      <c r="H826" s="0" t="inlineStr">
+      <c r="H826" t="inlineStr">
         <is>
           <t>ඞЕе лицо бледнеет. Вы снова слышите этот странный, слабый треск.</t>
         </is>
@@ -37932,7 +37932,7 @@
           <t>The entire house begins to shake violently, as if it might collapse at any moment.</t>
         </is>
       </c>
-      <c r="H827" s="0" t="inlineStr">
+      <c r="H827" t="inlineStr">
         <is>
           <t>ඞВесь дом начинает сильно трястись, как будто он может рухнуть в любой момент.</t>
         </is>
@@ -37980,7 +37980,7 @@
 Where she stood is now all but empty, with only a blood-red pendant left on the floor.</t>
         </is>
       </c>
-      <c r="H828" s="0" t="inlineStr">
+      <c r="H828" t="inlineStr">
         <is>
           <t>ඞКак только вы собираетесь что-то предпринять, Джойя исчезает. Дом перестает трястись и возвращается к прежней тишине.
 Там, где она стояла, теперь почти пусто, и только кроваво-красный кулон валяется на полу.</t>
@@ -38023,7 +38023,7 @@
           <t>Examine the body</t>
         </is>
       </c>
-      <c r="H829" s="0" t="inlineStr">
+      <c r="H829" t="inlineStr">
         <is>
           <t>ඞОсмотрите тело</t>
         </is>
@@ -38065,7 +38065,7 @@
           <t>While you're exploring the mansion, the door behind you mysteriously shuts at some time. The view outside becomes strange and surreal. You see drips of water winding upward on the window pane, as if the house and you are sinking into the lake.</t>
         </is>
       </c>
-      <c r="H830" s="0" t="inlineStr">
+      <c r="H830" t="inlineStr">
         <is>
           <t>ඞПока вы осматриваете особняк, дверь за вашей спиной таинственным образом закрывается. Вид за окном становится странным и сюрреалистичным. Вы видите, как капли воды стекают по оконному стеклу, как будто дом и вы погружаетесь в озеро.</t>
         </is>
@@ -38107,7 +38107,7 @@
           <t>The red mist flickers for a moment, then like a movie playing on a screen, it conjures up scenes from the past. The perspective is from inside the mansion's study, giving you a glimpse of what truly happened here.</t>
         </is>
       </c>
-      <c r="H831" s="0" t="inlineStr">
+      <c r="H831" t="inlineStr">
         <is>
           <t>ඞКрасный туман мерцает на мгновение, а затем, словно в кино, воспроизводимом на экране, возникают сцены из прошлого. Снимок сделан из кабинета особняка, что дает вам представление о том, что на самом деле здесь происходило.</t>
         </is>
@@ -38149,7 +38149,7 @@
           <t>You see Rosa at her desk, scanning through some documents. She mutters to herself with an indignant expression:</t>
         </is>
       </c>
-      <c r="H832" s="0" t="inlineStr">
+      <c r="H832" t="inlineStr">
         <is>
           <t>ඞВы видите Розу за ее столом, просматривающую какие-то документы. Она что-то бормочет себе под нос с возмущенным выражением лица:</t>
         </is>
@@ -38191,7 +38191,7 @@
           <t>Giving up like this doesn't look like the &lt;i&gt;Vesconte&lt;/i&gt; way...</t>
         </is>
       </c>
-      <c r="H833" s="0" t="inlineStr">
+      <c r="H833" t="inlineStr">
         <is>
           <t>ඞСдаваться подобным образом не похоже на путь Весконте...</t>
         </is>
@@ -38239,7 +38239,7 @@
 With a stiff, grim face, Rosa watches as they slap a park transfer agreement onto the table. They smirk mockingly:</t>
         </is>
       </c>
-      <c r="H834" s="0" t="inlineStr">
+      <c r="H834" t="inlineStr">
         <is>
           <t>ඞВнезапно дверь распахивается, и входят три фигуры в черном, волоча за собой Паскуалино.
 Роза с застывшим, мрачным выражением лица наблюдает, как они кладут на стол соглашение о передаче парка. Они насмешливо ухмыляются:</t>
@@ -38282,7 +38282,7 @@
           <t>What matters more, ma'am? Family or property? You better think hard about it.</t>
         </is>
       </c>
-      <c r="H835" s="0" t="inlineStr">
+      <c r="H835" t="inlineStr">
         <is>
           <t>ඞЧто важнее, мэм? Семья или собственность? Вам лучше хорошенько подумать об этом.</t>
         </is>
@@ -38324,7 +38324,7 @@
           <t>You witness as Rosa's forced to sign the park over, their threat against Pasqualino's life leaving her no choice.</t>
         </is>
       </c>
-      <c r="H836" s="0" t="inlineStr">
+      <c r="H836" t="inlineStr">
         <is>
           <t>ඞВы становитесь свидетелем того, как Розу вынуждают передать парк в аренду, а их угроза жизни Паскуалино не оставляет ей выбора.</t>
         </is>
@@ -38366,7 +38366,7 @@
           <t>The Vesconte men gaze contentedly at the agreement, while one of them pulls out a gun and fires at Rosa. She stumbles, then crash-lands heavily on the floor.</t>
         </is>
       </c>
-      <c r="H837" s="0" t="inlineStr">
+      <c r="H837" t="inlineStr">
         <is>
           <t>ඞМужчины Весконте удовлетворенно смотрят на соглашение, в то время как один из них достает пистолет и стреляет в Розу. Она спотыкается и тяжело приземляется на пол.</t>
         </is>
@@ -38408,7 +38408,7 @@
           <t>Pasqualino bellows in agonizing despair. In all the chaos, nobody notices the wisp of red mist drifting from Rosa's blood-streaked ring, finding its way inside him. To everyone's astonishment, Pasqualino struggles to his feet.</t>
         </is>
       </c>
-      <c r="H838" s="0" t="inlineStr">
+      <c r="H838" t="inlineStr">
         <is>
           <t>ඞПаскуалино ревет в агонии и отчаянии. Во всем этом хаосе никто не замечает, как струйка красного тумана, поднимающаяся с окровавленного кольца Розы, попадает внутрь него. Ко всеобщему изумлению, Паскуалино с трудом поднимается на ноги.</t>
         </is>
@@ -38450,7 +38450,7 @@
           <t>Their honed sense of danger kicks in, prompting the three to bolt. You watch as Pasqualino roars and howls and chases after them. Shortly after, the outside echoes with their terrified screams, followed by the sounds of bodies being dragged...</t>
         </is>
       </c>
-      <c r="H839" s="0" t="inlineStr">
+      <c r="H839" t="inlineStr">
         <is>
           <t>ඞИх обостренное чувство опасности заставляет всех троих спасаться бегством. Вы наблюдаете, как Паскуалино с ревом бросается в погоню за ними. Вскоре после этого снаружи раздаются их испуганные крики, а затем звуки тащимых тел...</t>
         </is>
@@ -38492,7 +38492,7 @@
           <t>Approach Red Mist</t>
         </is>
       </c>
-      <c r="H840" s="0" t="inlineStr">
+      <c r="H840" t="inlineStr">
         <is>
           <t>ඞПриближающийся Красный туман</t>
         </is>
@@ -38534,7 +38534,7 @@
           <t>The Wraith</t>
         </is>
       </c>
-      <c r="H841" s="0" t="inlineStr">
+      <c r="H841" t="inlineStr">
         <is>
           <t>ඞПризрак</t>
         </is>
@@ -38576,7 +38576,7 @@
           <t>The wraith writhes on the floor, letting out agonizing wails. Streams of sanguineous vapor bleed from every nook and cranny of the room, encircling you inside their cage.</t>
         </is>
       </c>
-      <c r="H842" s="0" t="inlineStr">
+      <c r="H842" t="inlineStr">
         <is>
           <t>ඞПризрак корчится на полу, издавая мучительные вопли. Потоки кровавого пара вырываются из каждого уголка комнаты, окружая вас внутри своей клетки.</t>
         </is>
@@ -38618,7 +38618,7 @@
           <t>The walls creak open with a resounding crack. Cracks climb onto the ceiling as their fissured craws tear apart the walls. The floor violently trembles and then comes a deafening rumble, followed by the sinking floor that's trying to pull you under.</t>
         </is>
       </c>
-      <c r="H843" s="0" t="inlineStr">
+      <c r="H843" t="inlineStr">
         <is>
           <t>ඞСтены с оглушительным треском расходятся. Трещины поднимаются по потолку, разрывая стены. Пол сильно дрожит, а затем раздается оглушительный грохот, за которым следует проваливающийся пол, который пытается утянуть вас под себя.</t>
         </is>
@@ -38660,7 +38660,7 @@
           <t>You desperately drag yourself to the doorway, but something locks you down fast. Rosa's tormented wraith reforms from the collapsed floor. Her withered hand clutches your ankle tightly, her hollow eyes brimming with malevolence. She's like an obsessive force from the depths of hell, screaming her venomous malice and agony, determined to pull you toward the endless abyss.</t>
         </is>
       </c>
-      <c r="H844" s="0" t="inlineStr">
+      <c r="H844" t="inlineStr">
         <is>
           <t>ඞТы отчаянно тащишься к дверному проему, но что-то быстро удерживает тебя на месте. Измученный призрак Розы поднимается с обвалившегося пола. Ее иссохшая рука крепко сжимает твою лодыжку, а ввалившиеся глаза полны злобы. Она подобна одержимой силе из глубин ада, кричащей о своей ядовитой злобе и агонии, полной решимости утянуть вас в бесконечную бездну.</t>
         </is>
@@ -38702,7 +38702,7 @@
           <t>Just as you're about to be pulled into darkness, a streak of light shoots out from the ring.</t>
         </is>
       </c>
-      <c r="H845" s="0" t="inlineStr">
+      <c r="H845" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вас вот-вот утянет в темноту, из кольца вырывается полоса света.</t>
         </is>
@@ -38756,7 +38756,7 @@
 Rosa shudders at that familiar touch and lifts her gaze to meet his.</t>
         </is>
       </c>
-      <c r="H846" s="0" t="inlineStr">
+      <c r="H846" t="inlineStr">
         <is>
           <t>ඞВ луче света появляется силуэт человека. Постепенно он превращается в полупрозрачного духа.
 Он подходит к Розе, которая все еще корчится в агонии. Нежно берет ее за руку.
@@ -38800,7 +38800,7 @@
           <t>As she does, swirls of red mist seep out from her form. It's like watching the magic of time unfurling backwards. Her wrinkles smooth out. Her dull white hair regains its lustrous sheen. She blossoms back to the serene beauty from the portrait - the woman Alessio had loved so deeply.</t>
         </is>
       </c>
-      <c r="H847" s="0" t="inlineStr">
+      <c r="H847" t="inlineStr">
         <is>
           <t>ඞКогда она это делает, от ее фигуры исходят завитки красного тумана. Это похоже на то, как будто волшебство времени разворачивается вспять. Ее морщины разглаживаются. Ее тусклые белые волосы вновь обретают свой блеск. Она расцветает, возвращаясь к безмятежной красоте с портрета, - женщина, которую Алессио так сильно любил.</t>
         </is>
@@ -38842,7 +38842,7 @@
           <t>Their loving gazes meet, years of longing and unspoken words melting away in that one look. Alessio pulls Rosalind into an intimate embrace, their spirits intertwining in an ethereal dance. This pair of lovers, separated by death and decades, are finally reunited in this moment.</t>
         </is>
       </c>
-      <c r="H848" s="0" t="inlineStr">
+      <c r="H848" t="inlineStr">
         <is>
           <t>ඞИх влюбленные взгляды встречаются, и годы тоски и невысказанных слов тают в одном этом взгляде. Алессио заключает Розалинду в интимные объятия, их души сплетаются в неземном танце. Эта пара влюбленных, разделенных смертью и десятилетиями, наконец-то воссоединилась в этот момент.</t>
         </is>
@@ -38884,7 +38884,7 @@
           <t>Countless specks of radiant light take flight from their translucent forms, twinkling softly like fireflies, yet also like stars scattered across the cosmos, shimmering with warm soothing glow. Their bodies grow more transparent with every departing shimmer until, eventually, they fade away into the ether.</t>
         </is>
       </c>
-      <c r="H849" s="0" t="inlineStr">
+      <c r="H849" t="inlineStr">
         <is>
           <t>ඞБесчисленные искорки сияющего света разлетаются от их полупрозрачных форм, мягко мерцая, как светлячки, и в то же время как звезды, рассеянные по космосу, излучают теплое успокаивающее сияние. Их тела становятся все более прозрачными с каждым исчезающим мерцанием, пока, в конце концов, они не растворяются в эфире.</t>
         </is>
@@ -38926,7 +38926,7 @@
           <t>The lingering red mist, now devoid of a host, begins to disperse. Serenity is restored. An antique ring falls from the air, clattering down next to your feet.</t>
         </is>
       </c>
-      <c r="H850" s="0" t="inlineStr">
+      <c r="H850" t="inlineStr">
         <is>
           <t>ඞЗатянувшийся красный туман, теперь лишенный хозяина, начинает рассеиваться. Спокойствие восстанавливается. Из воздуха падает старинное кольцо и с грохотом падает к вашим ногам.</t>
         </is>
@@ -38968,7 +38968,7 @@
           <t>As the red mist clears, you see a path leading to the lake behind the mansion.</t>
         </is>
       </c>
-      <c r="H851" s="0" t="inlineStr">
+      <c r="H851" t="inlineStr">
         <is>
           <t>ඞКогда красный туман рассеивается, вы видите тропинку, ведущую к озеру за особняком.</t>
         </is>
@@ -39022,7 +39022,7 @@
 Driven by insatiable curiosity, you commit your signature on the mystical card.</t>
         </is>
       </c>
-      <c r="H852" s="0" t="inlineStr">
+      <c r="H852" t="inlineStr">
         <is>
           <t>ඞЗатем вас ждет неожиданный сюрприз: таинственная открытка темно-синего цвета, излучающая слабое потустороннее сияние.
 "Устали от обыденности? Хотите попробовать что-то необычное? Подпишите свое имя и проживите свою вторую жизнь".
@@ -39072,7 +39072,7 @@
 Your perception warps, the world becomes a bizarre kaleidoscope. Your consciousness feels like a dammed river, and suddenly, you’re plunging, falling uncontrollably into an abyss as profound as the ocean deep, yet also as infinite as the cosmic void...</t>
         </is>
       </c>
-      <c r="H853" s="0" t="inlineStr">
+      <c r="H853" t="inlineStr">
         <is>
           <t>ඞВ тот момент, когда вы поднимаете ручку, время замирает. Мир перед вами разлетается на светящиеся осколки. Они распадаются на бесчисленные частицы, которые начинают кружиться вокруг вас, прежде чем раствориться в бесконечной пустоте.
 Ваше восприятие искажается, мир превращается в причудливый калейдоскоп. Ваше сознание ощущается как запруженная река, и внезапно вы погружаетесь, неудержимо падаете в пропасть, глубокую, как океанские глубины, и в то же время бесконечную, как космическая пустота...</t>
@@ -39121,7 +39121,7 @@
 "Interesting. This vessel managed to traverse our dimension. But whether it's useful remains to be seen."</t>
         </is>
       </c>
-      <c r="H854" s="0" t="inlineStr">
+      <c r="H854" t="inlineStr">
         <is>
           <t>ඞПеред вами молодая девушка в авангардном наряде, которая смотрит на вас сверху вниз.
 "Интересно. Этому кораблю удалось пересечь наше измерение. Но пригодится ли оно, еще предстоит выяснить".</t>
@@ -39164,7 +39164,7 @@
           <t>Your obstructed awareness seems to start flowing again. You hear her speaking but fail to comprehend the events unfolding. As you muster a response, an unnerving movement catches your eye. What appeared to be mere decorative ribbons on her attire slither independently. Only then do you realize they are serpents – massive white pythons coiling around her arms.</t>
         </is>
       </c>
-      <c r="H855" s="0" t="inlineStr">
+      <c r="H855" t="inlineStr">
         <is>
           <t>ඞВаше заторможенное сознание, кажется, снова начинает проясняться. Вы слышите, как она говорит, но не в состоянии осмыслить происходящие события. Пока вы подбираете слова для ответа, ваше внимание привлекает нервирующее движение. То, что казалось простыми декоративными лентами на ее наряде, скользит само по себе. Только тогда вы понимаете, что это змеи – огромные белые питоны, обвивающиеся вокруг ее рук.</t>
         </is>
@@ -39206,7 +39206,7 @@
           <t>One of the serpents opens its vast maw, amassing a petrifying surge of black energy. The surrounding luminous motes are magnetically drawn towards this dark vortex. You feel the mystical lights twining around you, followed by a terrifying bolt of white lightning striking down from above. Darkness consumes your vision, and once again, you find yourself suspended between the abyssal deep or the cosmic void, a fierce wave of vertigo engulfing you...</t>
         </is>
       </c>
-      <c r="H856" s="0" t="inlineStr">
+      <c r="H856" t="inlineStr">
         <is>
           <t>ඞОдна из змей раскрывает свою огромную пасть, накапливая ошеломляющий поток черной энергии. Окружающие ее светящиеся пылинки как магнитом притягиваются к этому темному вихрю. Вы чувствуете, как вокруг вас кружатся мистические огни, а затем сверху ударяет ужасающая вспышка белой молнии. Темнота поглощает ваше зрение, и вы снова оказываетесь подвешенным между бездонной пропастью и космической пустотой, и вас захлестывает яростная волна головокружения...</t>
         </is>
@@ -39266,7 +39266,7 @@
 As a reincarnator, your mission is to investigate the park, uncover the causes of the catastrophe, and prevent further disaster before nightfall.</t>
         </is>
       </c>
-      <c r="H857" s="0" t="inlineStr">
+      <c r="H857" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;Основанный в июле 1955 года, парк Фар Хоуп всегда был главным местом развлечений горожан.
 Согласно имеющимся данным, на протяжении более чем полувека парк функционировал без каких-либо серьезных инцидентов.
@@ -39317,7 +39317,7 @@
 Find key clues quickly to advance the investigation and avoid environmental deterioration or exceeding mission time.</t>
         </is>
       </c>
-      <c r="H858" s="0" t="inlineStr">
+      <c r="H858" t="inlineStr">
         <is>
           <t>ඞВо время расследования на выполнение большинства действий будут потрачены очки, которые указывают на неумолимый ход времени. Их можно проверить в разделе "Подробности о действиях".
 Быстро находите ключевые подсказки, чтобы продвигать расследование и избежать ухудшения состояния окружающей среды или превышения времени выполнения задания.</t>
@@ -39366,7 +39366,7 @@
 Try different actions across multiple entries until you ultimately reach a "Perfect Ending."</t>
         </is>
       </c>
-      <c r="H859" s="0" t="inlineStr">
+      <c r="H859" t="inlineStr">
         <is>
           <t>ඞВ модуле "Правила" персонаж может повторно входить в модуль, пока не достигнет одной из "идеальных концовок". Некоторые подсказки из предыдущих записей будут "унаследованы", что повлияет на ход определенных событий.
 Попробуйте разные действия в нескольких записях, пока в конечном итоге не достигнете "Идеальной концовки".</t>
@@ -39409,7 +39409,7 @@
           <t>Aforgomon</t>
         </is>
       </c>
-      <c r="H860" s="0" t="inlineStr">
+      <c r="H860" t="inlineStr">
         <is>
           <t>Афоргомон</t>
         </is>
@@ -39457,7 +39457,7 @@
 He likes the life he's having now.</t>
         </is>
       </c>
-      <c r="H861" s="0" t="inlineStr">
+      <c r="H861" t="inlineStr">
         <is>
           <t>ඞПозже он приютил бездомного кота и в свободное время просматривает новую мангу в местном книжном магазине.
 Ему нравится та жизнь, которую он ведет сейчас.</t>
@@ -39536,7 +39536,7 @@
 ＼二つ</t>
         </is>
       </c>
-      <c r="H862" s="0" t="inlineStr">
+      <c r="H862" t="inlineStr">
         <is>
           <t>ඞ／＞---- フ
 / ⊙ ⊙ л
@@ -39584,7 +39584,7 @@
           <t>As if having received the command, the serpent entangling her other arm erects from its prone position. The red crystal soon finds its new home inside the serpent's maw.</t>
         </is>
       </c>
-      <c r="H863" s="0" t="inlineStr">
+      <c r="H863" t="inlineStr">
         <is>
           <t>ඞСловно получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа. Красный кристалл вскоре находит свое новое пристанище в пасти змеи.</t>
         </is>

--- a/GameModules/BIWANGYOULEYUAN/Localization_BIWANGYOULEYUAN.xlsx
+++ b/GameModules/BIWANGYOULEYUAN/Localization_BIWANGYOULEYUAN.xlsx
@@ -1280,7 +1280,7 @@
           <t>Português-Chirriro</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>Русский</t>
         </is>
@@ -1322,7 +1322,7 @@
           <t>Far Hope Park</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>ඞПарк Далекой Надежды</t>
         </is>
@@ -1371,7 +1371,7 @@
 That was until a crimson light emits from the amusement park on a dead July night.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>ඞОснованный в июле 1955 года, парк "Фар Хоуп" на протяжении более чем полувека был первым местом, где горожане могли весело провести выходные со своими семьями и соседями, а также где они хранили самые дорогие моменты и воспоминания о своем детстве.
 Так было до тех пор, пока глухой июльской ночью из парка развлечений не полился багровый свет.</t>
@@ -1414,7 +1414,7 @@
           <t>Dusk</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>ඞСумерки</t>
         </is>
@@ -1456,7 +1456,7 @@
           <t>Night</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>ඞНочь</t>
         </is>
@@ -1498,7 +1498,7 @@
           <t>Day</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>ඞДень</t>
         </is>
@@ -1540,7 +1540,7 @@
           <t>Info</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>ඞИнфо</t>
         </is>
@@ -1582,7 +1582,7 @@
           <t>Events</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>ඞСобытия</t>
         </is>
@@ -1624,7 +1624,7 @@
           <t>Brochure</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>ඞБрошюра</t>
         </is>
@@ -1666,7 +1666,7 @@
           <t>The tourist brochure in the ticket booth clearly marks the routes to various attractions in the park.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>ඞВ туристической брошюре в билетной кассе четко указаны маршруты к различным достопримечательностям парка.</t>
         </is>
@@ -1708,7 +1708,7 @@
           <t>Treasure Hunt</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>ඞОхота за сокровищами</t>
         </is>
@@ -1750,7 +1750,7 @@
           <t>The announcement attached outside the gate of the park, which writes "Extract the sword from the stone, and become the real hero of our park!"</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>ඞОбъявление, прикрепленное у ворот парка, гласит: "Извлеки меч из камня и стань настоящим героем нашего парка!"</t>
         </is>
@@ -1792,7 +1792,7 @@
           <t>Lonely Clown</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>ඞОдинокий клоун</t>
         </is>
@@ -1834,7 +1834,7 @@
           <t>After learning the truth about Lady Stoneheart's death, Alex falls into madness, unable to accept reality. He frantically runs towards the square.</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="0" t="inlineStr">
         <is>
           <t>ඞУзнав правду о смерти леди Стоунхарт, Алекс впадает в безумие, неспособный принять реальность. Он отчаянно бежит в сторону площади.</t>
         </is>
@@ -1876,7 +1876,7 @@
           <t>Scary Executioner</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>ඞСтрашный палач</t>
         </is>
@@ -1918,7 +1918,7 @@
           <t>An executioner with an iron mask is dealing with a body. His large stature and bloodthirsty aura can be felt just by looking at his silhouette.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>ඞПалач в железной маске расправляется с телом. Его высокий рост и ауру кровожадности можно почувствовать, просто взглянув на его силуэт.</t>
         </is>
@@ -1960,7 +1960,7 @@
           <t>Time Merchant</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="0" t="inlineStr">
         <is>
           <t>ඞТорговец временем</t>
         </is>
@@ -2002,7 +2002,7 @@
           <t>You encounter with a strange creature named O'Lucky in Cafeteria, who calls itself "Time Merchant". There seems to be many good things in its bag.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" s="0" t="inlineStr">
         <is>
           <t>ඞВ кафетерии вы встречаетесь со странным существом по имени О'Лакки, которое называет себя "Торговцем временем". Кажется, в его сумке много полезных вещей.</t>
         </is>
@@ -2044,7 +2044,7 @@
           <t>Pervading Red Mist</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" s="0" t="inlineStr">
         <is>
           <t>ඞВсепроникающий Красный Туман</t>
         </is>
@@ -2086,7 +2086,7 @@
           <t>As dusk falls, red mist pervades the park. Amidst this mist, people here appear increasingly... agitated.</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" s="0" t="inlineStr">
         <is>
           <t>ඞС наступлением сумерек парк окутывает красный туман. Среди этого тумана здесь все чаще появляются люди... взбудораженный.</t>
         </is>
@@ -2128,7 +2128,7 @@
           <t>Lady Stoneheart's Interview</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="0" t="inlineStr">
         <is>
           <t>ඞИнтервью леди Стоунхарт</t>
         </is>
@@ -2170,7 +2170,7 @@
           <t>The cover photo was taken in the mansion. The interview mentioned rumors that threatened the park this year, and how Rosa led the team to turn the tide.</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" s="0" t="inlineStr">
         <is>
           <t>ඞФотография для обложки была сделана в особняке. В интервью упоминались слухи, которые угрожали парку в этом году, и то, как Роза возглавила команду, чтобы переломить ситуацию.</t>
         </is>
@@ -2212,7 +2212,7 @@
           <t>Lady Stoneheart's Death</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" s="0" t="inlineStr">
         <is>
           <t>ඞСмерть леди Стоунхарт</t>
         </is>
@@ -2254,7 +2254,7 @@
           <t>Rosa's body is found in the bedroom when you investigate the mansion. Her body has been carefully arranged, and there are traces of oil paint on the bed.</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" s="0" t="inlineStr">
         <is>
           <t>ඞТело Розы находят в спальне, когда вы осматриваете особняк. Ее тело было аккуратно разложено, а на кровати видны следы масляной краски.</t>
         </is>
@@ -2296,7 +2296,7 @@
           <t>Sword in Stone</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" s="0" t="inlineStr">
         <is>
           <t>ඞМеч в камне</t>
         </is>
@@ -2338,7 +2338,7 @@
           <t>This is a very realistic prop sword. Its shape bears a striking resemblance to the one depicted on the treasure map.</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" s="0" t="inlineStr">
         <is>
           <t>ඞЭто очень реалистичный бутафорский меч. Его форма поразительно напоминает ту, что изображена на карте сокровищ.</t>
         </is>
@@ -2380,7 +2380,7 @@
           <t>Glass Heart</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" s="0" t="inlineStr">
         <is>
           <t>ඞСтеклянное сердце</t>
         </is>
@@ -2422,7 +2422,7 @@
           <t>What falls from the body of the statue in Fun House is a heart-shaped piece of glass art.</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" s="0" t="inlineStr">
         <is>
           <t>ඞТо, что выпадает из тела статуи в "Веселом доме", представляет собой произведение искусства из стекла в форме сердца.</t>
         </is>
@@ -2464,7 +2464,7 @@
           <t>Girl's Request</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" s="0" t="inlineStr">
         <is>
           <t>ඞПросьба девушки</t>
         </is>
@@ -2506,7 +2506,7 @@
           <t>Gioia claims that she's confined in the hidden room by a man with a mask, and hopes that you could take her to the manor to search for her parents.</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя утверждает, что ее запер в потайной комнате мужчина в маске, и надеется, что вы сможете отвезти ее в поместье на поиски родителей.</t>
         </is>
@@ -2548,7 +2548,7 @@
           <t>Enigmatic Girl</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" s="0" t="inlineStr">
         <is>
           <t>ඞЗагадочная девушка</t>
         </is>
@@ -2590,7 +2590,7 @@
           <t>Gioia disappears right in front of you, with only a blood-red pendant left.</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя исчезает прямо у вас на глазах, и остается только кроваво-красный кулон.</t>
         </is>
@@ -2632,7 +2632,7 @@
           <t>SkyWheel On</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" s="0" t="inlineStr">
         <is>
           <t>ඞНебесное колесо Включено</t>
         </is>
@@ -2674,7 +2674,7 @@
           <t>SkyWheel Off</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" s="0" t="inlineStr">
         <is>
           <t>ඞНебесное колесо выключено</t>
         </is>
@@ -2716,7 +2716,7 @@
           <t>Unsafe Cabin</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" s="0" t="inlineStr">
         <is>
           <t>ඞНебезопасная каюта</t>
         </is>
@@ -2758,7 +2758,7 @@
           <t>There're signs of fighting inside some cabins. The cabin doors are wobbly. The connections between the cabins and the wheel are unstable.</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" s="0" t="inlineStr">
         <is>
           <t>ඞВ некоторых каютах есть следы борьбы. Двери кают шатаются. Соединения между каютами и штурвалом неустойчивы.</t>
         </is>
@@ -2800,7 +2800,7 @@
           <t>Path to Manor</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" s="0" t="inlineStr">
         <is>
           <t>ඞПуть к поместью</t>
         </is>
@@ -2842,7 +2842,7 @@
           <t>The path to the manor twists and turns like a maze. But luckily, the view from SkyWheel makes it easier to figure out how to get to there.</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" s="0" t="inlineStr">
         <is>
           <t>ඞТропинка к поместью петляет, как лабиринт. Но, к счастью, вид, открывающийся с высоты птичьего полета, облегчает понимание того, как туда добраться.</t>
         </is>
@@ -2884,7 +2884,7 @@
           <t>Executioner's Chase</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" s="0" t="inlineStr">
         <is>
           <t>ඞПогоня за палачом</t>
         </is>
@@ -2926,7 +2926,7 @@
           <t>You have been marked as prey by the Executioner! From this moment forth, as long as the Executioner lurks in the shadows of life, his sole objective is to relentlessly hunt you down.</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" s="0" t="inlineStr">
         <is>
           <t>ඞПалач отметил вас как жертву! С этого момента и впредь, пока Палач скрывается в тени жизни, его единственной целью является безжалостная охота на вас.</t>
         </is>
@@ -2968,7 +2968,7 @@
           <t>Mafia's Threat</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" s="0" t="inlineStr">
         <is>
           <t>ඞУгроза мафии</t>
         </is>
@@ -3010,7 +3010,7 @@
           <t>A threat letter is found in the trashcan, which asks Pasqualino to quit his job at the park and leave the town immediately or bear the consequence of "unimaginable retaliation." Enclosed are some photos of torturing tools.</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H42" s="0" t="inlineStr">
         <is>
           <t>ඞВ мусорном ведре найдено письмо с угрозой, в котором Паскуалино просят уволиться с работы в парке и немедленно покинуть город, иначе он подвергнется "невообразимому возмездию". Прилагается несколько фотографий орудий пыток.</t>
         </is>
@@ -3052,7 +3052,7 @@
           <t>Alessio's Grave</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" s="0" t="inlineStr">
         <is>
           <t>ඞМогила Алессио</t>
         </is>
@@ -3094,7 +3094,7 @@
           <t>There's a grave bears the name "Alessio" in the manor. In addition to the decaying skeleton, there's a notebook of architectural designs and a picture of a young man and woman snuggling by the lake.</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" s="0" t="inlineStr">
         <is>
           <t>ඞВ поместье есть могила с именем "Алессио". В дополнение к разлагающемуся скелету, здесь есть тетрадь с архитектурными проектами и фотография молодых мужчины и женщины, обнимающихся на берегу озера.</t>
         </is>
@@ -3136,7 +3136,7 @@
           <t>The Escaped Time Merchant</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H45" s="0" t="inlineStr">
         <is>
           <t>ඞСбежавший торговец временем</t>
         </is>
@@ -3178,7 +3178,7 @@
           <t>O'Lucky opens a portal and escapes quickly during the battle. It's uncertain if there will be another encounter.</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" s="0" t="inlineStr">
         <is>
           <t>ඞО'Лаки открывает портал и быстро убегает во время битвы. Неизвестно, будет ли еще одна встреча.</t>
         </is>
@@ -3220,7 +3220,7 @@
           <t>Mysterious Event</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H47" s="0" t="inlineStr">
         <is>
           <t>ඞТаинственное событие</t>
         </is>
@@ -3262,7 +3262,7 @@
           <t>After placing the glass heart in the hands of the statue, a notification indicates that the task is complete. Aside from a rudimentary electronic song, however, nothing else happens.</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" s="0" t="inlineStr">
         <is>
           <t>ඞПосле того, как стеклянное сердце будет передано в руки статуи, появится уведомление о том, что задание выполнено. Однако, кроме элементарной электронной песни, больше ничего не происходит.</t>
         </is>
@@ -3304,7 +3304,7 @@
           <t>Transfer Contract</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H49" s="0" t="inlineStr">
         <is>
           <t>ඞДоговор о передаче права собственности</t>
         </is>
@@ -3346,7 +3346,7 @@
           <t>The contract in the blood-soaked file folder found in the garden bushes states that Rosa voluntarily transferred the ownership of the park to the Vescontes.</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" s="0" t="inlineStr">
         <is>
           <t>ඞВ контракте в пропитанной кровью папке с документами, найденной в садовых кустах, говорится, что Роза добровольно передала право собственности на парк семье Весконтес.</t>
         </is>
@@ -3388,7 +3388,7 @@
           <t>The Leaving Time Merchant</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" s="0" t="inlineStr">
         <is>
           <t>ඞТорговец уходящим временем</t>
         </is>
@@ -3430,7 +3430,7 @@
           <t>The sight of O'Lucky fleeing in terror suggests that it won't be showing up again.</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" s="0" t="inlineStr">
         <is>
           <t>ඞВид убегающего в ужасе О'Лаки наводит на мысль, что он больше не появится.</t>
         </is>
@@ -3472,7 +3472,7 @@
           <t>Event Plan</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" s="0" t="inlineStr">
         <is>
           <t>ඞПлан мероприятий</t>
         </is>
@@ -3514,7 +3514,7 @@
           <t>According to Rosa's letter to Alex, the event should have something to do with the giant sword in the square, the statue in Fun House, and the statue in Cafeteria.</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" s="0" t="inlineStr">
         <is>
           <t>ඞСогласно письму Розы к Алексу, мероприятие должно быть как-то связано с гигантским мечом на площади, статуей в Доме развлечений и статуей в кафетерии.</t>
         </is>
@@ -3556,7 +3556,7 @@
           <t>Truth of Tragic</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" s="0" t="inlineStr">
         <is>
           <t>ඞИстина трагического</t>
         </is>
@@ -3598,7 +3598,7 @@
           <t>Cause of Disaster</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" s="0" t="inlineStr">
         <is>
           <t>ඞПричина катастрофы</t>
         </is>
@@ -3640,7 +3640,7 @@
           <t>Rosa was killed after being forced to sign the park transfer agreement by the Vesconte men. Pasqualino gained eerie powers from the red mist, killed the murderers, then became the executioner wandering in Fun House.</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" s="0" t="inlineStr">
         <is>
           <t>ඞРоза была убита после того, как люди Весконте заставили ее подписать соглашение о передаче парка. Паскуалино получил сверхъестественные способности от красного тумана, убил убийц, а затем стал палачом, бродящим по Дому развлечений.</t>
         </is>
@@ -3682,7 +3682,7 @@
           <t>Blood Moon Beneath the Lake</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" s="0" t="inlineStr">
         <is>
           <t>ඞКровавая луна под озером</t>
         </is>
@@ -3724,7 +3724,7 @@
           <t>A giant blood moon rises over the lake at night. Those infected by the red mist and the blood moon seem to be connected, as their destruction and killing seem to provide energy to the blood moon.</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" s="0" t="inlineStr">
         <is>
           <t>ඞНочью над озером восходит гигантская кровавая луна. Те, кто заражен красным туманом, и кровавая луна, похоже, связаны, поскольку их разрушение и убийства, похоже, обеспечивают кровавую луну энергией.</t>
         </is>
@@ -3766,7 +3766,7 @@
           <t>Fireworks</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" s="0" t="inlineStr">
         <is>
           <t>ඞФейерверк</t>
         </is>
@@ -3808,7 +3808,7 @@
           <t>Defeat Executioner</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" s="0" t="inlineStr">
         <is>
           <t>ඞПобедите палача</t>
         </is>
@@ -3850,7 +3850,7 @@
           <t>With one last, raspy breath, the executioner lets out a sigh. Then, the body vanishes into a cloud of mist.</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" s="0" t="inlineStr">
         <is>
           <t>ඞС последним хриплым вздохом палач испускает дух. Затем тело исчезает в облаке тумана.</t>
         </is>
@@ -3892,7 +3892,7 @@
           <t>The open square is now dense with red mist. Unknown dangers are hiding within it.</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" s="0" t="inlineStr">
         <is>
           <t>ඞОткрытая площадь теперь затянута красным туманом. В нем скрываются неизвестные опасности.</t>
         </is>
@@ -3934,7 +3934,7 @@
           <t>Square</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" s="0" t="inlineStr">
         <is>
           <t>ඞПлощадь</t>
         </is>
@@ -3976,7 +3976,7 @@
           <t>As you step into the square, your eyes are immediately drawn to the striking centerpiece - &lt;color=#FFD700&gt;a grand fountain&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" s="0" t="inlineStr">
         <is>
           <t>ඞКак только вы выходите на площадь, ваш взгляд сразу же притягивает впечатляющее центральное сооружение - &lt;color=#FFD700&gt; грандиозный фонтан&lt;/color&gt;.</t>
         </is>
@@ -4018,7 +4018,7 @@
           <t>Aside of it, you can spot a &lt;color=#FFD700&gt;giant sword&lt;/color&gt;, deeply embedded in a stone.</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H66" s="0" t="inlineStr">
         <is>
           <t>ඞКроме того, вы можете заметить &lt;color=#FFD700&gt; гигантский меч&lt;/color&gt;, глубоко вделанный в камень.</t>
         </is>
@@ -4060,7 +4060,7 @@
           <t>Several &lt;color=#FFD700&gt;tourists&lt;/color&gt; are seated on the bench nearby, seemingly taking a break.</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" s="0" t="inlineStr">
         <is>
           <t>ඞНесколько &lt;color=#FFD700&gt;туристов&lt;/color&gt; сидят неподалеку на скамейке, по-видимому, отдыхая.</t>
         </is>
@@ -4102,7 +4102,7 @@
           <t>Suddenly, a distant humming reaches your ears. A figure garbed in a clown costume shows up from the &lt;color=#FFD700&gt;main road&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" s="0" t="inlineStr">
         <is>
           <t>ඞВнезапно до ваших ушей доносится отдаленный гул. На главной дороге &lt;color=#FFD700&gt; появляется фигура в костюме клоуна.</t>
         </is>
@@ -4144,7 +4144,7 @@
           <t>From the fountain, a &lt;color=#DC143C&gt;dense red mist&lt;/color&gt; swirled and writhed, taking on life-like forms in its haunting dance.</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H69" s="0" t="inlineStr">
         <is>
           <t>ඞОт фонтана поднимался &lt;color=#DC143C&gt; густой красный туман&lt;/color&gt;, который клубился и извивался, принимая живые формы в своем завораживающем танце.</t>
         </is>
@@ -4186,7 +4186,7 @@
           <t>As you approach the bench, the stench of blood hits you first. You find those tourists have long since passed away. Their bodies are riddled with slash wounds, their flesh grotesquely torn, and blood is splattered all around. Upon closer inspection, you also notice that someone has drawn smiles on their faces using their own blood.</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь к скамейке, в первую очередь вас поражает запах крови. Вы обнаруживаете, что эти туристы уже давно умерли. Их тела испещрены резаными ранами, плоть гротескно разорвана, а кровь разбрызгана повсюду. При ближайшем рассмотрении вы также замечаете, что кто-то нарисовал улыбки на своих лицах собственной кровью.</t>
         </is>
@@ -4234,7 +4234,7 @@
 While inspecting the bodies, one of them suddenly slides off the bench, revealing a piece of newspaper hidden beneath. You manage to extricate it carefully from the body and begin to read. It appears to be an exclusive interview featuring the owner of the park - Lady Stoneheart.</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" s="0" t="inlineStr">
         <is>
           <t>ඞПодавляя нарастающее беспокойство, вы успокаиваете руки и приподнимаете им веки, чтобы оценить, как давно они мертвы. К вашему удивлению, их глазные яблоки стали совершенно красными.
 Осматривая тела, один из них внезапно соскальзывает со скамьи, открывая спрятанный под ней кусок газеты. Вам удается осторожно извлечь его из тела и начать читать. Судя по всему, это эксклюзивное интервью с владелицей парка - леди Стоунхарт.</t>
@@ -4277,7 +4277,7 @@
           <t>Newspaper</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" s="0" t="inlineStr">
         <is>
           <t>ඞГазета</t>
         </is>
@@ -4325,7 +4325,7 @@
 Following the wave of rumors that swept through it some time ago, Far Hope Park has successfully navigated its crisis and emerged with renewed vigor. Recently, the park owner, Madam Rosa, granted our reporter an exclusive interview.</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" s="0" t="inlineStr">
         <is>
           <t>ඞНазвание: После бури: мадам Роза восстанавливает справедливость в парке Фар Хоуп!
 После волны слухов, прокатившихся по парку некоторое время назад, парк Фар Хоуп успешно преодолел кризис и возродился с новой силой. Недавно владелица парка мадам Роза дала нашему корреспонденту эксклюзивное интервью.</t>
@@ -4368,7 +4368,7 @@
           <t>According to Madam Rosa, the park became the target of numerous rumors and slanderous accusations this year, following her refusal to sell the park's land to the Vesconte family. Spurned, the Vescontes allegedly retaliated by circulating rumors intended to disrupt the smooth operation of the park.</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H74" s="0" t="inlineStr">
         <is>
           <t>ඞПо словам мадам Розы, в этом году парк стал объектом многочисленных слухов и клеветнических обвинений после того, как она отказалась продать землю в парке семье Весконте. Отвергнутые, Весконте, как утверждается, приняли ответные меры, распространив слухи, направленные на нарушение нормальной работы парка.</t>
         </is>
@@ -4410,7 +4410,7 @@
           <t>While the rumors initially misled many town residents, leading to a high volume of complaints and reports that put the park in a precarious position, Madam Rosa and her team responded courageously. They actively collected evidence and engaged law enforcement while continuing park operations. Ultimately, their efforts paid off and they emerged victorious.</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H75" s="0" t="inlineStr">
         <is>
           <t>ඞХотя слухи изначально ввели в заблуждение многих жителей города, что привело к большому количеству жалоб и сообщений, которые поставили парк в опасное положение, мадам Роза и ее команда мужественно отреагировали. Они активно собирали доказательства и привлекали правоохранительные органы, продолжая работу парка. В конечном счете их усилия окупились, и они вышли победителями.</t>
         </is>
@@ -4452,7 +4452,7 @@
           <t>Madam Rosa affirmed that the park would persist in its commitment to providing a pleasant and safe experience for tourists, demonstrating her resilience and confidence as a leader.</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H76" s="0" t="inlineStr">
         <is>
           <t>ඞМадам Роза подтвердила, что парк будет продолжать выполнять свои обязательства по обеспечению приятных и безопасных впечатлений для туристов, продемонстрировав свою стойкость и уверенность в себе как лидер.</t>
         </is>
@@ -4494,7 +4494,7 @@
           <t>The interview was conducted at Madam Rosa's estate, and through our conversation, we gleaned deeper insights into this formidable manager and the true nature of the incident. As we conclude, we extend our best wishes for a rapid recovery to Madam Rosa and eagerly anticipate her continued stewardship towards a brighter future for the park.</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" s="0" t="inlineStr">
         <is>
           <t>ඞИнтервью проводилось в поместье мадам Розы, и благодаря нашей беседе мы получили более глубокое представление об этом выдающемся управляющем и истинной природе инцидента. В заключение мы выражаем наши наилучшие пожелания скорейшего выздоровления мадам Розе и с нетерпением ожидаем, что она продолжит руководить парком во имя его светлого будущего.</t>
         </is>
@@ -4536,7 +4536,7 @@
           <t>You manage to retrieve an axe from one of the deceased tourists.</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H78" s="0" t="inlineStr">
         <is>
           <t>ඞВам удается забрать топор у одного из погибших туристов.</t>
         </is>
@@ -4578,7 +4578,7 @@
           <t>Check Tourists</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" s="0" t="inlineStr">
         <is>
           <t>ඞПроверяйте туристов</t>
         </is>
@@ -4620,7 +4620,7 @@
           <t>At the bottom of the fountain, you spot a small key, several shiny stones, and a smattering of scattered blades.</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" s="0" t="inlineStr">
         <is>
           <t>ඞНа дне фонтана вы замечаете маленький ключик, несколько блестящих камешков и россыпь травинок.</t>
         </is>
@@ -4668,7 +4668,7 @@
 Upon inspecting the small key, you notice a "P" insignia on it.</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" s="0" t="inlineStr">
         <is>
           <t>ඞПосле нескольких попыток и нескольких промахов, связанных с падением в воду, вам, наконец, удается все достать.
 Осмотрев маленький ключ, вы замечаете на нем букву "Р".</t>
@@ -4711,7 +4711,7 @@
           <t>Check Fountain</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте фонтан</t>
         </is>
@@ -4759,7 +4759,7 @@
 After several attempts and a bit of time, you manage to extract it from the stone.</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H83" s="0" t="inlineStr">
         <is>
           <t>ඞВы подходите к камню справа. Гигантский меч, выглядящий как бутафория, вделанный в него, поразительно похож на тот, что изображен на карте сокровищ.
 После нескольких попыток и некоторого времени вам удается извлечь его из камня.</t>
@@ -4802,7 +4802,7 @@
           <t>Retrieve Sword</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H84" s="0" t="inlineStr">
         <is>
           <t>ඞДостать меч</t>
         </is>
@@ -4844,7 +4844,7 @@
           <t>As you approach the mist, a wave of grogginess washes over you, as though the crimson fog is infiltrating your senses. Your thoughts become muddled, and a sense of dizziness sets in.</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H85" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь к туману, вас охватывает волна дурноты, как будто багровый туман проникает в ваши чувства. Ваши мысли путаются, и возникает чувство головокружения.</t>
         </is>
@@ -4886,7 +4886,7 @@
           <t>Amid the mist-shrouded land, you spot a crimson flower. Despite being veiled by the mist its dazzling red hue stands out. You feel a cold shiver run down your spine.</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H86" s="0" t="inlineStr">
         <is>
           <t>ඞСреди окутанной туманом земли вы замечаете алый цветок. Несмотря на то, что он скрыт туманом, выделяется его ослепительный красный оттенок. Вы чувствуете, как по спине пробегает холодная дрожь.</t>
         </is>
@@ -4928,7 +4928,7 @@
           <t>You strive to stay composed and assess your condition. Thankfully, nothing out of the ordinary appears to be happening.</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H87" s="0" t="inlineStr">
         <is>
           <t>ඞВы стараетесь сохранять спокойствие и оценивать свое состояние. К счастью, кажется, что ничего необычного не происходит.</t>
         </is>
@@ -4970,7 +4970,7 @@
           <t>Yet, you detect a subtle moisture in your breath. You may have inhaled something.</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H88" s="0" t="inlineStr">
         <is>
           <t>ඞТем не менее, вы ощущаете едва уловимый запах изо рта. Возможно, вы что-то вдохнули.</t>
         </is>
@@ -5012,7 +5012,7 @@
           <t>Check Mist</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H89" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте туман</t>
         </is>
@@ -5054,7 +5054,7 @@
           <t>It's not too hard to find a usable vessel to collect water in a park.</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H90" s="0" t="inlineStr">
         <is>
           <t>ඞНайти пригодный сосуд для сбора воды в парке не так уж сложно.</t>
         </is>
@@ -5096,7 +5096,7 @@
           <t>You manage to find several bottles and fill them with water from the fountain.</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H91" s="0" t="inlineStr">
         <is>
           <t>ඞВам удается найти несколько бутылок и наполнить их водой из фонтана.</t>
         </is>
@@ -5138,7 +5138,7 @@
           <t>Collect Water</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H92" s="0" t="inlineStr">
         <is>
           <t>ඞСобирайте воду</t>
         </is>
@@ -5180,7 +5180,7 @@
           <t>Smile-painting Clown</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H93" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун, рисующий улыбку</t>
         </is>
@@ -5222,7 +5222,7 @@
           <t>Man in Clown Costume</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H94" s="0" t="inlineStr">
         <is>
           <t>ඞМужчина в костюме клоуна</t>
         </is>
@@ -5276,7 +5276,7 @@
 Despite this ostensibly humorous guise, an eerie thrill crawls under your skin.</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H95" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун, одетый в грязную одежду, щеголяет спутанными рыжими волосами.
 Его лицо размазано жуткой смесью призрачно-белого и кроваво-красного цветов &lt;color=#FFD700&gt;масляной краской&lt;/color&gt;.
@@ -5320,7 +5320,7 @@
           <t>You tell the clown that you crave something spine-chilling. With a roll of his eyes, he murmurs in unsettling contemplation.</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H96" s="0" t="inlineStr">
         <is>
           <t>ඞТы говоришь клоуну, что тебе хочется чего-нибудь такого, от чего у тебя мороз по коже. Закатив глаза, он бормочет в тревожном раздумье.</t>
         </is>
@@ -5362,7 +5362,7 @@
           <t>Spine-chilling... chilling...</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H97" s="0" t="inlineStr">
         <is>
           <t>ඞЛеденящий душу... охлаждение...</t>
         </is>
@@ -5404,7 +5404,7 @@
           <t>Ha, I see. So you want to be a part of that too!</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H98" s="0" t="inlineStr">
         <is>
           <t>ඞХа, понятно. Так ты тоже хочешь в этом поучаствовать!</t>
         </is>
@@ -5446,7 +5446,7 @@
           <t>The clown mutters under his breath for a moment before lunging towards you abruptly. His crimson-stained lips part, sending words into your ear.</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="H99" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун что-то бормочет себе под нос, прежде чем резко броситься к тебе. Его губы, покрытые алыми пятнами, приоткрываются, и он шепчет тебе что-то на ухо.</t>
         </is>
@@ -5488,7 +5488,7 @@
           <t>It... &lt;i&gt;will&lt;/i&gt;... be... chilling!</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H100" s="0" t="inlineStr">
         <is>
           <t>ඞЭто... &lt;я&gt; будет&lt;/я&gt;... захватывающе!</t>
         </is>
@@ -5530,7 +5530,7 @@
           <t>Then he retreats to his previous spot, embellishing the last corpse with a ghastly grin.</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H101" s="0" t="inlineStr">
         <is>
           <t>ඞЗатем он возвращается на свое прежнее место, украшая последний труп жуткой ухмылкой.</t>
         </is>
@@ -5572,7 +5572,7 @@
           <t>But you must bide your time. I'm still preparing the scene. Once complete, you may proceed in this direction.</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H102" s="0" t="inlineStr">
         <is>
           <t>ඞНо вы должны подождать. Я все еще готовлю сцену. Как только закончите, можете двигаться в этом направлении.</t>
         </is>
@@ -5614,7 +5614,7 @@
           <t>The clown points towards a nearby path with a grin on his face. Upon ensuring you've taken note, he begins to hum a melody as he saunters towards the square. You consult your map; the road leads directly to the dreaded Fun House.</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H103" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун с ухмылкой на лице указывает на ближайшую дорожку. Убедившись, что вы обратили внимание, он начинает напевать какую-то мелодию и неторопливо направляется к площади. Вы сверяетесь с картой; дорога ведет прямо к ужасному Дому развлечений.</t>
         </is>
@@ -5656,7 +5656,7 @@
           <t>You tell the clown that you desire something relaxing. With a roll of his eyes, he murmurs in thought.</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H104" s="0" t="inlineStr">
         <is>
           <t>ඞТы говоришь клоуну, что хочешь чего-нибудь расслабляющего. Закатив глаза, он задумчиво бормочет.</t>
         </is>
@@ -5698,7 +5698,7 @@
           <t>Relaxing... relaxing... Oh, I have just the thing! Do you see that over there?</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H105" s="0" t="inlineStr">
         <is>
           <t>ඞРасслабляющий... расслабляющий... О, у меня есть как раз то, что нужно! Видишь это вон там?</t>
         </is>
@@ -5746,7 +5746,7 @@
 Looks like it is freshly constructed, indeed a spectacular monument in the park.</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H106" s="0" t="inlineStr">
         <is>
           <t>ඞВы удивляетесь внезапному энтузиазму клоуна. Он указывает на возвышающееся небесное колесо. Его величественный каркас возвышается почти на 100 метров в небо.
 Похоже, что его недавно построили, и это действительно впечатляющий памятник в парке.</t>
@@ -5789,7 +5789,7 @@
           <t>It is the park's crowning jewel! The SkyWheel of Far Hope! From its apex, you'll witness the most breathtaking view of the town! Not a soul could resist it!</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H107" s="0" t="inlineStr">
         <is>
           <t>ඞЭто главная жемчужина парка! Небесное колесо Далекой Надежды! С его вершины открывается самый захватывающий вид на город! Перед ним не устоит ни одна живая душа!</t>
         </is>
@@ -5831,7 +5831,7 @@
           <t>The clown points towards a nearby path. Upon ensuring you've taken note, he begins to hum a melody as he saunters towards the SkyWheel.</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="H108" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун указывает на ближайшую тропинку. Убедившись, что вы обратили внимание, он начинает напевать мелодию, направляясь к Небесному колесу.</t>
         </is>
@@ -5873,7 +5873,7 @@
           <t>The clown appears to be in high spirits. The moment he spots you, a warm smile spreads across his face, and his gaze meets yours with a sense of care.</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H109" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун, кажется, в приподнятом настроении. В тот момент, когда он замечает вас, на его лице расплывается теплая улыбка, и он смотрит вам в глаза с чувством заботы.</t>
         </is>
@@ -5915,7 +5915,7 @@
           <t>Look who's here! Another spiritless tourist!</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="H110" s="0" t="inlineStr">
         <is>
           <t>ඞСмотрите, кто здесь! Еще один бездушный турист!</t>
         </is>
@@ -5957,7 +5957,7 @@
           <t>Aw, what's troubling you? Come on, let's turn that frown upside down in the happiest place around!</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="H111" s="0" t="inlineStr">
         <is>
           <t>ඞО, что тебя беспокоит? Ну же, давай изменим это хмурое выражение лица в самом счастливом месте на свете!</t>
         </is>
@@ -5999,7 +5999,7 @@
           <t>The clown seems to be pondering a solution.</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="H112" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун, похоже, обдумывает решение.</t>
         </is>
@@ -6047,7 +6047,7 @@
 Would you prefer something thrilling, or perhaps you're in the mood for something more relaxing?</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H113" s="0" t="inlineStr">
         <is>
           <t>ඞМожет быть, вам просто нужно немного повеселиться здесь? Позвольте мне провести вас!
 Вы предпочитаете что-нибудь захватывающее или, возможно, у вас есть настроение для более спокойного времяпрепровождения?</t>
@@ -6090,7 +6090,7 @@
           <t>The clown wonders what kind of attraction do you prefer...</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H114" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун интересуется, какой аттракцион вы предпочитаете...</t>
         </is>
@@ -6132,7 +6132,7 @@
           <t>Something Chilling</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H115" s="0" t="inlineStr">
         <is>
           <t>ඞЧто-то леденящее душу</t>
         </is>
@@ -6174,7 +6174,7 @@
           <t>Something Relaxing</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="H116" s="0" t="inlineStr">
         <is>
           <t>ඞЧто-нибудь расслабляющее</t>
         </is>
@@ -6216,7 +6216,7 @@
           <t>Conversar</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H117" s="0" t="inlineStr">
         <is>
           <t>Поговорить</t>
         </is>
@@ -6264,7 +6264,7 @@
 His left arm is holding a tourist, while his right hand, wielding a brush soaked in blood, paints a chilling smile on the tourist's face.</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="H118" s="0" t="inlineStr">
         <is>
           <t>ඞОриентируясь по звуку, вы замечаете клоуна неподалеку от площади. Вот откуда доносится жужжание.
 Левой рукой он держит туриста, а правой, с кисточкой, пропитанной кровью, рисует на лице туриста леденящую душу улыбку.</t>
@@ -6307,7 +6307,7 @@
           <t>Approach Clown</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="H119" s="0" t="inlineStr">
         <is>
           <t>ඞПриблизьтесь к клоуну</t>
         </is>
@@ -6349,7 +6349,7 @@
           <t>Palhaço</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="H120" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун</t>
         </is>
@@ -6397,7 +6397,7 @@
 Yet, these manic guests show no signs of aggression towards him or resistance to his actions. They simply wait in line, their gazes fixed straight ahead. Their eyes are vacant, as if their spirits have long since departed.</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H121" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун орудует кистью, пропитанной кровью, и рисует ею леденящие душу улыбки на лицах сумасшедших туристов.
 Однако эти безумные гости не проявляют никаких признаков агрессии по отношению к нему или сопротивления его действиям. Они просто стоят в очереди, устремив взгляд прямо перед собой. Их глаза пусты, как будто их души давно покинули нас.</t>
@@ -6440,7 +6440,7 @@
           <t>Just then, he notices your presence and flashes you an excited smile.</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="H122" s="0" t="inlineStr">
         <is>
           <t>ඞИменно в этот момент он замечает ваше присутствие и радостно улыбается вам.</t>
         </is>
@@ -6482,7 +6482,7 @@
           <t>Aha! Are you here for my face painting as well? Please join the queue, these folks have been waiting quite a while.</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="H123" s="0" t="inlineStr">
         <is>
           <t>ඞ- ага! Вы тоже пришли посмотреть, как я раскрашиваю лицо? Пожалуйста, встаньте в очередь, эти люди уже довольно долго ждут.</t>
         </is>
@@ -6524,7 +6524,7 @@
           <t>Oh, speaking of which, some of these folks nearly came to blows over me. What a guilty man I am!</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="H124" s="0" t="inlineStr">
         <is>
           <t>ඞКстати, некоторые из этих людей чуть не подрались из-за меня. Какой же я виноватый человек!</t>
         </is>
@@ -6566,7 +6566,7 @@
           <t>While speaking, the clown suddenly narrows his eyes and studies you intensely, as though recognizing. His expression morphs into one of pride.</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="H125" s="0" t="inlineStr">
         <is>
           <t>ඞВо время разговора клоун внезапно прищуривает глаза и пристально изучает вас, как будто узнает. На его лице появляется выражение гордости.</t>
         </is>
@@ -6608,7 +6608,7 @@
           <t>Ha! It's you! How'd it go? Should've come here earlier, right? But let me tell you, what you've seen so far is just the beginning! There's more remarkable stuff yet to come!</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="H126" s="0" t="inlineStr">
         <is>
           <t>ඞХа! Это ты! Как все прошло? Надо было прийти сюда раньше, верно? Но позволь сказать, то, что ты увидел, - это только начало! Впереди еще много интересного!</t>
         </is>
@@ -6650,7 +6650,7 @@
           <t>The clown's smile widened, his excitement growing palpable as he began to speak at an even brisker pace.</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="H127" s="0" t="inlineStr">
         <is>
           <t>ඞУлыбка клоуна стала шире, его возбуждение стало ощутимым, когда он начал говорить еще более оживленным темпом.</t>
         </is>
@@ -6692,7 +6692,7 @@
           <t>Oh wait, there's one more stop on this journey!</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="H128" s="0" t="inlineStr">
         <is>
           <t>ඞО, подождите, в этом путешествии есть еще одна остановка!</t>
         </is>
@@ -6735,7 +6735,7 @@
           <t>The tourists' vacant eyes remain fixed on some distant point, seemingly detached from their immediate surroundings. The clown completes his last crimson painting with precision before wiping his hands in satisfaction.</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="H129" s="0" t="inlineStr">
         <is>
           <t>ඞПустые глаза туристов по-прежнему устремлены в какую-то отдаленную точку, казалось бы, отделенную от их непосредственного окружения. Клоун аккуратно завершает свою последнюю малиновую картину, прежде чем удовлетворенно вытереть руки.</t>
         </is>
@@ -6777,7 +6777,7 @@
           <t>It's all done here! I'll prepare the scene for you. Once complete, you may proceed in this direction.</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="H130" s="0" t="inlineStr">
         <is>
           <t>ඞЗдесь все готово! Я подготовлю для вас сцену. После завершения вы можете двигаться в этом направлении.</t>
         </is>
@@ -6819,7 +6819,7 @@
           <t>The clown points towards a nearby path before eagerly departing from the square.</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H131" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун указывает на ближайшую тропинку, прежде чем поспешно удалиться с площади.</t>
         </is>
@@ -6861,7 +6861,7 @@
           <t>You spot the clown sitting beside the fountain. His face no longer holds the excitement it once did, instead displaying a sad, trance-like expression as he gazes at a stone brick at his feet.</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H132" s="0" t="inlineStr">
         <is>
           <t>ඞВы замечаете клоуна, сидящего у фонтана. На его лице больше нет того оживления, которое было раньше, вместо этого на нем появляется печальное выражение, похожее на транс, когда он смотрит на каменный кирпич у своих ног.</t>
         </is>
@@ -6909,7 +6909,7 @@
 Why isn't anyone interested in my performance anymore? They all loved it before!</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H133" s="0" t="inlineStr">
         <is>
           <t>ඞПочему?...
 Почему мое выступление больше никого не интересует? Раньше оно всем нравилось!</t>
@@ -6952,7 +6952,7 @@
           <t>The clown appears dejected as he stares at his feet, his shoulders slumping and his tone laced with distress.</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H134" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун выглядит удрученным, он смотрит себе под ноги, его плечи поникли, а в голосе слышится страдание.</t>
         </is>
@@ -7000,7 +7000,7 @@
 I poured so much time into the scene, and they didn't even make it halfway through... All they wanted was to get out!</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="H135" s="0" t="inlineStr">
         <is>
           <t>ඞЯ повел их в "Дом смеха", популярный "Дом развлечений"! Обычно приходится довольно долго стоять в очереди, чтобы попасть туда!
 Я потратил столько времени на съемку, а они не прошли и половины... Все, чего они хотели, - это выбраться отсюда!</t>
@@ -7049,7 +7049,7 @@
 But... but they didn't even want to ride it!</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="H136" s="0" t="inlineStr">
         <is>
           <t>ඞИ Небесное колесо... Знаменитое небесное колесо Фар Хоуп! Главная достопримечательность во всем городе! Я думал, им понравится!
 Но... но они даже не захотели на нем кататься!</t>
@@ -7092,7 +7092,7 @@
           <t>The clown is getting even more upset. The once-beaming smile turns into an expression of sadness. His costume makes him looks even more decadent.</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H137" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун расстраивается еще больше. Когда-то лучезарная улыбка превращается в выражение грусти. Из-за своего костюма он выглядит еще более декадентски.</t>
         </is>
@@ -7140,7 +7140,7 @@
 But no matter how much effort I put in, no one would laugh!</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="H138" s="0" t="inlineStr">
         <is>
           <t>ඞЯ думал, что они просто слишком устали, поэтому выложился по полной!! Шутки, фокусы и даже акробатика!
 Но сколько бы я ни старался, никто не смеялся!</t>
@@ -7189,7 +7189,7 @@
 It was so different before...</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="H139" s="0" t="inlineStr">
         <is>
           <t>ඞКак все могло так закончиться?..
 Раньше все было совсем по-другому...</t>
@@ -7232,7 +7232,7 @@
           <t>And it's been ages since Lady last spoke to me... Did I do something wrong?</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H140" s="0" t="inlineStr">
         <is>
           <t>ඞИ прошла целая вечность с тех пор, как леди в последний раз разговаривала со мной... Я сделал что-то не так?</t>
         </is>
@@ -7280,7 +7280,7 @@
 After you conclude and a long silence ensues, he turns his head and begins to laugh.</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="H141" s="0" t="inlineStr">
         <is>
           <t>ඞВы сообщаете клоуну о кончине леди Стоунхарт. Он внимательно слушает, и его глаза кажутся пустыми, когда он наблюдает за вами. На протяжении всего вашего повествования он никак не реагирует на ваши слова, как будто вообще ничего не слышал.
 После того, как вы заканчиваете и наступает долгое молчание, он поворачивает голову и начинает смеяться.</t>
@@ -7323,7 +7323,7 @@
           <t>His gaze drifts off into the distant void and he nods towards the empty square. Soon after, an excited smile returns to his face. It almost seems... as if he's speaking to someone...?</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="H142" s="0" t="inlineStr">
         <is>
           <t>ඞЕго взгляд устремляется куда-то вдаль, и он кивает в сторону пустой площади. Вскоре после этого на его лице появляется радостная улыбка. Это почти кажется... как будто он с кем-то разговаривает...?</t>
         </is>
@@ -7365,7 +7365,7 @@
           <t>Hahaha! You're absolutely right! The park has indeed been around for such a long time!</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="H143" s="0" t="inlineStr">
         <is>
           <t>ඞХахаха! Вы абсолютно правы! Парк действительно существует уже очень давно!</t>
         </is>
@@ -7408,7 +7408,7 @@
           <t>The clown's enthusiastic smile persists, yet it is tinged with an odd mania. His eyes flicker with a myriad of emotions, finally settling on chaotic pain. Despite this, the smile on his face broadens.</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="H144" s="0" t="inlineStr">
         <is>
           <t>ඞВосторженная улыбка клоуна сохраняется, но в ней чувствуется какая-то странная мания. В его глазах мелькают мириады эмоций, в конце концов останавливаясь на хаотичной боли. Несмотря на это, улыбка на его лице становится шире.</t>
         </is>
@@ -7450,7 +7450,7 @@
           <t>Yes, yes! I'm undoubtedly the most popular clown in the park! The children even come here specifically to see me!</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="H145" s="0" t="inlineStr">
         <is>
           <t>ඞДа, да! Я, несомненно, самый популярный клоун в парке! Дети даже приходят сюда специально, чтобы посмотреть на меня!</t>
         </is>
@@ -7492,7 +7492,7 @@
           <t>The clown abruptly pushes you aside and strides away from the square, his pace quickening until it's almost a run. Soon, he stumbles on the steps leading out of the square. You watch as the clown picks himself up and dashes off into the park in a frenzy.</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H146" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун резко отталкивает вас в сторону и устремляется прочь с площади, ускоряя шаг, пока не переходит почти на бег. Вскоре он спотыкается о ступеньки, ведущие с площади. Вы наблюдаете, как клоун поднимается на ноги и в бешенстве устремляется в парк.</t>
         </is>
@@ -7534,7 +7534,7 @@
           <t>Tell the Truth</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H147" s="0" t="inlineStr">
         <is>
           <t>ඞговорить правду</t>
         </is>
@@ -7576,7 +7576,7 @@
           <t>The red mist by the fountain undulates, and an eerie scene appears: several phantoms suddenly appear, unfolding a sequence of events as if projected from a film reel.</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H148" s="0" t="inlineStr">
         <is>
           <t>ඞКрасный туман у фонтана колышется, и возникает жуткая сцена: внезапно появляются несколько призраков, разворачивая последовательность событий, словно проецируемую на пленку.</t>
         </is>
@@ -7624,7 +7624,7 @@
 The trio's actions are marked by viciousness, suggesting a familiarity with violence. They show no mercy towards the tall man. Even though the tall man tries to defend himself, it turns out he is drastically outmatched. They seize him by the hair, repeatedly dunking his head in the water in a brutal spectacle of torment.</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="H149" s="0" t="inlineStr">
         <is>
           <t>ඞВы становитесь свидетелем того, как высокий мужчина пытается противостоять трем другим, которые отвечают агрессивным отпором.
 Действия этой троицы отличаются жестокостью, что говорит о знакомстве с насилием. Они не проявляют милосердия к высокому мужчине. Несмотря на то, что высокий мужчина пытается защититься, оказывается, что у него значительное преимущество. Они хватают его за волосы и несколько раз окунают его голову в воду, демонстрируя жестокие мучения.</t>
@@ -7667,7 +7667,7 @@
           <t>After enduring persistent torment, the tall man is on the brink of death. The trio ruthlessly place a peculiar mask on his face and then proceed to pierce his collarbone with a hook attached to the end of a chain. Without regard for his anguished cries, they drag him in the direction of the manor.</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H150" s="0" t="inlineStr">
         <is>
           <t>ඞПосле продолжительных мучений высокий мужчина находится на грани смерти. Троица безжалостно надевает ему на лицо своеобразную маску, а затем протыкает ключицу крюком, прикрепленным к концу цепи. Не обращая внимания на его мучительные крики, они тащат его в направлении поместья.</t>
         </is>
@@ -7709,7 +7709,7 @@
           <t>Check Phantom</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="H151" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте Фантом</t>
         </is>
@@ -7751,7 +7751,7 @@
           <t>You inch closer to the flower, its hue as red as blood, exuding an unnatural allure. You find yourself captivated by it, almost as if irresistibly drawn in.</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H152" s="0" t="inlineStr">
         <is>
           <t>ඞВы на дюйм приближаетесь к цветку, его красный, как кровь, оттенок излучает неестественное очарование. Вы оказываетесь очарованы им, вас словно непреодолимо тянет к нему.</t>
         </is>
@@ -7799,7 +7799,7 @@
 Glancing down, you find it growing from your chest, and you can almost feel its roots burrowing within.</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="H153" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы снова сосредотачиваетесь, красного цветка уже не видно.
 Взглянув вниз, вы обнаруживаете, что он растет у вас на груди, и вы почти чувствуете, как его корни уходят внутрь.</t>
@@ -7842,7 +7842,7 @@
           <t>Check Red Flower</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="H154" s="0" t="inlineStr">
         <is>
           <t>ඞКлетчатый Красный цветок</t>
         </is>
@@ -7894,7 +7894,7 @@
 Spotting you, he charges towards you, his laughter echoing manically in the eerie silence.</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="H155" s="0" t="inlineStr">
         <is>
           <t>ඞВ красном тумане парк приобретает кошмарный оттенок. Появляется фигура - это клоун! Его глаза дьявольски алого цвета, мерцающие тревожной злобой.
 Заметив вас, он бросается к вам, его маниакальный смех эхом отдается в жуткой тишине.</t>
@@ -7937,7 +7937,7 @@
           <t>The malevolent aura seems to have evaporated from the clown. Now he lays in a pool of his own blood, struggling to flash you one last smile as life steadily slips away from him.</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="H156" s="0" t="inlineStr">
         <is>
           <t>ඞЗлобная аура клоуна, кажется, испарилась. Теперь он лежит в луже собственной крови, изо всех сил пытаясь улыбнуться вам в последний раз, в то время как жизнь неуклонно покидает его.</t>
         </is>
@@ -7979,7 +7979,7 @@
           <t>I'm so sorry...</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="H157" s="0" t="inlineStr">
         <is>
           <t>ඞМне так жаль...</t>
         </is>
@@ -8021,7 +8021,7 @@
           <t>I lost control over myself...</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="H158" s="0" t="inlineStr">
         <is>
           <t>ඞЯ потерял контроль над собой...</t>
         </is>
@@ -8063,7 +8063,7 @@
           <t>Now, I just want you to know...</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="H159" s="0" t="inlineStr">
         <is>
           <t>ඞА теперь я просто хочу, чтобы ты знал...</t>
         </is>
@@ -8105,7 +8105,7 @@
           <t>You crouch down to catch his final words. With his last ounce of strength, the clown lifts his bloodied hand and draws one final, shaky grin on your lips. His last breath escaping.</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="H160" s="0" t="inlineStr">
         <is>
           <t>ඞТы приседаешь, чтобы расслышать его последние слова. Собрав последние силы, клоун поднимает окровавленную руку и рисует на твоих губах последнюю дрожащую улыбку. Он испускает последний вздох.</t>
         </is>
@@ -8153,7 +8153,7 @@
 You seem... too occupied to truly enjoy this place...</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="H161" s="0" t="inlineStr">
         <is>
           <t>ඞЯ понял это с тех пор, как ты приехала...
 Ты кажешься... слишком занятой, чтобы по-настоящему насладиться этим местом...</t>
@@ -8196,7 +8196,7 @@
           <t>You try to check his injuries. But he's hurt so bad, there's no hope of recovery.</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="H162" s="0" t="inlineStr">
         <is>
           <t>ඞВы пытаетесь осмотреть его раны. Но он так сильно ранен, что надежды на выздоровление нет.</t>
         </is>
@@ -8238,7 +8238,7 @@
           <t>Just... remember to smile...</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="H163" s="0" t="inlineStr">
         <is>
           <t>ඞПросто... не забывай улыбаться...</t>
         </is>
@@ -8280,7 +8280,7 @@
           <t>Upon uttering his final sentence, his hand drops weakly to the ground. His eyes, once animated with exaggerated expressions, now lay open lifelessly, vacantly gazing up at the sky.</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="H164" s="0" t="inlineStr">
         <is>
           <t>ඞКогда он произносит последнюю фразу, его рука безвольно опускается на землю. Его глаза, когда-то оживленные преувеличенным выражением, теперь безжизненно открыты и безучастно смотрят в небо.</t>
         </is>
@@ -8328,7 +8328,7 @@
 His body lies still, submerged in a pool of blood, the flicker of life extinguished forever. Left eternally in his grubby costume, you stare at his face, still smeared with clown makeup. It dawns on you that you've never beheld his true visage.</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H165" s="0" t="inlineStr">
         <is>
           <t>ඞКогда он произносит последнюю фразу, его рука безвольно опускается на землю. Его глаза, когда-то оживленные преувеличенным выражением, теперь безжизненно открыты и бессмысленно смотрят в небо.
 Его тело неподвижно лежит, погруженное в лужу крови, искра жизни погасла навсегда. Оставшись навсегда в его неряшливом костюме, вы смотрите на его лицо, все еще покрытое клоунским гримом. До вас доходит, что вы никогда не видели его настоящего облика.</t>
@@ -8371,7 +8371,7 @@
           <t>His body lies still, submerged in a pool of blood, the flicker of life extinguished forever. Left eternally in his grubby costume, you stare at his face, still smeared with clown makeup. It dawns on you that you've never beheld his true visage.</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="H166" s="0" t="inlineStr">
         <is>
           <t>ඞЕго тело неподвижно лежит в луже крови, искра жизни угасла навсегда. Оставшись в своем неряшливом костюме, вы смотрите на его лицо, все еще покрытое клоунским гримом. До вас доходит, что вы никогда не видели его настоящего облика.</t>
         </is>
@@ -8419,7 +8419,7 @@
 In the place where he vanished lie quietly a blood-red shard.</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="H167" s="0" t="inlineStr">
         <is>
           <t>ඞОт его безжизненного тела поднимается облако красного тумана, которое на мгновение повисает в воздухе, прежде чем рассеяться вместе с телом.
 На том месте, где он исчез, спокойно лежит кроваво-красный осколок.</t>
@@ -8462,7 +8462,7 @@
           <t>Manor</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="H168" s="0" t="inlineStr">
         <is>
           <t>ඞПоместье</t>
         </is>
@@ -8508,7 +8508,7 @@
           <t>The main path leads to a meticulously kept &lt;color=#FFD700&gt;mansion&lt;/color&gt;. Neat and tidy are the only impression you get. But on the right, a set of shrubs are squashed like they've been crashed by an oppressive weight. There are also &lt;color=#DC143C&gt;blood&lt;/color&gt; splattering around.</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="H169" s="0" t="inlineStr">
         <is>
           <t>ඞГлавная дорожка ведет к тщательно ухоженному особняку &lt;color=#FFD700&gt;. Единственное впечатление, которое вы получаете, - это опрятность. Но справа кусты примяты, как будто на них обрушился тяжелый груз. Вокруг также разбрызгана &lt;color=#DC143C&gt;кровь.</t>
         </is>
@@ -8550,7 +8550,7 @@
           <t>Just then, you hear a rhythm of &lt;color=#FFD700&gt;"knock, knock, knock"&lt;/color&gt; from the heart of the garden, as if someone is tapping on something.</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="H170" s="0" t="inlineStr">
         <is>
           <t>ඞВ этот момент из глубины сада доносится ритмичное "тук, тук, тук", как будто кто-то по чему-то постукивает.</t>
         </is>
@@ -8592,7 +8592,7 @@
           <t>A narrow, secluded path, obscured by branches and shrubs, leads off to &lt;color=#FFD700&gt;the left side of the garden&lt;/color&gt;. That's an unusually tranquil option.</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="H171" s="0" t="inlineStr">
         <is>
           <t>ඞУзкая уединенная тропинка, скрытая ветвями и кустарником, ведет в &lt;color=#FFD700&gt;левую часть сада&lt;/color&gt;. Это необычайно спокойный вариант.</t>
         </is>
@@ -8634,7 +8634,7 @@
           <t>Right in the center of the garden, a &lt;color=#DC143C&gt;thick red mist&lt;/color&gt;twists and writhes, as if something's itching to blend and break free.</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="H172" s="0" t="inlineStr">
         <is>
           <t>ඞПрямо в центре сада &lt;color=#DC143C&gt;клубится густой красный туман&lt;/color&gt;, как будто что-то жаждет раствориться и вырваться на свободу.</t>
         </is>
@@ -8676,7 +8676,7 @@
           <t>As you approach the gate, you notice a nameplate: Rosalind. There's a sign of "Do Not Disturb" hanging below it.</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="H173" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы подходите к воротам, вы замечаете табличку с именем: Розалинда. Под ней висит табличка "Не беспокоить".</t>
         </is>
@@ -8724,7 +8724,7 @@
 After a careful listen, you predict it's safe inside.</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="H174" s="0" t="inlineStr">
         <is>
           <t>ඞДверь приоткрыта, и виден кусочек помещения, хотя внутри слишком темно, чтобы что-то разглядеть.
 Внимательно прислушавшись, вы решаете, что внутри безопасно.</t>
@@ -8767,7 +8767,7 @@
           <t>Check Mansion</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="H175" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте особняк</t>
         </is>
@@ -8815,7 +8815,7 @@
 Among the mess, you find a small knife and a shotgun with no more shells. Further away in the grass, you find a trench coat.</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="H176" s="0" t="inlineStr">
         <is>
           <t>ඞКусты здесь примяты и повреждены, а на деревьях поблизости есть отверстия от пуль.
 Среди беспорядка вы находите небольшой нож и дробовик, в котором больше нет патронов. Чуть дальше в траве вы находите плащ.</t>
@@ -8864,7 +8864,7 @@
 The file folder has bloodstains all over it. Inside, you find a contract. It stated that Rosalind willingly transferred ownership of Far Hope Park to the Vescontes.</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="H177" s="0" t="inlineStr">
         <is>
           <t>ඞСпрятанную среди веток и прутьев, вы обнаруживаете папку с документами.
 Папка с документами вся в пятнах крови. Внутри вы находите контракт. В нем говорится, что Розалинда добровольно передала право собственности на парк Фар Хоуп семейству Весконт.</t>
@@ -8907,7 +8907,7 @@
           <t>Check Bloodstains</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="H178" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте наличие пятен крови</t>
         </is>
@@ -8949,7 +8949,7 @@
           <t>You notice a grave. It's already dug up.</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="H179" s="0" t="inlineStr">
         <is>
           <t>ඞВы замечаете могилу. Она уже разрыта.</t>
         </is>
@@ -8991,7 +8991,7 @@
           <t>Walking further into the garden, you come across a suspicious figure. They seem highly alert and, the moment they sense you, they quickly create a bubble and hop inside it. That figure just vanishes.</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="H180" s="0" t="inlineStr">
         <is>
           <t>ඞПроходя дальше по саду, вы натыкаетесь на подозрительную фигуру. Они кажутся очень бдительными и, как только чувствуют вас, быстро создают пузырь и запрыгивают в него. Эта фигура просто исчезает.</t>
         </is>
@@ -9033,7 +9033,7 @@
           <t>You go to where the sound comes from and find a grave. The grave is already dug up. Beside it, there is a shimmering bubble.</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="H181" s="0" t="inlineStr">
         <is>
           <t>ඞВы идете туда, откуда доносится звук, и находите могилу. Могила уже выкопана. Рядом с ней находится мерцающий пузырь.</t>
         </is>
@@ -9075,7 +9075,7 @@
           <t>Go Further</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="H182" s="0" t="inlineStr">
         <is>
           <t>ඞИдите дальше</t>
         </is>
@@ -9117,7 +9117,7 @@
           <t>As you come closer to the red mist, your thoughts begin to slow, and your mind grows sluggish and heavy.</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="H183" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь к красному туману, ваши мысли начинают замедляться, а разум становится вялым и тяжелым.</t>
         </is>
@@ -9159,7 +9159,7 @@
           <t>Before you, a crimson mirror appears. The square frame floats in mid-air with a deep-red void as its surface.</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="H184" s="0" t="inlineStr">
         <is>
           <t>ඞПеред вами появится малиновое зеркало. Квадратная рамка парит в воздухе, а ее поверхность покрыта темно-красной пустотой.</t>
         </is>
@@ -9201,7 +9201,7 @@
           <t>Check Red Mist</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H185" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте Красный туман</t>
         </is>
@@ -9255,7 +9255,7 @@
 Nearby, there's an open chest with a notebook and an old photograph.</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="H186" s="0" t="inlineStr">
         <is>
           <t>ඞНа надгробии выбито имя [Алессио], а эпитафия гласит: "Я не совсем перестал существовать".
 Гроб вскрыт, и оттуда доносится мрачный запах влажной земли. Внутри лежит разлагающийся скелет со следами кольца &lt;color=#FFD700&gt; на косточке одного пальца.
@@ -9299,7 +9299,7 @@
           <t>Old Photograph</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="H187" s="0" t="inlineStr">
         <is>
           <t>ඞСтарая фотография</t>
         </is>
@@ -9347,7 +9347,7 @@
 You pick up the old photo of a young couple sitting and snuggling by the tranquil lake, their silhouettes illuminated by the gentle moonlight. Even through the confines of this captured moment, a powerful, unspoken love grabs your heart, a love so palpable that it transcends the boundaries of mere paper and ink.</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="H188" s="0" t="inlineStr">
         <is>
           <t>ඞЭтот блокнот посвящен архитектурным проектам, содержит множество глубоких идей и проникновенных размышлений.
 Вы берете в руки старую фотографию молодой пары, которая сидит, обнявшись, на берегу спокойного озера, их силуэты освещены мягким лунным светом. Даже в этот запечатленный момент ваше сердце охватывает сильная, невысказанная любовь, настолько ощутимая, что она выходит за рамки простой бумаги и чернил.</t>
@@ -9396,7 +9396,7 @@
 You pass the photograph to Gioia. She looks at it with an even more perplexed expression.</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="H189" s="0" t="inlineStr">
         <is>
           <t>ඞВы внимательно рассматриваете дату, выгравированную на гравюре: 1956 год. Фотография, выполненная в оттенках сепии, по-видимому, сделана полвека назад. Вы озадачены.
 Вы передаете фотографию Джойе. Она смотрит на нее с еще более озадаченным выражением лица.</t>
@@ -9451,7 +9451,7 @@
 Is this some kind of cruel prank? Seriously, it's way too much.</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="H190" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не помню, чтобы здесь была могила.
 А? Имя на надгробии такое же, как у моего отца...
@@ -9495,7 +9495,7 @@
           <t>But look at how worn out it is, it doesn't seem fake.</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="H191" s="0" t="inlineStr">
         <is>
           <t>ඞНо посмотрите, насколько она изношена, она не кажется фальшивой.</t>
         </is>
@@ -9537,7 +9537,7 @@
           <t>My father never said anything about having siblings, and I've only been gone for a little while. How could there suddenly be a grave?</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="H192" s="0" t="inlineStr">
         <is>
           <t>ඞМой отец никогда ничего не говорил о том, что у меня есть братья и сестры, а меня не было совсем недолго. Откуда вдруг взялась могила?</t>
         </is>
@@ -9582,7 +9582,7 @@
           <t>She turns to you for help, but you are just as baffled. After a quick pause, you decide to set aside these questions for now and keep on exploring.</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="H193" s="0" t="inlineStr">
         <is>
           <t>ඞОна обращается к вам за помощью, но вы так же сбиты с толку. После короткой паузы вы решаете пока отложить эти вопросы и продолжить исследование.</t>
         </is>
@@ -9624,7 +9624,7 @@
           <t>Check the Grave</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="H194" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте могилу</t>
         </is>
@@ -9666,7 +9666,7 @@
           <t>Gioia</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="H195" s="0" t="inlineStr">
         <is>
           <t>ඞРадость</t>
         </is>
@@ -9709,7 +9709,7 @@
           <t>Upon arriving here, Gioia's condition appears to be &lt;color=#DC143C&gt;rather off&lt;/color&gt;. She seems quite uncomfortable. Her complexion has turned frighteningly pale, tiny beads of sweat form on her forehead, and her breathing has become noticeably rapid.</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
+      <c r="H196" s="0" t="inlineStr">
         <is>
           <t>ඞПо прибытии сюда состояние Джойи, по-видимому, было &lt;color=#DC143C&gt; довольно тяжелым&lt;/color&gt;. Она, кажется, чувствует себя довольно неуютно. Цвет ее лица стал пугающе бледным, на лбу выступили капельки пота, а дыхание стало заметно учащенным.</t>
         </is>
@@ -9751,7 +9751,7 @@
           <t>Trembling hands clutching her chest, she looks as if she's struggling. Even her steps become unsteady.</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="H197" s="0" t="inlineStr">
         <is>
           <t>ඞДрожащими руками она прижимает себя к груди, выглядит так, будто борется с собой. Даже ее шаги становятся неуверенными.</t>
         </is>
@@ -9799,7 +9799,7 @@
 Can we take a short break? It won't take long.</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="H198" s="0" t="inlineStr">
         <is>
           <t>ඞИзвините, я неважно себя чувствую.
 Мы можем сделать небольшой перерыв? Это не займет много времени.</t>
@@ -9842,7 +9842,7 @@
           <t>Seeing that Gioia's struggling even to walk, you decide to let her rest for a while.</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="H199" s="0" t="inlineStr">
         <is>
           <t>ඞВидя, что Джойе трудно даже ходить, вы решаете дать ей немного отдохнуть.</t>
         </is>
@@ -9890,7 +9890,7 @@
 After a short breather, Gioia looks a bit better. Both of you are ready to move on.</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="H200" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы оба отдыхаете, вы слышите слабый треск, но после тщательного осмотра поблизости вы не обнаруживаете никаких повреждений.
 После небольшой передышки Джойя выглядит немного лучше. Вы оба готовы двигаться дальше.</t>
@@ -9933,7 +9933,7 @@
           <t>Rest and Wait</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="H201" s="0" t="inlineStr">
         <is>
           <t>ඞОтдыхай и жди</t>
         </is>
@@ -9975,7 +9975,7 @@
           <t>Just upon touching the bubble, your surroundings spin and distort in a dizzying whirl, followed by a blinding flash of white light. Suddenly, you find yourself in an entirely different place.</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="H202" s="0" t="inlineStr">
         <is>
           <t>ඞКак только вы дотрагиваетесь до пузыря, все вокруг начинает вращаться и искажаться в головокружительном вихре, за которым следует ослепительная вспышка белого света. Внезапно вы оказываетесь в совершенно другом месте.</t>
         </is>
@@ -10017,7 +10017,7 @@
           <t>After the dizziness subsides, you find yourself in a new place: a restaurant.</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="H203" s="0" t="inlineStr">
         <is>
           <t>ඞПосле того, как головокружение проходит, вы оказываетесь в новом месте: ресторане.</t>
         </is>
@@ -10059,7 +10059,7 @@
           <t>Touch the Bubble</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="H204" s="0" t="inlineStr">
         <is>
           <t>ඞПрикоснись к пузырю</t>
         </is>
@@ -10101,7 +10101,7 @@
           <t>The transport bubble will send you to an unknown location.</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="H205" s="0" t="inlineStr">
         <is>
           <t>ඞТранспортный пузырь отправит вас в неизвестное место.</t>
         </is>
@@ -10143,7 +10143,7 @@
           <t>You see a vision of Alessio in his final moments, his body extremely frail, as if he were made of a piece of paper.</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="H206" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите Алессио в его последние минуты, его тело чрезвычайно хрупкое, как будто он сделан из листа бумаги.</t>
         </is>
@@ -10185,7 +10185,7 @@
           <t>Then, the rolling red mist slows down, and the scene abruptly enters slow motion. You hear Alessio's plea:</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="H207" s="0" t="inlineStr">
         <is>
           <t>ඞЗатем клубящийся красный туман замедляется, и сцена внезапно переходит в режим замедленной съемки. Вы слышите мольбу Алессио:</t>
         </is>
@@ -10233,7 +10233,7 @@
 Take everything I have, my very soul... Just let Rosa be happy...</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="H208" s="0" t="inlineStr">
         <is>
           <t>ඞЕсли действительно произойдет чудо... даже если это будет сделка с дьяволом...
 Возьми все, что у меня есть, даже мою душу... Просто позволь Розе быть счастливой...</t>
@@ -10276,7 +10276,7 @@
           <t>The red mist roils again, and the scene returns to normal. In the end, Alessio closes his eyes. His ring emits a red glimmer. That glimmer then transforms into a streak of light and slips into Rosa's ring.</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="H209" s="0" t="inlineStr">
         <is>
           <t>ඞСнова клубится красный туман, и сцена возвращается в нормальное русло. В конце Алессио закрывает глаза. Его кольцо начинает мерцать красным. Затем это мерцание превращается в полосу света и переходит в кольцо Розы.</t>
         </is>
@@ -10318,7 +10318,7 @@
           <t>Rosa weeps in grief and sorrow. You see her tears fall, one drop after another, slowly and gradually to an ethereal bright white shimmer in the air. Instinctively, you reach out your hand. The radiant shimmer lands in your palm, transforming into a translucent white crystal.</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="H210" s="0" t="inlineStr">
         <is>
           <t>ඞРоза плачет от горя и тоски. Вы видите, как ее слезы падают, капля за каплей, медленно и постепенно, превращаясь в неземное ярко-белое мерцание в воздухе. Вы инстинктивно протягиваете руку. Сияющее мерцание падает на вашу ладонь, превращаясь в полупрозрачный белый кристалл.</t>
         </is>
@@ -10360,7 +10360,7 @@
           <t>Touch the Mirror</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="H211" s="0" t="inlineStr">
         <is>
           <t>ඞПрикоснись к зеркалу</t>
         </is>
@@ -10402,7 +10402,7 @@
           <t>Loch</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="H212" s="0" t="inlineStr">
         <is>
           <t>ඞДыра</t>
         </is>
@@ -10444,7 +10444,7 @@
           <t>The girl lets out an agonized yet silent sigh. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls. Her hand immerses inside the cluster of bubbles in front before pulling out a charred card. The black smoke rising from its surface tells the girl how it has come to her.</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="H213" s="0" t="inlineStr">
         <is>
           <t>ඞДевушка испускает мучительный, но тихий вздох. На ее слабо освещенных волосах сидит бейсболка, текстура которой переливается блеском кожи рептилий, возвращая отблеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство подобно вздымающимся стенам. Ее рука погружается в скопление пузырьков впереди, прежде чем вытащить обугленную карточку. Черный дым, поднимающийся от ее поверхности, говорит девушке о том, как она попала к ней.</t>
         </is>
@@ -10486,7 +10486,7 @@
           <t>"Tsk, another wasted. Good thing I backed up the data."</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="H214" s="0" t="inlineStr">
         <is>
           <t>ඞ- Тсс, еще одна потеря. Хорошо, что я сделал резервную копию данных."</t>
         </is>
@@ -10528,7 +10528,7 @@
           <t>As if having received the command, the serpent entangling her other arm erects from its prone position. A beam of white light takes form inside its stretched mouth, then fires at the sizzling card.</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="H215" s="0" t="inlineStr">
         <is>
           <t>ඞСловно получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа. Из ее растянутой пасти появляется луч белого света, который затем выстреливает в шипящую карту.</t>
         </is>
@@ -10570,7 +10570,7 @@
           <t>"Now that you've squandered what I gave you, I'll have to format you to prevent data conflict."</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="H216" s="0" t="inlineStr">
         <is>
           <t>ඞ"Теперь, когда вы растратили то, что я вам дал, мне придется отформатировать вас, чтобы предотвратить конфликт данных".</t>
         </is>
@@ -10612,7 +10612,7 @@
           <t>The glow dissipates. The card regain its pristine cobalt blue color.</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="H217" s="0" t="inlineStr">
         <is>
           <t>ඞСвечение рассеивается. Карточка приобретает свой первоначальный кобальтово-синий цвет.</t>
         </is>
@@ -10654,7 +10654,7 @@
           <t>"Make both ends meet next time and get your job done before the world explodes. I've invested more than enough on you."</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="H218" s="0" t="inlineStr">
         <is>
           <t>ඞ"В следующий раз сведи концы с концами и сделай свою работу до того, как мир взорвется. Я вложил в тебя более чем достаточно".</t>
         </is>
@@ -10702,7 +10702,7 @@
 In a white flash, the girl has left the room, leaving only her idle voice echoing behind.</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="H219" s="0" t="inlineStr">
         <is>
           <t>ඞКарточка в ее руке вскоре возвращается на свое место внутри плавучего пузыря, окруженного причудливым сиянием.
 В белой вспышке девушка покидает комнату, оставляя после себя только эхо своего праздного голоса.</t>
@@ -10745,7 +10745,7 @@
           <t>"You'd better make it worth the price, otherwise I'll have your vessel instead."</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="H220" s="0" t="inlineStr">
         <is>
           <t>ඞ- Тебе лучше заплатить за это такую цену, иначе я заберу твой сосуд.</t>
         </is>
@@ -10787,7 +10787,7 @@
           <t>Futile Endeavor</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="H221" s="0" t="inlineStr">
         <is>
           <t>ඞТщетные попытки</t>
         </is>
@@ -10835,7 +10835,7 @@
 Though there are still some missing pieces to the puzzle, it seems you have yet to reach the end of the book.</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="H222" s="0" t="inlineStr">
         <is>
           <t>ඞВы открываете глаза и видите все знакомое в том мире, который вы знаете. Вы потерпели неудачу.
 Хотя в головоломке все еще не хватает нескольких кусочков, кажется, что вы еще не дочитали книгу до конца.</t>
@@ -10884,7 +10884,7 @@
 The feeling of having your soul scorched by that incandescent glare while disintegrated, however, is something you don't want to experience for a second time.</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="H223" s="0" t="inlineStr">
         <is>
           <t>ඞВаш единственный шанс вернуться в мир неразгаданных тайн - это выполнить ЕЕ задание.
 Однако, ощущение того, что ваша душа опалена этим раскаленным светом и при этом распадается на части, - это то, что вы не захотите испытать во второй раз.</t>
@@ -10930,7 +10930,7 @@
 They will offer you great assistance during your next attempt.</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="H224" s="0" t="inlineStr">
         <is>
           <t>ඞК счастью, другие ваши опыты гораздо менее болезненны и более информативны.
 Они окажут вам большую помощь при следующей попытке.</t>
@@ -10973,7 +10973,7 @@
           <t>The girl's curious eyes capture something inside the floating bubbles. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls. Her hand immerses inside the cluster of bubbles in front before pulling out a reddened card.</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="H225" s="0" t="inlineStr">
         <is>
           <t>ඞЛюбопытные глаза девушки улавливают что-то внутри плавающих пузырьков. На ее слабо освещенных волосах надета бейсболка, текстура которой придает блеск коже рептилий, возвращая блеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство, словно вздымающиеся стены. Ее рука погружается в скопление пузырьков впереди, прежде чем вытащить покрасневшую карточку.</t>
         </is>
@@ -11015,7 +11015,7 @@
           <t>"Ha, so it's still contagious after traversing to our dimension. Interesting."</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="H226" s="0" t="inlineStr">
         <is>
           <t>ඞ- Ха, так это все еще заразно после перехода в наше измерение. Интересно.</t>
         </is>
@@ -11057,7 +11057,7 @@
           <t>As if having received the command, the serpent entangling her other arm erects from its prone position. A beam of white light takes form inside its stretched mouth, then fires at the card. She smiles as the red taint dances at the tip of her finger.</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="H227" s="0" t="inlineStr">
         <is>
           <t>ඞКак будто получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа. Из ее растянутой пасти вырывается луч белого света, который затем выстреливает в карту. Она улыбается, когда на кончике ее пальца пляшет красное пятно.</t>
         </is>
@@ -11105,7 +11105,7 @@
 The hue fades out in the air, and the girl is amused.</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="H228" s="0" t="inlineStr">
         <is>
           <t>ඞМалиновая аура пытается вырваться из-под контроля своей новой хозяйки, но, что неудивительно, терпит неудачу.
 Оттенок исчезает в воздухе, и девушка удивляется.</t>
@@ -11148,7 +11148,7 @@
           <t>"Parasitizing other lifeforms to sustain its real master. Very innovative."</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="H229" s="0" t="inlineStr">
         <is>
           <t>ඞ"Паразитирует на других формах жизни, чтобы поддерживать своего настоящего хозяина. Очень инновационно".</t>
         </is>
@@ -11190,7 +11190,7 @@
           <t>"It even goes out its way to hide inside the folded space to evade other examining eyes..."</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H230" s="0" t="inlineStr">
         <is>
           <t>ඞ"Он даже старается спрятаться в сложенном пространстве, чтобы избежать посторонних глаз..."</t>
         </is>
@@ -11232,7 +11232,7 @@
           <t>"Looks like you'd need the key to the space, if you really wish to solve the problem..."</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="H231" s="0" t="inlineStr">
         <is>
           <t>ඞ- Похоже, вам понадобится ключ от этого помещения, если вы действительно хотите решить проблему...</t>
         </is>
@@ -11274,7 +11274,7 @@
           <t>Specular Refelction</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
+      <c r="H232" s="0" t="inlineStr">
         <is>
           <t>ඞЗеркальное отражение</t>
         </is>
@@ -11328,7 +11328,7 @@
 Perhaps there's more to this amusement park that withstood half a century's history...</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="H233" s="0" t="inlineStr">
         <is>
           <t>ඞСтрах задохнуться внутри кровавого озера все еще преследует вас, когда вы приходите в себя в уединенном месте.
 Парк скрывает от вас больше секретов, чем кажется. Жуткий туман, обезумевшие зараженные, обиженные призраки... Вы все еще не можете найти невидимую нить, которая связывает их воедино.
@@ -11375,7 +11375,7 @@
           <t>You don't want your next attempt to end up in the lake again, and thus you decide to turn the stones that you've yet to examine this time. The painful experience should offer you great help in the next try.</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="H234" s="0" t="inlineStr">
         <is>
           <t>ඞВы не хотите, чтобы ваша следующая попытка снова закончилась падением в озеро, и поэтому вы решаете перевернуть камни, которые вам еще предстоит изучить на этот раз. Болезненный опыт должен стать для вас отличным подспорьем при следующей попытке.</t>
         </is>
@@ -11423,7 +11423,7 @@
 The wheel of time freezes. The world is fraying.</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="H235" s="0" t="inlineStr">
         <is>
           <t>ඞВнезапно вас ослепляет белая вспышка, и прежде чем вы успеваете это осознать, вы оказываетесь внутри плавучего пузыря, за его эфирной оболочкой.
 Колесо времени замирает. Мир рушится.</t>
@@ -11484,7 +11484,7 @@
 The hands, arms, torso, legs... They're merely returning to their true form: string after string of lifeless numbers and characters, breaking up like scattered jigsaw pieces.</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
+      <c r="H236" s="0" t="inlineStr">
         <is>
           <t>ඞТвои беспомощные, полные ужаса глаза широко раскрываются.
 Материалы и сущности, из которых построен мир, теряют свое место в измерениях.
@@ -11535,7 +11535,7 @@
 The remnant of your vision sees you disintegrating with the rest of the world, giving way to lines and columns of programs before all cease to be on a black screen.</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="H237" s="0" t="inlineStr">
         <is>
           <t>ඞСознание ускользает. Логика рушится, когда ход ваших мыслей распадается на отдельные сегменты. Ослепительная вспышка.
 Остатки вашего зрения видят, как вы распадаетесь на части вместе с остальным миром, уступая место строчкам и столбцам программ, прежде чем все это исчезнет на черном экране.</t>
@@ -11578,7 +11578,7 @@
           <t>The girl plays with the cobalt blue card in one of her hands with joy. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls.</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
+      <c r="H238" s="0" t="inlineStr">
         <is>
           <t>ඞДевушка радостно поигрывает кобальтово-синей карточкой, которую держит в руке. На ее слабо освещенных волосах сидит бейсболка, текстура которой переливается блеском кожи рептилии, возвращая отблеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство подобно вздымающимся стенам.</t>
         </is>
@@ -11626,7 +11626,7 @@
 "Not half bad. I can see why Tawil has her eyes on you."</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="H239" s="0" t="inlineStr">
         <is>
           <t>ඞ- Ха, я никогда не думал, что этот сосуд сработает.
 - Неплохо. Теперь я понимаю, почему Тавиль положила на тебя глаз.</t>
@@ -11669,7 +11669,7 @@
           <t>The girl's eyes then land on the floating cluster of bubbles. Their bizarre luminescence doesn't seem to daze her at all as she loses in thoughts.</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="H240" s="0" t="inlineStr">
         <is>
           <t>ඞЗатем взгляд девушки останавливается на скоплении плавающих пузырьков. Их причудливое свечение, кажется, совсем не ошеломляет ее, поскольку она погружена в свои мысли.</t>
         </is>
@@ -11717,7 +11717,7 @@
 "That would be your problem, not mine."</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
+      <c r="H241" s="0" t="inlineStr">
         <is>
           <t>ඞ"Очень жаль. Вы разгадали головоломку, но у вас нет того, что нужно, чтобы переписать историю. И все же..."
 "Это была бы ваша проблема, а не моя".</t>
@@ -11760,7 +11760,7 @@
           <t>As if having received the command, the serpent entangling her other arm erects from its prone position. Dark energies take form inside its open mouth before they drain away the blue glow from the surface of the card.</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H242" s="0" t="inlineStr">
         <is>
           <t>ඞКак будто получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа. Темные энергии формируются в ее открытой пасти, прежде чем погасить голубое свечение на поверхности карты.</t>
         </is>
@@ -11802,7 +11802,7 @@
           <t>"And now you've been repaid. The rest is in your hands."</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="H243" s="0" t="inlineStr">
         <is>
           <t>ඞ- И теперь ты получил по заслугам. Остальное в твоих руках.</t>
         </is>
@@ -11844,7 +11844,7 @@
           <t>Maculated Perfection</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="H244" s="0" t="inlineStr">
         <is>
           <t>ඞЖелтоватое совершенство</t>
         </is>
@@ -11898,7 +11898,7 @@
 Only time can heal the wounds.</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
+      <c r="H245" s="0" t="inlineStr">
         <is>
           <t>ඞВы разрешили кризис, остановив распространение красного тумана.
 Но безумие тех, кто заражен этим безумием, невозможно остановить, поскольку они разрушают все на своих глазах с безымянным остервенением.
@@ -11948,7 +11948,7 @@
 They will only remember it as the source of a terrible story.</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="H246" s="0" t="inlineStr">
         <is>
           <t>ඞИсчез парк развлечений, с которым у людей были связаны самые дорогие воспоминания.
 Люди будут вспоминать о нем только как об источнике ужасной истории.</t>
@@ -11997,7 +11997,7 @@
 One by one, you defeat the illusions inside the red mist.</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="H247" s="0" t="inlineStr">
         <is>
           <t>ඞТы отказываешься позволить своему безумию взять верх над собой, когда кровавая луна пробуждает внутреннего зверя в твоем сознании.
 Одну за другой ты побеждаешь иллюзии, скрывающиеся в красном тумане.</t>
@@ -12052,7 +12052,7 @@
 In the sacred moonlight, people's delirium wanes and sanity once again restores onto their reclaimed minds.</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
+      <c r="H248" s="0" t="inlineStr">
         <is>
           <t>ඞКровавую луну окутывает голубоватый свет, и ее багровое сияние отступает.
 Краснота отступает, сменяясь ночным покоем, который должен был быть здесь всегда.
@@ -12102,7 +12102,7 @@
 As your vision begins to wriggle and revolve, you find yourself flowing adrift inside the vortex of space and time.</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
+      <c r="H249" s="0" t="inlineStr">
         <is>
           <t>ඞВ ослепительной белой вспышке гравитационные силы всенаправленных измерений разрывают вас на части.
 Когда ваше зрение начинает искажаться, вы обнаруживаете, что плывете по течению в вихре пространства и времени.</t>
@@ -12145,7 +12145,7 @@
           <t>The girl pulls a cobalt blue card from the cluster of babblers, fires of rage flaming in her eyes. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls.</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
+      <c r="H250" s="0" t="inlineStr">
         <is>
           <t>ඞДевушка вытаскивает кобальтово-синюю карточку из группы болтунов, в ее глазах пылает ярость. На ее слабо освещенных волосах сидит бейсболка, текстура которой переливается блеском кожи рептилий, возвращая блеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство подобно вздымающимся стенам.</t>
         </is>
@@ -12187,7 +12187,7 @@
           <t>"Is this how you repay my generosity? By putting up a farce like that with the power I gave you?"</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="H251" s="0" t="inlineStr">
         <is>
           <t>ඞ- Так вот как ты отплатил за мою щедрость? Устроив такой фарс, используя ту власть, которую я тебе дал?</t>
         </is>
@@ -12229,7 +12229,7 @@
           <t>A smile of mockery appears on her curled lips as she sees the blue crystal shards.</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="H252" s="0" t="inlineStr">
         <is>
           <t>ඞНасмешливая улыбка появляется на ее скривленных губах, когда она видит осколки голубого хрусталя.</t>
         </is>
@@ -12271,7 +12271,7 @@
           <t>"Hmph. Maybe it's not as bad as I thought. As long as Tawil didn't get to have that..."</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="H253" s="0" t="inlineStr">
         <is>
           <t>ඞ- Хм. Может, все не так плохо, как я думал. Если только Тавил не перенес этого...</t>
         </is>
@@ -12319,7 +12319,7 @@
 The girl still wears the smile as she takes her leave.</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
+      <c r="H254" s="0" t="inlineStr">
         <is>
           <t>ඞСловно получив команду, змея, обвившая ее вторую руку, выпрямляется из положения лежа. Осколки голубого кристалла поднимаются со стола и оказываются в ее ужасной пасти, не причиняя вреда своему новому хозяину.
 Девушка все еще улыбается, когда уходит.</t>
@@ -12362,7 +12362,7 @@
           <t>"Looks who's falling behind now, Tawil."</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
+      <c r="H255" s="0" t="inlineStr">
         <is>
           <t>ඞ- Посмотрим, кто теперь отстает, Тавил.</t>
         </is>
@@ -12404,7 +12404,7 @@
           <t>Frenzying Truth</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
+      <c r="H256" s="0" t="inlineStr">
         <is>
           <t>ඞОшеломляющая правда</t>
         </is>
@@ -12455,7 +12455,7 @@
 The moon graces everything inside the park with its benevolence, and people's delirium wanes as sanity once again restores to their reclaimed minds.</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
+      <c r="H257" s="0" t="inlineStr">
         <is>
           <t>ඞПо мере того, как красный туман рассеивается в воздухе, кризис подходит к концу.
 Луна освещает все в парке своей благосклонностью, и безумие людей ослабевает, а здравомыслие вновь возвращается в их восстановленные умы.</t>
@@ -12504,7 +12504,7 @@
 The park's fate is in the hands of the residents of this world once more.</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
+      <c r="H258" s="0" t="inlineStr">
         <is>
           <t>ඞВремя поворачивает вспять, прежде чем снова остановиться на развилке. На этот раз вместо тропы, вымощенной трагедиями, оно ведет на нехоженую тропу.
 Судьба парка снова в руках жителей этого мира.</t>
@@ -12553,7 +12553,7 @@
 Nevertheless, the chapters of woe are now stories of the past, and stagnantion now gives way to the vibrant flow.</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
+      <c r="H259" s="0" t="inlineStr">
         <is>
           <t>ඞТолько время может сказать, какие чудеса или испытания ждут их впереди.
 Тем не менее, главы "Горя" теперь остались в прошлом, и застой уступает место бурному течению.</t>
@@ -12602,7 +12602,7 @@
 People will embrace the unknown with new hopes and expectations.</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
+      <c r="H260" s="0" t="inlineStr">
         <is>
           <t>ඞРека судьбы, некогда замерзшая, теперь размораживается, и открываются новые возможности.
 Люди будут принимать неизвестное с новыми надеждами и ожиданиями.</t>
@@ -12645,7 +12645,7 @@
           <t>A blinding white flash descends onto you as you are about to assimilate with the blood moon's wicked shade.</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
+      <c r="H261" s="0" t="inlineStr">
         <is>
           <t>ඞОслепительная белая вспышка обрушивается на вас, когда вы вот-вот сольетесь со зловещей тенью кровавой луны.</t>
         </is>
@@ -12693,7 +12693,7 @@
 The wheel of time freezes. The world is fraying.</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
+      <c r="H262" s="0" t="inlineStr">
         <is>
           <t>ඞПрежде чем вы осознаете это, вы оказываетесь внутри плавучего пузыря, за его эфирной оболочкой.
 Колесо времени останавливается. Мир разрушается.</t>
@@ -12736,7 +12736,7 @@
           <t>You see your body disintegrates like an unseen blade wades through it, sending thin layers of the flesh afloat inside the giant bubble.</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
+      <c r="H263" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите, как ваше тело распадается на части, словно невидимый клинок пронзает его насквозь, оставляя тонкие слои плоти на плаву внутри гигантского пузыря.</t>
         </is>
@@ -12778,7 +12778,7 @@
           <t>Clean cross sections expose to your naked eyes your pulsating veins and throbbing sinews.</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
+      <c r="H264" s="0" t="inlineStr">
         <is>
           <t>ඞЧеткие поперечные разрезы открывают невооруженным глазом ваши пульсирующие вены и напрягающиеся сухожилия.</t>
         </is>
@@ -12820,7 +12820,7 @@
           <t>But you aren't feeling any pain during the gory vivisection. Blankness and haziness are what gushing into your mind as consciousness fade away.</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
+      <c r="H265" s="0" t="inlineStr">
         <is>
           <t>ඞНо вы не чувствуете никакой боли во время кровавой вивисекции. Пустота и помутнение - вот что наполняет ваш разум, когда сознание угасает.</t>
         </is>
@@ -12868,7 +12868,7 @@
 The whole world seems to follow its steps as the white light bathes you again, filling your eyes with bright nothingness.</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
+      <c r="H266" s="0" t="inlineStr">
         <is>
           <t>ඞКраем глаза вы видите, как тонкие слои отделяются друг от друга, образуя то, что невидимо вашим усталым глазам, и исчезает в пузыре.
 Кажется, что весь мир следует своим чередом, когда белый свет снова заливает вас, наполняя ваши глаза яркой пустотой.</t>
@@ -12911,7 +12911,7 @@
           <t>The girl examines the blue card in her hand with her violet eyes of curiosity. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls.</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
+      <c r="H267" s="0" t="inlineStr">
         <is>
           <t>ඞДевушка с любопытством рассматривает синюю карточку в своей руке. На ее слабо освещенных волосах сидит бейсболка, текстура которой переливается, как кожа рептилии, возвращая блеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство, словно вздымающиеся стены.</t>
         </is>
@@ -12953,7 +12953,7 @@
           <t>"I didn't expect to get a peek of that one's power when I tosses the vessel into... whatever dimension that was."</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
+      <c r="H268" s="0" t="inlineStr">
         <is>
           <t>ඞ- Я не ожидал, что смогу хоть мельком увидеть его силу, когда брошу сосуд... в какое бы измерение это ни было.</t>
         </is>
@@ -13001,7 +13001,7 @@
 A beam of white light takes form inside its stretched mouth, then fires at the card. It regains its pristine cobalt blue color as the light fades.</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
+      <c r="H269" s="0" t="inlineStr">
         <is>
           <t>ඞКак будто получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа.
 Из ее растянутой пасти вырывается луч белого света, который затем выстреливает в карту. Когда свет гаснет, карта приобретает свой первозданный кобальтово-синий цвет.</t>
@@ -13044,7 +13044,7 @@
           <t>"Here's your due reward. Take it and be grateful now that I've fixed your tattered mind."</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
+      <c r="H270" s="0" t="inlineStr">
         <is>
           <t>ඞ- Вот тебе причитающаяся награда. Возьми ее и будь благодарен, что я привел в порядок твой расшатанный разум.</t>
         </is>
@@ -13086,7 +13086,7 @@
           <t>The girl then leaves the room in a flash.</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
+      <c r="H271" s="0" t="inlineStr">
         <is>
           <t>ඞЗатем девушка в мгновение ока покидает комнату.</t>
         </is>
@@ -13128,7 +13128,7 @@
           <t>Ridiculed End</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
+      <c r="H272" s="0" t="inlineStr">
         <is>
           <t>ඞОсмеянный конец</t>
         </is>
@@ -13176,7 +13176,7 @@
 The rampant disaster comes to a halt while the problem remains unsolved.</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
+      <c r="H273" s="0" t="inlineStr">
         <is>
           <t>ඞВаше расследование указало на виновника всепроникающего красного тумана, кровавую луну, но тем временем вы едва избежали его смертоносной ассимиляции.
 Надвигающаяся катастрофа прекращается, а проблема остается нерешенной.</t>
@@ -13219,7 +13219,7 @@
           <t>Only time can heal the wounds.</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
+      <c r="H274" s="0" t="inlineStr">
         <is>
           <t>ඞТолько время может залечить раны.</t>
         </is>
@@ -13270,7 +13270,7 @@
 They will only remember it as the stage where a terrible story took place.</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
+      <c r="H275" s="0" t="inlineStr">
         <is>
           <t>ඞИсчез парк развлечений, с которым у людей были связаны самые дорогие воспоминания.
 Они будут помнить его только как сцену, на которой произошла ужасная история.</t>
@@ -13313,7 +13313,7 @@
           <t>Shards of memory return to the girl like gemstones once lost, imbuing her with emotions strange and familiar. Something wells up from the bottom of her heart, the wonderful, the sorrowful, the lamentable...</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
+      <c r="H276" s="0" t="inlineStr">
         <is>
           <t>ඞОсколки воспоминаний возвращаются к девушке, как когда-то потерянные драгоценные камни, наполняя ее эмоциями, странными и знакомыми. Что-то поднимается из глубины ее сердца, чудесное, печальное, вызывающее сожаление...</t>
         </is>
@@ -13361,7 +13361,7 @@
 Time to wake up from the dream. She sighs.</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
+      <c r="H277" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя в последний раз бросает печальный взгляд на все вокруг, такое отвратительно мрачное и в то же время такое утешительное.
 Пора очнуться ото сна. Она вздыхает.</t>
@@ -13404,7 +13404,7 @@
           <t>Gavity holds her no more as she lets go of her legs, allowing the imaginary wings to take her closer to the moon.</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
+      <c r="H278" s="0" t="inlineStr">
         <is>
           <t>ඞГавити больше не удерживает ее, когда она отпускает ноги, позволяя воображаемым крыльям поднять ее ближе к Луне.</t>
         </is>
@@ -13446,7 +13446,7 @@
           <t>Its crimson light, no longer ominous, bathes the girl in its serene glow. Breezes flit across her dress as she takes the dark red stage of the night, whispering their prayers. Their mistress is departing.</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
+      <c r="H279" s="0" t="inlineStr">
         <is>
           <t>ඞЕго багровый свет, уже не зловещий, окутывает девушку своим безмятежным сиянием. Легкий ветерок трепещет по ее платью, когда она выходит на темно-красную сцену ночи, шепча молитвы. Их госпожа уходит.</t>
         </is>
@@ -13488,7 +13488,7 @@
           <t>Her body acquiesces to the promised farewell and yields up its existence, letting the moonlight through her crystalline torso and limbs. A cold warmth flows inside her.</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
+      <c r="H280" s="0" t="inlineStr">
         <is>
           <t>ඞЕе тело согласно с обещанным прощанием и прекращает свое существование, позволяя лунному свету проникать сквозь ее кристаллический торс и конечности. Внутри нее разливается холодное тепло.</t>
         </is>
@@ -13530,7 +13530,7 @@
           <t>She doesn't hear the tinkle or see the crevices climbing across her pellucid body as it crumbles. At least it doesn't hurt. Her tears meld into the vast red velvet with fraying fragments the wind peels from her.</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
+      <c r="H281" s="0" t="inlineStr">
         <is>
           <t>ඞОна не слышит звона и не видит, как по ее прозрачному телу расползаются трещины. По крайней мере, это не причиняет боли. Ее слезы смешиваются с огромным красным бархатом и обрывками ткани, которые ветер срывает с нее.</t>
         </is>
@@ -13572,7 +13572,7 @@
           <t>Slivers of crystal remnant recaptured by gravity, raining. Phantasmal vapor ceases. The night ends.</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
+      <c r="H282" s="0" t="inlineStr">
         <is>
           <t>ඞОсколки хрусталя, захваченные гравитацией, падают дождем. Призрачный пар рассеивается. Ночь заканчивается.</t>
         </is>
@@ -13626,7 +13626,7 @@
 The moon once again graces the world with its purity as the wheel of time reverses its rotation.</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
+      <c r="H283" s="0" t="inlineStr">
         <is>
           <t>ඞКровавую луну окутывает голубоватый свет, и ее багровое сияние отступает.
 Краснота отступает, сменяясь ночным покоем, который должен был быть здесь всегда.
@@ -13670,7 +13670,7 @@
           <t>In the new world this timeline depicts to you, &lt;color=#fbd989&gt;Alex&lt;/color&gt; has become a different person.</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
+      <c r="H284" s="0" t="inlineStr">
         <is>
           <t>ඞВ новом мире, который предстает перед вами на этой временной шкале, &lt;color=#fbd989&gt;Алекс&lt;/color&gt; стал другим человеком.</t>
         </is>
@@ -13718,7 +13718,7 @@
 However, it doesn't take long before he donates the property to the town and only offers his hand in its management.</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
+      <c r="H285" s="0" t="inlineStr">
         <is>
           <t>ඞОн наследует парк от Розалинды и становится его владельцем.
 Однако вскоре он передает собственность в дар городу и просто предлагает свою помощь в управлении.</t>
@@ -13767,7 +13767,7 @@
 In addition, Alex also sets up a psychological counseling office inside the town at the help of the local community.</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
+      <c r="H286" s="0" t="inlineStr">
         <is>
           <t>ඞПарк Фар-Хоуп вновь откроется в качестве полуобщественного парка для посетителей из ближнего и дальнего зарубежья.
 Кроме того, Алекс с помощью местного сообщества открывает в городе кабинет психологической консультации.</t>
@@ -13816,7 +13816,7 @@
 It's our hope that this may encourage you in dire hours.*&lt;/i&gt;&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
+      <c r="H287" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#636363&gt;&lt;i&gt;*Хотя счастье жизненно важно, мы всегда должны учиться принимать грусть и уныние, поскольку именно они делают нашу жизнь цельной.
 Мы надеемся, что это подбодрит вас в трудную минуту.*&lt;/i&gt;&lt;/color&gt;</t>
@@ -13865,7 +13865,7 @@
 He can finally enjoy a life of his own.</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
+      <c r="H288" s="0" t="inlineStr">
         <is>
           <t>ඞУвидев, что Алекс способен навести порядок собственными руками, Паскуалино покидает город, сняв с плеч тяжелую ношу.
 Наконец-то он может наслаждаться самостоятельной жизнью.</t>
@@ -13914,7 +13914,7 @@
 The least thing you want to do there would be ordering a pineapple pizza.</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
+      <c r="H289" s="0" t="inlineStr">
         <is>
           <t>ඞЧерез два года после того, как он уехал из Фар-Хоуп-Тауна, в итальянском ресторане в соседнем городе появился мускулистый шеф.
 Меньше всего на свете вам хотелось бы заказать там пиццу с ананасами.</t>
@@ -13957,7 +13957,7 @@
           <t>In another dimension, a girl examines the red crystal with her violet eyes of curiosity. Sits on her faintly lit hair is a baseball cap whose texture shimmers the luster of reptilian skins, redirecting the glint back to the white ophidian scales that clad the illusory space like billowing walls.</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
+      <c r="H290" s="0" t="inlineStr">
         <is>
           <t>ඞВ другом измерении девушка с любопытством рассматривает красный кристалл своими фиолетовыми глазами. На ее слабо освещенных волосах сидит бейсболка, текстура которой переливается блеском кожи рептилий, возвращая блеск белым змеиным чешуйкам, которые покрывают иллюзорное пространство подобно вздымающимся стенам.</t>
         </is>
@@ -14005,7 +14005,7 @@
 "A shame that you've squandered the most of it. Well, at least I get to to keep the key."</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
+      <c r="H291" s="0" t="inlineStr">
         <is>
           <t>ඞ"Я думал, что это просто моя невнимательность, но, оказывается, твое самосознание сыграло свою роль. Интересно".
 "Жаль, что ты растратил большую часть денег. Что ж, по крайней мере, у меня есть возможность сохранить ключ".</t>
@@ -14048,7 +14048,7 @@
           <t>"Oh, I almost forgot it. Your reward. Here, take it and be grateful."</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
+      <c r="H292" s="0" t="inlineStr">
         <is>
           <t>ඞ"О, я чуть не забыл об этом. Твоя награда. Вот, возьми ее и будь благодарен".</t>
         </is>
@@ -14090,7 +14090,7 @@
           <t>As if having received the command, the serpent entangling her other arm erects from its prone position. Lies inside its open mouth is a crimson ring.</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
+      <c r="H293" s="0" t="inlineStr">
         <is>
           <t>ඞСловно получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа. В ее открытой пасти находится малиновое кольцо.</t>
         </is>
@@ -14132,7 +14132,7 @@
           <t>"You've proved yourself worthy of my trust. Now if you'd excuse me..."</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
+      <c r="H294" s="0" t="inlineStr">
         <is>
           <t>ඞ- Вы доказали, что достойны моего доверия. А теперь, если позволите, я...</t>
         </is>
@@ -14174,7 +14174,7 @@
           <t>In a white flash, the girl has left the room, leaving only her idle voice echoing behind.</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
+      <c r="H295" s="0" t="inlineStr">
         <is>
           <t>ඞВ белой вспышке девушка покидает комнату, оставляя после себя только эхо своего праздного голоса.</t>
         </is>
@@ -14216,7 +14216,7 @@
           <t>Past Restored</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
+      <c r="H296" s="0" t="inlineStr">
         <is>
           <t>ඞПрошлое восстановлено</t>
         </is>
@@ -14264,7 +14264,7 @@
 The park's fate is in the hands of the residents of this world once more.</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
+      <c r="H297" s="0" t="inlineStr">
         <is>
           <t>ඞВремя поворачивает вспять, прежде чем снова остановиться на развилке. На этот раз вместо тропы, вымощенной трагедиями, оно ведет на нехоженую тропу.
 Судьба парка снова в руках жителей этого мира.</t>
@@ -14313,7 +14313,7 @@
 Nevertheless, the chapters of woe are now stories of the past, and stagnation now gives way to the vibrant flow.</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
+      <c r="H298" s="0" t="inlineStr">
         <is>
           <t>ඞТолько время может сказать, какие чудеса или испытания ждут их впереди.
 Тем не менее, печальные главы остались в прошлом, а застой уступил место бурному течению.</t>
@@ -14356,7 +14356,7 @@
           <t>Every other soul welcomes the happy ending at the cost of one soul's sacrifice.</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
+      <c r="H299" s="0" t="inlineStr">
         <is>
           <t>ඞКаждая вторая душа приветствует счастливый конец ценой жертвы одной души.</t>
         </is>
@@ -14404,7 +14404,7 @@
 Through the ring, you see the park with its peace restored and the genuine smiles on its visitors' faces.</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
+      <c r="H300" s="0" t="inlineStr">
         <is>
           <t>ඞЧто-то покалывает вас в кулаке. Когда вы раскрываете ладонь, на ней лежит малиновое кольцо, от которого все еще исходит знакомое тепло.
 Сквозь кольцо вы видите парк с восстановленным покоем и искренними улыбками на лицах посетителей.</t>
@@ -14447,7 +14447,7 @@
           <t>You put down the ring and examine its benevolent glow. Courage and determination fill your heart</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
+      <c r="H301" s="0" t="inlineStr">
         <is>
           <t>ඞВы кладете кольцо и смотрите, как оно благожелательно сияет. Мужество и решимость наполняют ваше сердце</t>
         </is>
@@ -14495,7 +14495,7 @@
 Various buildings and facilities are veiled by the mist, making it increasingly difficult to see clearly.</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
+      <c r="H302" s="0" t="inlineStr">
         <is>
           <t>ඞПока вы готовитесь к следующему шагу, местность постепенно окутывает красный туман.
 Различные здания и сооружения скрыты туманом, из-за чего становится все труднее их четко видеть.</t>
@@ -14538,7 +14538,7 @@
           <t>Black silhouettes are floating in the red mist, as if trapped in an eerie dream.</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
+      <c r="H303" s="0" t="inlineStr">
         <is>
           <t>ඞЧерные силуэты плывут в красном тумане, словно попавшие в жуткий сон.</t>
         </is>
@@ -14586,7 +14586,7 @@
 You muster your strength, barely managing to maintain focus. Fortunately, you still retain control over your actions.</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
+      <c r="H304" s="0" t="inlineStr">
         <is>
           <t>ඞУ вас начинает кружиться голова, как будто сознание покидает вас. Красный туман окутывает вас, словно желая завладеть вами. Однако пряность источает сладкий, но странный аромат.
 Вы собираете все свои силы, с трудом сохраняя сосредоточенность. К счастью, вы все еще сохраняете контроль над своими действиями.</t>
@@ -14635,7 +14635,7 @@
 You muster your strength, barely managing to maintain focus. Fortunately, you still retain control over your actions.</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
+      <c r="H305" s="0" t="inlineStr">
         <is>
           <t>ඞУ тебя начинает кружиться голова, как будто сознание покидает тебя. Красный туман окутывает тебя, словно желая завладеть тобой. Однако кулон излучает слабое свечение.
 Ты собираешь все свои силы, с трудом сохраняя сосредоточенность. К счастью, вы все еще сохраняете контроль над своими действиями.</t>
@@ -14678,7 +14678,7 @@
           <t>As your mind grows groggy and your sanity blurs, you suddenly catch a whiff of blood. Only then do you manage to regain some semblance of consciousness.</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
+      <c r="H306" s="0" t="inlineStr">
         <is>
           <t>ඞКогда ваш разум затуманивается, а здравомыслие затуманивается, вы внезапно ощущаете запах крови. Только тогда вам удается прийти в себя.</t>
         </is>
@@ -14720,7 +14720,7 @@
           <t>You muster your strength, barely managing to maintain focus. Fortunately, you still retain control over your actions.</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
+      <c r="H307" s="0" t="inlineStr">
         <is>
           <t>ඞВы собираете все свои силы, с трудом сохраняя сосредоточенность. К счастью, вы все еще сохраняете контроль над своими действиями.</t>
         </is>
@@ -14768,7 +14768,7 @@
 You close your eyes in agony, feeling as though your brain may crack under the weight of this cacophony.</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
+      <c r="H308" s="0" t="inlineStr">
         <is>
           <t>ඞЗапах сырости наполняет ваши ноздри, и ваши мысли начинают путаться. Вам кажется, что миллионы шепотов раздаются в ушах.
 Вы закрываете глаза в агонии, чувствуя, что ваш мозг может треснуть под тяжестью этой какофонии.</t>
@@ -14817,7 +14817,7 @@
 You sense everything around you becoming threatening, and feel an overwhelming urge to destroy them, to obliterate everything just to catch your breath.</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
+      <c r="H309" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы снова открываете глаза, ваше зрение затуманено маниакальным кроваво-красным оттенком.
 Вы чувствуете, что все вокруг вас становится угрожающим, и испытываете непреодолимое желание разрушить это, стереть все с лица земли, просто чтобы перевести дух.</t>
@@ -14860,7 +14860,7 @@
           <t>You hear the metallic clash of chains, and you recognize that the terrifying figure is pursuing you.</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
+      <c r="H310" s="0" t="inlineStr">
         <is>
           <t>ඞВы слышите металлический лязг цепей и понимаете, что ужасающая фигура преследует вас.</t>
         </is>
@@ -14902,7 +14902,7 @@
           <t>Escape from Executioner</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
+      <c r="H311" s="0" t="inlineStr">
         <is>
           <t>ඞПобег от палача</t>
         </is>
@@ -14944,7 +14944,7 @@
           <t>You manage to find a hideout just in time. After remaining hidden for some time, the metallic sound fades away.</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
+      <c r="H312" s="0" t="inlineStr">
         <is>
           <t>ඞВам удается найти укрытие как раз вовремя. После того, как вы некоторое время оставались в укрытии, металлический звук затихает вдали.</t>
         </is>
@@ -14986,7 +14986,7 @@
           <t>Executioner Appears</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
+      <c r="H313" s="0" t="inlineStr">
         <is>
           <t>ඞПоявляется палач</t>
         </is>
@@ -15028,7 +15028,7 @@
           <t>A silent, tall figure emerges from the darkness and, without any hesitation, his chains lunge towards you.</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
+      <c r="H314" s="0" t="inlineStr">
         <is>
           <t>ඞБезмолвная высокая фигура появляется из темноты и, не колеблясь, бросается на вас в цепях.</t>
         </is>
@@ -15082,7 +15082,7 @@
 Along with the fireworks igniting the air, cheerful music plays throughout the park. For a moment, the park seems to return to its once joyful and vibrant state.</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
+      <c r="H315" s="0" t="inlineStr">
         <is>
           <t>ඞСначала вы слышите несколько "свистящих звуков", указывающих на то, что что-то стремительно поднимается в воздух, а затем раздается оглушительный "Хлоп!" от взрыва фейерверка.
 Вы смотрите вверх и видите, как небо пронизывают ослепительные языки пламени.
@@ -15132,7 +15132,7 @@
 At this point, should one observe from above, they would see the park's frantic tourists falling to the ground.</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
+      <c r="H316" s="0" t="inlineStr">
         <is>
           <t>ඞВоздух наполняется запахом фейерверков и серы, который эффективно вытесняет запах крови.
 В этот момент, если бы кто-нибудь наблюдал за парком сверху, он увидел бы, как обезумевшие туристы падают на землю.</t>
@@ -15175,7 +15175,7 @@
           <t>You feel something fall onto your head and drop to the ground. Looking down, you spot a red crystal shard at your feet.</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
+      <c r="H317" s="0" t="inlineStr">
         <is>
           <t>ඞВы чувствуете, как что-то падает вам на голову и падает на землю. Посмотрев вниз, вы замечаете у своих ног осколок красного кристалла.</t>
         </is>
@@ -15223,7 +15223,7 @@
 A sinister chill crawls onto your spine as unspeakable oppression grasps you in its tight grip, suffocating your breath and mind both like claustrophobia itself.</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
+      <c r="H318" s="0" t="inlineStr">
         <is>
           <t>ඞВнезапно вы начинаете различать белый шум, бьющий в барабанную перепонку. Крошечные, сталкивающиеся снежинки попадают в поле вашего зрения, размывая все вокруг своими беспорядочными пятнами, лишенными существования. Все ваши слабые чувства задают вам вопрос: таков ли этот мир, каким вы его знаете?
 Зловещий холодок пробирается по вашему позвоночнику, когда невыразимое угнетение сжимает вас в своих крепких тисках, удушая ваше дыхание и разум, как сама клаустрофобия.</t>
@@ -15279,7 +15279,7 @@
 Painstakingly, you lower your numbed head. Every part of you is being decoded to what it has always been. Hands, arms, torso, legs... They're merely returning to their true form: string after string of lifeless numbers and characters, breaking up like scattered jigsaw pieces.</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
+      <c r="H319" s="0" t="inlineStr">
         <is>
           <t>ඞТвои беспомощные, полные ужаса глаза широко раскрываются.
 Материалы и сущности, из которых построен мир, теряют свое место в измерениях.
@@ -15330,7 +15330,7 @@
 The remnant of your vision sees you disintegrating with the rest of the world, giving way to lines and columns of programs before all cease to be on a black screen.</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
+      <c r="H320" s="0" t="inlineStr">
         <is>
           <t>ඞСознание ускользает. Логика рушится, когда ход ваших мыслей распадается на отдельные сегменты. Ослепительная вспышка.
 Остатки вашего зрения видят, как вы распадаетесь на части вместе с остальным миром, уступая место строчкам и столбцам программ, прежде чем все это исчезнет на черном экране.</t>
@@ -15379,7 +15379,7 @@
 Not far away, a group of crazy tourists stagger towards you.</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
+      <c r="H321" s="0" t="inlineStr">
         <is>
           <t>ඞКак только вы собираетесь сделать следующий шаг, вы слышите звук металла, скребущего по земле.
 Неподалеку к вам, пошатываясь, направляется группа сумасшедших туристов.</t>
@@ -15422,7 +15422,7 @@
           <t>Sanguineous Loch</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
+      <c r="H322" s="0" t="inlineStr">
         <is>
           <t>ඞКровавое озеро</t>
         </is>
@@ -15471,7 +15471,7 @@
 The&lt;color=#DC143C&gt;Blood Moon&lt;/color&gt; seems to be the fount of such madness as their malicious bodies carry the red mist with them.</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
+      <c r="H323" s="0" t="inlineStr">
         <is>
           <t>ඞВашему ужасному взору предстают три отвратительных гуманоида. Не прикрытые никакой кожей, их &lt;color=#DC143C&gt;обнаженная плоть и обнаженные вены&lt;/color&gt; пульсируют при каждом их неверном шаге. Гигантская пустота, лишенная каких-либо эмоций, заменяет выражение лица каждого из них.
 Кровавая Луна кажется источником такого безумия, поскольку их злобные тела несут с собой красный туман.</t>
@@ -15526,7 +15526,7 @@
 Her lips move, but her &lt;color=#DC143C&gt;whispers&lt;/color&gt; to the moon are unheard.</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
+      <c r="H324" s="0" t="inlineStr">
         <is>
           <t>ඞБездушная Джойя стоит у озера, в ее ввалившихся глазах отражается только печаль восходящей Кровавой Луны.
 Небесный шар молча смотрит на девушку, его зловещая энергия вливается в ее тело по невидимому каналу, прежде чем потоки того же тумана начинают подниматься и растекаться по ее коже вместе с потоками ее дыхания.
@@ -15582,7 +15582,7 @@
 Red ripples ruffle the water, revealing the unseen horror beneath as winds wail and whisper their curses at your ear.</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
+      <c r="H325" s="0" t="inlineStr">
         <is>
           <t>ඞЗловещая дымка полностью скрыла парк от надвигающейся ночи своим зловещим присутствием.
 Вы направляетесь к берегу озера. Тревожные потоки крови стекают на мерцающую поверхность бездонного пруда. С колокольни колокольный звон возвещает о смерти дневного света. Наступила темнота.
@@ -15632,7 +15632,7 @@
 At their swelling source in the center of the lake, a glowing sphere emerges from beneath the water, cursing everything that bathes its rays of blood—</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
+      <c r="H326" s="0" t="inlineStr">
         <is>
           <t>ඞАлое безумие превращает озеро в кровавую выгребную яму. Земля подчиняется его власти и дрожит от страха, а безумные волны разбиваются о берег.
 У их набухающего источника в центре озера из-под воды появляется светящаяся сфера, проклинающая все, что омывается ее кровавыми лучами—</t>
@@ -15684,7 +15684,7 @@
 The unfathomed eye inspects you through the red light, the only truth of eons.&lt;/color&gt;It lies there, out of the boundaries of all imagination, all calculation, and all perception.</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
+      <c r="H327" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#DC143C&gt;В алой крови вы видите несчастные души, которые отпали от благодати и поддались своей алчности и желаниям.
 Бездонное око смотрит на вас сквозь красный свет, единственную истину за многие века.&lt;/color&gt; Это лежит там, за пределами любого воображения, любого расчета и любого восприятия.</t>
@@ -15727,7 +15727,7 @@
           <t>The moon hangs over the dreadful night, its scowl snares your soul.</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
+      <c r="H328" s="0" t="inlineStr">
         <is>
           <t>ඞЛуна висит над ужасной ночью, ее хмурый взгляд заманивает в ловушку твою душу.</t>
         </is>
@@ -15775,7 +15775,7 @@
 Streams of red mist swirl above you, gathering, howling, and finally descending... on you.</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
+      <c r="H329" s="0" t="inlineStr">
         <is>
           <t>ඞПламя сжигает этих монстров и превращает их тела в пепел, прежде чем развеять прах по ветру.
 Потоки красного тумана клубятся над вами, собираются, завывают и, наконец, опускаются... на вас.</t>
@@ -15818,7 +15818,7 @@
           <t>!!!</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
+      <c r="H330" s="0" t="inlineStr">
         <is>
           <t>ඞ!!!</t>
         </is>
@@ -15860,7 +15860,7 @@
           <t>You let out a sigh of relief after you find it was the shattered mask that the mist clung onto.</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
+      <c r="H331" s="0" t="inlineStr">
         <is>
           <t>ඞВы вздыхаете с облегчением, обнаружив, что туман прилип к разбитой маске.</t>
         </is>
@@ -15902,7 +15902,7 @@
           <t>A soulless Gioia stands by the lake, her hollowed eyes reflects only the sadness of the rising &lt;color=#DC143C&gt;Blood Moon&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
+      <c r="H332" s="0" t="inlineStr">
         <is>
           <t>ඞБездушная Джойя стоит у озера, в ее ввалившихся глазах отражается только печаль восходящей &lt;color=#DC143C&gt;Кровавой Луны&lt;/color&gt;.</t>
         </is>
@@ -15944,7 +15944,7 @@
           <t>Defeat Incarnation</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
+      <c r="H333" s="0" t="inlineStr">
         <is>
           <t>ඞПобедное воплощение</t>
         </is>
@@ -15986,7 +15986,7 @@
           <t>Gioia, whose mind is at the verge of collapse, starts to lose control over her body, her lips twitching as she sobs in a broken voice.</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
+      <c r="H334" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя, чей разум находится на грани срыва, начинает терять контроль над своим телом, ее губы дергаются, когда она всхлипывает прерывающимся голосом.</t>
         </is>
@@ -16034,7 +16034,7 @@
 Mon... Dad... were they just my dream...?</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
+      <c r="H335" s="0" t="inlineStr">
         <is>
           <t>ඞЭтого не может быть...
 Понедельник... Папа... неужели это был всего лишь мой сон?..</t>
@@ -16083,7 +16083,7 @@
 She attempts and fails to deny herself the memories she's been cherishing for so long.</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
+      <c r="H336" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя пошатывается. Ее зрачки сужаются.
 Она безуспешно пытается избавиться от воспоминаний, которые так долго лелеяла.</t>
@@ -16132,7 +16132,7 @@
 There's no way they'd have left me like that. They had been with me all the time!</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
+      <c r="H337" s="0" t="inlineStr">
         <is>
           <t>ඞЛожь, это ложь, все, что было в том особняке...
 Они бы ни за что не бросили меня вот так. Они были со мной все это время!</t>
@@ -16175,7 +16175,7 @@
           <t>Trails of tears run down her cheeks. Her reason has taken the plunge.</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
+      <c r="H338" s="0" t="inlineStr">
         <is>
           <t>ඞПо ее щекам текут дорожки слез. Ее рассудок принял решительный оборот.</t>
         </is>
@@ -16217,7 +16217,7 @@
           <t>Liar! You lied to me! It's not real!</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
+      <c r="H339" s="0" t="inlineStr">
         <is>
           <t>ඞЛжец! Ты солгал мне! Это неправда!</t>
         </is>
@@ -16259,7 +16259,7 @@
           <t>Time freezes at the fleeting moment. Like red flies to bile, patches of mist in your vision swarms at Gioia, surrounding and trapping her at the middle of a bloody vortex of air. You can hardly see anything aside the roaring cyclone until the gale starts to calm down. A mad maiden floating in the air at the eye of the scarlet storm.</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
+      <c r="H340" s="0" t="inlineStr">
         <is>
           <t>ඞВремя замирает на мгновение. Словно красные мухи, слетевшиеся на желчь, клочья тумана в вашем поле зрения роятся над Джойей, окружая и удерживая ее в центре кровавого воздушного вихря. Вы почти ничего не видите, кроме ревущего циклона, пока буря не начинает стихать. Безумная девушка, парящая в воздухе в эпицентре алой бури.</t>
         </is>
@@ -16301,7 +16301,7 @@
           <t>Her attire bleeds the redness of blood, and her eyes are dyed by the restless agony and pain. Red shards of crystal hover behind her, their edges shining the glint of murder.</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
+      <c r="H341" s="0" t="inlineStr">
         <is>
           <t>ඞЕе одежда окрашена в красный цвет крови, а глаза окрашены беспокойной агонией и болью. За ее спиной парят красные осколки хрусталя, их грани излучают жажду убийства.</t>
         </is>
@@ -16343,7 +16343,7 @@
           <t>Gioia the Lost</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
+      <c r="H342" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя потерянная</t>
         </is>
@@ -16391,7 +16391,7 @@
 Soothed by their gentle glow, you look into their light, their reflection upon the past.</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
+      <c r="H343" s="0" t="inlineStr">
         <is>
           <t>ඞТы видишь, как из твоего кармана вылетает белый кристалл и разбивается на мелкие осколки, защищая Джойю от нападения.
 Успокоенный их мягким сиянием, ты смотришь в их свет, в их отражение прошлого.</t>
@@ -16434,7 +16434,7 @@
           <t>You see the illusion of a girl clapping her hands with joy on the ceremony of the park's completion.</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
+      <c r="H344" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите иллюзию девушки, радостно хлопающей в ладоши на церемонии завершения строительства парка.</t>
         </is>
@@ -16476,7 +16476,7 @@
           <t>You see her illusion and smiling eyes as she rests her head on the table, watching Alessio present Rosa with her birthday cake in the mansion.</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
+      <c r="H345" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите ее иллюзию и улыбающиеся глаза, когда она кладет голову на стол, наблюдая, как Алессио преподносит Розе праздничный торт в особняке.</t>
         </is>
@@ -16518,7 +16518,7 @@
           <t>You see her illusion and curious eyes as she stands next to Alessio, who burns the late night oil at his desk for the SkyWheel's blueprint.</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
+      <c r="H346" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите ее иллюзию и любопытные глаза, когда она стоит рядом с Алессио, который допоздна сжигает масло за своим столом для чертежа небесного колеса.</t>
         </is>
@@ -16566,7 +16566,7 @@
 Together we can find the answer you've been seeking!</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
+      <c r="H347" s="0" t="inlineStr">
         <is>
           <t>ඞУспокойся, Джойя!
 Вместе мы сможем найти ответ, который ты так долго искала!</t>
@@ -16609,7 +16609,7 @@
           <t>Yet the girl refuses to wake from her dream.</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
+      <c r="H348" s="0" t="inlineStr">
         <is>
           <t>ඞНо девушка отказывается пробуждаться от своего сна.</t>
         </is>
@@ -16663,7 +16663,7 @@
 I was born because of them...</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
+      <c r="H349" s="0" t="inlineStr">
         <is>
           <t>ඞЯ никогда не искал ответа!
 Я их дети, их любовь...
@@ -16713,7 +16713,7 @@
 If not, what were those feelings inside me? Who am I?!</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
+      <c r="H350" s="0" t="inlineStr">
         <is>
           <t>ඞМои воспоминания - вот ответ!
 Если нет, то что это были за чувства внутри меня? Кто я такой?!</t>
@@ -16756,7 +16756,7 @@
           <t>Light of malice takes form in her hands. You will have to defend yourself from her next attack before you can change her mind with your words.</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
+      <c r="H351" s="0" t="inlineStr">
         <is>
           <t>ඞСвет злобы обретает форму в ее руках. Вам придется защищаться от ее следующей атаки, прежде чем вы сможете переубедить ее своими словами.</t>
         </is>
@@ -16798,7 +16798,7 @@
           <t>Consciousness is being peeled away from you as her attack continues. It's only thanks to the gentle warmth from the crystal you're holding that you can still maintain yourself.</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
+      <c r="H352" s="0" t="inlineStr">
         <is>
           <t>ඞЕе атака продолжается, и сознание покидает тебя. Только благодаря нежному теплу кристалла, который ты держишь в руках, ты все еще можешь поддерживать себя в форме.</t>
         </is>
@@ -16846,7 +16846,7 @@
 You saw his grave yourself! Proof of decade's putrefaction!</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
+      <c r="H353" s="0" t="inlineStr">
         <is>
           <t>ඞАлессио умер в далеком 1955 году, Джойя!
 Ты сама видела его могилу! Доказательство десятилетнего разложения!</t>
@@ -16895,7 +16895,7 @@
 You won't fool me.</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
+      <c r="H354" s="0" t="inlineStr">
         <is>
           <t>ඞЛжец! Меня не было совсем недолго!
 Меня тебе не одурачить.</t>
@@ -16938,7 +16938,7 @@
           <t>Then tell me about your mother, Gioia! Tell me what Rosa looked like!</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
+      <c r="H355" s="0" t="inlineStr">
         <is>
           <t>ඞТогда расскажи мне о своей матери, Джойя! Расскажи мне, как выглядела Роза!</t>
         </is>
@@ -16980,7 +16980,7 @@
           <t>The mist around her fades a little as Gioia become lost, pondering over your inquisition. For a moment, you hear only the vortex howling.</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
+      <c r="H356" s="0" t="inlineStr">
         <is>
           <t>ඞТуман вокруг нее немного рассеивается, когда Джойя теряется, размышляя о вашем расследовании. На мгновение вы слышите только завывание вихря.</t>
         </is>
@@ -17028,7 +17028,7 @@
 Even so, she'd always prepare some tea for Dad every time he stayed up late...</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
+      <c r="H357" s="0" t="inlineStr">
         <is>
           <t>ඞМама всегда добра ко всем, кто ее окружает... Она милая... но у нее всегда было много работы...
 Несмотря на это, она всегда готовила чай для папы, когда он засиживался допоздна...</t>
@@ -17071,7 +17071,7 @@
           <t>Madam Rosa was almost seventy when she passed away, but you know what she looked like. It was her whom you saw in the mansion!</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
+      <c r="H358" s="0" t="inlineStr">
         <is>
           <t>ඞМадам Розе было почти семьдесят, когда она скончалась, но вы знаете, как она выглядела. Это ее вы видели в особняке!</t>
         </is>
@@ -17113,7 +17113,7 @@
           <t>Her pale face twitches as your words send her wavering. Cold truth and her distant hopes are tearing the girl apart.</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
+      <c r="H359" s="0" t="inlineStr">
         <is>
           <t>ඞЕе бледное лицо подергивается, когда твои слова заставляют ее колебаться. Холодная правда и ее призрачные надежды разрывают девушку на части.</t>
         </is>
@@ -17161,7 +17161,7 @@
 Mom... How did you...</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
+      <c r="H360" s="0" t="inlineStr">
         <is>
           <t>ඞ..
 Мама... Как ты...</t>
@@ -17219,7 +17219,7 @@
 They'll come back to me once I wake up from it. They will!</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
+      <c r="H361" s="0" t="inlineStr">
         <is>
           <t>ඞЭто был настоящий сон!
 Да! Ночной кошмар!
@@ -17269,7 +17269,7 @@
 The storm resumes its mad howl as the vortex seems to engulf you.</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
+      <c r="H362" s="0" t="inlineStr">
         <is>
           <t>ඞНо ее упрямство все равно приводит ее к ложному выводу.
 Буря возобновляет свой безумный вой, и кажется, что вихрь вот-вот поглотит вас.</t>
@@ -17330,7 +17330,7 @@
 The past and future converges on you through the nexus of time as those memories, whether yours or not, begin to flow into you.</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
+      <c r="H363" s="0" t="inlineStr">
         <is>
           <t>ඞКровавая Луна испускает яростные лучи, и ты чувствуешь, как кровь закипает в твоих жилах, чтобы ответить на зов.
 Каждая клеточка твоего тела восстает против тебя в отчаянной попытке вырваться из этой клетки плоти.
@@ -17381,7 +17381,7 @@
 You struggles to get on your feet, realizing how Gioia is the last piece of puzzle to reverse the Blood Moon.</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
+      <c r="H364" s="0" t="inlineStr">
         <is>
           <t>ඞСлабое свечение последнего осколка белого кристалла защищает твой пошатнувшийся рассудок от разрушения.
 Ты изо всех сил пытаешься встать на ноги, понимая, что Джойя - последний кусочек головоломки, который может обратить вспять Кровавую Луну.</t>
@@ -17454,7 +17454,7 @@
 Instead, we repel it with our light!</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
+      <c r="H365" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя...
 Иногда наши воспоминания могут быть обманчивы.
@@ -17501,7 +17501,7 @@
           <t>You summon all of your strength and toss the white crystal at Gioia.</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
+      <c r="H366" s="0" t="inlineStr">
         <is>
           <t>ඞТы собираешь все свои силы и бросаешь белый кристалл в Джойю.</t>
         </is>
@@ -17549,7 +17549,7 @@
 And with that, her madness.</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
+      <c r="H367" s="0" t="inlineStr">
         <is>
           <t>ඞВ тот момент, когда он касается тела Джойи, невидимая нить, связывающая ее с Кровавой Луной, ослабевает.
 А вместе с ней и ее безумие.</t>
@@ -17598,7 +17598,7 @@
 This Gioia... She is but my fantasy...</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
+      <c r="H368" s="0" t="inlineStr">
         <is>
           <t>ඞ..
 Я знаю...
@@ -17660,7 +17660,7 @@
 I just want to... embrace them one more time...</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
+      <c r="H369" s="0" t="inlineStr">
         <is>
           <t>ඞДолго я дремал на дне озера.
 До того дня, когда мое желание опалило каждую частичку меня.
@@ -17705,7 +17705,7 @@
           <t>Droplets trinkle down Gioia's cheeks.</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
+      <c r="H370" s="0" t="inlineStr">
         <is>
           <t>ඞКапли стекают по щекам Джойи.</t>
         </is>
@@ -17753,7 +17753,7 @@
 But it's an eternity to them, an eternity that has divided them forever from theirs...</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
+      <c r="H371" s="0" t="inlineStr">
         <is>
           <t>ඞПятьдесят лет... для меня это было всего лишь мгновение, слишком короткое, чтобы моя мечта могла осуществиться...
 Но для них это целая вечность, вечность, которая навсегда отделила их друг от друга...</t>
@@ -17802,7 +17802,7 @@
 She pauses—</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
+      <c r="H372" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя смотрит на белый кристалл у себя на ладони. Слабое свечение озаряет ее бледное лицо.
 Она замолкает—</t>
@@ -17845,7 +17845,7 @@
           <t>Thank you... for this warmth you've brought me...</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
+      <c r="H373" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо тебе... за то тепло, которое ты мне даришь...</t>
         </is>
@@ -17892,7 +17892,7 @@
 She doesn't not speak, until she turns back to you with a smile on her face. She doesn't want to go, but the decision has been made. Her decision.</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
+      <c r="H374" s="0" t="inlineStr">
         <is>
           <t>ඞОна поднимает голову. Красная луна молча ждет ее в темном небе.
 Она молчит, пока не поворачивается к тебе с улыбкой на лице. Она не хочет уходить, но решение принято. Это ее решение.</t>
@@ -17938,7 +17938,7 @@
 Goodbye.</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
+      <c r="H375" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо тебе...
 До свидания.</t>
@@ -17981,7 +17981,7 @@
           <t>Fun House</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
+      <c r="H376" s="0" t="inlineStr">
         <is>
           <t>ඞВеселый дом</t>
         </is>
@@ -18035,7 +18035,7 @@
           <t>The surroundings are shrouded in darkness. Spooky music reverberates in the air. Opening the gate unveils a &lt;color=#FFD700&gt;narrow, elongated passage&lt;/color&gt; from which &lt;color=#FFD700&gt;metallic knocking sounds&lt;/color&gt; emanate from a side path. You proceed just a few steps further and spot an &lt;color=#FFD700&gt;eerie statue&lt;/color&gt; by the sideway. There are several rooms scattered about, each as dark and haunting as a prison cell.</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
+      <c r="H377" s="0" t="inlineStr">
         <is>
           <t>ඞВсе вокруг погружено в темноту. В воздухе звучит жутковатая музыка. Открыв ворота, вы попадаете в узкий вытянутый проход, из которого с боковой дорожки доносятся звуки металлического стука. Вы проходите еще несколько шагов и замечаете &lt;color=#FFD700&gt; жуткую статую&lt;/color&gt; у боковой стены. Здесь разбросано несколько комнат, каждая из которых темная и наводящая на размышления, как тюремная камера.</t>
         </is>
@@ -18083,7 +18083,7 @@
 You try to open its door, only to discover it's locked. Thanks to the dim lighting, you're able to discern a keyhole on it.</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
+      <c r="H378" s="0" t="inlineStr">
         <is>
           <t>ඞБлиже к концу коридора вы обнаруживаете потайную комнату.
 Вы пытаетесь открыть ее дверь, но обнаруживаете, что она заперта. Благодаря тусклому освещению вы можете разглядеть на ней замочную скважину.</t>
@@ -18126,7 +18126,7 @@
           <t>You press your ear to the door and hear some form of noise. But you can't tell what it is. After a moment, a cracking sound puts you on edge.</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
+      <c r="H379" s="0" t="inlineStr">
         <is>
           <t>ඞВы прижимаетесь ухом к двери и слышите какой-то шум. Но вы не можете понять, что это такое. Через мгновение раздается треск, который заставляет вас насторожиться.</t>
         </is>
@@ -18168,7 +18168,7 @@
           <t>Venture Forth</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
+      <c r="H380" s="0" t="inlineStr">
         <is>
           <t>ඞДерзайте идти вперед</t>
         </is>
@@ -18216,7 +18216,7 @@
 Upon closer inspection, you realize these books are cheap purchases from a flea market, used merely for decoration.</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
+      <c r="H381" s="0" t="inlineStr">
         <is>
           <t>ඞКомнаты здесь устроены как тюремные камеры. На полу разбросаны старые книги.
 При ближайшем рассмотрении становится понятно, что эти книги - дешевые покупки на блошином рынке, используемые просто для украшения.</t>
@@ -18259,7 +18259,7 @@
           <t>Among the clutter, you discover several peculiar scrolls.</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
+      <c r="H382" s="0" t="inlineStr">
         <is>
           <t>ඞСреди этого хлама вы обнаруживаете несколько необычных свитков.</t>
         </is>
@@ -18301,7 +18301,7 @@
           <t>Search Rooms</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
+      <c r="H383" s="0" t="inlineStr">
         <is>
           <t>ඞОбыскать комнаты</t>
         </is>
@@ -18349,7 +18349,7 @@
 A formidable figure is standing there before you, back turned. Chains, cold and cruel, are coiled around his massive form. With a brutal efficiency, he hoists several lifeless bodies to the room's beam. Each motion he makes orchestrates a symphony of terror as the iron chains crisscross and collide.</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
+      <c r="H384" s="0" t="inlineStr">
         <is>
           <t>ඞОриентируясь на звуки, вы подходите к полуоткрытой двери и осторожно заглядываете в нее.
 Перед вами, повернувшись спиной, стоит грозная фигура. Цепи, холодные и жестокие, обвивают его массивную фигуру. С жестокой эффективностью он подвешивает несколько безжизненных тел к потолочной балке. Каждое его движение вызывает симфонию ужаса, когда железные цепи перекрещиваются и сталкиваются.</t>
@@ -18392,7 +18392,7 @@
           <t>Check the Sound</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
+      <c r="H385" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте звук</t>
         </is>
@@ -18434,7 +18434,7 @@
           <t>Using your map, you arrive at the Fun House. The entrance door is adorned with a mock gargoyle head. Despite the door being firmly shut, strange melodies leak out, filling the air with an uneasy tension. Just as you summon the nerve to push open the door, it unexpectedly swings open from the inside.</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
+      <c r="H386" s="0" t="inlineStr">
         <is>
           <t>ඞИспользуя свою карту, вы попадаете в "Дом веселья". Входная дверь украшена имитацией головы горгульи. Несмотря на то, что дверь плотно закрыта, оттуда доносятся странные мелодии, наполняя воздух тревожным напряжением. Как только вы набираетесь смелости, чтобы толкнуть дверь, она неожиданно распахивается изнутри.</t>
         </is>
@@ -18476,7 +18476,7 @@
           <t>A horde of tourists bursts out from the inside. Their eyes emit an unsettling crimson glow, and their clothes are marred with blood stains. The menacing weapons clutched in their hands suggest this is far from a welcoming party for you.</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
+      <c r="H387" s="0" t="inlineStr">
         <is>
           <t>ඞИзнутри врывается толпа туристов. Их глаза излучают тревожный багровый свет, а одежда испачкана пятнами крови. Судя по угрожающему оружию, которое они сжимают в руках, это далеко не самая приятная вечеринка для вас.</t>
         </is>
@@ -18524,7 +18524,7 @@
 Just then, the clown pushes his way out of the crowd, raising his voice to address them.</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
+      <c r="H388" s="0" t="inlineStr">
         <is>
           <t>ඞЗаметив вас, они бросаются вперед, не сводя с вас налитых кровью глаз. Их визжащее оружие скользит по земле, вы морщите лоб, когда этот звук поражает ваши чувства.
 В этот момент клоун проталкивается сквозь толпу и, повысив голос, обращается к ним.</t>
@@ -18567,7 +18567,7 @@
           <t>Hey folks! Our trip at the Fun House is coming to an end! Time to move on to our next destination!</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
+      <c r="H389" s="0" t="inlineStr">
         <is>
           <t>ඞПривет, ребята! Наша поездка в "Веселый дом" подходит к концу! Пора отправляться в наш следующий пункт назначения!</t>
         </is>
@@ -18609,7 +18609,7 @@
           <t>His action seizes everyone's attention. He ushers the group away and says:</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
+      <c r="H390" s="0" t="inlineStr">
         <is>
           <t>ඞЕго действия привлекают всеобщее внимание. Он уводит группу и говорит:</t>
         </is>
@@ -18651,7 +18651,7 @@
           <t>Oh, I'm done with the scene. Now I need to lead these people to another attraction! Enjoy your stay here!</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
+      <c r="H391" s="0" t="inlineStr">
         <is>
           <t>ඞО, я закончил с этой сценой. Теперь мне нужно отвести этих людей к другой достопримечательности! Приятного вам пребывания здесь!</t>
         </is>
@@ -18694,7 +18694,7 @@
           <t>The crowd appears to disregard your presence entirely, their focus riveted on the clown. He seems to revel in their 'enthusiasm', deftly guiding them in a different direction with his flamboyant gestures and commanding words.</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
+      <c r="H392" s="0" t="inlineStr">
         <is>
           <t>ඞТолпа, кажется, полностью игнорирует ваше присутствие, все ее внимание приковано к клоуну. Он, кажется, наслаждается их "энтузиазмом", ловко направляя их в другое русло своими яркими жестами и повелительными словами.</t>
         </is>
@@ -18736,7 +18736,7 @@
           <t>Yes! Yes! Oh is that so? I didn't anticipate such popularity in this place!</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
+      <c r="H393" s="0" t="inlineStr">
         <is>
           <t>ඞДа! Да! О, неужели это так? Я не ожидал такой популярности в этом месте!</t>
         </is>
@@ -18778,7 +18778,7 @@
           <t>The clown talks to the tourists with passion and leads them away.</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
+      <c r="H394" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун увлеченно беседует с туристами и уводит их прочь.</t>
         </is>
@@ -18820,7 +18820,7 @@
           <t>Thank you! Thank you all!</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
+      <c r="H395" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо! Спасибо вам всем!</t>
         </is>
@@ -18862,7 +18862,7 @@
           <t>...Really? You come all the way only to see my show?</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
+      <c r="H396" s="0" t="inlineStr">
         <is>
           <t>ඞ..Правда? Вы проделали весь этот путь только для того, чтобы посмотреть мое шоу?</t>
         </is>
@@ -18904,7 +18904,7 @@
           <t>My goodness! Haha!</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
+      <c r="H397" s="0" t="inlineStr">
         <is>
           <t>ඞБоже мой! Хаха!</t>
         </is>
@@ -18946,7 +18946,7 @@
           <t>The clown herds them away, seemingly leads them to the square. His words gradually become indistinct as they fade into the distance.</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
+      <c r="H398" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун уводит их прочь, по-видимому, ведет на площадь. Его слова постепенно становятся неразборчивыми, по мере того как они удаляются.</t>
         </is>
@@ -18988,7 +18988,7 @@
           <t>Check Statue</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
+      <c r="H399" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте статую</t>
         </is>
@@ -19030,7 +19030,7 @@
           <t>Eerie Statue</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
+      <c r="H400" s="0" t="inlineStr">
         <is>
           <t>ඞЖуткая статуя</t>
         </is>
@@ -19072,7 +19072,7 @@
           <t>This statue is essentially a full-body rendition of the gargoyle head adorning the entrance gate. It features crimson eyes and a grotesque expression, sharp fangs that glint silver like those of a vampire, and a &lt;color=#FFD700&gt;deep hole&lt;/color&gt; in its chest.</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
+      <c r="H401" s="0" t="inlineStr">
         <is>
           <t>ඞЭта статуя, по сути, представляет собой полное изображение головы горгульи, украшающей входные ворота. У него малиновые глаза и гротескное выражение лица, острые клыки, отливающие серебром, как у вампира, и глубокая дыра в груди.</t>
         </is>
@@ -19114,7 +19114,7 @@
           <t>You draw closer to the statue. It emits a dreadful roar, which you can tell is coming from a built-in recording. On its chest, you can see a deep hole. Maybe you can stab something in?</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
+      <c r="H402" s="0" t="inlineStr">
         <is>
           <t>ඞВы подходите ближе к статуе. Она издает ужасный рев, который, как вы можете догадаться, исходит из встроенной записи. На ее груди вы видите глубокую дыру. Может быть, вы сможете что-нибудь проткнуть?</t>
         </is>
@@ -19156,7 +19156,7 @@
           <t>Get Closer</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
+      <c r="H403" s="0" t="inlineStr">
         <is>
           <t>ඞПодойди ближе</t>
         </is>
@@ -19198,7 +19198,7 @@
           <t>You plunge the great sword into the statue's chest. A sound effect, resembling a dying gasp, emanates from within it. As the recording plays, a glass heart falls from the statue's body, accompanied by several shiny stones.</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
+      <c r="H404" s="0" t="inlineStr">
         <is>
           <t>ඞВы вонзаете огромный меч в грудь статуи. Изнутри статуи раздается звуковой эффект, напоминающий предсмертный вздох. Во время воспроизведения записи из тела статуи выпадает стеклянное сердце, сопровождаемое несколькими блестящими камнями.</t>
         </is>
@@ -19240,7 +19240,7 @@
           <t>Stab Sword</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
+      <c r="H405" s="0" t="inlineStr">
         <is>
           <t>ඞКолющий меч</t>
         </is>
@@ -19282,7 +19282,7 @@
           <t>Three bodies are left hanging from the beam. Upon closer inspection, you find these bodies are actually pieced together from different parts. As they were not carefully assembled, broken bones pierce through the flesh and protrude from the bodies, resembling monstrous thorns sprouting out.</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
+      <c r="H406" s="0" t="inlineStr">
         <is>
           <t>ඞНа балке остаются висеть три тела. При ближайшем рассмотрении оказывается, что эти тела на самом деле составлены из разных частей. Поскольку они были собраны неаккуратно, сломанные кости протыкают плоть и торчат из тел, напоминая чудовищные шипы.</t>
         </is>
@@ -19324,7 +19324,7 @@
           <t>There are three pieces of cloth scattered around the table. As you inspect them, you find a note in one of the pockets. This note is illustrated with instructions and tips on how to use various instruments of torture.</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
+      <c r="H407" s="0" t="inlineStr">
         <is>
           <t>ඞНа столе разбросаны три куска ткани. Осматривая их, вы обнаруживаете в одном из карманов записку. Эта записка иллюстрирована инструкциями и советами по использованию различных орудий пыток.</t>
         </is>
@@ -19366,7 +19366,7 @@
           <t>As you pick up the note, a damp and sweet scent reaches your nostrils.</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
+      <c r="H408" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы берете в руки эту ноту, ваших ноздрей достигает влажный и сладкий аромат.</t>
         </is>
@@ -19408,7 +19408,7 @@
           <t>Put Down Bodies</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
+      <c r="H409" s="0" t="inlineStr">
         <is>
           <t>ඞОпускайте тела</t>
         </is>
@@ -19450,7 +19450,7 @@
           <t>Body-hanging Executioner</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
+      <c r="H410" s="0" t="inlineStr">
         <is>
           <t>ඞПалач, вешающий тела</t>
         </is>
@@ -19492,7 +19492,7 @@
           <t>Carrasco</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
+      <c r="H411" s="0" t="inlineStr">
         <is>
           <t>ඞПалач</t>
         </is>
@@ -19540,7 +19540,7 @@
 He is tall; the skillful yet coarse movements of his hands as they handle the bodies reveal his perilous nature.</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
+      <c r="H412" s="0" t="inlineStr">
         <is>
           <t>ඞПросто взглянув на его спину, вы можете почувствовать &lt;color=#DC143C&gt; жажду крови, исходящую от этого человека.
 Он высок; умелые, но грубые движения его рук, когда они обращаются с телами, выдают его опасную натуру.</t>
@@ -19583,7 +19583,7 @@
           <t>You approach him, attempting to initiate a conversation. Seemingly alerted by your footsteps, the man violently tosses the body he's handling aside. The loud thud of the body hitting the counter echoes through the room. Without any hesitation or missteps, he swiftly swings his chain toward you.</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
+      <c r="H413" s="0" t="inlineStr">
         <is>
           <t>ඞВы подходите к нему, пытаясь завязать разговор. По-видимому, встревоженный вашими шагами, мужчина резко отбрасывает тело, которое держал в руках, в сторону. Громкий стук тела о стойку эхом разносится по комнате. Без каких-либо колебаний или оплошностей он быстро замахивается цепью в вашу сторону.</t>
         </is>
@@ -19625,7 +19625,7 @@
           <t>Talk to Him</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
+      <c r="H414" s="0" t="inlineStr">
         <is>
           <t>ඞПоговори с Ним</t>
         </is>
@@ -19673,7 +19673,7 @@
 Finally, with a satisfying click, the door is opened.</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
+      <c r="H415" s="0" t="inlineStr">
         <is>
           <t>ඞВы несколько раз возитесь с ключом, пытаясь вставить его в замочную скважину в обволакивающей темноте.
 Наконец, дверь открывается с удовлетворительным щелчком.</t>
@@ -19716,7 +19716,7 @@
           <t>You find a hidden room.</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
+      <c r="H416" s="0" t="inlineStr">
         <is>
           <t>ඞВы находите потайную комнату.</t>
         </is>
@@ -19758,7 +19758,7 @@
           <t>Enter Room</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
+      <c r="H417" s="0" t="inlineStr">
         <is>
           <t>ඞВойдите в комнату</t>
         </is>
@@ -19800,7 +19800,7 @@
           <t>Just as you are ready to open the door, an unnerving sound grates through the silence - the ghastly clatter of chains scraping against the cold, hard floor.</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
+      <c r="H418" s="0" t="inlineStr">
         <is>
           <t>ඞКак только вы готовы открыть дверь, тишину прорезает тревожный звук - жуткий лязг цепей, скребущих по холодному, твердому полу.</t>
         </is>
@@ -19848,7 +19848,7 @@
 Someone is approaching, its intentions seemingly ominous. A chill runs down your spine as you acknowledge the encroaching peril...</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
+      <c r="H419" s="0" t="inlineStr">
         <is>
           <t>ඞАтмосфера вокруг вас сгущается от ощутимого страха. Ритмичный стук тяжелых шагов и резкий скрежет металла по полу становятся громче, постепенно приближаясь. Со всех сторон вас охватывает непреодолимое чувство дурного предчувствия.
 Кто-то приближается, и его намерения кажутся зловещими. Холодок пробегает у вас по спине, когда вы осознаете надвигающуюся опасность...</t>
@@ -19891,7 +19891,7 @@
           <t>You sense something dangerous. You decide to...</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
+      <c r="H420" s="0" t="inlineStr">
         <is>
           <t>ඞТы чувствуешь что-то опасное. Ты решаешь...</t>
         </is>
@@ -19933,7 +19933,7 @@
           <t>Hide in the Room</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
+      <c r="H421" s="0" t="inlineStr">
         <is>
           <t>ඞСпрячься в комнате</t>
         </is>
@@ -19975,7 +19975,7 @@
           <t>Wait in Place</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
+      <c r="H422" s="0" t="inlineStr">
         <is>
           <t>ඞЖдите на месте</t>
         </is>
@@ -20017,7 +20017,7 @@
           <t>You decide to stay rooted in your spot and see what would happen.</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
+      <c r="H423" s="0" t="inlineStr">
         <is>
           <t>ඞВы решаете остаться на своем месте и посмотреть, что произойдет.</t>
         </is>
@@ -20059,7 +20059,7 @@
           <t>As the ominous presence draws nearer, a chilling realization freezes you to your core - there's no escape.</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
+      <c r="H424" s="0" t="inlineStr">
         <is>
           <t>ඞПо мере приближения зловещего присутствия леденящее душу осознание пробирает вас до глубины души - спасения нет.</t>
         </is>
@@ -20107,7 +20107,7 @@
 Underneath the mask, his expression remains a haunting mystery. Yet you can almost feel the intensity of the piercing gaze emanating from the mask. Without warning, he lashes out, sending the chains flying menacingly towards you.</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
+      <c r="H425" s="0" t="inlineStr">
         <is>
           <t>ඞИз темноты появляется молчаливая высокая фигура. Когда он выходит на слабый свет, вы различаете железную маску, скрывающую его лицо. Вокруг его тела обвиваются несколько длинных цепей, заканчивающихся острым железным крюком, пронзающим ключицу.
 Выражение его лица под маской остается загадкой. И все же вы почти ощущаете силу пронзительного взгляда, исходящего из-под маски. Без предупреждения он набрасывается на вас, и цепи угрожающе летят в вашу сторону.</t>
@@ -20151,7 +20151,7 @@
           <t>In a frantic rush, you shove the door open, desperately seeking a refuge. But upon crossing the threshold, it's as if the ground beneath you dissolves into thin air. Your surroundings spin and distort in a dizzying whirl, followed by a blinding flash of white light. Suddenly, you find yourself in an entirely different place.</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
+      <c r="H426" s="0" t="inlineStr">
         <is>
           <t>ඞВ безумной спешке вы распахиваете дверь, отчаянно ища убежища. Но, переступив порог, вы чувствуете, что земля под вами словно растворяется в воздухе. Все вокруг кружится и искажается в головокружительном вихре, за которым следует ослепительная вспышка белого света. Внезапно вы оказываетесь в совершенно другом месте.</t>
         </is>
@@ -20193,7 +20193,7 @@
           <t>Regaining your footing, you notice a bubble-like portal shimmering into nonexistence. Undoubtedly, that was your unanticipated gateway into this unfamiliar place. Shaking off the lingering vertigo, you steel yourself and begin to survey the strange surroundings. Seems you are in a garden.</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
+      <c r="H427" s="0" t="inlineStr">
         <is>
           <t>ඞПоднявшись на ноги, вы замечаете похожий на пузырь портал, мерцающий в небытие. Несомненно, это и были ваши неожиданные врата в это незнакомое место. Избавившись от затяжного головокружения, вы берете себя в руки и начинаете осматривать странное окружение. Кажется, что ты находишься в саду.</t>
         </is>
@@ -20235,7 +20235,7 @@
           <t>The Executioner crumbles to the ground. He reaches out his hand, clawing at some invisible presence. With one last, raspy breath, he lets out a sigh.</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
+      <c r="H428" s="0" t="inlineStr">
         <is>
           <t>ඞПалач оседает на землю. Он протягивает руку, цепляясь за что-то невидимое. С последним хриплым вздохом он выдыхает.</t>
         </is>
@@ -20277,7 +20277,7 @@
           <t>... Lady...</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
+      <c r="H429" s="0" t="inlineStr">
         <is>
           <t>ඞ.. Леди...</t>
         </is>
@@ -20319,7 +20319,7 @@
           <t>His voice, heard for the first and tragically final time, reverberates in the air. Then, the body vanishes into a cloud of mist.</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
+      <c r="H430" s="0" t="inlineStr">
         <is>
           <t>ඞЕго голос, услышанный в первый и, к сожалению, в последний раз, эхом разносится в воздухе. Затем тело исчезает в облаке тумана.</t>
         </is>
@@ -20367,7 +20367,7 @@
 There, a cloud of red mist billows out, swirling and churning in mid-air. After a while, as if it lost its host, the red mist dissipates into nothingness.</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
+      <c r="H431" s="0" t="inlineStr">
         <is>
           <t>ඞОн исчезает... Что-то падает на землю в том месте, где он исчез, издавая хрустящий звук.
 Оттуда поднимается облако красного тумана, клубясь в воздухе. Через некоторое время, словно потеряв своего хозяина, красный туман рассеивается в никуда.</t>
@@ -20416,7 +20416,7 @@
 And his seems to have changed a lot... I wonder what made him act this way...</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
+      <c r="H432" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не знаю почему... но у меня такое чувство, что я уже встречала этого человека раньше.
 И он, кажется, сильно изменился... Интересно, что заставило его так себя вести...</t>
@@ -20465,7 +20465,7 @@
 After several moments, she decides to put these questions aside and concentrate on exploring with you.</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
+      <c r="H433" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя морщит лоб. Кажется, она глубоко погружена в размышления о сложившейся ситуации.
 Через несколько мгновений она решает отложить эти вопросы в сторону и сосредоточиться на исследовании вместе с вами.</t>
@@ -20508,7 +20508,7 @@
           <t>Your exceptional agility enables you to escape from the monstrous figure.</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
+      <c r="H434" s="0" t="inlineStr">
         <is>
           <t>ඞВаша исключительная ловкость позволяет вам убежать от чудовищной фигуры.</t>
         </is>
@@ -20556,7 +20556,7 @@
 From this moment forth, as long as the Executioner lurks in the shadows of life, his sole objective is to relentlessly hunt you down.</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
+      <c r="H435" s="0" t="inlineStr">
         <is>
           <t>ඞПалач отметил вас как жертву!
 С этого момента и впредь, пока Палач скрывается в тени жизни, его единственной целью является безжалостная охота на вас.</t>
@@ -20599,7 +20599,7 @@
           <t>Somehow, the Executioner doesn't pursue you further.</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
+      <c r="H436" s="0" t="inlineStr">
         <is>
           <t>ඞКаким-то образом Палач не преследует вас дальше.</t>
         </is>
@@ -20641,7 +20641,7 @@
           <t>Upon spotting you, they lurch forward, their bloodshot eyes locked onto you. Their shrieking weaponry skims the ground, Your brow furrows as the sound grates your senses.</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
+      <c r="H437" s="0" t="inlineStr">
         <is>
           <t>ඞЗаметив вас, они бросаются вперед, не сводя с вас налитых кровью глаз. Их визжащее оружие скользит по земле, и вы морщите лоб, когда этот звук раздражает ваши чувства.</t>
         </is>
@@ -20683,7 +20683,7 @@
           <t>SkyWheel</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
+      <c r="H438" s="0" t="inlineStr">
         <is>
           <t>ඞНебесное колесо</t>
         </is>
@@ -20733,7 +20733,7 @@
           <t>The SkyWheel soars at least one hundred meters high, as if it could &lt;color=#FFD700&gt;touch the sky&lt;/color&gt;. You can smell something peculiarly exotic from the &lt;color=#FFD700&gt;souvenir stall&lt;/color&gt; beneath it. To your left, you see a &lt;color=#FFD700&gt;control room&lt;/color&gt;. It appears this is where SkyWheel can be operated.</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
+      <c r="H439" s="0" t="inlineStr">
         <is>
           <t>ඞНебесное колесо взлетает по меньшей мере на сто метров в высоту, как будто оно может &lt;color=#FFD700&gt;коснуться неба&lt;/color&gt;. Из сувенирного киоска &lt;color=#FFD700&gt;, расположенного под ним, доносится какой-то особенно экзотический запах. Слева от вас находится &lt;color=#FFD700&gt;диспетчерская&lt;/color&gt;. Похоже, именно здесь можно управлять небесным колесом.</t>
         </is>
@@ -20775,7 +20775,7 @@
           <t>Below SkyWheel, a &lt;color=#DC143C&gt;thick red mist&lt;/color&gt; twists and writhes, as if something's itching to break free.</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
+      <c r="H440" s="0" t="inlineStr">
         <is>
           <t>ඞПод небесным колесом &lt;color=#DC143C&gt; клубится густой красный туман&lt;/color&gt;, как будто что-то жаждет вырваться на свободу.</t>
         </is>
@@ -20823,7 +20823,7 @@
 The cabin doors are wobbly, and the connections between the cabins and the wheel don't look secure.</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
+      <c r="H441" s="0" t="inlineStr">
         <is>
           <t>ඞПриближаясь к входу в SkyWheel, вы заметили следы драки в некоторых каютах.
 Двери кают шатаются, а соединения между каютами и колесом выглядят ненадежными.</t>
@@ -20866,7 +20866,7 @@
           <t>Check SkyWheel</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
+      <c r="H442" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте небесное колесо</t>
         </is>
@@ -20914,7 +20914,7 @@
 One exquisite jar catches your attention. It gives off an exotic fragrance that invigorates your senses.</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
+      <c r="H443" s="0" t="inlineStr">
         <is>
           <t>ඞВ сувенирном киоске представлено множество товаров – разноцветные воздушные шары, игрушки, всевозможные флаконы и баночки.
 Внимание привлекает одна изысканная баночка. От нее исходит экзотический аромат, который будоражит ваши чувства.</t>
@@ -20957,7 +20957,7 @@
           <t>Check Stall</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
+      <c r="H444" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте стойло</t>
         </is>
@@ -21005,7 +21005,7 @@
 You carefully search around and find some cables and spare parts.</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
+      <c r="H445" s="0" t="inlineStr">
         <is>
           <t>ඞЗдесь больше всего выделяется консоль с разноцветными кнопками и рычажками.
 Вы внимательно осматриваетесь и находите какие-то кабели и запасные части.</t>
@@ -21048,7 +21048,7 @@
           <t>Enter Control Room</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
+      <c r="H446" s="0" t="inlineStr">
         <is>
           <t>ඞВойдите в диспетчерскую</t>
         </is>
@@ -21096,7 +21096,7 @@
 The mist before you churns and roils and turns into a crimson stone monument.</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
+      <c r="H447" s="0" t="inlineStr">
         <is>
           <t>ඞПо мере того, как вы приближаетесь к красному туману, ваши мысли становятся вялыми и путаными, как будто из вас вытягивают саму суть. Вы как в тумане.
 Туман перед вами клубится и превращается в монумент из багрового камня.</t>
@@ -21139,7 +21139,7 @@
           <t>Check Red Mist</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
+      <c r="H448" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте Красный туман</t>
         </is>
@@ -21181,7 +21181,7 @@
           <t>To Control Room</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
+      <c r="H449" s="0" t="inlineStr">
         <is>
           <t>ඞВ диспетчерскую</t>
         </is>
@@ -21223,7 +21223,7 @@
           <t>Control Room</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
+      <c r="H450" s="0" t="inlineStr">
         <is>
           <t>ඞДиспетчерская</t>
         </is>
@@ -21265,7 +21265,7 @@
           <t>You stand before the control panel, the heart of the console. Buttons, switches, levers, and other control devices galore, all ready for &lt;color=#FFD700&gt;start, stop&lt;/color&gt;, and speed and direction control.</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
+      <c r="H451" s="0" t="inlineStr">
         <is>
           <t>ඞВы стоите перед панелью управления, сердцем консоли. Кнопки, переключатели, рычаги и другие управляющие устройства в изобилии, все готово для запуска, остановки, а также управления скоростью и направлением движения.</t>
         </is>
@@ -21307,7 +21307,7 @@
           <t>With an ominous creak, the cabins begin to shake together. The colossal wheel slowly lurches into motion. SkyWheel is now waking up.</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
+      <c r="H452" s="0" t="inlineStr">
         <is>
           <t>ඞСо зловещим скрипом кабины начинают раскачиваться. Колоссальное колесо медленно приходит в движение. Скайвил просыпается.</t>
         </is>
@@ -21349,7 +21349,7 @@
           <t>Start SkyWheel</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
+      <c r="H453" s="0" t="inlineStr">
         <is>
           <t>ඞЗапустите небесное колесо</t>
         </is>
@@ -21391,7 +21391,7 @@
           <t>SkyWheel gradually slows down, finally coming to a creaky stop. The winch ceases its whirring, leaving only the cabins in the air swaying ever so slightly.</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
+      <c r="H454" s="0" t="inlineStr">
         <is>
           <t>ඞНебесное колесо постепенно замедляет ход и, наконец, со скрипом останавливается. Лебедка перестает жужжать, и только кабины в воздухе слегка покачиваются.</t>
         </is>
@@ -21433,7 +21433,7 @@
           <t>Stop SkyWheel</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
+      <c r="H455" s="0" t="inlineStr">
         <is>
           <t>ඞОстановите небесное колесо</t>
         </is>
@@ -21475,7 +21475,7 @@
           <t>You seize the moment to slip into one of the cabins at the entrance. As SkyWheel slowly starts turning, the cabin begins to rise, and your vision climbs higher.</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
+      <c r="H456" s="0" t="inlineStr">
         <is>
           <t>ඞВы пользуетесь моментом, чтобы проскользнуть в одну из кабинок у входа. Когда небесное колесо начинает медленно вращаться, кабина начинает подниматься, и вы видите все выше.</t>
         </is>
@@ -21522,7 +21522,7 @@
 This rattles your nerves as the entire cabin starts to shake with SkyWheel's ascent.</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
+      <c r="H457" s="0" t="inlineStr">
         <is>
           <t>ඞВнезапно сверху раздается "динь-динь-треск". Кажется, что с крыши кабины упало несколько осколков и покатилось прочь.
 Это действует вам на нервы, поскольку вся кабина начинает трястись при подъеме SkyWheel.</t>
@@ -21565,7 +21565,7 @@
           <t>The cabin sways back and forth. You keep a wary eye on the outside. Fortunately, despite the shuddering, there was no actual accident.</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
+      <c r="H458" s="0" t="inlineStr">
         <is>
           <t>ඞКабина раскачивается взад-вперед. Вы внимательно следите за тем, что происходит снаружи. К счастью, несмотря на тряску, аварии на самом деле не произошло.</t>
         </is>
@@ -21607,7 +21607,7 @@
           <t>The cabin sways back and forth. Suddenly, with another "creak," the cabin abruptly tilts to the left. Before you could regain your balance, the whole cabin drops straight down.</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
+      <c r="H459" s="0" t="inlineStr">
         <is>
           <t>ඞКабина раскачивается взад-вперед. Внезапно, с очередным "скрипом", кабина резко наклоняется влево. Прежде чем вы успеваете восстановить равновесие, вся кабина резко падает вниз.</t>
         </is>
@@ -21649,7 +21649,7 @@
           <t>Thankfully, it isn't a life-threatening fall, but you do suffer a broken bone.</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
+      <c r="H460" s="0" t="inlineStr">
         <is>
           <t>ඞК счастью, это падение не опасно для жизни, но вы все равно получаете перелом кости.</t>
         </is>
@@ -21691,7 +21691,7 @@
           <t>You hobble over to the deformed cabin door and push it open. As you are about to exit, several shiny stones scattered beneath the seats come to your sight.</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
+      <c r="H461" s="0" t="inlineStr">
         <is>
           <t>ඞВы ковыляете к деформированной двери салона и открываете ее. Когда вы собираетесь выходить, в поле вашего зрения попадают несколько блестящих камней, разбросанных под сиденьями.</t>
         </is>
@@ -21733,7 +21733,7 @@
           <t>You inspect a few cabins before finally choosing one that seems the most stable.</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
+      <c r="H462" s="0" t="inlineStr">
         <is>
           <t>ඞВы осматриваете несколько домиков, прежде чем, наконец, выбираете тот, который кажется вам наиболее устойчивым.</t>
         </is>
@@ -21775,7 +21775,7 @@
           <t>Take a Ride</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
+      <c r="H463" s="0" t="inlineStr">
         <is>
           <t>ඞПрокатиться</t>
         </is>
@@ -21823,7 +21823,7 @@
 You spot the distant manor wrapped in a weird red mist, its tendrils snaking and creeping toward the park, almost like it is alive.</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
+      <c r="H464" s="0" t="inlineStr">
         <is>
           <t>ඞНебесное колесо медленно поднимается вверх. Когда вы выглядываете из окна кабины, внизу открывается вид на весь парк развлечений.
 Вы видите отдаленное поместье, окутанное странным красным туманом, его завитки извиваются и ползут к парку, как будто он живой.</t>
@@ -21866,7 +21866,7 @@
           <t>The journey from SkyWheel to the manor is quite a distance. There is no direct route, while the only path twists and turns like a maze. But luckily, the view from above makes it easier to figure out how to get to the there.</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
+      <c r="H465" s="0" t="inlineStr">
         <is>
           <t>ඞПуть от СкаЙвила до поместья довольно длинный. Прямого маршрута нет, а единственная тропинка петляет, как в лабиринте. Но, к счастью, вид сверху облегчает понимание того, как туда добраться.</t>
         </is>
@@ -21908,7 +21908,7 @@
           <t>Gioia leans gently against SkyWheel's window, gazing down at the ever-shrinking amusement park, until it shrank into a patchwork of tiny rectangles.</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
+      <c r="H466" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя осторожно прислоняется к окну Скайвила, глядя вниз на постоянно уменьшающийся парк развлечений, пока он не превратился в лоскутное одеяло из крошечных прямоугольников.</t>
         </is>
@@ -21956,7 +21956,7 @@
 My father's plans for this Ferris wheel had been collecting dust forever. I thought they'd never finish it.</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
+      <c r="H467" s="0" t="inlineStr">
         <is>
           <t>ඞРаньше на этом месте был просто пустырь, понимаете? Никто и не думал, что здесь когда-нибудь построят парк.
 Планы моего отца по строительству колеса обозрения вечно пылились. Я думал, они никогда его не достроят.</t>
@@ -21999,7 +21999,7 @@
           <t>But then, in just a few days, they managed to put it up. Pretty impressive, huh?</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
+      <c r="H468" s="0" t="inlineStr">
         <is>
           <t>ඞНо затем, всего за несколько дней, им удалось его установить. Впечатляет, правда?</t>
         </is>
@@ -22041,7 +22041,7 @@
           <t>Gioia is captivated by the park below, her fingers unconsciously tracing patterns on the window. A warm and nostalgic smile graces her face, a smile that hints at fond memories.</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
+      <c r="H469" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя очарована парком, раскинувшимся внизу, ее пальцы бессознательно обводят узоры на окне. Теплая ностальгическая улыбка украшает ее лицо, улыбка, которая напоминает о приятных воспоминаниях.</t>
         </is>
@@ -22083,7 +22083,7 @@
           <t>So, you've always lived in Far Hope Town?</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
+      <c r="H470" s="0" t="inlineStr">
         <is>
           <t>ඞЗначит, вы всегда жили в Фар-Хоуп-Тауне?</t>
         </is>
@@ -22125,7 +22125,7 @@
           <t>Of course! I've been here my whole life..</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
+      <c r="H471" s="0" t="inlineStr">
         <is>
           <t>ඞКонечно! Я прожил здесь всю свою жизнь..</t>
         </is>
@@ -22167,7 +22167,7 @@
           <t>It's just... I...</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
+      <c r="H472" s="0" t="inlineStr">
         <is>
           <t>ඞЭто просто... Я...</t>
         </is>
@@ -22209,7 +22209,7 @@
           <t>I...</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
+      <c r="H473" s="0" t="inlineStr">
         <is>
           <t>ඞЯ...</t>
         </is>
@@ -22251,7 +22251,7 @@
           <t>...</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
+      <c r="H474" s="0" t="inlineStr">
         <is>
           <t>ඞ...</t>
         </is>
@@ -22293,7 +22293,7 @@
           <t>Gioia suddenly trails off, her face turning into one of deep contemplation. As SkyWheel slowly descends, Gioia's conflicted look turns into one of anxiety. You quickly change the topic and lead Gioia off holding her hand.</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
+      <c r="H475" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя внезапно замолкает, на ее лице появляется выражение глубокой задумчивости. По мере того, как Скайвил медленно опускается, противоречивое выражение на лице Джойи сменяется беспокойством. Ты быстро меняешь тему и уводишь Джойю, держа ее за руку.</t>
         </is>
@@ -22335,7 +22335,7 @@
           <t>Make a Trap</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
+      <c r="H476" s="0" t="inlineStr">
         <is>
           <t>ඞУстроить ловушку</t>
         </is>
@@ -22377,7 +22377,7 @@
           <t>You tinker with the cabin for a while, creating a makeshift trap successfully.</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
+      <c r="H477" s="0" t="inlineStr">
         <is>
           <t>ඞВы некоторое время возитесь с хижиной, успешно создавая импровизированную ловушку.</t>
         </is>
@@ -22419,7 +22419,7 @@
           <t>You tinker with the cabin for a while, but its structure is far more complex than you expect. After some struggle, you finally rig it with a trap, though not without bearing some bruise and scars.</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
+      <c r="H478" s="0" t="inlineStr">
         <is>
           <t>ඞВы некоторое время возитесь с домиком, но его конструкция оказывается гораздо сложнее, чем вы ожидали. После некоторых усилий вы, наконец, устанавливаете в нем ловушку, хотя и не без синяков и шрамов.</t>
         </is>
@@ -22461,7 +22461,7 @@
           <t>Tinker with Cabin</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
+      <c r="H479" s="0" t="inlineStr">
         <is>
           <t>ඞПовозиться с кабиной</t>
         </is>
@@ -22509,7 +22509,7 @@
 Just then, you hear a metallic clank. The executioner spots you and is dragging his heavy iron chains your way.</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
+      <c r="H480" s="0" t="inlineStr">
         <is>
           <t>ඞВы становитесь под SkyWheel. Ваша цель - опасная кабина у входа. Вы активируете блокировку безопасности из диспетчерской, убедившись, что дверь кабины невозможно открыть изнутри.
 В этот момент вы слышите металлический лязг. Палач замечает вас и тащит свои тяжелые железные цепи в вашу сторону.</t>
@@ -22553,7 +22553,7 @@
           <t>But you have planned for this. You lure the executioner into the cabin. Taking advantage of his height in the confined space, you make your escape just in time, slamming the door shut. Pasqualino attempts to follow, but only manages to grab the door frame. The safety mode kicks in. The cabin door is locked instantly.</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
+      <c r="H481" s="0" t="inlineStr">
         <is>
           <t>ඞНо вы все предусмотрели заранее. Вы заманиваете палача в хижину. Воспользовавшись его высоким ростом в ограниченном пространстве, вы успеваете сбежать как раз вовремя, захлопнув дверь. Паскуалино пытается последовать за ним, но успевает лишь ухватиться за дверной косяк. Включается режим безопасности. Дверь кабины мгновенно запирается.</t>
         </is>
@@ -22595,7 +22595,7 @@
           <t>You rush to the control room and get SkyWheel going. Inside the cabin, the executioner struggles furiously and violently. It shakes each time he rams and bangs against the door. You dare not move your eyes away from the cabin as SkyWheel slowly ascends. If he broke free now, all your efforts would go down the drain.</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
+      <c r="H482" s="0" t="inlineStr">
         <is>
           <t>ඞВы мчитесь в рубку управления и запускаете Скайвил. Внутри кабины палач отчаянно сопротивляется. Она сотрясается при каждом ударе в дверь. Вы не осмеливаетесь отвести взгляд от кабины, пока Скайвил медленно поднимается. Если он сейчас вырвется на свободу, все ваши усилия пойдут насмарку.</t>
         </is>
@@ -22637,7 +22637,7 @@
           <t>You keep your eyes glued to the cabin as it climbs higher and higher. It feels like an eternity has passed. Then, with a violent struggle and shaking, that cabin plummeted to the ground with a deafening crash.</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
+      <c r="H483" s="0" t="inlineStr">
         <is>
           <t>ඞВы не сводите глаз с кабины, которая поднимается все выше и выше. Кажется, что прошла вечность. Затем, после яростной борьбы и тряски, кабина с оглушительным грохотом рухнула на землю.</t>
         </is>
@@ -22679,7 +22679,7 @@
           <t>You wait for a moment, then approach the fallen cabin. It has broken into pieces. A mass of broken glass shards scatter all around. The executioner has been thrown out of the cabin, his bones piercing through his flesh. He lies there, twisted in a pool of blood.</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
+      <c r="H484" s="0" t="inlineStr">
         <is>
           <t>ඞВы ждете немного, затем подходите к упавшей хижине. Она разбита на куски. Повсюду разбросаны осколки разбитого стекла. Палача выбросило из хижины, его кости пронзили плоть. Он лежит, скрючившись, в луже крови.</t>
         </is>
@@ -22727,7 +22727,7 @@
 With one last, raspy breath, he lets out a sigh.</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
+      <c r="H485" s="0" t="inlineStr">
         <is>
           <t>ඞСквозь щели в его разбитой маске вы видите, как его безжизненные глаза безучастно смотрят вперед, словно устремленные на кого-то невидимого.
 С последним хриплым вздохом он выдыхает.</t>
@@ -22779,7 +22779,7 @@
 There, a cloud of red mist billows out, swirling and churning in mid-air. After a while, as if it lost its host, the red mist dissipates into nothingness.</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
+      <c r="H486" s="0" t="inlineStr">
         <is>
           <t>ඞОн исчезает...
 Что-то падает на землю в том месте, где он исчез, издавая хрустящий звук.
@@ -22823,7 +22823,7 @@
           <t>Ambush Executioner</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
+      <c r="H487" s="0" t="inlineStr">
         <is>
           <t>ඞПалач из засады</t>
         </is>
@@ -22877,7 +22877,7 @@
 But just as you are transfixed by SkyWheel, a strange, eerie howl pierces your ears.</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
+      <c r="H488" s="0" t="inlineStr">
         <is>
           <t>ඞВы добираетесь до Скайвила, и, честно говоря, вам даже не нужна карта. Он слишком велик, чтобы его не заметить.
 Когда смотришь снизу вверх, это колоссальное сооружение кажется невероятным, как будто оттуда можно протянуть руку и дотронуться до звезд.
@@ -22927,7 +22927,7 @@
 You take a couple of steps back in a panic, and find yourself face to face with a visitor who seems oddly out of place. Behind him, there is a large group of equally weird-looking people. Their clothes are soaked in blood, and their weapons in hand, some real and some not.</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
+      <c r="H489" s="0" t="inlineStr">
         <is>
           <t>ඞВы резко оборачиваетесь и видите, как гротескное лицо внезапно оказывается слишком близко, его налитые кровью глаза пристально смотрят на вас.
 Вы в панике делаете пару шагов назад и оказываетесь лицом к лицу с посетителем, который кажется странно неуместным. Позади него стоит большая группа людей столь же странного вида. Их одежда пропитана кровью, а в руках оружие, как настоящее, так и нет.</t>
@@ -22970,7 +22970,7 @@
           <t>Just as you are about to react, the clown hastily pushes his way out of the crowd. Disheveled yet hospitable, he waves at the crowd.</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
+      <c r="H490" s="0" t="inlineStr">
         <is>
           <t>ඞКак только вы начинаете реагировать, клоун поспешно проталкивается сквозь толпу. Растрепанный, но гостеприимный, он машет толпе.</t>
         </is>
@@ -23012,7 +23012,7 @@
           <t>Hey! Wrong way, wrong way, folks! Over here! Over here!</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
+      <c r="H491" s="0" t="inlineStr">
         <is>
           <t>ඞЭй!” Не туда, не туда, ребята! Сюда! Сюда!</t>
         </is>
@@ -23054,7 +23054,7 @@
           <t>The bunch of weirdos stagger towards the clown. Their bloodshot eyes lock onto him. Their screeching weapons scrape the ground. The clown leads them toward the square, yelling back to you.</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
+      <c r="H492" s="0" t="inlineStr">
         <is>
           <t>ඞКучка чудаков, пошатываясь, направляется к клоуну. Их налитые кровью глаза устремлены на него. Их оружие со скрежетом скребет по земле. Клоун ведет их к площади, что-то крича вам в ответ.</t>
         </is>
@@ -23096,7 +23096,7 @@
           <t>Hey! SkyWheel is already running! Hop on by yourself! I'm taking these super eager tourists to the next attraction!</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
+      <c r="H493" s="0" t="inlineStr">
         <is>
           <t>ඞЭй!” Скайвел уже запущен! Запрыгивайте сами! Я поведу этих нетерпеливых туристов к следующему аттракциону!</t>
         </is>
@@ -23138,7 +23138,7 @@
           <t>The frenzied tourists lunge at the clown. A hatchet is swung wide and thrown his way, but it misses the target by a hair's breadth and slams into the earth nearby. The clown leads them on an ever-further chase, while engaging in a rather bizarre conversation.</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
+      <c r="H494" s="0" t="inlineStr">
         <is>
           <t>ඞОбезумевшие туристы бросаются на клоуна. Он широко размахивается и бросает в него топор, но тот пролетает на волосок от цели и вонзается в землю неподалеку. Клоун увлекает их за собой в погоню, одновременно вступая в довольно странный разговор.</t>
         </is>
@@ -23180,7 +23180,7 @@
           <t>Oh wow! You guys are way too enthusiastic! But just so you know, our company has a no-gifts-from tourists policy.</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
+      <c r="H495" s="0" t="inlineStr">
         <is>
           <t>ඞУх ты! Вы, ребята, полны энтузиазма! Но, к вашему сведению, в нашей компании действует правило "без подарков от туристов".</t>
         </is>
@@ -23222,7 +23222,7 @@
           <t>Is that so? Hahaha...</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
+      <c r="H496" s="0" t="inlineStr">
         <is>
           <t>ඞЭто так? Хахаха...</t>
         </is>
@@ -23270,7 +23270,7 @@
 A balloon drifting alone outside the topmost cabin. As the wind gently caresses SkyWheel, this cabin has a slight, distinct sway. You know the clown is inside.</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
+      <c r="H497" s="0" t="inlineStr">
         <is>
           <t>ඞСкайуолл стоит там в тишине. Сколько бы раз вы его ни видели, его невероятное величие никогда не перестанет поражать вас.
 Воздушный шар, одиноко парящий возле самой верхней кабины. Когда ветер нежно ласкает Скайуолл, эта кабина слегка покачивается. Ты знаешь, что клоун внутри.</t>
@@ -23313,7 +23313,7 @@
           <t>...How did he get up there?</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
+      <c r="H498" s="0" t="inlineStr">
         <is>
           <t>ඞ..Как он туда забрался?</t>
         </is>
@@ -23355,7 +23355,7 @@
           <t>Next to you, the door to the control room creaks open.</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
+      <c r="H499" s="0" t="inlineStr">
         <is>
           <t>ඞРядом с вами со скрипом открывается дверь в диспетчерскую.</t>
         </is>
@@ -23397,7 +23397,7 @@
           <t>Alex spots you and smiles. He still has his quirky clown makeup on, but now he looks more like an ordinary person dressed as a clown, and his voice mellows.</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
+      <c r="H500" s="0" t="inlineStr">
         <is>
           <t>ඞАлекс замечает вас и улыбается. На нем все еще необычный клоунский грим, но теперь он больше похож на обычного человека, одетого как клоун, и его голос смягчается.</t>
         </is>
@@ -23445,7 +23445,7 @@
 When I saw Madam's... you know, body in the study, I just couldn't accept the reality. Maybe there's something wrong with my...</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
+      <c r="H501" s="0" t="inlineStr">
         <is>
           <t>ඞЭй, извини за то, что было раньше, должно быть, это выглядело мило... нелепый.
 Когда я увидел тело мадам... знаете, тело в кабинете, я просто не мог смириться с реальностью. Может быть, что-то не так с моим...</t>
@@ -23488,7 +23488,7 @@
           <t>Alex</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
+      <c r="H502" s="0" t="inlineStr">
         <is>
           <t>ඞАлекс</t>
         </is>
@@ -23530,7 +23530,7 @@
           <t>Alex points to his head with a wry grin. It's clear he's trying to explain his earlier actions.</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
+      <c r="H503" s="0" t="inlineStr">
         <is>
           <t>ඞАлекс с кривой усмешкой указывает на свою голову. Ясно, что он пытается объяснить свои предыдущие действия.</t>
         </is>
@@ -23578,7 +23578,7 @@
 Throwing a few extra coins, their leftover food my way, didn't bother 'em none.</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
+      <c r="H504" s="0" t="inlineStr">
         <is>
           <t>ඞВпервые я забрел сюда просто перекусить. Люди... они всегда становятся намного добрее, когда веселятся.
 Я бросил им несколько лишних монет и остатки еды, но это их нисколько не обеспокоило.</t>
@@ -23627,7 +23627,7 @@
 Even when she caught me, all interested in the performers and sneaking peeks, mimicking them when no one's looking, she asked me... she actually asked me if I wanted a job here.</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
+      <c r="H505" s="0" t="inlineStr">
         <is>
           <t>ඞЛеди Стоунхарт, она заметила меня с самого начала, но никогда никого не отправляла меня выгонять.
 Даже когда она поймала меня, заинтересованную в выступлениях и подглядывающую украдкой, подражающую им, когда никто не видит, она спросила меня... на самом деле она спросила меня, хочу ли я здесь работать.</t>
@@ -23670,7 +23670,7 @@
           <t>Alex's voice chokes up, his eyes brimming over with unshed tears. His red-rimmed eyes, set against his white-painted face, looks absurd yet heartbreaking.</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
+      <c r="H506" s="0" t="inlineStr">
         <is>
           <t>ඞГолос Алекса прерывается, его глаза наполняются непролитыми слезами. Его покрасневшие глаза на фоне размалеванного лица выглядят нелепо, но в то же время душераздирающе.</t>
         </is>
@@ -23736,7 +23736,7 @@
 I thought everything would just get better and better...</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
+      <c r="H507" s="0" t="inlineStr">
         <is>
           <t>ඞЯ усердно трудился, по-настоящему усердно. Я трудился от всего сердца не только для того, чтобы отблагодарить леди Стоунхарт, но и потому, что я действительно любил это место.
 Каждый день посетители приходят и уходят, дети смеются и бегают вокруг... Я был их гидом, показывая им каждый уголок этого парка.
@@ -23782,7 +23782,7 @@
           <t>A tear escapes his eye, rolling down his cheek. Soon, more follow, splashing and splattering onto the floor.</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
+      <c r="H508" s="0" t="inlineStr">
         <is>
           <t>ඞСлеза скатывается по его щеке. Вскоре за ней следуют другие, разбрызгиваясь по полу.</t>
         </is>
@@ -23824,7 +23824,7 @@
           <t>But then, Lady Stoneheart... she... she's gone...</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
+      <c r="H509" s="0" t="inlineStr">
         <is>
           <t>ඞНо потом леди Стоунхарт... она... она ушла...</t>
         </is>
@@ -23866,7 +23866,7 @@
           <t>You're so focused on the clown's story, not noticing the dense red mist creeping closer. You feel woozy, your chest tight, your head heavy and swim.</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
+      <c r="H510" s="0" t="inlineStr">
         <is>
           <t>ඞТы так сосредоточен на рассказе клоуна, что не замечаешь, как густой красный туман подбирается все ближе. Ты чувствуешь головокружение, стеснение в груди, тяжесть в голове и все плывет перед глазами.</t>
         </is>
@@ -23908,7 +23908,7 @@
           <t>The clown is still talking, but his voice gets softer and softer, fading away to a whisper. Eventually, you can't hear him any more. All you see are his lips moving, opening and closing.</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
+      <c r="H511" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун все еще говорит, но его голос становится все тише и тише, постепенно переходя на шепот. В конце концов, вы его больше не слышите. Все, что вы видите, - это как шевелятся его губы, открывая и закрывая рот.</t>
         </is>
@@ -23950,7 +23950,7 @@
           <t>Under the shroud of the red mist, the clown starts to look grotesquely sinister. His face contorts and twists into something malevolent that makes your skin crawl. A sudden thought pops in your mind—</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
+      <c r="H512" s="0" t="inlineStr">
         <is>
           <t>ඞПод покровом красного тумана клоун начинает выглядеть гротескно и зловеще. Его лицо искажается и становится таким злобным, что у вас мурашки бегут по коже. Внезапно вам в голову приходит мысль—</t>
         </is>
@@ -23992,7 +23992,7 @@
           <t>&lt;color=#DC143C&gt;He must be killed!&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
+      <c r="H513" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#DC143C&gt;Он должен быть убит!&lt;/color&gt;</t>
         </is>
@@ -24034,7 +24034,7 @@
           <t>You could sense that something must be off. You shake your head, trying to get rid of this abrupt intrusive thought. But you just can't focus. Your thoughts are all jumbled up, and a stronger impulse surges from deep within, screaming wildly in your brain.</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
+      <c r="H514" s="0" t="inlineStr">
         <is>
           <t>ඞВы чувствуете, что что-то не так. Вы трясете головой, пытаясь избавиться от этой внезапной навязчивой мысли. Но вы просто не можете сосредоточиться. Все ваши мысли путаются, и более сильный импульс поднимается из глубины, дико крича в вашем мозгу.</t>
         </is>
@@ -24088,7 +24088,7 @@
 &lt;color=#DC143C&gt;&lt;size=7&gt;Kill him before he kills you and kill him before he gets to you■■Kill him and crack open his skull■Cut open his belly and kill him kill him&lt;/size&gt;&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
+      <c r="H515" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#DC143C&gt;Убей его, убей его, убей его, убей его, убей его, убей его, убей его, убей его!&lt;/color&gt;
 &lt;color=#DC143C&gt;&lt;размер=12&gt;&lt;размер=16&gt; Убей его! Убей &lt;размер=16&gt; его&lt;/размер&gt;! &lt;размер=16&gt; УБЕЙ&lt;/размер&gt; ЕГО! УБЕЙ &lt;размер=16&gt;ЕГО&lt;/размер&gt;! &lt;размер=16&gt;УБЕЙ ЕГО!&lt;/размер&gt;&lt;/size&gt;&lt;/color&gt;
@@ -24132,7 +24132,7 @@
           <t>When you finally come to your senses...</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
+      <c r="H516" s="0" t="inlineStr">
         <is>
           <t>ඞКогда ты наконец придешь в себя...</t>
         </is>
@@ -24174,7 +24174,7 @@
           <t>The clown has already been lying in a pool of blood, and you are straddling on top of him, hands tightly gripping his throat.</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
+      <c r="H517" s="0" t="inlineStr">
         <is>
           <t>ඞКлоун уже лежит в луже крови, а ты сидишь на нем верхом, крепко сжимая руками его горло.</t>
         </is>
@@ -24216,7 +24216,7 @@
           <t>You hastily get up and release your grip. Alex is all battered in blood from the injuries you inflected on him. He has that same goofy yet normal face, but he's barely hanging on. Seeing how frantic and panicked you are, he somehow manages a weak smile.</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
+      <c r="H518" s="0" t="inlineStr">
         <is>
           <t>ඞТы поспешно встаешь и ослабляешь хватку. Алекс весь в крови от ран, которые ты ему нанес. У него все то же глупое, но нормальное лицо, но он едва держится на ногах. Видя, как ты обезумел и запаниковал, он каким-то образом умудряется слабо улыбнуться.</t>
         </is>
@@ -24258,7 +24258,7 @@
           <t>I know... I know, it's not your fault...</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
+      <c r="H519" s="0" t="inlineStr">
         <is>
           <t>ඞЯ знаю... Я знаю, это не твоя вина...</t>
         </is>
@@ -24300,7 +24300,7 @@
           <t>With his last ounce of strength, the clown lifts his bloodied hand and draws one final, shaky grin on your trembling lips. He smiles at you, his last breath escaping.</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
+      <c r="H520" s="0" t="inlineStr">
         <is>
           <t>ඞИз последних сил клоун поднимает окровавленную руку и рисует на твоих дрожащих губах последнюю дрожащую улыбку. Он улыбается тебе, испуская последний вздох.</t>
         </is>
@@ -24342,7 +24342,7 @@
           <t>In your panic, you try to check his injuries. But he's hurt so bad, there's no hope of recovery.</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
+      <c r="H521" s="0" t="inlineStr">
         <is>
           <t>ඞВ панике ты пытаешься осмотреть его раны. Но он так сильно ранен, что надежды на выздоровление нет.</t>
         </is>
@@ -24390,7 +24390,7 @@
 In the place where he vanished lie quietly a blood-red shard and a crystalline white object.</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
+      <c r="H522" s="0" t="inlineStr">
         <is>
           <t>ඞОт его безжизненного тела поднимается облако красного тумана, которое на мгновение повисает в воздухе, прежде чем рассеяться вместе с телом.
 На том месте, где он исчез, спокойно лежат кроваво-красный осколок и кристаллический белый предмет.</t>
@@ -24433,7 +24433,7 @@
           <t>Talk to Alex</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
+      <c r="H523" s="0" t="inlineStr">
         <is>
           <t>ඞПоговори с Алексом</t>
         </is>
@@ -24475,7 +24475,7 @@
           <t>Check Monument</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
+      <c r="H524" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте памятник</t>
         </is>
@@ -24517,7 +24517,7 @@
           <t>Red Stone Monument</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
+      <c r="H525" s="0" t="inlineStr">
         <is>
           <t>ඞПамятник из красного камня</t>
         </is>
@@ -24559,7 +24559,7 @@
           <t>Numerous grooves emerge one after another on the dark-red stone monument, from which fresh crimson liquid oozes. That's when you notice that the entire monument is inscribed with &lt;color=#DC143C&gt;people's names&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
+      <c r="H526" s="0" t="inlineStr">
         <is>
           <t>ඞНа темно-красном каменном памятнике одна за другой появляются многочисленные бороздки, из которых сочится свежая малиновая жидкость. И тут вы замечаете, что весь монумент исписан именами людей &lt;color=#DC143C&gt;.</t>
         </is>
@@ -24601,7 +24601,7 @@
           <t>At the very top are two names, Alessio and Rosalind, leading the list of all the other names.</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
+      <c r="H527" s="0" t="inlineStr">
         <is>
           <t>ඞВ самом верху находятся два имени, Алессио и Розалинда, которые возглавляют список всех остальных имен.</t>
         </is>
@@ -24643,7 +24643,7 @@
           <t>Read the Text</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
+      <c r="H528" s="0" t="inlineStr">
         <is>
           <t>ඞпрочитай текст</t>
         </is>
@@ -24685,7 +24685,7 @@
           <t>Gioia stares at the monument and, with a nostalgic tone, she tells you that those are her parents' names. She then gazes up at the huge SkyWheel, lost in thought.</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
+      <c r="H529" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя смотрит на монумент и с ностальгией в голосе рассказывает вам, что это имена ее родителей. Затем она поднимает взгляд к огромному небесному колесу, погруженная в свои мысли.</t>
         </is>
@@ -24739,7 +24739,7 @@
 Everyone thought he's just being super romantic, showing his love in a big way.</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
+      <c r="H530" s="0" t="inlineStr">
         <is>
           <t>ඞМой отец был неравнодушен к звездам. Однажды он дал обещание моей матери.
 Он хотел построить что-нибудь, что могло бы дотянуться до звезд, чтобы подарить ей собственное звездное небо.
@@ -24789,7 +24789,7 @@
 It wasn't until my mother's birthday, when all of his preparations were done, that we finally found out about his plan. He wanted to build the highest Ferris wheel in the park, high enough that when she sat inside, it'd be like she could reach out and touch the stars.</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
+      <c r="H531" s="0" t="inlineStr">
         <is>
           <t>ඞНо мой отец... он был не просто разговорчивым человеком. Он тайно подготовил все: чертежи, планы строительства, расстановку персонала, всевозможные вещи.
 Только на день рождения моей матери, когда все приготовления были закончены, мы, наконец, узнали о его плане. Он хотел построить самое высокое колесо обозрения в парке, достаточно высокое, чтобы, когда она сидела внутри, ей казалось, что она может протянуть руку и дотронуться до звезд.</t>
@@ -24832,7 +24832,7 @@
           <t>You could picture Alessio working tirelessly for months, carefully keeping it all a secret to surprise Rosalind on her birthday.</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
+      <c r="H532" s="0" t="inlineStr">
         <is>
           <t>ඞМожно представить, как Алессио месяцами неустанно трудился, тщательно сохраняя все в секрете, чтобы удивить Розалинду в день ее рождения.</t>
         </is>
@@ -24880,7 +24880,7 @@
 But his health... well, it never really got better. So, the project kept on getting delayed.</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
+      <c r="H533" s="0" t="inlineStr">
         <is>
           <t>ඞКолесо обозрения... это сложная штука. Мой отец вложил в это все свои знания и умения... он вложил в это всю свою душу архитектора. Он должен был быть там, чтобы убедиться, что все идет хорошо.
 Но его здоровье... ну, на самом деле, оно так и не улучшилось. Таким образом, реализация проекта продолжала откладываться.</t>
@@ -24929,7 +24929,7 @@
 Now his dream is finally realized. I'm so happy for him...</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
+      <c r="H534" s="0" t="inlineStr">
         <is>
           <t>ඞНо теперь...
 Теперь его мечта наконец осуществилась. Я так рада за него...</t>
@@ -24972,7 +24972,7 @@
           <t>Gioia smiles wistfully, her hand gently caressing the monument as if it were something fragile. Under her touch, the monument gradually melts away, eventually crystallizing into a white, crystal-like shard.</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
+      <c r="H535" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя задумчиво улыбается, ее рука нежно гладит памятник, как будто это что-то хрупкое. Под ее прикосновениями памятник постепенно тает, превращаясь в белый, похожий на кристалл осколок.</t>
         </is>
@@ -25020,7 +25020,7 @@
 But just as you are transfixed by the topmost cabin of SkyWheel, a strange, eerie howl pierces your ears.</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
+      <c r="H536" s="0" t="inlineStr">
         <is>
           <t>ඞСледуя карте, вы доберетесь до Небесного колеса. Если смотреть снизу вверх, это колоссальное сооружение кажется невероятным, как будто оттуда можно протянуть руку и дотронуться до звезд.
 Но как только вы завороженно смотрите на самую верхнюю кабину SkyWheel, странный, жуткий вой пронзает ваши уши.</t>
@@ -25063,7 +25063,7 @@
           <t>You whip around to see a grotesque face suddenly getting way too close, its bloodshot eyes staring you down. You take a couple of steps back in a panic, and find yourself face to face with a visitor who seems oddly out of place. Behind him, there is a large group of equally weird-looking people. Their eyes are all blood-red, their clothes soaked in blood, and their weapons in hand, some real and some not.</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
+      <c r="H537" s="0" t="inlineStr">
         <is>
           <t>ඞВы резко оборачиваетесь и видите, как гротескное лицо внезапно оказывается слишком близко, его налитые кровью глаза пристально смотрят на вас. Вы в панике делаете пару шагов назад и оказываетесь лицом к лицу с посетителем, который кажется странно неуместным. Позади него стоит большая группа людей столь же странного вида. У всех у них кроваво-красные глаза, одежда пропитана кровью, а в руках оружие, как настоящее, так и нет.</t>
         </is>
@@ -25105,7 +25105,7 @@
           <t>The bunch of weirdos stagger towards you. Their screeching weapons scrape the ground. Their bloodshot eyes lock onto you.</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
+      <c r="H538" s="0" t="inlineStr">
         <is>
           <t>ඞКучка чудаков, пошатываясь, направляется к тебе. Их оружие со скрежетом скребет по земле. Их налитые кровью глаза устремлены на тебя.</t>
         </is>
@@ -25147,7 +25147,7 @@
           <t>The only and perfect shelter for every soul that seeks a quick respite.</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
+      <c r="H539" s="0" t="inlineStr">
         <is>
           <t>ඞЕдинственное и совершенное убежище для каждой души, которая ищет быстрой передышки.</t>
         </is>
@@ -25189,7 +25189,7 @@
           <t>Cafeteria</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
+      <c r="H540" s="0" t="inlineStr">
         <is>
           <t>ඞКафетерий</t>
         </is>
@@ -25243,7 +25243,7 @@
 An oversized &lt;color=#FFD700&gt;trashcan&lt;/color&gt; stands by the counter.</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
+      <c r="H541" s="0" t="inlineStr">
         <is>
           <t>ඞСтатуя мальчика-ангела &lt;color=#FFD700&gt;, стоящая напротив, невинно улыбается вам, его белые гипсовые крылья озаряют ваше сердце лучиком надежды.
 Вы осторожно заглядываете внутрь из дверного проема и обнаруживаете разбитую витрину &lt;color=#FFD700&gt; рядом с когтерезными машинами у стены.
@@ -25287,7 +25287,7 @@
           <t>A thick blanket of red mist churns at the heart of the dining area, blocking your vision.</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
+      <c r="H542" s="0" t="inlineStr">
         <is>
           <t>ඞГустая пелена красного тумана клубится в центре обеденной зоны, закрывая вам обзор.</t>
         </is>
@@ -25329,7 +25329,7 @@
           <t>The angelic boy looks like to be cupping something in his hands. Whatever it is, it's not there right now.</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
+      <c r="H543" s="0" t="inlineStr">
         <is>
           <t>ඞАнгельский мальчик, похоже, сжимает что-то в ладонях. Что бы это ни было, сейчас его там нет.</t>
         </is>
@@ -25371,7 +25371,7 @@
           <t>Check Statue</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
+      <c r="H544" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте статую</t>
         </is>
@@ -25416,7 +25416,7 @@
           <t>Some run-of-the-mill dolls stuff the claw machines. The wrecked showcase next to them, however, piques your interest as you find an ornamental strip behind the shattered glass windows.</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
+      <c r="H545" s="0" t="inlineStr">
         <is>
           <t>ඞМашинки для стрижки когтей сделаны из каких-то заурядных кукол. Однако разбитая витрина рядом с ними вызывает у вас интерес, поскольку за разбитыми витринными стеклами вы обнаруживаете декоративную полоску.</t>
         </is>
@@ -25458,7 +25458,7 @@
           <t>Check Showcase</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
+      <c r="H546" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте витрину</t>
         </is>
@@ -25500,7 +25500,7 @@
           <t>Unsurprisingly, it's O'Lucky who has burrowed half of his body inside the drawer under the counter, leaving only his other clumsy half visibly jerking.</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
+      <c r="H547" s="0" t="inlineStr">
         <is>
           <t>ඞНеудивительно, что именно О'Лаки зарылся половиной своего тела в ящик под прилавком, оставив заметно дергаться только свою вторую неуклюжую половину.</t>
         </is>
@@ -25542,7 +25542,7 @@
           <t>Aware of the sounds of approaching footsteps, he painstakingly pulls himself out from the container. His face sees a drastic shift as he figures out the patron.</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
+      <c r="H548" s="0" t="inlineStr">
         <is>
           <t>ඞУслышав приближающиеся шаги, он с трудом выбирается из контейнера. Его лицо резко меняется, когда он узнает покупателя.</t>
         </is>
@@ -25584,7 +25584,7 @@
           <t>Save it, mate. No need of your fancy words. You know where the boxes are, do ya?</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
+      <c r="H549" s="0" t="inlineStr">
         <is>
           <t>ඞОставь это, приятель. Не нужно твоих модных выражений. Ты ведь знаешь, где коробки, не так ли?</t>
         </is>
@@ -25626,7 +25626,7 @@
           <t>Some items scatter around the drawer O'Lucky just "delved in." They soon end up in your bag.</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
+      <c r="H550" s="0" t="inlineStr">
         <is>
           <t>ඞНекоторые предметы разбросаны по ящику, в котором О'Лаки только что "копался". Вскоре они оказываются в вашей сумке.</t>
         </is>
@@ -25668,7 +25668,7 @@
           <t>Investigate the counter</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
+      <c r="H551" s="0" t="inlineStr">
         <is>
           <t>ඞИсследуйте прилавок</t>
         </is>
@@ -25716,7 +25716,7 @@
 Among the smelly kitchen garbage, you find a shredded letter and photo, which take you some effort to restore piece by piece.</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
+      <c r="H552" s="0" t="inlineStr">
         <is>
           <t>ඞВы радуетесь, что рядом нет свидетелей, когда открываете очередную мусорную корзину, чтобы просмотреть ее содержимое. Как бы вы иначе объяснили им, что это не ваша прихоть?
 Среди вонючего кухонного мусора вы находите разорванное в клочья письмо и фотографию, которые вам приходится восстанавливать по кусочкам.</t>
@@ -25765,7 +25765,7 @@
 On the photo are some torturing tools whose horrific designs give you nightmares. Among them, the look of a metal mask sends a shiver down your spine.</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
+      <c r="H553" s="0" t="inlineStr">
         <is>
           <t>ඞВ письме Паскуалино содержалась угроза, в которой анонимный отправитель просил мужчину уволиться с работы в парке и немедленно покинуть город, иначе он подвергнется "невообразимому возмездию".
 На фото представлены орудия пыток, ужасающий дизайн которых вызывает у вас ночные кошмары. Среди них при виде металлической маски по спине пробегают мурашки.</t>
@@ -25808,7 +25808,7 @@
           <t>You also find inside the trashcan something useful... maybe.</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
+      <c r="H554" s="0" t="inlineStr">
         <is>
           <t>ඞВы также найдете в мусорном ведре что-нибудь полезное... может быть.</t>
         </is>
@@ -25850,7 +25850,7 @@
           <t>Check Trashcan</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
+      <c r="H555" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте мусорное ведро</t>
         </is>
@@ -25892,7 +25892,7 @@
           <t>As you come closer to the red mist, your thoughts begin to slow, and your mind grows sluggish and heavy.</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
+      <c r="H556" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь к красному туману, ваши мысли начинают замедляться, а разум становится вялым и тяжелым.</t>
         </is>
@@ -25934,7 +25934,7 @@
           <t>A red sprout emerges from the floor. In a blink of eye, its tender shoots enlarge and extend into disproportional branches and boughs, with ripen fruits hanging at its twigs, ready to be picked. The sanguineous luster makes you wonder in fear what has nourished the plant.</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
+      <c r="H557" s="0" t="inlineStr">
         <is>
           <t>ඞИз земли появляется красный росток. В мгновение ока его нежные побеги увеличиваются в размерах и превращаются в непропорциональные ветви, с которых свисают созревшие плоды, готовые к сбору. Кровавый блеск заставляет вас в страхе задаться вопросом, что же питало это растение.</t>
         </is>
@@ -25982,7 +25982,7 @@
 Flickering streams of light travel through the veins on the plaster angel's arms before converging at the glass vessel in his palms. The heart's incandescence flashes, then turns stable as the current noise ceases.</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
+      <c r="H558" s="0" t="inlineStr">
         <is>
           <t>ඞВы помещаете стеклянное сердце в сложенные чашечкой ладони статуи, и с четким щелчком устройство активируется.
 Мерцающие потоки света пробегают по венам на руках гипсового ангела, прежде чем собраться в стеклянном сосуде в его ладонях. Пульсация сердца мигает, затем становится стабильной, когда текущий шум прекращается.</t>
@@ -26031,7 +26031,7 @@
 A crude, synthesized song with a delightful tune comes from the invisible player on the statue. The current noise punctuating it reminds you of the shabby electronic candles you saw at other birthday parties.</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
+      <c r="H559" s="0" t="inlineStr">
         <is>
           <t>ඞСвет, исходящий от стеклянного сердца, наполняет вас радостью.
 Из невидимого проигрывателя на статуе звучит грубая синтезированная песня с восхитительной мелодией. Сопровождающий ее шум напоминает вам о потрепанных электронных свечах, которые вы видели на других вечеринках по случаю дня рождения.</t>
@@ -26074,7 +26074,7 @@
           <t>Buzz—♫Da~da-la-da-la-♫Da-da~The hero has returned with a heart of hope, now wait for the magic to happen as foretold~♫da-da-la-la~Da-da~♫Da-da~</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
+      <c r="H560" s="0" t="inlineStr">
         <is>
           <t>ඞBuzz—♫Da~da-la-da-la-♫Da-da~The hero has returned with a heart of hope, now wait for the magic to happen as foretold~♫da-da-la-la~Da-da~♫Da-da~</t>
         </is>
@@ -26116,7 +26116,7 @@
           <t>♫Da-la-la-la~♫La-la-da-da-da~</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
+      <c r="H561" s="0" t="inlineStr">
         <is>
           <t>ඞ♫Да-ла-ла-ла~♫ла-ла-да-да-да~</t>
         </is>
@@ -26158,7 +26158,7 @@
           <t>♫Da-la-la-la~♫La-la-da...da... Buzz... Buzz—</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
+      <c r="H562" s="0" t="inlineStr">
         <is>
           <t>ඞ♫Да-ла-ла-ла~♫ла-ла-да...в... Базз... Buzz—</t>
         </is>
@@ -26206,7 +26206,7 @@
 It take a while before you realize you have been cheated.</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
+      <c r="H563" s="0" t="inlineStr">
         <is>
           <t>ඞУжасная песня внезапно обрывается, когда огонек стеклянного сердечка мигает и гаснет. Похоже, в устройстве разрядился аккумулятор.
 Проходит некоторое время, прежде чем вы понимаете, что вас обманули.</t>
@@ -26249,7 +26249,7 @@
           <t>Just when you're about to set off, a few shimmering stones at the statue's feet catch your attention.</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
+      <c r="H564" s="0" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вы собираетесь отправиться в путь, ваше внимание привлекают несколько мерцающих камней у ног статуи.</t>
         </is>
@@ -26291,7 +26291,7 @@
           <t>Solve Puzzle</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
+      <c r="H565" s="0" t="inlineStr">
         <is>
           <t>ඞРешите головоломку</t>
         </is>
@@ -26333,7 +26333,7 @@
           <t>O'Lucky</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
+      <c r="H566" s="0" t="inlineStr">
         <is>
           <t>ඞО'Лаки</t>
         </is>
@@ -26381,7 +26381,7 @@
 He's now eagerly waiting for his first customer here to make some decisions.</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
+      <c r="H567" s="0" t="inlineStr">
         <is>
           <t>ඞВы не успеваете оглянуться, как О'Лаки торжественно устанавливает в центре прилавка вывеску All-Trading.
 Теперь он с нетерпением ждет своего первого покупателя, чтобы принять какое-то решение.</t>
@@ -26424,7 +26424,7 @@
           <t>In stead of having those shining stones rot inside your pocket, perhaps you can try your luck here. After all, you have no real use of them.</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
+      <c r="H568" s="0" t="inlineStr">
         <is>
           <t>ඞВместо того, чтобы прятать эти сверкающие камни в кармане, возможно, вы сможете попытать счастья здесь. В конце концов, они вам по-настоящему не пригодятся.</t>
         </is>
@@ -26466,7 +26466,7 @@
           <t>Can I choose "ten-roll" rather than open them one by one.</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
+      <c r="H569" s="0" t="inlineStr">
         <is>
           <t>ඞМогу ли я выбрать "десять рулонов" вместо того, чтобы открывать их один за другим?</t>
         </is>
@@ -26508,7 +26508,7 @@
           <t>There ain't no pity here so I don't see why you'd fancy a tell-roll.</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
+      <c r="H570" s="0" t="inlineStr">
         <is>
           <t>ඞЗдесь нет никакой жалости, так что я не понимаю, зачем тебе это нужно.</t>
         </is>
@@ -26550,7 +26550,7 @@
           <t>Look who's ere! Too bad I ain't got no treats for ya today.</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
+      <c r="H571" s="0" t="inlineStr">
         <is>
           <t>ඞСмотрите, кто здесь! Жаль, что у меня сегодня нет для вас угощений.</t>
         </is>
@@ -26598,7 +26598,7 @@
 That was me last one. No more boxes before I restock.</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
+      <c r="H572" s="0" t="inlineStr">
         <is>
           <t>ඞЧтоб мне провалиться...
 Это был мой последний заказ. Больше никаких коробок, пока я не пополню запасы.</t>
@@ -26641,7 +26641,7 @@
           <t>Ever heard of All-VIP? Just a few s'ones and you'll be me most respec'ed patron!</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
+      <c r="H573" s="0" t="inlineStr">
         <is>
           <t>ඞКогда-нибудь слышали о All-VIP? Всего несколько человек, и вы станете моим самым уважаемым клиентом!</t>
         </is>
@@ -26683,7 +26683,7 @@
           <t>The corner of O'Lucky's beak twitches as he realizes you don't have enough Starstones with you.</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
+      <c r="H574" s="0" t="inlineStr">
         <is>
           <t>ඞУголок клюва О'Лакки подергивается, когда он понимает, что у тебя с собой недостаточно Звездных камней.</t>
         </is>
@@ -26725,7 +26725,7 @@
           <t>If you plan to buy anythin' 'ere on credit, you better give it a 'ard second though'.</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
+      <c r="H575" s="0" t="inlineStr">
         <is>
           <t>ඞЕсли вы планируете купить что-либо в кредит, вам лучше хорошенько подумать.</t>
         </is>
@@ -26767,7 +26767,7 @@
           <t>Trade with O'Lucky</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
+      <c r="H576" s="0" t="inlineStr">
         <is>
           <t>ඞТоргуй с О'Лаки</t>
         </is>
@@ -26809,7 +26809,7 @@
           <t>O'Lucky picks one from the boxes with exact same looks, gives its side a knock with his feathered fingers, and raises it to his ear.</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
+      <c r="H577" s="0" t="inlineStr">
         <is>
           <t>ඞО'Лаки выбирает из коробок точно такую же, постучал по ее боку пальцами с перьями и поднес к уху.</t>
         </is>
@@ -26851,7 +26851,7 @@
           <t>This is it! O'Lucky never lies!</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
+      <c r="H578" s="0" t="inlineStr">
         <is>
           <t>ඞВот и все! О'Лаки никогда не лжет!</t>
         </is>
@@ -26893,7 +26893,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a branch, or something like that.</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
+      <c r="H579" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри нее вы обнаруживаете... отделение или что-то в этом роде.</t>
         </is>
@@ -26941,7 +26941,7 @@
 Too bad he go' 'ooked by the stocks and lost all 'is dough. Go' kicked out by his Tanuki landlord.</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
+      <c r="H580" s="0" t="inlineStr">
         <is>
           <t>ඞЗацени это! Это гифка от одного из моих приятелей, который держит фруктовую лавку на острове.
 Жаль, что он прогорел из-за акций и потерял все деньги. Его выгнал хозяин Тануки.</t>
@@ -26984,7 +26984,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a sparkling orb.</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
+      <c r="H581" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри нее вы обнаруживаете... сверкающий шар.</t>
         </is>
@@ -27032,7 +27032,7 @@
 Jus' give it a nice throw when you see those geezers... Gonna catch'em all! Hey, coun' me out!</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
+      <c r="H582" s="0" t="inlineStr">
         <is>
           <t>ඞТы веселый песик!
 Просто сделай хороший бросок, когда увидишь этих чудаков... Я собираюсь поймать их всех! Эй, поддержи меня!</t>
@@ -27075,7 +27075,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a fry pan.</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
+      <c r="H583" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... сковороду для жарки.</t>
         </is>
@@ -27123,7 +27123,7 @@
 Try carrin' it on my back, they told me, but what do ya need a pan for in a gun fight? Stopping the bullets?</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
+      <c r="H584" s="0" t="inlineStr">
         <is>
           <t>ඞВыгодная сделка, не так ли? Я подобрал его, когда сбрасывал с самолета на поле боя.
 Попробуй носить его на спине, сказали мне, но зачем тебе сковородка в перестрелке? Она останавливает пули?</t>
@@ -27166,7 +27166,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a cookie in strange shape.</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
+      <c r="H585" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... печенье странной формы.</t>
         </is>
@@ -27214,7 +27214,7 @@
 Anyway, it looks like goat fodder so do me a favor and try it ou' for me.</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
+      <c r="H586" s="0" t="inlineStr">
         <is>
           <t>ඞНашел его на мосту... Название - Плачущая бездна или что-то в этом роде...
 В любом случае, это похоже на корм для коз, так что сделай одолжение, попробуй сам.</t>
@@ -27257,7 +27257,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a bottle of liquid whose pleasing luster greets your eyes with charm.</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
+      <c r="H587" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... флакон с жидкостью, приятный блеск которой очаровывает ваш взгляд.</t>
         </is>
@@ -27305,7 +27305,7 @@
 Does it work, you say? Ya bet!</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
+      <c r="H588" s="0" t="inlineStr">
         <is>
           <t>ඞодин из моих приятелей купил его в переулке, ну, знаешь, такой, что нужно пару раз постучать по кирпичу, прежде чем войти.
 Ты говоришь, он работает? Держу пари!</t>
@@ -27348,7 +27348,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a well-ornamented horn.</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
+      <c r="H589" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри нее вы обнаруживаете... хорошо украшенный рог.</t>
         </is>
@@ -27396,7 +27396,7 @@
 Said he ain't stomach the sound so he let me have it!</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
+      <c r="H590" s="0" t="inlineStr">
         <is>
           <t>ඞПодарок от моего приятеля-кочевника.
 Сказал, что ему не нравится этот звук, и отдал его мне!</t>
@@ -27439,7 +27439,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a box of fries.</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
+      <c r="H591" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... упаковку картофеля фри.</t>
         </is>
@@ -27487,7 +27487,7 @@
 Jus' look at the texture!</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
+      <c r="H592" s="0" t="inlineStr">
         <is>
           <t>ඞПодарок от моих товарищей по работе в порту.
 Только посмотрите на текстуру!</t>
@@ -27530,7 +27530,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a glowing ring.</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
+      <c r="H593" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри нее вы обнаруживаете... светящееся кольцо.</t>
         </is>
@@ -27578,7 +27578,7 @@
 ￼Keep it safe from other investigators, if ya know what I'm talking about.</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
+      <c r="H594" s="0" t="inlineStr">
         <is>
           <t>ඞОсобая награда для нашего друга!
 ￼Храните это в тайне от других исследователей, если вы понимаете, о чем я говорю.</t>
@@ -27621,7 +27621,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a bag of milk powder with an intoxicating aroma.</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
+      <c r="H595" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... пакетик сухого молока с опьяняющим ароматом.</t>
         </is>
@@ -27669,7 +27669,7 @@
 'ope it can 'elp ya!</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
+      <c r="H596" s="0" t="inlineStr">
         <is>
           <t>ඞКуда бы ты ни пошел!
 надеюсь, это тебе поможет!</t>
@@ -27712,7 +27712,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a hood in the shape of banana.</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
+      <c r="H597" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... колпачок в форме банана.</t>
         </is>
@@ -27760,7 +27760,7 @@
 All I can tell ya is 'twas some weepy kitten's costume.</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
+      <c r="H598" s="0" t="inlineStr">
         <is>
           <t>ඞНе могу сказать, что у меня есть какая-то необычная история с этим фильмом...￼
 Все, что я могу тебе сказать, это то, что это был костюм какого-то плаксивого котенка.</t>
@@ -27803,7 +27803,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a bottle of golden wine.</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
+      <c r="H599" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... бутылку золотистого вина.</t>
         </is>
@@ -27851,7 +27851,7 @@
 The Golden Mead in ya hand's something else I tell ya!</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
+      <c r="H600" s="0" t="inlineStr">
         <is>
           <t>ඞВ яблочко!
 Золотистый мед в твоих руках - это еще кое-что, вот что я тебе скажу!</t>
@@ -27894,7 +27894,7 @@
           <t>O'Lucky passes you a box after taking your payment. Inside it you find... a vial of scarlet draught.</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
+      <c r="H601" s="0" t="inlineStr">
         <is>
           <t>ඞПосле получения оплаты О'Лаки передает вам коробку. Внутри вы обнаруживаете... пузырек с алым напитком.</t>
         </is>
@@ -27942,7 +27942,7 @@
 It was a gif' from one of my pious mates at the church. A well-liked flavor.</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
+      <c r="H602" s="0" t="inlineStr">
         <is>
           <t>ඞРад, что ты сделал правильный выбор, приятель!
 Это был подарок от одного из моих набожных приятелей по церкви. Очень любимый аромат.</t>
@@ -27991,7 +27991,7 @@
 Look, I've been an 'onest businessman, ain't I? So 'ow about becoming my VIP at the low cos' of a few extra stones? Wha' you say?</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
+      <c r="H603" s="0" t="inlineStr">
         <is>
           <t>ඞО, и это небольшой бонус для тебя. Соленое утиное яйцо от одного из моих трехмерных приятелей.
 Слушай, я был первоклассным бизнесменом, не так ли? Так как насчет того, чтобы стать моей VIP-персоной по низкой цене из-за нескольких лишних камней? Что скажешь?</t>
@@ -28040,7 +28040,7 @@
 He takes one, then gives you a half of it.</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
+      <c r="H604" s="0" t="inlineStr">
         <is>
           <t>ඞКогда О'Лаки открывает сумку, вы видите, что в ней аккуратно сложено больше дюжины соленых утиных яиц.
 Он берет одно и отдает половину тебе.</t>
@@ -28083,7 +28083,7 @@
           <t>You've been a real nice patron. Take this electronic swatter!</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
+      <c r="H605" s="0" t="inlineStr">
         <is>
           <t>ඞВы были очень любезным покупателем. Возьмите эту электронную мухобойку!</t>
         </is>
@@ -28125,7 +28125,7 @@
           <t>O'Lucky murmurs as he searches in his bag with his back against you. "Bloody 'ell, what good the shites when I ain't sellin' them? Might as well send 'em off!"</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
+      <c r="H606" s="0" t="inlineStr">
         <is>
           <t>ඞО'Лаки что-то бормочет, роясь в своей сумке, прислонившись к тебе спиной. "Черт возьми, что толку в этом дерьме, если я его не продаю? С таким же успехом можно было бы послать его подальше!"</t>
         </is>
@@ -28167,7 +28167,7 @@
           <t>By the way, didn't you find a ring in the garden?</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
+      <c r="H607" s="0" t="inlineStr">
         <is>
           <t>ඞКстати, разве ты не нашел кольцо в саду?</t>
         </is>
@@ -28209,7 +28209,7 @@
           <t>The garden, you say? Now tha' you mention it... But you know wha' they say, finders keepers...</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
+      <c r="H608" s="0" t="inlineStr">
         <is>
           <t>ඞВы говорите, сад? Раз уж вы упомянули об этом... Но вы же знаете, как говорится, кто нашел, тот и хранит...</t>
         </is>
@@ -28251,7 +28251,7 @@
           <t>You give O'Lucky an evil grin. Your knuckles lets out menacing cracks as you tight your fists and give them a squeeze.</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
+      <c r="H609" s="0" t="inlineStr">
         <is>
           <t>ඞТы одариваешь О'Лаки злобной ухмылкой. Костяшки твоих пальцев угрожающе хрустят, когда ты сжимаешь кулаки.</t>
         </is>
@@ -28293,7 +28293,7 @@
           <t>...Bu' I say to 'ell with the rules. 'ere, take it, and nice doin' business with ya!</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
+      <c r="H610" s="0" t="inlineStr">
         <is>
           <t>ඞ..Но я советую соблюдать правила. Вот, возьми это, и мне было приятно иметь с тобой дело!</t>
         </is>
@@ -28335,7 +28335,7 @@
           <t>Three stones and it's yourn. Wha' you say?</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
+      <c r="H611" s="0" t="inlineStr">
         <is>
           <t>ඞТри камня - и он твой. Что скажешь?</t>
         </is>
@@ -28377,7 +28377,7 @@
           <t>Ask about Ring</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
+      <c r="H612" s="0" t="inlineStr">
         <is>
           <t>ඞСпросите о кольце</t>
         </is>
@@ -28419,7 +28419,7 @@
           <t>'ere you go! Jus' look at this beauty, a real bargain you've struck, innit?</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
+      <c r="H613" s="0" t="inlineStr">
         <is>
           <t>ඞ- пока вы не ушли! Только посмотрите на эту красоту, вы заключили настоящую сделку, не так ли?</t>
         </is>
@@ -28461,7 +28461,7 @@
           <t>Trade Ring</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
+      <c r="H614" s="0" t="inlineStr">
         <is>
           <t>ඞТорговое кольцо</t>
         </is>
@@ -28503,7 +28503,7 @@
           <t>Consume 3 Starstones to proceed</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
+      <c r="H615" s="0" t="inlineStr">
         <is>
           <t>ඞИспользуйте 3 звездных камня, чтобы продолжить</t>
         </is>
@@ -28551,7 +28551,7 @@
 As you loll on the chair, hand on your satisfied belly, you feel not only your stamina has been restored, but that dread on your mind gone, if only for the moment.</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
+      <c r="H616" s="0" t="inlineStr">
         <is>
           <t>ඞВы уничтожаете все деликатесы на обеденном столе. На вкус они свежие, как будто их только что достали из духовки.
 Откинувшись на спинку стула и положив руку на свой сытый живот, вы чувствуете, что не только ваша выносливость восстановилась, но и страх, терзавший вас, исчез, хотя бы на мгновение.</t>
@@ -28594,7 +28594,7 @@
           <t>Feast yourself</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
+      <c r="H617" s="0" t="inlineStr">
         <is>
           <t>ඞПорадуйте себя</t>
         </is>
@@ -28636,7 +28636,7 @@
           <t>The delicacies inside this Cafeteria are whetting your appetite...</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
+      <c r="H618" s="0" t="inlineStr">
         <is>
           <t>ඞДеликатесы, предлагаемые в этом кафе, разожгут ваш аппетит...</t>
         </is>
@@ -28678,7 +28678,7 @@
           <t>A duck-ish stuffed doll leans against the wall lifelessly next to the machine. Someone probably forgot to take their hard-earn souvenir with them.</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
+      <c r="H619" s="0" t="inlineStr">
         <is>
           <t>ඞРядом с машиной, прислонившись к стене, безжизненно стоит мягкая кукла, похожая на утку. Вероятно, кто-то забыл взять с собой сувенир, заработанный тяжелым трудом.</t>
         </is>
@@ -28720,7 +28720,7 @@
           <t>After a quick scan of the rest of your surroundings, however, you notice that something's off with the doll. Strangely, its previous standing posture has been changed into a fleeing one, like it's ready to set off in the next second.</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
+      <c r="H620" s="0" t="inlineStr">
         <is>
           <t>ඞОднако, быстро осмотревшись, вы замечаете, что с куклой что-то не так. Как ни странно, ее прежняя поза, в которой она стояла, сменилась на бегущую, как будто она готова пуститься в путь в следующую секунду.</t>
         </is>
@@ -28762,7 +28762,7 @@
           <t>Time slips away noiselessly as the creature stays paralyzed by your deadly gaze. You somehow sense a tint of artificialness in its calm facade.</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
+      <c r="H621" s="0" t="inlineStr">
         <is>
           <t>ඞВремя бесшумно ускользает, а существо остается парализованным вашим смертоносным взглядом. Вы каким-то образом ощущаете оттенок искусственности в его спокойном фасаде.</t>
         </is>
@@ -28804,7 +28804,7 @@
           <t>You close the gap and pinch the creature by its short neck without any warning. In a desperate struggle, its webbed feet kick in the air.</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
+      <c r="H622" s="0" t="inlineStr">
         <is>
           <t>ඞВы приближаетесь к существу и без всякого предупреждения хватаете его за короткую шею. В отчаянной борьбе оно молотит перепончатыми лапами по воздуху.</t>
         </is>
@@ -28846,7 +28846,7 @@
           <t>Oi! Ge' ya stinky hand o' me!</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
+      <c r="H623" s="0" t="inlineStr">
         <is>
           <t>ඞЭй! Подай мне свою вонючую руку!</t>
         </is>
@@ -28888,7 +28888,7 @@
           <t>Duck(?)</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
+      <c r="H624" s="0" t="inlineStr">
         <is>
           <t>ඞУтка(?)</t>
         </is>
@@ -28930,7 +28930,7 @@
           <t>Holy Moly! The duck's talking!</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
+      <c r="H625" s="0" t="inlineStr">
         <is>
           <t>ඞБоже мой! Утка заговорила!</t>
         </is>
@@ -28972,7 +28972,7 @@
           <t>I ain't no duck, I tell ya!</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
+      <c r="H626" s="0" t="inlineStr">
         <is>
           <t>ඞГоворю вам, я не утка!</t>
         </is>
@@ -29014,7 +29014,7 @@
           <t>The duck(?) boldly rebukes your words, but soon softens its tone as it understands who's got the upper hand in the fight.</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
+      <c r="H627" s="0" t="inlineStr">
         <is>
           <t>ඞУтка (?) смело осуждает ваши слова, но вскоре смягчает свой тон, поскольку понимает, кто одержал верх в этой борьбе.</t>
         </is>
@@ -29056,7 +29056,7 @@
           <t>Care to pu' me down first, mate? Then we can 'ave a nice li'le talk.</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
+      <c r="H628" s="0" t="inlineStr">
         <is>
           <t>ඞНе хочешь сначала меня трахнуть, приятель? А потом мы сможем немного мило поболтать.</t>
         </is>
@@ -29098,7 +29098,7 @@
           <t>You hesitate to let go of this suspicious ball of feathers. Its appearance might be a disguise.</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
+      <c r="H629" s="0" t="inlineStr">
         <is>
           <t>ඞВы не решаетесь отпустить этот подозрительный комок перьев. Его внешний вид может быть маскировкой.</t>
         </is>
@@ -29140,7 +29140,7 @@
           <t>Call me O'lucky. Though' this place could use some trades, so I'm 'ere!</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
+      <c r="H630" s="0" t="inlineStr">
         <is>
           <t>ඞЗовите меня О'Лакки. Хотя этому заведению не помешало бы кое-что поменять, так что я здесь!</t>
         </is>
@@ -29182,7 +29182,7 @@
           <t>You don't reply. Silence is the best weapon.</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
+      <c r="H631" s="0" t="inlineStr">
         <is>
           <t>ඞТы не отвечаешь. Молчание - лучшее оружие.</t>
         </is>
@@ -29230,7 +29230,7 @@
 Ouch! You're gettin' my feathers!</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
+      <c r="H632" s="0" t="inlineStr">
         <is>
           <t>ඞЯ говорю тебе чертову правду! А теперь верни меня на землю, чтобы я мог показать тебе!
 Ой! Из-за тебя у меня перья полезут!</t>
@@ -29273,7 +29273,7 @@
           <t>Your imagination fails to link the way this creature flutters its chubby wings with the culprit behind all these disasters. Having landed back on solid ground, it soothes the back of its neglectable neck with its feathers and grumbles.</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
+      <c r="H633" s="0" t="inlineStr">
         <is>
           <t>ඞВаше воображение не в состоянии связать то, как это существо машет своими пухлыми крылышками, с виновником всех этих бедствий. Приземлившись на твердую землю, оно расправляет перья на своей неухоженной шее и ворчит.</t>
         </is>
@@ -29315,7 +29315,7 @@
           <t>Bloody hell! Look wha' you've done to my beautiful down!</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
+      <c r="H634" s="0" t="inlineStr">
         <is>
           <t>ඞЧерт возьми! Посмотри, что ты сделал с моим прекрасным пухом!</t>
         </is>
@@ -29357,7 +29357,7 @@
           <t>He eyes you with grievance. As if stimulated by the smell of something on you, the doll suddenly closes the gap and takes some deep sniffs around you. In the next second, you see the doll enlarges itself into half the size of a human.</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
+      <c r="H635" s="0" t="inlineStr">
         <is>
           <t>ඞОн смотрит на вас с недовольством. Как будто почувствовав исходящий от вас запах, кукла внезапно сокращает расстояние и делает несколько глубоких вдохов вокруг вас. В следующую секунду вы видите, как кукла увеличивается в размерах вдвое по сравнению с человеком.</t>
         </is>
@@ -29399,7 +29399,7 @@
           <t>Still refusing to let your guard down, you take a step back and examine this strange creature from a distance. It tights its displaced panama hat and bowknot before clearing its throat with a few coughs, completely ignoring your cold eyes.</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
+      <c r="H636" s="0" t="inlineStr">
         <is>
           <t>ඞВсе еще отказываясь терять бдительность, ты делаешь шаг назад и рассматриваешь это странное существо издалека. Оно поправляет свою съехавшую панаму и повязывает бант, прежде чем несколько раз кашлянуть, полностью игнорируя твой холодный взгляд.</t>
         </is>
@@ -29441,7 +29441,7 @@
           <t>You be'er be counting' your lucky stars now, mate, 'cause standin' in front o' you is none o'er than the boss o' O-Trading 'isself.</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
+      <c r="H637" s="0" t="inlineStr">
         <is>
           <t>ඞТеперь ты можешь считать свои счастливые звезды, приятель, потому что перед тобой стоит не кто иной, как сам главный трейдер.</t>
         </is>
@@ -29483,7 +29483,7 @@
           <t>I pick my patrons, and I'm feelin' generous today!</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
+      <c r="H638" s="0" t="inlineStr">
         <is>
           <t>ඞЯ сам выбираю себе клиентов, и сегодня я чувствую себя щедрым!</t>
         </is>
@@ -29525,7 +29525,7 @@
           <t>He speaks not even a word of complaint now, but only cliches you expect from a salesman.</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
+      <c r="H639" s="0" t="inlineStr">
         <is>
           <t>ඞСейчас он не произносит ни слова жалобы, а только штампы, которых можно ожидать от продавца.</t>
         </is>
@@ -29567,7 +29567,7 @@
           <t>What are you selling?</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
+      <c r="H640" s="0" t="inlineStr">
         <is>
           <t>ඞЧто вы продаете?</t>
         </is>
@@ -29615,7 +29615,7 @@
 After some rummages inside his bag, O'Lucky whips out a ragged blanket and spreads it before him. You then see he lay out all his trinkets in front of you.</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
+      <c r="H641" s="0" t="inlineStr">
         <is>
           <t>ඞЕго глаза сверкают, когда вы проявляете интерес к его товарам.
 Порывшись в своей сумке, О'Лаки достает рваное одеяло и расстилает его перед собой. Затем вы видите, что он раскладывает перед вами все свои безделушки.</t>
@@ -29658,7 +29658,7 @@
           <t>...?</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
+      <c r="H642" s="0" t="inlineStr">
         <is>
           <t>ඞ...?</t>
         </is>
@@ -29700,7 +29700,7 @@
           <t>He completes it with a tarnished wooden board at front, the scribble on it barely intelligible: All-Trading. Judging from the duck footprint duck next to the writing, this whole doodle might be the logo of his company.</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
+      <c r="H643" s="0" t="inlineStr">
         <is>
           <t>ඞОн украшает его спереди потускневшей деревянной доской, на которой едва различимо написано: "Все для торговли". Судя по отпечатку ноги утки рядом с надписью, все эти каракули могут быть логотипом его компании.</t>
         </is>
@@ -29742,7 +29742,7 @@
           <t>All-Trading? More like Stall-Trading.</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
+      <c r="H644" s="0" t="inlineStr">
         <is>
           <t>ඞВсеобщая торговля? Больше похоже на торговлю в киосках.</t>
         </is>
@@ -29784,7 +29784,7 @@
           <t>The yellow bowknot of his sticks out as his chest swells with pride.</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
+      <c r="H645" s="0" t="inlineStr">
         <is>
           <t>ඞЕго желтый бант торчит вперед, а грудь раздувается от гордости.</t>
         </is>
@@ -29826,7 +29826,7 @@
           <t>I don't think any trade company would have only one kind of product available on their list.</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
+      <c r="H646" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не думаю, что какая-либо торговая компания будет иметь в своем списке только один вид продукции.</t>
         </is>
@@ -29868,7 +29868,7 @@
           <t>If I'm being 'onest with ya, mate, I go too many trinkets with me that I can hardly tell which one's which.</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
+      <c r="H647" s="0" t="inlineStr">
         <is>
           <t>ඞЕсли быть откровенным с тобой, приятель, то у меня с собой слишком много безделушек, и я с трудом могу отличить одну от другой.</t>
         </is>
@@ -29910,7 +29910,7 @@
           <t>So?</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
+      <c r="H648" s="0" t="inlineStr">
         <is>
           <t>ඞТак?</t>
         </is>
@@ -29952,7 +29952,7 @@
           <t>That's where I came up with the brigh' idea! Why give the name tags a 'oot when you can sell whatever they're?</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
+      <c r="H649" s="0" t="inlineStr">
         <is>
           <t>ඞВот тут-то мне и пришла в голову блестящая идея! Зачем делать ярлыки с названиями, если можно продать все, что на них написано?</t>
         </is>
@@ -29994,7 +29994,7 @@
           <t>Nothin' bu' goodies, mind ya! You always ge' more than you pay for!</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
+      <c r="H650" s="0" t="inlineStr">
         <is>
           <t>ඞНичего, кроме вкусностей, заметьте! Вы всегда получаете больше, чем платите!</t>
         </is>
@@ -30036,7 +30036,7 @@
           <t>His wicked eyes blink at you, sending a message that it'll be a loss of your own should you let the opportunity slip away.</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
+      <c r="H651" s="0" t="inlineStr">
         <is>
           <t>ඞЕго лукавые глаза подмигивают вам, давая понять, что вы сами потеряете себя, если упустите такую возможность.</t>
         </is>
@@ -30078,7 +30078,7 @@
           <t>What's the price?</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
+      <c r="H652" s="0" t="inlineStr">
         <is>
           <t>ඞКакова цена?</t>
         </is>
@@ -30120,7 +30120,7 @@
           <t>Jus' three Starstones and the box is yourn. You can find these fi' stones everywhere in the park!</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
+      <c r="H653" s="0" t="inlineStr">
         <is>
           <t>ඞВсего три звездных камня, и шкатулка ваша. Вы можете найти эти камни повсюду в парке!</t>
         </is>
@@ -30162,7 +30162,7 @@
           <t>In a sleight of hand, he whips out a sparkling stone into his hand, then returns it to his bag before you can take a closer look at it.</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
+      <c r="H654" s="0" t="inlineStr">
         <is>
           <t>ඞЛовким движением рук он выхватывает сверкающий камень и кладет его обратно в сумку, прежде чем вы успеваете рассмотреть его поближе.</t>
         </is>
@@ -30204,7 +30204,7 @@
           <t>You take a brief glance at the array of goods on the blanket. All crudely identical yet somehow shrouded in an aura of mystery. O'Lucky stands aside with his hands folded behind him.</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
+      <c r="H655" s="0" t="inlineStr">
         <is>
           <t>ඞВы бросаете беглый взгляд на разложенные на одеяле товары. Все они практически идентичны, но каким-то образом окутаны ореолом таинственности. О'Лаки стоит в стороне, сложив руки за спиной.</t>
         </is>
@@ -30252,7 +30252,7 @@
 Seems he would like to exchange the Starstones you have with his trinkets.</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
+      <c r="H656" s="0" t="inlineStr">
         <is>
           <t>ඞЭта утка (?) по имени О'Лаки оказывается таинственным торговцем, который может путешествовать между мирами.
 Кажется, он хотел бы обменять Звездные камни, которые у вас есть, на свои безделушки.</t>
@@ -30295,7 +30295,7 @@
           <t>Check Orchard</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
+      <c r="H657" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте фруктовый сад</t>
         </is>
@@ -30337,7 +30337,7 @@
           <t>Red Orchard</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
+      <c r="H658" s="0" t="inlineStr">
         <is>
           <t>ඞКрасный сад</t>
         </is>
@@ -30379,7 +30379,7 @@
           <t>Both the mysterious aroma and luster are &lt;color=#DC143C&gt;tempting&lt;/color&gt; to you.</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
+      <c r="H659" s="0" t="inlineStr">
         <is>
           <t>ඞИ таинственный аромат, и блеск &lt;color=#DC143C&gt; соблазняют вас&lt;/color&gt;.</t>
         </is>
@@ -30421,7 +30421,7 @@
           <t>The disgusted fruit nourishes you, and an unfamiliar wells up from your mind.</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
+      <c r="H660" s="0" t="inlineStr">
         <is>
           <t>ඞОтвратительный плод питает вас, и в вашем сознании рождается что-то незнакомое.</t>
         </is>
@@ -30463,7 +30463,7 @@
           <t>You hear the wail of an abandoned infant on a bench at the entrance of the Cafeteria on Easter day. You see Rosa who adopted the child and later gave him his name, Pasqualino, a gift from Easter.</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
+      <c r="H661" s="0" t="inlineStr">
         <is>
           <t>ඞВы слышите плач брошенного младенца на скамейке у входа в кафетерий в день Пасхи. Вы видите Розу, которая усыновила ребенка и позже дала ему имя Паскуалино, подарок на Пасху.</t>
         </is>
@@ -30505,7 +30505,7 @@
           <t>Pasqualino spent his childhood at the town under Rosa's care. He knew everything about his own story but decided not to pay it too much mind. After graduation, Pasqualino volunteered to work for the park, for this place was his paradise.</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
+      <c r="H662" s="0" t="inlineStr">
         <is>
           <t>ඞДетство Паскуалино прошло в этом городке под присмотром Розы. Он знал все о своей собственной истории, но решил не придавать этому особого значения. После окончания школы Паскуалино добровольно пошел работать в парк, потому что это место было для него раем.</t>
         </is>
@@ -30547,7 +30547,7 @@
           <t>You finish savoring the memory and spit out the fruit seed into your palm. A white crystal shard.</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
+      <c r="H663" s="0" t="inlineStr">
         <is>
           <t>ඞТы заканчиваешь смаковать воспоминание и выплевываешь косточку на ладонь. Осколок белого хрусталя.</t>
         </is>
@@ -30589,7 +30589,7 @@
           <t>Eat Fruit</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
+      <c r="H664" s="0" t="inlineStr">
         <is>
           <t>ඞСьесть фрукт</t>
         </is>
@@ -30631,7 +30631,7 @@
           <t>Shrouded by the red mist, the once warm and sweet Cafeteria is as grim and dark as the rest of this place. The crimson haze outlines an obscure silhouette.</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
+      <c r="H665" s="0" t="inlineStr">
         <is>
           <t>ඞОкутанный красным туманом, некогда теплый и уютный кафетерий стал таким же мрачным, как и все остальное в этом месте. В багровой дымке вырисовывается неясный силуэт.</t>
         </is>
@@ -30673,7 +30673,7 @@
           <t>The crooked silhouette shambling at your direction. Though the hazy mist obscured your vision, you still manage to recognize the figure as it approaches.</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
+      <c r="H666" s="0" t="inlineStr">
         <is>
           <t>ඞСкрюченный силуэт, ковыляющий в вашем направлении. Хотя туман застилал вам глаза, вы все равно умудряетесь разглядеть приближающуюся фигуру.</t>
         </is>
@@ -30715,7 +30715,7 @@
           <t>...O'Lucky?</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
+      <c r="H667" s="0" t="inlineStr">
         <is>
           <t>ඞ..- О'Лаки?</t>
         </is>
@@ -30757,7 +30757,7 @@
           <t>The crimson mist parts to reveal O'Lucky's chunky figure. Swollen red wines run across the surface of his cunning eyes deprived of liveness.</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
+      <c r="H668" s="0" t="inlineStr">
         <is>
           <t>ඞБагровый туман расступается, и становится видна коренастая фигура О'Лаки. В его хитрых глазах, лишенных живости, проступают красные пятна.</t>
         </is>
@@ -30799,7 +30799,7 @@
           <t>...</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
+      <c r="H669" s="0" t="inlineStr">
         <is>
           <t>ඞ...</t>
         </is>
@@ -30841,7 +30841,7 @@
           <t>...</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
+      <c r="H670" s="0" t="inlineStr">
         <is>
           <t>...</t>
         </is>
@@ -30883,7 +30883,7 @@
           <t>You now see clearly O'Lucky's malevolent eyes fixated on you. The turned merchant is coming! For you!</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
+      <c r="H671" s="0" t="inlineStr">
         <is>
           <t>ඞТеперь ты ясно видишь, как злобный взгляд О'Лаки устремлен на тебя. Перевербованный торговец приближается! За тобой!</t>
         </is>
@@ -30925,7 +30925,7 @@
           <t>Oi! Leave it out! It's me, O'lucky! Stop it I say!</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
+      <c r="H672" s="0" t="inlineStr">
         <is>
           <t>ඞЭй! Оставь это в покое! Это я, О'Лаки! Прекрати, я говорю!</t>
         </is>
@@ -30967,7 +30967,7 @@
           <t>You stop your attack and see O'Lucky's hostile eyes regain their color, with an extra tint of silliness in it. You wonder if you should've pulled your punches.</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
+      <c r="H673" s="0" t="inlineStr">
         <is>
           <t>ඞВы прекращаете атаку и видите, как враждебные глаза О'Лаки вновь обретают свой прежний цвет, а в них появляется дополнительный оттенок глупости. Вы задаетесь вопросом, стоило ли вам сдерживать свои удары.</t>
         </is>
@@ -31009,7 +31009,7 @@
           <t>Seems the red mist can infect otherworldly creatures...</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
+      <c r="H674" s="0" t="inlineStr">
         <is>
           <t>ඞПохоже, красный туман может заразить потусторонних существ...</t>
         </is>
@@ -31051,7 +31051,7 @@
           <t>Do keep yourself from the red mist. It corrupts your mind.</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
+      <c r="H675" s="0" t="inlineStr">
         <is>
           <t>ඞБерегись красного тумана. Он развращает твой разум.</t>
         </is>
@@ -31093,7 +31093,7 @@
           <t>I was sayin'! There was that red mist then I felt sick. Did't ge' to figure ou' the rest.</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
+      <c r="H676" s="0" t="inlineStr">
         <is>
           <t>ඞЯ говорил! Был тот красный туман, а потом меня затошнило. До остального я не успел додуматься.</t>
         </is>
@@ -31135,7 +31135,7 @@
           <t>Yeah. You should definitely be leaving here. This place isn't safe any more.</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
+      <c r="H677" s="0" t="inlineStr">
         <is>
           <t>ඞДа. Тебе определенно следует уехать отсюда. Это место больше не безопасно.</t>
         </is>
@@ -31177,7 +31177,7 @@
           <t>I ain't call it a qui', not until I 'ave my fi' Starstones. Do need to be a li'le careful now, I see.</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
+      <c r="H678" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не успокоюсь, пока не получу свои Звездные камни. Теперь, я вижу, нужно быть немного осторожным.</t>
         </is>
@@ -31219,7 +31219,7 @@
           <t>That hi' was bru'al, bu' at the end of the day, it was you who saved me. Come back again and I'll charge ya one Starstone a box. How's that?</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
+      <c r="H679" s="0" t="inlineStr">
         <is>
           <t>ඞЭто было жестоко, но, в конце концов, именно ты спас меня. Приходи снова, и я буду брать с тебя по одному Звездному камню за коробку. Как тебе это?</t>
         </is>
@@ -31261,7 +31261,7 @@
           <t>O'Lucky seems to remember something, then begins a frantic search inside his bag. Having making sure everything's still there, he lets out a sigh of relief, before passing you a ring he found inside.</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
+      <c r="H680" s="0" t="inlineStr">
         <is>
           <t>ඞО'Лаки, кажется, что-то вспоминает, затем начинает лихорадочно рыться в своей сумке. Убедившись, что все на месте, он вздыхает с облегчением, прежде чем передать вам кольцо, которое нашел внутри.</t>
         </is>
@@ -31303,7 +31303,7 @@
           <t>You can 'ave it, my thanks.</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
+      <c r="H681" s="0" t="inlineStr">
         <is>
           <t>ඞТы можешь получить это, моя благодарность.</t>
         </is>
@@ -31345,7 +31345,7 @@
           <t>You've never seen such a generous O'Lucky as he pushes the ring into your hand. He mumbles as he walks away with the handbag.</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
+      <c r="H682" s="0" t="inlineStr">
         <is>
           <t>ඞВы никогда не видели такого щедрого О'Лакки, который вкладывает кольцо вам в руку. Бормочет он, уходя с сумочкой.</t>
         </is>
@@ -31387,7 +31387,7 @@
           <t>That bloody rin'! Though' it was a treasure or something, and gone mad the moment I picked it up. Bloody shite!</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
+      <c r="H683" s="0" t="inlineStr">
         <is>
           <t>ඞЭто чертово кольцо! Хотя это было сокровище или что-то в этом роде, и я сошел с ума, как только взял его в руки. Черт возьми!</t>
         </is>
@@ -31429,7 +31429,7 @@
           <t>You turn your eyes only to meet O'Lucky's. Your intention's clear as both visions clash.</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
+      <c r="H684" s="0" t="inlineStr">
         <is>
           <t>ඞТы поднимаешь глаза только для того, чтобы встретиться взглядом с О'Лаки. Твои намерения ясны, когда оба видения сталкиваются.</t>
         </is>
@@ -31471,7 +31471,7 @@
           <t>Leav it ou' I warn ya! I ain't not... Oi! Ooooi!</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
+      <c r="H685" s="0" t="inlineStr">
         <is>
           <t>ඞОставь это, я тебя предупреждаю! Я не собираюсь... Эй! Оооой!</t>
         </is>
@@ -31513,7 +31513,7 @@
           <t>Though he claims to be an otherworldly merchant, your instinct of an investigator wants to find out if he really has what it takes.</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
+      <c r="H686" s="0" t="inlineStr">
         <is>
           <t>ඞХотя он утверждает, что он торговец из другого мира, ваш инстинкт исследователя требует выяснить, действительно ли у него есть то, что нужно.</t>
         </is>
@@ -31555,7 +31555,7 @@
           <t>What's the game? Slin' ya hoo'... Oi!</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
+      <c r="H687" s="0" t="inlineStr">
         <is>
           <t>ඞЧто за игра? Я тебя подкараулю... Эй!</t>
         </is>
@@ -31597,7 +31597,7 @@
           <t>Nobody knows where this door leads to, but at the same time nobody can refuse the invitation from a glowing door. NOBODY.</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
+      <c r="H688" s="0" t="inlineStr">
         <is>
           <t>ඞНикто не знает, куда ведет эта дверь, но в то же время никто не может отказаться от приглашения, исходящего от светящейся двери. никто.</t>
         </is>
@@ -31639,7 +31639,7 @@
           <t>You stride into the portal without giving it a second thought. After a blinding flash, you feel yourself being pulled into another space.</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
+      <c r="H689" s="0" t="inlineStr">
         <is>
           <t>ඞВы входите в портал, не задумываясь ни на секунду. После ослепительной вспышки вы чувствуете, что вас затягивает в другое пространство.</t>
         </is>
@@ -31681,7 +31681,7 @@
           <t>What is this place?</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
+      <c r="H690" s="0" t="inlineStr">
         <is>
           <t>ඞЧто это за место?</t>
         </is>
@@ -31723,7 +31723,7 @@
           <t>You take a quick scan everything around you and find in disappointment that you're still inside the park.</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
+      <c r="H691" s="0" t="inlineStr">
         <is>
           <t>ඞВы быстро осматриваете все вокруг и с разочарованием обнаруживаете, что все еще находитесь в парке.</t>
         </is>
@@ -31765,7 +31765,7 @@
           <t>Even a portal can't carry you outside the park, it seems.</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
+      <c r="H692" s="0" t="inlineStr">
         <is>
           <t>ඞПохоже, даже портал не может вынести вас за пределы парка.</t>
         </is>
@@ -31807,7 +31807,7 @@
           <t>Though a little depressed, the fact that the red mist has dissipated still lights up your heart a little.</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
+      <c r="H693" s="0" t="inlineStr">
         <is>
           <t>ඞНесмотря на то, что ты немного подавлен, тот факт, что красный туман рассеялся, все еще немного согревает твое сердце.</t>
         </is>
@@ -31849,7 +31849,7 @@
           <t>During the combat, O'Lucky opens a portal before packing up everything he has and throwing himself with them into the rift. He's gone before you know it.</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
+      <c r="H694" s="0" t="inlineStr">
         <is>
           <t>ඞВо время боя О'Лаки открывает портал, а затем собирает все, что у него есть, и бросается вместе с ними в разлом. Он исчезает прежде, чем вы успеваете это осознать.</t>
         </is>
@@ -31891,7 +31891,7 @@
           <t>So that duck's gone now...?</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
+      <c r="H695" s="0" t="inlineStr">
         <is>
           <t>ඞЗначит, эта утка теперь улетела...?</t>
         </is>
@@ -31933,7 +31933,7 @@
           <t>The duck(?) runs away in a blink of eye without leaving a single item behind. Clearly it wasn't his first failed attempt in expanding customer market. You aren't very sure if you'll meet it again.</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
+      <c r="H696" s="0" t="inlineStr">
         <is>
           <t>ඞУтка (?) убегает в мгновение ока, не оставляя после себя ни единого предмета. Очевидно, это была не первая неудачная попытка расширить рынок сбыта. Вы не уверены, встретите ли ее снова.</t>
         </is>
@@ -31975,7 +31975,7 @@
           <t>Whi'e flag! I give up!</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
+      <c r="H697" s="0" t="inlineStr">
         <is>
           <t>ඞКакой флаг! Я сдаюсь!</t>
         </is>
@@ -32023,7 +32023,7 @@
 The poor merchant is now huddling on the ground with his feathered hands pressing against his hat, trembling.</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
+      <c r="H698" s="0" t="inlineStr">
         <is>
           <t>ඞОбмен ударами доказал вам, что О'Лаки не создан для сражений.
 Бедный торговец теперь скорчился на земле, прижимая к шляпе покрытые перьями руки и дрожа.</t>
@@ -32066,7 +32066,7 @@
           <t>You plan to...</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
+      <c r="H699" s="0" t="inlineStr">
         <is>
           <t>ඞТы планируешь это сделать...</t>
         </is>
@@ -32108,7 +32108,7 @@
           <t>Show No Mercy</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
+      <c r="H700" s="0" t="inlineStr">
         <is>
           <t>ඞНе проявляй милосердия</t>
         </is>
@@ -32151,7 +32151,7 @@
           <t>Terrorized by that murderous look in your eyes, O'Lucky opens a portal before packing everything he has and throwing himself with them into the rift. He's gone before you know it.</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
+      <c r="H701" s="0" t="inlineStr">
         <is>
           <t>ඞНапуганный твоим убийственным взглядом, О'Лаки открывает портал, прежде чем собрать все, что у него есть, и броситься с ними в разлом. Он исчез прежде, чем ты успел это осознать.</t>
         </is>
@@ -32193,7 +32193,7 @@
           <t>Hope he won't need a pair of new pants after this...</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
+      <c r="H702" s="0" t="inlineStr">
         <is>
           <t>ඞНадеюсь, после этого ему не понадобятся новые штаны...</t>
         </is>
@@ -32235,7 +32235,7 @@
           <t>Spare him</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
+      <c r="H703" s="0" t="inlineStr">
         <is>
           <t>ඞПощади его</t>
         </is>
@@ -32277,7 +32277,7 @@
           <t>It seems this duck named O'Lucky is just an average merchant who runs a stand, not some evil mastermind. How disappointing.</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
+      <c r="H704" s="0" t="inlineStr">
         <is>
           <t>ඞПохоже, что эта утка по имени О'Лакки - обычный торговец, управляющий киоском, а не какой-то злой умысел. Какое разочарование.</t>
         </is>
@@ -32319,7 +32319,7 @@
           <t>As you ponder over this duck's identity, he drags himself closer with that expression of his showing reluctance.</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
+      <c r="H705" s="0" t="inlineStr">
         <is>
           <t>ඞПока вы размышляете над тем, кто такая эта утка, она придвигается ближе с таким выражением явного нежелания.</t>
         </is>
@@ -32361,7 +32361,7 @@
           <t>Wha', bothered by the price? Why didn't tell me on that? I ain't see no reason to force your hand.</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
+      <c r="H706" s="0" t="inlineStr">
         <is>
           <t>ඞЧто, тебя беспокоит цена? Почему ты мне об этом не сказал? Я не вижу причин принуждать тебя.</t>
         </is>
@@ -32403,7 +32403,7 @@
           <t>One Starstone for a box, how's that? I can go broke easy with that price.</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
+      <c r="H707" s="0" t="inlineStr">
         <is>
           <t>ඞОдин Звездный камень за коробку, как вам такое? С такой ценой я легко разорюсь.</t>
         </is>
@@ -32445,7 +32445,7 @@
           <t>Right, one more thing before you go.</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
+      <c r="H708" s="0" t="inlineStr">
         <is>
           <t>ඞЛадно, еще кое-что, прежде чем ты уйдешь.</t>
         </is>
@@ -32487,7 +32487,7 @@
           <t>Get ou' o' it, mate! Do me a favor!</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
+      <c r="H709" s="0" t="inlineStr">
         <is>
           <t>ඞПрекрати, приятель! Сделай мне одолжение!</t>
         </is>
@@ -32529,7 +32529,7 @@
           <t>Didn't you find a ring in the garden?</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
+      <c r="H710" s="0" t="inlineStr">
         <is>
           <t>ඞРазве ты не нашел кольцо в саду?</t>
         </is>
@@ -32571,7 +32571,7 @@
           <t>The garden, you say? Now tha' you mention it... But you know wha' they say, finders keepers...</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
+      <c r="H711" s="0" t="inlineStr">
         <is>
           <t>ඞВы говорите, сад? Раз уж вы упомянули об этом... Но вы же знаете, как говорится, кто нашел, тот и хранит...</t>
         </is>
@@ -32613,7 +32613,7 @@
           <t>Attack</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
+      <c r="H712" s="0" t="inlineStr">
         <is>
           <t>ඞАтака</t>
         </is>
@@ -32655,7 +32655,7 @@
           <t>Hidden Room</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
+      <c r="H713" s="0" t="inlineStr">
         <is>
           <t>ඞСкрытая комната</t>
         </is>
@@ -32697,7 +32697,7 @@
           <t>The cramped room is cluttered with a hodgepodge of miscellaneous items. It seems to serve as a storage area for the staff.</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
+      <c r="H714" s="0" t="inlineStr">
         <is>
           <t>ඞТесная комната заставлена множеством разных предметов. По-видимому, она служит местом хранения для персонала.</t>
         </is>
@@ -32739,7 +32739,7 @@
           <t>You find a &lt;color=#FFD700&gt;girl&lt;/color&gt; lying on the cold floor, apparently unconscious.</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
+      <c r="H715" s="0" t="inlineStr">
         <is>
           <t>ඞВы находите &lt;color=#FFD700&gt;девушку&lt;/color&gt;, лежащую на холодном полу, по-видимому, без сознания.</t>
         </is>
@@ -32781,7 +32781,7 @@
           <t>Several &lt;color=#FFD700&gt;chests&lt;/color&gt; are scattered around her.</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
+      <c r="H716" s="0" t="inlineStr">
         <is>
           <t>ඞВокруг нее разбросано несколько сундуков &lt;color=#FFD700&gt;.</t>
         </is>
@@ -32829,7 +32829,7 @@
 Next to one chest, a shattered &lt;color=#FFD700&gt;mask&lt;/color&gt; captures your attention. Strange thing is, the broken part of the mask is akin to... a duck's footprint...?</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
+      <c r="H717" s="0" t="inlineStr">
         <is>
           <t>ඞОсмотрев сундуки, вы обнаружите реквизит, который обычно используется для украшения Дома развлечений.
 Рядом с одним из сундуков ваше внимание привлекает разбитая маска &lt;color=#FFD700&gt;. Странно то, что сломанная часть маски похожа на... утиный след...?</t>
@@ -32872,7 +32872,7 @@
           <t>Check Chest</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
+      <c r="H718" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте сундук</t>
         </is>
@@ -32926,7 +32926,7 @@
 It takes considerable effort and time before you successfully awaken the girl.</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
+      <c r="H719" s="0" t="inlineStr">
         <is>
           <t>ඞВы подходите к девушке и быстро осматриваете ее. Вы не находите никаких признаков физической травмы; похоже, она просто потеряла сознание.
 После нескольких легких толчков она остается без сознания. Но вы замечаете, что от ее тела исходит легкий красный туман, который рассеивается в окружающем воздухе.
@@ -32970,7 +32970,7 @@
           <t>Examine the Girl</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
+      <c r="H720" s="0" t="inlineStr">
         <is>
           <t>ඞОсмотрите девушку</t>
         </is>
@@ -33012,7 +33012,7 @@
           <t>Confused Girl</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
+      <c r="H721" s="0" t="inlineStr">
         <is>
           <t>ඞСмущенная девушка</t>
         </is>
@@ -33066,7 +33066,7 @@
 She casts a disoriented glance in your direction, apparently still ensnared by the languor from which she just emerged.</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
+      <c r="H722" s="0" t="inlineStr">
         <is>
           <t>ඞНаряд молодой девушки украшен некоторыми винтажными аксессуарами, намекающими на моду, которая берет свое начало в прошлом веке.
 Только что проснувшаяся и явно измученная, она пытается сесть прямо, ее тело выдает глубокую &lt;color=#FFD700&gt;слабость&lt;/color&gt;.
@@ -33110,7 +33110,7 @@
           <t>...!</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
+      <c r="H723" s="0" t="inlineStr">
         <is>
           <t>ඞ...!</t>
         </is>
@@ -33152,7 +33152,7 @@
           <t>Girl</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
+      <c r="H724" s="0" t="inlineStr">
         <is>
           <t>ඞДевочка</t>
         </is>
@@ -33194,7 +33194,7 @@
           <t>How... how did you get here?</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
+      <c r="H725" s="0" t="inlineStr">
         <is>
           <t>ඞКак... как ты сюда попал?</t>
         </is>
@@ -33236,7 +33236,7 @@
           <t>Bypassing her query, you inquire about her reasons for being in this eerie place and if she has any recollection of what happened before.</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
+      <c r="H726" s="0" t="inlineStr">
         <is>
           <t>ඞОбходя ее вопрос стороной, вы спрашиваете о причинах ее пребывания в этом жутком месте и помнит ли она что-нибудь о том, что происходило раньше.</t>
         </is>
@@ -33278,7 +33278,7 @@
           <t>I... I don't quite remember.</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
+      <c r="H727" s="0" t="inlineStr">
         <is>
           <t>ඞЯ... я не совсем помню.</t>
         </is>
@@ -33320,7 +33320,7 @@
           <t>A mask of struggle and confusion settles on the girl's face. After an agonizingly long pause, she finally begins to speak in a hesitant whisper.</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
+      <c r="H728" s="0" t="inlineStr">
         <is>
           <t>ඞНа лице девушки застывает выражение борьбы и замешательства. После мучительно долгой паузы она, наконец, начинает говорить неуверенным шепотом.</t>
         </is>
@@ -33368,7 +33368,7 @@
 I'm here to look for my parents...</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
+      <c r="H729" s="0" t="inlineStr">
         <is>
           <t>ඞМеня зовут Джойя.
 Я здесь, чтобы найти своих родителей...</t>
@@ -33411,7 +33411,7 @@
           <t>You parents are in the park too?</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
+      <c r="H730" s="0" t="inlineStr">
         <is>
           <t>ඞВаши родители тоже в парке?</t>
         </is>
@@ -33453,7 +33453,7 @@
           <t>Yes, we reside in the manor on the park's back hill. I...</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
+      <c r="H731" s="0" t="inlineStr">
         <is>
           <t>ඞДа, мы живем в поместье на заднем холме парка...</t>
         </is>
@@ -33495,7 +33495,7 @@
           <t>Suddenly, a flash of realization sparks in Gioia's eyes. She bolts upright, her gaze darting past you and scanning the surroundings anxiously. Only after confirming that they're in a relatively safe environment does she allow herself to relax slightly.</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
+      <c r="H732" s="0" t="inlineStr">
         <is>
           <t>ඞВнезапно в глазах Джойи вспыхивает озарение. Она резко выпрямляется, ее взгляд скользит мимо вас и с тревогой осматривает окрестности. Только убедившись, что они находятся в относительно безопасной обстановке, она позволяет себе немного расслабиться.</t>
         </is>
@@ -33537,7 +33537,7 @@
           <t>I remember now! There was a man with a scary mask. He's been pursuing me and confined me here!</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
+      <c r="H733" s="0" t="inlineStr">
         <is>
           <t>ඞТеперь я вспомнил! Там был человек в страшной маске. Он преследовал меня и запер здесь!</t>
         </is>
@@ -33579,7 +33579,7 @@
           <t>Gioia lowers her gaze, visibly petrified at the prospect of the menacing man lurking outside. She wrings her clothes in anxiety, before finally gathering enough courage to meet your eyes</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
+      <c r="H734" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя опускает взгляд, явно ошеломленная перспективой появления угрожающего мужчины, притаившегося снаружи. Она в тревоге выжимает одежду, прежде чем, наконец, набирается смелости встретиться с тобой взглядом</t>
         </is>
@@ -33621,7 +33621,7 @@
           <t>I know this is a sudden request... But... If it's possible, could you please escort me back to the manor?</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
+      <c r="H735" s="0" t="inlineStr">
         <is>
           <t>ඞЯ понимаю, что это неожиданная просьба... Но... Если это возможно, не могли бы вы, пожалуйста, проводить меня обратно в поместье?</t>
         </is>
@@ -33663,7 +33663,7 @@
           <t>Gioia want you to escort her back to the manor. You will...</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
+      <c r="H736" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя хочет, чтобы ты проводил ее обратно в поместье. Вы будете...</t>
         </is>
@@ -33705,7 +33705,7 @@
           <t>Accept Her Request</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
+      <c r="H737" s="0" t="inlineStr">
         <is>
           <t>ඞПримите Ее просьбу</t>
         </is>
@@ -33747,7 +33747,7 @@
           <t>You choose to extend your assistance. Gioia provides you with detailed directions to the manor.</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
+      <c r="H738" s="0" t="inlineStr">
         <is>
           <t>ඞВы сами решаете, как оказать свою помощь. Джойя предоставит вам подробную информацию о том, как добраться до поместья.</t>
         </is>
@@ -33789,7 +33789,7 @@
           <t>Just as you're about to depart, a metallic pounding echoes from beyond the door. It dawns on you that to escape this unnerving place, you must first confront and vanquish the Executioner who lurks outside.</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
+      <c r="H739" s="0" t="inlineStr">
         <is>
           <t>ඞКак только вы собираетесь уходить, из-за двери раздается металлический стук. До вас доходит, что для того, чтобы сбежать из этого пугающего места, вы должны сначала встретиться лицом к лицу с Палачом, который скрывается снаружи, и победить его.</t>
         </is>
@@ -33831,7 +33831,7 @@
           <t>Decline Her Request</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
+      <c r="H740" s="0" t="inlineStr">
         <is>
           <t>ඞОтклонить Ее Просьбу</t>
         </is>
@@ -33873,7 +33873,7 @@
           <t>You inform Gioia of the imminent danger lurking outside, suggesting it would be safer for her to remain in this location while you venture out. Only then would she be secure enough to commence her search for her parents.</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
+      <c r="H741" s="0" t="inlineStr">
         <is>
           <t>ඞВы сообщаете Джойе о неминуемой опасности, подстерегающей снаружи, предполагая, что для нее будет безопаснее оставаться в этом месте, пока вы будете выходить. Только тогда она будет в достаточной безопасности, чтобы начать поиски своих родителей.</t>
         </is>
@@ -33915,7 +33915,7 @@
           <t>Gioia nods in agreement, though her apprehension at the prospect of being left alone is evident. However, she doesn't wish to impede you in any way. From her pocket, she hands you a ruby pendant.</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
+      <c r="H742" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя кивает в знак согласия, хотя ее опасения по поводу того, что ее оставят в покое, очевидны. Однако она не хочет никоим образом препятствовать вам. Она достает из кармана рубиновый кулон.</t>
         </is>
@@ -33957,7 +33957,7 @@
           <t>Thank you... If possible, could you please deliver this pendant to my mother? I want her to know I'm safe. This will assuredly provide her some solace.</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
+      <c r="H743" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо тебе... Если возможно, не могли бы вы, пожалуйста, передать этот кулон моей маме? Я хочу, чтобы она знала, что я в безопасности. Это, несомненно, немного утешит ее.</t>
         </is>
@@ -33999,7 +33999,7 @@
           <t>You accept the pendant, tucking it safely into your backpack. When your gaze returns to where Gioia was a moment ago, you find her mysteriously vanished.</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
+      <c r="H744" s="0" t="inlineStr">
         <is>
           <t>ඞТы принимаешь кулон и надежно прячешь его в свой рюкзак. Когда твой взгляд возвращается туда, где мгновение назад была Джойя, ты обнаруживаешь, что она таинственным образом исчезла.</t>
         </is>
@@ -34041,7 +34041,7 @@
           <t>Ask about Her Past</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
+      <c r="H745" s="0" t="inlineStr">
         <is>
           <t>ඞРасспросите о Ее прошлом</t>
         </is>
@@ -34083,7 +34083,7 @@
           <t>Gate</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
+      <c r="H746" s="0" t="inlineStr">
         <is>
           <t>ඞВорота</t>
         </is>
@@ -34125,7 +34125,7 @@
           <t>Gate of the Park</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
+      <c r="H747" s="0" t="inlineStr">
         <is>
           <t>ඞВорота парка</t>
         </is>
@@ -34179,7 +34179,7 @@
 Adjacent to this poster, a &lt;color=#FFD700&gt;ticket booth&lt;/color&gt; stands alone. Its door is open, yet it remains unoccupied.</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
+      <c r="H748" s="0" t="inlineStr">
         <is>
           <t>ඞБесшумные ворота стоят у входа в устрашающе пустой парк. Это место совсем не похоже на то, что обычно можно ожидать от парка развлечений.
 Слева от ворот на стене висит гигантский плакат &lt;color=#FFD700&gt;, который, по-видимому, посвящен годовщине парка.
@@ -34223,7 +34223,7 @@
           <t>The gate is shrouded in the &lt;color=#DC143C&gt;red mist&lt;/color&gt;. Nearby, you discover the remains of a &lt;color=#FFD700&gt;disintegrated van&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
+      <c r="H749" s="0" t="inlineStr">
         <is>
           <t>ඞВорота окутаны &lt;color=#DC143C&gt;красным туманом&lt;/color&gt;. Неподалеку вы обнаруживаете останки &lt;color=#FFD700&gt; разрушенного фургона&lt;/color&gt;.</t>
         </is>
@@ -34271,7 +34271,7 @@
 As you peruse through the feedback, you're somewhat taken aback to find that most of the comments have been positive over the years. However, more recently, the complaints seem to be on the rise.</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
+      <c r="H750" s="0" t="inlineStr">
         <is>
           <t>ඞВ углу тихо стоит старая коробка с документами. Внутри нее находятся тщательно рассортированные бланки отзывов и благодарственные письма от жителей города.
 Просматривая отзывы, вы с удивлением обнаруживаете, что большинство из них были положительными на протяжении многих лет. Однако в последнее время число жалоб, по-видимому, растет.</t>
@@ -34314,7 +34314,7 @@
           <t>Feedback Form</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
+      <c r="H751" s="0" t="inlineStr">
         <is>
           <t>ඞФорма обратной связи</t>
         </is>
@@ -34374,7 +34374,7 @@
 Feb 25: My kid straight up face-planted on this messed-up road... Do something about this place's safety!</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
+      <c r="H752" s="0" t="inlineStr">
         <is>
           <t>ඞ7 января: Жратва здесь, серьезно, не на высоте. Я имею в виду, еда просто ужасная.
 9 января: Чувак, заведение разваливается. Наведи порядок!
@@ -34431,7 +34431,7 @@
 Apr 28: Can someone check if those fire extinguishers even work? Safety first, right?</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
+      <c r="H753" s="0" t="inlineStr">
         <is>
           <t>ඞ6 марта: Здешние удобства вызывают у меня беспокойство.
 15 марта: Лифты здесь? Не круто, совсем не круто. Все чертовски схематично!Они нуждаются в серьезном обновлении, например, в срочном порядке.
@@ -34491,7 +34491,7 @@
 May 30: Seriously, could you please... get off your butts and do some maintenance around here?</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
+      <c r="H754" s="0" t="inlineStr">
         <is>
           <t>ඞ9 мая: Здешний персонал совершенно не умеет себя вести!!
 15 мая: Покупка билетов на концерты превратилась в сущую пытку. Пожалуйста, разберитесь с этой неразберихой с продавцами билетов.
@@ -34535,7 +34535,7 @@
           <t>You also discover a clover in the box, seemingly tucked in alongside some positive notes. To your surprise, its leaves are as green as if freshly picked - you start to wonder just when it arrived here.</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
+      <c r="H755" s="0" t="inlineStr">
         <is>
           <t>ඞВ коробке вы также обнаруживаете клевер, который, по-видимому, спрятан рядом с какими-то позитивными нотами. К вашему удивлению, его листья такие зеленые, как будто их только что сорвали - вы начинаете удивляться, когда он появился здесь.</t>
         </is>
@@ -34577,7 +34577,7 @@
           <t>Additionally, there are some tools present. With luck, they may prove useful at some point.</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
+      <c r="H756" s="0" t="inlineStr">
         <is>
           <t>ඞКроме того, здесь представлены некоторые инструменты. Если повезет, они могут оказаться полезными в какой-то момент.</t>
         </is>
@@ -34619,7 +34619,7 @@
           <t>Check Booth Cabinet</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
+      <c r="H757" s="0" t="inlineStr">
         <is>
           <t>ඞШкаф контрольной будки</t>
         </is>
@@ -34667,7 +34667,7 @@
 Amidst this clutter, you manage to discover several &lt;color=#FFD700&gt;shiny stones&lt;/color&gt;.</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
+      <c r="H758" s="0" t="inlineStr">
         <is>
           <t>ඞВойдя в кабинку, вы быстро осматриваетесь, но внутри никого нет. На столе стоит функциональный компьютер &lt;color=#FFD700&gt;, окруженный стопками билетов и бланков.
 Среди этого беспорядка вам удается обнаружить несколько &lt;color=#FFD700&gt; блестящих камней&lt;/color&gt;.</t>
@@ -34710,7 +34710,7 @@
           <t>You pick up a &lt;color=#FFD700&gt;brochure&lt;/color&gt; from the top of a pile.</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
+      <c r="H759" s="0" t="inlineStr">
         <is>
           <t>ඞВы берете &lt;color=#FFD700&gt;брошюру&lt;/color&gt; с самого верха стопки.</t>
         </is>
@@ -34752,7 +34752,7 @@
           <t>From the computer screen, you see the ticketing system displayed. After a few clicks attempting to understand the operations carried out by the staff, you stumble upon a forum page saved in the bookmarks.</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
+      <c r="H760" s="0" t="inlineStr">
         <is>
           <t>ඞНа экране компьютера вы видите систему продажи билетов. После нескольких щелчков мышью, пытаясь разобраться в действиях персонала, вы натыкаетесь на страницу форума, сохраненную в закладках.</t>
         </is>
@@ -34794,7 +34794,7 @@
           <t>Forum</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
+      <c r="H761" s="0" t="inlineStr">
         <is>
           <t>ඞФорум</t>
         </is>
@@ -34854,7 +34854,7 @@
 &lt;color=#ebb36b&gt;#2&lt;/color&gt;No kidding? Can you spill more about that? I've got plans to swing by next month...</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
+      <c r="H762" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#da3e01&gt;[ГОРЯЧО]Кое-что о парке Фар Хоуп!&lt;/color&gt;
 &lt;color=#ebb36b&gt;#1&lt;/color&gt;Эй, фанатики Скайвела! Вы в курсе? Сразу за парком скрывается жуткое кладбище. Жутковато, да?
@@ -34911,7 +34911,7 @@
 &lt;color=#ebb36b&gt;&gt;&gt;#2&lt;/color&gt;One thing that's been burned into my memory? The name on that grave - 'Alessio.' Kinda sends shivers down your spine, doesn't it?</t>
         </is>
       </c>
-      <c r="H763" t="inlineStr">
+      <c r="H763" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#ebb36b&gt;&gt;&gt;#2&lt;/color&gt;Вот это реальный разговор. В детстве я заблудился в парке и каким-то образом наткнулся на кладбище - мне показалось, что я попал в какой-то странный лабиринт. Это не то, что можно назвать веселым времяпрепровождением, и, поймите, на улицах ходят слухи, что жуткое место все еще процветает спустя столько лет (если верить слухам).
 -----------------------
@@ -34979,7 +34979,7 @@
 &lt;color=#ebb36b&gt;#34&lt;/color&gt;Actually, get this - a buddy's pal told me it wasn't suicide at all. Dude was chucked into the lake! She swears she saw it with her very own peepers!</t>
         </is>
       </c>
-      <c r="H764" t="inlineStr">
+      <c r="H764" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#ebb36b&gt;#12&lt;/color&gt;Ходят слухи, что этот чувак прыгнул в озеро, покончив с собой... О, я слышал несколько жутких историй о красных глазах, светящихся из его глубин...
 -----------------------
@@ -35049,7 +35049,7 @@
 &lt;color=#ebb36b&gt;#78 [You]&lt;/color&gt;What??? Alessio?</t>
         </is>
       </c>
-      <c r="H765" t="inlineStr">
+      <c r="H765" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#ebb36b&gt;#47&lt;/color&gt; Ого, серьезно? Но зачем кому-то это понадобилось?
 -----------------------
@@ -35095,7 +35095,7 @@
           <t>Additionally, there are some tools present. With luck, they may prove useful at some point.</t>
         </is>
       </c>
-      <c r="H766" t="inlineStr">
+      <c r="H766" s="0" t="inlineStr">
         <is>
           <t>ඞКроме того, здесь представлены некоторые инструменты. Если повезет, они могут оказаться полезными в какой-то момент.</t>
         </is>
@@ -35137,7 +35137,7 @@
           <t>Check Booth Table</t>
         </is>
       </c>
-      <c r="H767" t="inlineStr">
+      <c r="H767" s="0" t="inlineStr">
         <is>
           <t>ඞСтол в контрольно-пропускном пункте</t>
         </is>
@@ -35185,7 +35185,7 @@
 &lt;color=#f0ddab&gt;'The Miracle of Far Hope Park is about to celebrate its 50th anniversary!'&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H768" t="inlineStr">
+      <c r="H768" s="0" t="inlineStr">
         <is>
           <t>ඞНа заднем плане изображено колесо обозрения в парке, а жирный текст гласит::
 &lt;color=#f0ddab&gt;"Чудо парка Фар Хоуп вот-вот отпразднует свое 50-летие!"&lt;/color&gt;</t>
@@ -35228,7 +35228,7 @@
           <t>&lt;color=#f0ddab&gt;Since our establishment in 1955, Far Hope Park has been dedicated to crafting a beautiful and magical space for all. We extend our deepest gratitude to every visitor for their support and affection over the years. It's been our privilege to be part of countless wonderful moments alongside you all.&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H769" t="inlineStr">
+      <c r="H769" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;С момента своего основания в 1955 году парк Фар Хоуп был посвящен созданию красивого и волшебного пространства для всех. Мы выражаем нашу глубочайшую благодарность каждому посетителю за их поддержку и привязанность на протяжении многих лет. Для нас было честью быть частью бесчисленных замечательных моментов вместе со всеми вами.&lt;/color&gt;</t>
         </is>
@@ -35276,7 +35276,7 @@
 We cordially invite all our visitors to join us in celebrating this milestone! Expect a host of surprise performances and engaging activities. We eagerly anticipate sharing these special moments with you!&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H770" t="inlineStr">
+      <c r="H770" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;15 июля мы отпразднуем наше 50-летие появлением совершенно нового аттракциона: Небесного колеса Далекой Надежды! Он поднимается на высоту 100 метров и обещает непревзойденный вид!
 Мы сердечно приглашаем всех наших посетителей присоединиться к празднованию этого знаменательного события! Вас ожидает множество сюрпризов и увлекательных мероприятий. Мы с нетерпением ждем возможности разделить с вами эти особенные моменты!&lt;/color&gt;</t>
@@ -35331,7 +35331,7 @@
 After some searching, you eventually spot the third arrow on a bench next to the can.</t>
         </is>
       </c>
-      <c r="H771" t="inlineStr">
+      <c r="H771" s="0" t="inlineStr">
         <is>
           <t>ඞНа стене рядом с плакатом вы замечаете едва различимую стрелку, на которую, казалось бы, не обращали особого внимания.
 Вы следуете за стрелкой и находите еще одну, указывающую на мусорный бак.
@@ -35381,7 +35381,7 @@
 Tracing the path of the last arrow, you arrive at a window and crouch down. To your surprise, you discover an announcement attached there, which intriguingly resembles a treasure map.</t>
         </is>
       </c>
-      <c r="H772" t="inlineStr">
+      <c r="H772" s="0" t="inlineStr">
         <is>
           <t>ඞВы следуете за стрелками и исследуете окрестности. В конце концов, вы снова оказываетесь у ворот парка.
 Следуя по последней стрелке, вы подходите к окну и приседаете на корточки. К своему удивлению, вы обнаруживаете прикрепленное к нему объявление, которое интригующе напоминает карту сокровищ.</t>
@@ -35436,7 +35436,7 @@
 Congratulations, you've uncovered the first step of our treasure hunt! This officially marks you as a bona fide treasure hunter!&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H773" t="inlineStr">
+      <c r="H773" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;*Анонс*
 Пришло время стать настоящим героем!
@@ -35492,7 +35492,7 @@
 A new adventure is on the horizon. May joy and kindness accompany you on your journey!&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
+      <c r="H774" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt; Вас ждет увлекательная охота за сокровищами!
 Извлеките меч из камня и станьте настоящим героем нашего парка!
@@ -35536,7 +35536,7 @@
           <t>Check Poster</t>
         </is>
       </c>
-      <c r="H775" t="inlineStr">
+      <c r="H775" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте плакат</t>
         </is>
@@ -35584,7 +35584,7 @@
 Upon investigating the wreckage, you find several cans of gasoline, assorted food items, and alcohol.</t>
         </is>
       </c>
-      <c r="H776" t="inlineStr">
+      <c r="H776" s="0" t="inlineStr">
         <is>
           <t>ඞГрузовик, похоже, с огромной силой врезался в стену, и красный туман, похоже, пропитал все вокруг.
 Осмотрев обломки, вы обнаружите несколько канистр с бензином, различные продукты питания и алкоголь.</t>
@@ -35627,7 +35627,7 @@
           <t>Check Truck</t>
         </is>
       </c>
-      <c r="H777" t="inlineStr">
+      <c r="H777" s="0" t="inlineStr">
         <is>
           <t>ඞПроверочный грузовик</t>
         </is>
@@ -35670,7 +35670,7 @@
           <t>In this realm teeming with life, yet shrouded in uniform tedium, the rhythm of your existence has fallen into a weary pattern. A yearning for transformation whispers from the labyrinth of your soul, but remains shackled by the monotonous chains of reality.</t>
         </is>
       </c>
-      <c r="H778" t="inlineStr">
+      <c r="H778" s="0" t="inlineStr">
         <is>
           <t>ඞВ этом царстве, изобилующем жизнью, но окутанном однообразной скукой, ритм вашего существования стал однообразным. Стремление к преображению звучит шепотом из лабиринта вашей души, но остается скованным монотонными цепями реальности.</t>
         </is>
@@ -35718,7 +35718,7 @@
 &lt;color=#84adfe&gt;"Why endure the shackles of tedium? Commit thy signature and step into a novel dimension."&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H779" t="inlineStr">
+      <c r="H779" s="0" t="inlineStr">
         <is>
           <t>ඞВ этот самый момент приходит неожиданный сюрприз: таинственная открытка темно-синего цвета, слова на которой мерцают загадочным полярным сиянием.
 &lt;color=#84adfe&gt; "Зачем терпеть оковы скуки? Поставь свою подпись и шагни в новое измерение".&lt;/color&gt;</t>
@@ -35767,7 +35767,7 @@
 In the instant your pen lifts, time freezes. The world in front of you shatters into luminescent fragments. Your perception warps, the world becomes a bizarre kaleidoscope.</t>
         </is>
       </c>
-      <c r="H780" t="inlineStr">
+      <c r="H780" s="0" t="inlineStr">
         <is>
           <t>ඞДвижимый ненасытным любопытством, вы ставите свою подпись на мистической открытке.
 В тот момент, когда вы поднимаете ручку, время замирает. Мир перед вами разлетается на светящиеся осколки. Ваше восприятие искажается, мир превращается в причудливый калейдоскоп.</t>
@@ -35816,7 +35816,7 @@
 It's as profound as the ocean deep, yet also as infinite as the cosmic void...</t>
         </is>
       </c>
-      <c r="H781" t="inlineStr">
+      <c r="H781" s="0" t="inlineStr">
         <is>
           <t>ඞВнезапно вы чувствуете, что погружаетесь, неудержимо падаете в бездну. 
 Она глубока, как океанская пучина, и в то же время бесконечна, как космическая пустота...</t>
@@ -35859,7 +35859,7 @@
           <t>When you regain your senses, you find yourself seated in an immaculate white space. The surroundings manifest as billowing walls cladded in white ophidian scales.</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
+      <c r="H782" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы придете в себя, то обнаружите, что находитесь в безукоризненно белом помещении. Окружающее пространство проявляется в виде вздымающихся стен, покрытых белой змеиной чешуей.</t>
         </is>
@@ -35901,7 +35901,7 @@
           <t>Before you, a young girl in avant-garde raiment gazes down at you.</t>
         </is>
       </c>
-      <c r="H783" t="inlineStr">
+      <c r="H783" s="0" t="inlineStr">
         <is>
           <t>ඞПеред вами молодая девушка в авангардном наряде, которая смотрит на вас сверху вниз.</t>
         </is>
@@ -35943,7 +35943,7 @@
           <t>"Interesting. This vessel managed to traverse our dimension. But whether it's useful remains to be seen."</t>
         </is>
       </c>
-      <c r="H784" t="inlineStr">
+      <c r="H784" s="0" t="inlineStr">
         <is>
           <t>ඞ- Интересно. Этому кораблю удалось пересечь наше измерение. Но пригодится ли оно, еще предстоит выяснить.</t>
         </is>
@@ -35985,7 +35985,7 @@
           <t>You hear her speaking, but fail to comprehend the events unfolding. As you muster a response, an unnerving movement catches your eye. What appeared to be mere decorative ribbons on her attire slither independently. Only then do you realize they are serpents – massive white pythons coiling around her arms.</t>
         </is>
       </c>
-      <c r="H785" t="inlineStr">
+      <c r="H785" s="0" t="inlineStr">
         <is>
           <t>ඞВы слышите, как она говорит, но не в состоянии понять, что происходит. Пока вы подбираете слова для ответа, ваше внимание привлекает тревожное движение. То, что казалось простыми декоративными лентами на ее наряде, скользит само по себе. Только тогда вы понимаете, что это змеи – огромные белые питоны, обвивающиеся вокруг ее рук.</t>
         </is>
@@ -36027,7 +36027,7 @@
           <t>One of the serpents opens its vast maw, amassing a petrifying surge of black energy. The surrounding luminous motes are magnetically drawn towards this dark vortex, followed by a terrifying bolt of white lightning striking down from above. Darkness consumes your vision. A fierce wave of vertigo engulfs you...</t>
         </is>
       </c>
-      <c r="H786" t="inlineStr">
+      <c r="H786" s="0" t="inlineStr">
         <is>
           <t>ඞОдна из змей раскрывает свою огромную пасть, собирая ошеломляющий поток черной энергии. Окружающие ее светящиеся пылинки как магнитом притягиваются к этому темному вихрю, а затем сверху ударяет ужасающая вспышка белой молнии. Темнота поглощает ваше зрение. Вас захлестывает яростная волна головокружения...</t>
         </is>
@@ -36069,7 +36069,7 @@
           <t>When the dizziness finally subsides, an alien piece of information, with no regard for your innate resistance, insinuates itself into the very core of your cerebrum:</t>
         </is>
       </c>
-      <c r="H787" t="inlineStr">
+      <c r="H787" s="0" t="inlineStr">
         <is>
           <t>ඞКогда головокружение наконец проходит, чужеродная информация, не обращая внимания на ваше врожденное сопротивление, проникает в самую сердцевину вашего мозга:</t>
         </is>
@@ -36129,7 +36129,7 @@
 As a reincarnator, your mission is to investigate the park, uncover the causes of the catastrophe, and prevent further disaster before nightfall.&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H788" t="inlineStr">
+      <c r="H788" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;Основанный в июле 1955 года, парк Фар Хоуп всегда был главным местом развлечений горожан.
 Согласно имеющимся данным, на протяжении более чем полувека парк функционировал без каких-либо серьезных инцидентов.
@@ -36180,7 +36180,7 @@
 You find yourself standing at the entrance of an amusement park.</t>
         </is>
       </c>
-      <c r="H789" t="inlineStr">
+      <c r="H789" s="0" t="inlineStr">
         <is>
           <t>ඞПосле вынужденного принятия этой загадочной информации к вам возвращается зрение, а вместе с ним и давно отсутствовавшее ощущение земного притяжения.
 Вы обнаруживаете, что стоите у входа в парк развлечений.</t>
@@ -36229,7 +36229,7 @@
 Find key clues quickly to avoid environmental deterioration or exceeding mission time.</t>
         </is>
       </c>
-      <c r="H790" t="inlineStr">
+      <c r="H790" s="0" t="inlineStr">
         <is>
           <t>ඞВо время вашего расследования на большинство действий будут потрачены &lt;color=#FFD700&gt;очки действия&lt;/color&gt;, которые указывают на неумолимый бег времени.
 Быстро находите ключевые подсказки, чтобы избежать ухудшения состояния окружающей среды или превышения времени выполнения задания.</t>
@@ -36272,7 +36272,7 @@
           <t>Everything in front of you appears frozen. Then, with a familiar routine. the world shatters into luminescent fragments. They break down further into countless particles that start to whirl around you. With a surge of vertigo, yet another piece of familiar text worms its way into your cranium.</t>
         </is>
       </c>
-      <c r="H791" t="inlineStr">
+      <c r="H791" s="0" t="inlineStr">
         <is>
           <t>ඞВсе, что находится перед вами, кажется застывшим. Затем, по знакомой рутине. мир разлетается на светящиеся осколки. Они распадаются на бесчисленные частицы, которые начинают кружиться вокруг вас. Вместе с приступом головокружения в ваш череп проникает еще один фрагмент знакомого текста.</t>
         </is>
@@ -36332,7 +36332,7 @@
 As a reincarnator, your mission is to investigate the park, uncover the causes of the catastrophe, and prevent further disaster before nightfall.&lt;/color&gt;</t>
         </is>
       </c>
-      <c r="H792" t="inlineStr">
+      <c r="H792" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;Основанный в июле 1955 года, парк Фар Хоуп всегда был главным местом развлечений горожан.
 Согласно имеющимся данным, на протяжении более чем полувека парк функционировал без каких-либо серьезных инцидентов.
@@ -36377,7 +36377,7 @@
           <t>As you regain your vision, there you stand once again before the entrance of this park.</t>
         </is>
       </c>
-      <c r="H793" t="inlineStr">
+      <c r="H793" s="0" t="inlineStr">
         <is>
           <t>ඞКогда к вам возвращается зрение, вы снова стоите перед входом в этот парк.</t>
         </is>
@@ -36419,7 +36419,7 @@
           <t>In the rule module, &lt;color=#FFD700&gt;a character can repeatedly enter the module&lt;/color&gt; until they achieve one of the "Perfect Endings". Certain clues from previous entries will be &lt;color=#FFD700&gt;"inherited"&lt;/color&gt;, affecting the course of certain events.</t>
         </is>
       </c>
-      <c r="H794" t="inlineStr">
+      <c r="H794" s="0" t="inlineStr">
         <is>
           <t>ඞВ модуле правил &lt;color=#FFD700&gt; персонаж может многократно входить в модуль&lt;/color&gt;, пока не достигнет одной из "идеальных концовок". Некоторые подсказки из предыдущих записей будут &lt;color=#FFD700&gt;"унаследованы"&lt;/color&gt; и повлияют на ход определенных событий.</t>
         </is>
@@ -36461,7 +36461,7 @@
           <t>Mansion</t>
         </is>
       </c>
-      <c r="H795" t="inlineStr">
+      <c r="H795" s="0" t="inlineStr">
         <is>
           <t>ඞОсобняк</t>
         </is>
@@ -36515,7 +36515,7 @@
 And, according to how this kind of building is usually laid out, the owner's &lt;color=#FFD700&gt;bedroom&lt;/color&gt; should be on the third floor.</t>
         </is>
       </c>
-      <c r="H796" t="inlineStr">
+      <c r="H796" s="0" t="inlineStr">
         <is>
           <t>ඞВы стоите в вестибюле на втором этаже, осматривая окрестности. Слева от вас открытая дверь, ведущая в комнату с несколькими книжными полками. Похоже, это может быть кабинет владельца &lt;color=#FFD700&gt;&lt;/color&gt;.
 Взглянув вверх с лестничной площадки, вы увидите &lt;color=#FFD700&gt;коридор&lt;/color&gt; на втором этаже с окнами, из которых открывается вид на улицу.
@@ -36577,7 +36577,7 @@
 In the corridor, a &lt;color=#DC143C&gt;portrait&lt;/color&gt; oozes vivid red liquid.</t>
         </is>
       </c>
-      <c r="H797" t="inlineStr">
+      <c r="H797" s="0" t="inlineStr">
         <is>
           <t>ඞОсобняк окутан красным туманом, и стало намного холоднее, что-то вроде &lt;color=#DC143C&gt; жутковато&lt;/color&gt;.
 Вы перепробовали все двери в доме, но ни одна из них не открывается.
@@ -36628,7 +36628,7 @@
 On the desk, you discover a "letter".</t>
         </is>
       </c>
-      <c r="H798" t="inlineStr">
+      <c r="H798" s="0" t="inlineStr">
         <is>
           <t>ඞПол в кабинете завален предметами, похожими на пыточные, плюс повсюду брызги крови. На стенах следы огнестрельного оружия.
 На письменном столе вы обнаруживаете "письмо".</t>
@@ -36671,7 +36671,7 @@
           <t>Letter</t>
         </is>
       </c>
-      <c r="H799" t="inlineStr">
+      <c r="H799" s="0" t="inlineStr">
         <is>
           <t>ඞПисьмо</t>
         </is>
@@ -36719,7 +36719,7 @@
 First of all, I'd like to express my gratitude to you. Since you joined the park, your talent and skills have brought us countless wonderful memories. Thanks to your hard work, the park has also received numerous positive feedback and praises.</t>
         </is>
       </c>
-      <c r="H800" t="inlineStr">
+      <c r="H800" s="0" t="inlineStr">
         <is>
           <t>ඞдорогой алекс,
 Прежде всего, я хотел бы выразить вам свою благодарность. С тех пор как вы присоединились к работе в парке, ваш талант и мастерство подарили нам множество прекрасных воспоминаний. Благодаря вашему упорному труду парк также получил множество положительных отзывов и похвал.</t>
@@ -36762,7 +36762,7 @@
           <t>Regarding the treasure hunt event you proposed, I've consulted with the vendors, and they assure me that all the props will be completed and installed before the celebration. I have emphasized that safety is the top priority, especially for the Great Sword in the square. Please do not forget to double confirm whether the statue in Fun House has the right-sized hole in its chest for the Great Sword.</t>
         </is>
       </c>
-      <c r="H801" t="inlineStr">
+      <c r="H801" s="0" t="inlineStr">
         <is>
           <t>ඞЧто касается мероприятия по поиску сокровищ, которое вы предложили, я проконсультировался с продавцами, и они заверили меня, что весь реквизит будет готов и установлен до начала празднования. Я подчеркнул, что безопасность является главным приоритетом, особенно для Большого меча на площади. Пожалуйста, не забудьте еще раз подтвердить, есть ли в груди статуи в "Доме веселья" отверстие подходящего размера для Большого меча.</t>
         </is>
@@ -36810,7 +36810,7 @@
 We can discuss more details later. I'm pretty sure this event will attract more visitors.</t>
         </is>
       </c>
-      <c r="H802" t="inlineStr">
+      <c r="H802" s="0" t="inlineStr">
         <is>
           <t>ඞКроме того, вы можете попросить рабочих соорудить над статуей в кафетерии небольшой навес, чтобы дождь не влиял на электрические цепи.
 Более подробную информацию мы обсудим позже. Я уверен, что это мероприятие привлечет больше посетителей.</t>
@@ -36868,7 +36868,7 @@
 Rosalind</t>
         </is>
       </c>
-      <c r="H803" t="inlineStr">
+      <c r="H803" s="0" t="inlineStr">
         <is>
           <t>ඞНаконец, я хочу сообщить вам о важном решении. Все эти годы я всегда доверял вашим способностям, поэтому решил передать управление парком вам. Я надеюсь, что вы и дальше будете радовать всех своим энтузиазмом.
 Если у вас возникнут какие-либо вопросы или вам потребуется дальнейшее обсуждение, пожалуйста, не стесняйтесь обращаться ко мне.
@@ -36913,7 +36913,7 @@
           <t>Check Study</t>
         </is>
       </c>
-      <c r="H804" t="inlineStr">
+      <c r="H804" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте учебу</t>
         </is>
@@ -36961,7 +36961,7 @@
 Through the window on the other side, you see a breathtaking view of a beautiful lake outside the manor. The lake glints, sparkling with glimmers of light. As you gaze at it for a while, dizziness overwhelms you, and you instinctively grab onto the wall to steady yourself.</t>
         </is>
       </c>
-      <c r="H805" t="inlineStr">
+      <c r="H805" s="0" t="inlineStr">
         <is>
           <t>ඞВы выходите в коридор и замечаете портрет, висящий на одной стороне стены.
 Через окно с другой стороны открывается захватывающий вид на красивое озеро за пределами поместья. Озеро сверкает, переливаясь отблесками света. Когда вы некоторое время смотрите на это, вас охватывает головокружение, и вы инстинктивно хватаетесь за стену, чтобы не упасть.</t>
@@ -37004,7 +37004,7 @@
           <t>Check Corridor</t>
         </is>
       </c>
-      <c r="H806" t="inlineStr">
+      <c r="H806" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте коридор</t>
         </is>
@@ -37058,7 +37058,7 @@
 Clearly, the body has been carefully arranged. She looks serene. And there are traces of oil paint on the bed.</t>
         </is>
       </c>
-      <c r="H807" t="inlineStr">
+      <c r="H807" s="0" t="inlineStr">
         <is>
           <t>ඞВы открываете дверь спальни и обнаруживаете "труп", лежащий на кровати. Быстрый осмотр показывает, что она убита выстрелом в грудь.
 На пальце у нее кольцо &lt;color=#DC143C&gt;, но драгоценный камень на нем разбит.
@@ -37102,7 +37102,7 @@
           <t>Check Bedroom</t>
         </is>
       </c>
-      <c r="H808" t="inlineStr">
+      <c r="H808" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте спальню</t>
         </is>
@@ -37144,7 +37144,7 @@
           <t>You notice that the lady in the portrait bears a striking resemblance to Gioia. Just as you're about to ask Gioia about it, you realize she has mysteriously disappeared.</t>
         </is>
       </c>
-      <c r="H809" t="inlineStr">
+      <c r="H809" s="0" t="inlineStr">
         <is>
           <t>ඞВы замечаете, что дама на портрете поразительно похожа на Джойю. Как раз в тот момент, когда вы собираетесь спросить Джойю об этом, вы понимаете, что она таинственным образом исчезла.</t>
         </is>
@@ -37198,7 +37198,7 @@
 As the light from outside the window refracts onto the portrait, however, the once serene image begins to ripple, and the soft smiling face begins to distort.</t>
         </is>
       </c>
-      <c r="H810" t="inlineStr">
+      <c r="H810" s="0" t="inlineStr">
         <is>
           <t>ඞНа портрете изображена прекрасная дама с небольшой надписью в правом нижнем углу, которая гласит: "Моей дорогой Розе".
 Она необыкновенно красива, она сидит с элегантными и грациозными манерами, на ее губах играет нежная улыбка.
@@ -37242,7 +37242,7 @@
           <t>Just as you're about to take a closer look at the portrait, a chilling, rensentful voice whispers in your ear.</t>
         </is>
       </c>
-      <c r="H811" t="inlineStr">
+      <c r="H811" s="0" t="inlineStr">
         <is>
           <t>ඞКак только вы собираетесь рассмотреть портрет поближе, леденящий душу, пронзительный голос шепчет вам на ухо.</t>
         </is>
@@ -37284,7 +37284,7 @@
           <t>Weird Portrait</t>
         </is>
       </c>
-      <c r="H812" t="inlineStr">
+      <c r="H812" s="0" t="inlineStr">
         <is>
           <t>ඞСтранный портрет</t>
         </is>
@@ -37326,7 +37326,7 @@
           <t>You see a withered, bony hand emerging from the portrait, her nails tightly gripping the frame. Then, half of a contorted face appears, with dark, hollow eye filled with resentment and anguish. It's Rosa! She stares at you with intense hatred and bitterness, her semi-transparent figure eerily crawling out of the portrait.</t>
         </is>
       </c>
-      <c r="H813" t="inlineStr">
+      <c r="H813" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите, как из-под портрета появляется иссохшая, костлявая рука, ее ногти крепко вцепились в раму. Затем появляется половина искаженного лица с темными, ввалившимися глазами, полными обиды и страдания. Это Роза! Она смотрит на вас с лютой ненавистью и горечью, ее полупрозрачная фигура устрашающе выползает из портрета.</t>
         </is>
@@ -37368,7 +37368,7 @@
           <t>Check Portrait</t>
         </is>
       </c>
-      <c r="H814" t="inlineStr">
+      <c r="H814" s="0" t="inlineStr">
         <is>
           <t>ඞПроверьте портрет</t>
         </is>
@@ -37410,7 +37410,7 @@
           <t>You're about to make major discoveries</t>
         </is>
       </c>
-      <c r="H815" t="inlineStr">
+      <c r="H815" s="0" t="inlineStr">
         <is>
           <t>ඞВы на пороге важных открытий</t>
         </is>
@@ -37452,7 +37452,7 @@
           <t>Streams of sanguineous vapor bleed from every nook and cranny of the room, encircling you inside their cage.</t>
         </is>
       </c>
-      <c r="H816" t="inlineStr">
+      <c r="H816" s="0" t="inlineStr">
         <is>
           <t>ඞПотоки кровавого пара вырываются из каждого уголка комнаты, окружая вас внутри своей клетки.</t>
         </is>
@@ -37500,7 +37500,7 @@
 You desperately drag yourself to the doorway, but something holds fast to your ankle as you lose your balance. Spectral limbs formed by the mist lock you down, screaming their venomous malice and agony. You fight helplessly as the abominations pull you toward the bottomless hell.</t>
         </is>
       </c>
-      <c r="H817" t="inlineStr">
+      <c r="H817" s="0" t="inlineStr">
         <is>
           <t>ඞТрещины поднимаются по потолку, когда их рассеченные внутренности разрывают стены. Затем раздается оглушительный грохот, за которым следует проваливающийся пол, который затягивает вас под себя.
 Вы отчаянно тащитесь к дверному проему, но что-то крепко держит вас за лодыжку, и вы теряете равновесие. Призрачные конечности, сформированные туманом, сковывают вас, издавая вопли своей ядовитой злобы и агонии. Вы беспомощно сражаетесь, пока мерзости тянут вас в бездонный ад.</t>
@@ -37543,7 +37543,7 @@
           <t>Despair engulfs you as you descend into the depths of unknown terror. The fingers that are scorching your skin, the grasp that is dragging you by your hair... Your cries are left unheard as madness brands your soul.</t>
         </is>
       </c>
-      <c r="H818" t="inlineStr">
+      <c r="H818" s="0" t="inlineStr">
         <is>
           <t>ඞОтчаяние охватывает тебя, когда ты погружаешься в глубины неизведанного ужаса. Пальцы, обжигающие твою кожу, хватка, которая тянет тебя за волосы... Твои крики остаются неуслышанными, когда безумие овладевает твоей душой.</t>
         </is>
@@ -37588,7 +37588,7 @@
 Everything fades out in the next second.</t>
         </is>
       </c>
-      <c r="H819" t="inlineStr">
+      <c r="H819" s="0" t="inlineStr">
         <is>
           <t>ඞКрасный свет наполняет ваше зрение своим жутким цветом на дне бездны. Огромная кровавая луна.
 В следующую секунду все исчезает.</t>
@@ -37631,7 +37631,7 @@
           <t>Gioia also sees the body in the bedroom. She lets out a shocked cry, taking a few steps back and hiding behind you.</t>
         </is>
       </c>
-      <c r="H820" t="inlineStr">
+      <c r="H820" s="0" t="inlineStr">
         <is>
           <t>ඞДжойя тоже видит тело в спальне. Она потрясенно вскрикивает, отступает на несколько шагов и прячется за твоей спиной.</t>
         </is>
@@ -37673,7 +37673,7 @@
           <t>What...?! A dead body! Who's this?!</t>
         </is>
       </c>
-      <c r="H821" t="inlineStr">
+      <c r="H821" s="0" t="inlineStr">
         <is>
           <t>ඞЧто?! Мертвое тело! Кто это?!</t>
         </is>
@@ -37715,7 +37715,7 @@
           <t>Shortly after, Gioia knits her brows in a baffled frown, as if she's looking at something inexplicable.</t>
         </is>
       </c>
-      <c r="H822" t="inlineStr">
+      <c r="H822" s="0" t="inlineStr">
         <is>
           <t>ඞВскоре после этого Джойя озадаченно хмурит брови, как будто смотрит на что-то необъяснимое.</t>
         </is>
@@ -37757,7 +37757,7 @@
           <t>This is... mother's... clothes... And it's mother's ring...</t>
         </is>
       </c>
-      <c r="H823" t="inlineStr">
+      <c r="H823" s="0" t="inlineStr">
         <is>
           <t>ඞЭто... мамино... одежда... И это мамино кольцо...</t>
         </is>
@@ -37799,7 +37799,7 @@
           <t>A possibility suddenly pops into Gioia's head. She stares at the bed, muttering to herself in a daze.</t>
         </is>
       </c>
-      <c r="H824" t="inlineStr">
+      <c r="H824" s="0" t="inlineStr">
         <is>
           <t>ඞВнезапно Джойе в голову приходит одна мысль. Она ошеломленно смотрит на кровать, бормоча что-то себе под нос.</t>
         </is>
@@ -37847,7 +37847,7 @@
 No, it can't be! How could my mother have aged so much all of sudden!</t>
         </is>
       </c>
-      <c r="H825" t="inlineStr">
+      <c r="H825" s="0" t="inlineStr">
         <is>
           <t>ඞЭто мама?..
 Нет, этого не может быть! Как могла моя мама так внезапно постареть!</t>
@@ -37890,7 +37890,7 @@
           <t>Her face blanches. You hear that strange, faint cracking sound again.</t>
         </is>
       </c>
-      <c r="H826" t="inlineStr">
+      <c r="H826" s="0" t="inlineStr">
         <is>
           <t>ඞЕе лицо бледнеет. Вы снова слышите этот странный, слабый треск.</t>
         </is>
@@ -37932,7 +37932,7 @@
           <t>The entire house begins to shake violently, as if it might collapse at any moment.</t>
         </is>
       </c>
-      <c r="H827" t="inlineStr">
+      <c r="H827" s="0" t="inlineStr">
         <is>
           <t>ඞВесь дом начинает сильно трястись, как будто он может рухнуть в любой момент.</t>
         </is>
@@ -37980,7 +37980,7 @@
 Where she stood is now all but empty, with only a blood-red pendant left on the floor.</t>
         </is>
       </c>
-      <c r="H828" t="inlineStr">
+      <c r="H828" s="0" t="inlineStr">
         <is>
           <t>ඞКак только вы собираетесь что-то предпринять, Джойя исчезает. Дом перестает трястись и возвращается к прежней тишине.
 Там, где она стояла, теперь почти пусто, и только кроваво-красный кулон валяется на полу.</t>
@@ -38023,7 +38023,7 @@
           <t>Examine the body</t>
         </is>
       </c>
-      <c r="H829" t="inlineStr">
+      <c r="H829" s="0" t="inlineStr">
         <is>
           <t>ඞОсмотрите тело</t>
         </is>
@@ -38065,7 +38065,7 @@
           <t>While you're exploring the mansion, the door behind you mysteriously shuts at some time. The view outside becomes strange and surreal. You see drips of water winding upward on the window pane, as if the house and you are sinking into the lake.</t>
         </is>
       </c>
-      <c r="H830" t="inlineStr">
+      <c r="H830" s="0" t="inlineStr">
         <is>
           <t>ඞПока вы осматриваете особняк, дверь за вашей спиной таинственным образом закрывается. Вид за окном становится странным и сюрреалистичным. Вы видите, как капли воды стекают по оконному стеклу, как будто дом и вы погружаетесь в озеро.</t>
         </is>
@@ -38107,7 +38107,7 @@
           <t>The red mist flickers for a moment, then like a movie playing on a screen, it conjures up scenes from the past. The perspective is from inside the mansion's study, giving you a glimpse of what truly happened here.</t>
         </is>
       </c>
-      <c r="H831" t="inlineStr">
+      <c r="H831" s="0" t="inlineStr">
         <is>
           <t>ඞКрасный туман мерцает на мгновение, а затем, словно в кино, воспроизводимом на экране, возникают сцены из прошлого. Снимок сделан из кабинета особняка, что дает вам представление о том, что на самом деле здесь происходило.</t>
         </is>
@@ -38149,7 +38149,7 @@
           <t>You see Rosa at her desk, scanning through some documents. She mutters to herself with an indignant expression:</t>
         </is>
       </c>
-      <c r="H832" t="inlineStr">
+      <c r="H832" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите Розу за ее столом, просматривающую какие-то документы. Она что-то бормочет себе под нос с возмущенным выражением лица:</t>
         </is>
@@ -38191,7 +38191,7 @@
           <t>Giving up like this doesn't look like the &lt;i&gt;Vesconte&lt;/i&gt; way...</t>
         </is>
       </c>
-      <c r="H833" t="inlineStr">
+      <c r="H833" s="0" t="inlineStr">
         <is>
           <t>ඞСдаваться подобным образом не похоже на путь Весконте...</t>
         </is>
@@ -38239,7 +38239,7 @@
 With a stiff, grim face, Rosa watches as they slap a park transfer agreement onto the table. They smirk mockingly:</t>
         </is>
       </c>
-      <c r="H834" t="inlineStr">
+      <c r="H834" s="0" t="inlineStr">
         <is>
           <t>ඞВнезапно дверь распахивается, и входят три фигуры в черном, волоча за собой Паскуалино.
 Роза с застывшим, мрачным выражением лица наблюдает, как они кладут на стол соглашение о передаче парка. Они насмешливо ухмыляются:</t>
@@ -38282,7 +38282,7 @@
           <t>What matters more, ma'am? Family or property? You better think hard about it.</t>
         </is>
       </c>
-      <c r="H835" t="inlineStr">
+      <c r="H835" s="0" t="inlineStr">
         <is>
           <t>ඞЧто важнее, мэм? Семья или собственность? Вам лучше хорошенько подумать об этом.</t>
         </is>
@@ -38324,7 +38324,7 @@
           <t>You witness as Rosa's forced to sign the park over, their threat against Pasqualino's life leaving her no choice.</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
+      <c r="H836" s="0" t="inlineStr">
         <is>
           <t>ඞВы становитесь свидетелем того, как Розу вынуждают передать парк в аренду, а их угроза жизни Паскуалино не оставляет ей выбора.</t>
         </is>
@@ -38366,7 +38366,7 @@
           <t>The Vesconte men gaze contentedly at the agreement, while one of them pulls out a gun and fires at Rosa. She stumbles, then crash-lands heavily on the floor.</t>
         </is>
       </c>
-      <c r="H837" t="inlineStr">
+      <c r="H837" s="0" t="inlineStr">
         <is>
           <t>ඞМужчины Весконте удовлетворенно смотрят на соглашение, в то время как один из них достает пистолет и стреляет в Розу. Она спотыкается и тяжело приземляется на пол.</t>
         </is>
@@ -38408,7 +38408,7 @@
           <t>Pasqualino bellows in agonizing despair. In all the chaos, nobody notices the wisp of red mist drifting from Rosa's blood-streaked ring, finding its way inside him. To everyone's astonishment, Pasqualino struggles to his feet.</t>
         </is>
       </c>
-      <c r="H838" t="inlineStr">
+      <c r="H838" s="0" t="inlineStr">
         <is>
           <t>ඞПаскуалино ревет в агонии и отчаянии. Во всем этом хаосе никто не замечает, как струйка красного тумана, поднимающаяся с окровавленного кольца Розы, попадает внутрь него. Ко всеобщему изумлению, Паскуалино с трудом поднимается на ноги.</t>
         </is>
@@ -38450,7 +38450,7 @@
           <t>Their honed sense of danger kicks in, prompting the three to bolt. You watch as Pasqualino roars and howls and chases after them. Shortly after, the outside echoes with their terrified screams, followed by the sounds of bodies being dragged...</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
+      <c r="H839" s="0" t="inlineStr">
         <is>
           <t>ඞИх обостренное чувство опасности заставляет всех троих спасаться бегством. Вы наблюдаете, как Паскуалино с ревом бросается в погоню за ними. Вскоре после этого снаружи раздаются их испуганные крики, а затем звуки тащимых тел...</t>
         </is>
@@ -38492,7 +38492,7 @@
           <t>Approach Red Mist</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
+      <c r="H840" s="0" t="inlineStr">
         <is>
           <t>ඞПриближающийся Красный туман</t>
         </is>
@@ -38534,7 +38534,7 @@
           <t>The Wraith</t>
         </is>
       </c>
-      <c r="H841" t="inlineStr">
+      <c r="H841" s="0" t="inlineStr">
         <is>
           <t>ඞПризрак</t>
         </is>
@@ -38576,7 +38576,7 @@
           <t>The wraith writhes on the floor, letting out agonizing wails. Streams of sanguineous vapor bleed from every nook and cranny of the room, encircling you inside their cage.</t>
         </is>
       </c>
-      <c r="H842" t="inlineStr">
+      <c r="H842" s="0" t="inlineStr">
         <is>
           <t>ඞПризрак корчится на полу, издавая мучительные вопли. Потоки кровавого пара вырываются из каждого уголка комнаты, окружая вас внутри своей клетки.</t>
         </is>
@@ -38618,7 +38618,7 @@
           <t>The walls creak open with a resounding crack. Cracks climb onto the ceiling as their fissured craws tear apart the walls. The floor violently trembles and then comes a deafening rumble, followed by the sinking floor that's trying to pull you under.</t>
         </is>
       </c>
-      <c r="H843" t="inlineStr">
+      <c r="H843" s="0" t="inlineStr">
         <is>
           <t>ඞСтены с оглушительным треском расходятся. Трещины поднимаются по потолку, разрывая стены. Пол сильно дрожит, а затем раздается оглушительный грохот, за которым следует проваливающийся пол, который пытается утянуть вас под себя.</t>
         </is>
@@ -38660,7 +38660,7 @@
           <t>You desperately drag yourself to the doorway, but something locks you down fast. Rosa's tormented wraith reforms from the collapsed floor. Her withered hand clutches your ankle tightly, her hollow eyes brimming with malevolence. She's like an obsessive force from the depths of hell, screaming her venomous malice and agony, determined to pull you toward the endless abyss.</t>
         </is>
       </c>
-      <c r="H844" t="inlineStr">
+      <c r="H844" s="0" t="inlineStr">
         <is>
           <t>ඞТы отчаянно тащишься к дверному проему, но что-то быстро удерживает тебя на месте. Измученный призрак Розы поднимается с обвалившегося пола. Ее иссохшая рука крепко сжимает твою лодыжку, а ввалившиеся глаза полны злобы. Она подобна одержимой силе из глубин ада, кричащей о своей ядовитой злобе и агонии, полной решимости утянуть вас в бесконечную бездну.</t>
         </is>
@@ -38702,7 +38702,7 @@
           <t>Just as you're about to be pulled into darkness, a streak of light shoots out from the ring.</t>
         </is>
       </c>
-      <c r="H845" t="inlineStr">
+      <c r="H845" s="0" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вас вот-вот утянет в темноту, из кольца вырывается полоса света.</t>
         </is>
@@ -38756,7 +38756,7 @@
 Rosa shudders at that familiar touch and lifts her gaze to meet his.</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
+      <c r="H846" s="0" t="inlineStr">
         <is>
           <t>ඞВ луче света появляется силуэт человека. Постепенно он превращается в полупрозрачного духа.
 Он подходит к Розе, которая все еще корчится в агонии. Нежно берет ее за руку.
@@ -38800,7 +38800,7 @@
           <t>As she does, swirls of red mist seep out from her form. It's like watching the magic of time unfurling backwards. Her wrinkles smooth out. Her dull white hair regains its lustrous sheen. She blossoms back to the serene beauty from the portrait - the woman Alessio had loved so deeply.</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
+      <c r="H847" s="0" t="inlineStr">
         <is>
           <t>ඞКогда она это делает, от ее фигуры исходят завитки красного тумана. Это похоже на то, как будто волшебство времени разворачивается вспять. Ее морщины разглаживаются. Ее тусклые белые волосы вновь обретают свой блеск. Она расцветает, возвращаясь к безмятежной красоте с портрета, - женщина, которую Алессио так сильно любил.</t>
         </is>
@@ -38842,7 +38842,7 @@
           <t>Their loving gazes meet, years of longing and unspoken words melting away in that one look. Alessio pulls Rosalind into an intimate embrace, their spirits intertwining in an ethereal dance. This pair of lovers, separated by death and decades, are finally reunited in this moment.</t>
         </is>
       </c>
-      <c r="H848" t="inlineStr">
+      <c r="H848" s="0" t="inlineStr">
         <is>
           <t>ඞИх влюбленные взгляды встречаются, и годы тоски и невысказанных слов тают в одном этом взгляде. Алессио заключает Розалинду в интимные объятия, их души сплетаются в неземном танце. Эта пара влюбленных, разделенных смертью и десятилетиями, наконец-то воссоединилась в этот момент.</t>
         </is>
@@ -38884,7 +38884,7 @@
           <t>Countless specks of radiant light take flight from their translucent forms, twinkling softly like fireflies, yet also like stars scattered across the cosmos, shimmering with warm soothing glow. Their bodies grow more transparent with every departing shimmer until, eventually, they fade away into the ether.</t>
         </is>
       </c>
-      <c r="H849" t="inlineStr">
+      <c r="H849" s="0" t="inlineStr">
         <is>
           <t>ඞБесчисленные искорки сияющего света разлетаются от их полупрозрачных форм, мягко мерцая, как светлячки, и в то же время как звезды, рассеянные по космосу, излучают теплое успокаивающее сияние. Их тела становятся все более прозрачными с каждым исчезающим мерцанием, пока, в конце концов, они не растворяются в эфире.</t>
         </is>
@@ -38926,7 +38926,7 @@
           <t>The lingering red mist, now devoid of a host, begins to disperse. Serenity is restored. An antique ring falls from the air, clattering down next to your feet.</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
+      <c r="H850" s="0" t="inlineStr">
         <is>
           <t>ඞЗатянувшийся красный туман, теперь лишенный хозяина, начинает рассеиваться. Спокойствие восстанавливается. Из воздуха падает старинное кольцо и с грохотом падает к вашим ногам.</t>
         </is>
@@ -38968,7 +38968,7 @@
           <t>As the red mist clears, you see a path leading to the lake behind the mansion.</t>
         </is>
       </c>
-      <c r="H851" t="inlineStr">
+      <c r="H851" s="0" t="inlineStr">
         <is>
           <t>ඞКогда красный туман рассеивается, вы видите тропинку, ведущую к озеру за особняком.</t>
         </is>
@@ -39022,7 +39022,7 @@
 Driven by insatiable curiosity, you commit your signature on the mystical card.</t>
         </is>
       </c>
-      <c r="H852" t="inlineStr">
+      <c r="H852" s="0" t="inlineStr">
         <is>
           <t>ඞЗатем вас ждет неожиданный сюрприз: таинственная открытка темно-синего цвета, излучающая слабое потустороннее сияние.
 "Устали от обыденности? Хотите попробовать что-то необычное? Подпишите свое имя и проживите свою вторую жизнь".
@@ -39072,7 +39072,7 @@
 Your perception warps, the world becomes a bizarre kaleidoscope. Your consciousness feels like a dammed river, and suddenly, you’re plunging, falling uncontrollably into an abyss as profound as the ocean deep, yet also as infinite as the cosmic void...</t>
         </is>
       </c>
-      <c r="H853" t="inlineStr">
+      <c r="H853" s="0" t="inlineStr">
         <is>
           <t>ඞВ тот момент, когда вы поднимаете ручку, время замирает. Мир перед вами разлетается на светящиеся осколки. Они распадаются на бесчисленные частицы, которые начинают кружиться вокруг вас, прежде чем раствориться в бесконечной пустоте.
 Ваше восприятие искажается, мир превращается в причудливый калейдоскоп. Ваше сознание ощущается как запруженная река, и внезапно вы погружаетесь, неудержимо падаете в пропасть, глубокую, как океанские глубины, и в то же время бесконечную, как космическая пустота...</t>
@@ -39121,7 +39121,7 @@
 "Interesting. This vessel managed to traverse our dimension. But whether it's useful remains to be seen."</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
+      <c r="H854" s="0" t="inlineStr">
         <is>
           <t>ඞПеред вами молодая девушка в авангардном наряде, которая смотрит на вас сверху вниз.
 "Интересно. Этому кораблю удалось пересечь наше измерение. Но пригодится ли оно, еще предстоит выяснить".</t>
@@ -39164,7 +39164,7 @@
           <t>Your obstructed awareness seems to start flowing again. You hear her speaking but fail to comprehend the events unfolding. As you muster a response, an unnerving movement catches your eye. What appeared to be mere decorative ribbons on her attire slither independently. Only then do you realize they are serpents – massive white pythons coiling around her arms.</t>
         </is>
       </c>
-      <c r="H855" t="inlineStr">
+      <c r="H855" s="0" t="inlineStr">
         <is>
           <t>ඞВаше заторможенное сознание, кажется, снова начинает проясняться. Вы слышите, как она говорит, но не в состоянии осмыслить происходящие события. Пока вы подбираете слова для ответа, ваше внимание привлекает нервирующее движение. То, что казалось простыми декоративными лентами на ее наряде, скользит само по себе. Только тогда вы понимаете, что это змеи – огромные белые питоны, обвивающиеся вокруг ее рук.</t>
         </is>
@@ -39206,7 +39206,7 @@
           <t>One of the serpents opens its vast maw, amassing a petrifying surge of black energy. The surrounding luminous motes are magnetically drawn towards this dark vortex. You feel the mystical lights twining around you, followed by a terrifying bolt of white lightning striking down from above. Darkness consumes your vision, and once again, you find yourself suspended between the abyssal deep or the cosmic void, a fierce wave of vertigo engulfing you...</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
+      <c r="H856" s="0" t="inlineStr">
         <is>
           <t>ඞОдна из змей раскрывает свою огромную пасть, накапливая ошеломляющий поток черной энергии. Окружающие ее светящиеся пылинки как магнитом притягиваются к этому темному вихрю. Вы чувствуете, как вокруг вас кружатся мистические огни, а затем сверху ударяет ужасающая вспышка белой молнии. Темнота поглощает ваше зрение, и вы снова оказываетесь подвешенным между бездонной пропастью и космической пустотой, и вас захлестывает яростная волна головокружения...</t>
         </is>
@@ -39266,7 +39266,7 @@
 As a reincarnator, your mission is to investigate the park, uncover the causes of the catastrophe, and prevent further disaster before nightfall.</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
+      <c r="H857" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#f0ddab&gt;Основанный в июле 1955 года, парк Фар Хоуп всегда был главным местом развлечений горожан.
 Согласно имеющимся данным, на протяжении более чем полувека парк функционировал без каких-либо серьезных инцидентов.
@@ -39317,7 +39317,7 @@
 Find key clues quickly to advance the investigation and avoid environmental deterioration or exceeding mission time.</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
+      <c r="H858" s="0" t="inlineStr">
         <is>
           <t>ඞВо время расследования на выполнение большинства действий будут потрачены очки, которые указывают на неумолимый ход времени. Их можно проверить в разделе "Подробности о действиях".
 Быстро находите ключевые подсказки, чтобы продвигать расследование и избежать ухудшения состояния окружающей среды или превышения времени выполнения задания.</t>
@@ -39366,7 +39366,7 @@
 Try different actions across multiple entries until you ultimately reach a "Perfect Ending."</t>
         </is>
       </c>
-      <c r="H859" t="inlineStr">
+      <c r="H859" s="0" t="inlineStr">
         <is>
           <t>ඞВ модуле "Правила" персонаж может повторно входить в модуль, пока не достигнет одной из "идеальных концовок". Некоторые подсказки из предыдущих записей будут "унаследованы", что повлияет на ход определенных событий.
 Попробуйте разные действия в нескольких записях, пока в конечном итоге не достигнете "Идеальной концовки".</t>
@@ -39409,7 +39409,7 @@
           <t>Aforgomon</t>
         </is>
       </c>
-      <c r="H860" t="inlineStr">
+      <c r="H860" s="0" t="inlineStr">
         <is>
           <t>Афоргомон</t>
         </is>
@@ -39457,7 +39457,7 @@
 He likes the life he's having now.</t>
         </is>
       </c>
-      <c r="H861" t="inlineStr">
+      <c r="H861" s="0" t="inlineStr">
         <is>
           <t>ඞПозже он приютил бездомного кота и в свободное время просматривает новую мангу в местном книжном магазине.
 Ему нравится та жизнь, которую он ведет сейчас.</t>
@@ -39536,7 +39536,7 @@
 ＼二つ</t>
         </is>
       </c>
-      <c r="H862" t="inlineStr">
+      <c r="H862" s="0" t="inlineStr">
         <is>
           <t>ඞ／＞---- フ
 / ⊙ ⊙ л
@@ -39584,7 +39584,7 @@
           <t>As if having received the command, the serpent entangling her other arm erects from its prone position. The red crystal soon finds its new home inside the serpent's maw.</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
+      <c r="H863" s="0" t="inlineStr">
         <is>
           <t>ඞСловно получив команду, змея, обвивающая ее вторую руку, выпрямляется из положения лежа. Красный кристалл вскоре находит свое новое пристанище в пасти змеи.</t>
         </is>
